--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -481,17 +481,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.1727</t>
+          <t>0.9919</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.049</t>
+          <t>0.964</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.312</t>
+          <t>1.020</t>
         </is>
       </c>
     </row>
@@ -504,17 +504,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9186</t>
+          <t>0.9509</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.707</t>
+          <t>0.732</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.193</t>
+          <t>1.236</t>
         </is>
       </c>
     </row>
@@ -527,17 +527,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.7849</t>
+          <t>0.7677</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.684</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.881</t>
+          <t>0.862</t>
         </is>
       </c>
     </row>
@@ -550,17 +550,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8212</t>
+          <t>0.8327</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.758</t>
+          <t>0.768</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.890</t>
+          <t>0.903</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.1888</t>
+          <t>1.0673</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.097</t>
+          <t>0.985</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.288</t>
+          <t>1.157</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0015</t>
+          <t>1.0057</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>0.938</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.074</t>
+          <t>1.079</t>
         </is>
       </c>
     </row>
@@ -619,17 +619,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0737</t>
+          <t>1.0036</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.006</t>
+          <t>0.940</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.146</t>
+          <t>1.071</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.2292</t>
+          <t>1.1486</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.142</t>
+          <t>1.067</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.323</t>
+          <t>1.236</t>
         </is>
       </c>
     </row>
@@ -665,17 +665,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.3463</t>
+          <t>1.1557</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.056</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.473</t>
+          <t>1.264</t>
         </is>
       </c>
     </row>
@@ -688,17 +688,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.2006</t>
+          <t>1.1638</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.072</t>
+          <t>1.039</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.345</t>
+          <t>1.304</t>
         </is>
       </c>
     </row>
@@ -711,17 +711,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.8715</t>
+          <t>0.9308</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.763</t>
+          <t>0.815</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>1.064</t>
         </is>
       </c>
     </row>
@@ -734,17 +734,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.2357</t>
+          <t>1.1867</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.056</t>
+          <t>1.014</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.446</t>
+          <t>1.389</t>
         </is>
       </c>
     </row>
@@ -757,17 +757,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.2498</t>
+          <t>1.1811</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.028</t>
+          <t>0.972</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.519</t>
+          <t>1.436</t>
         </is>
       </c>
     </row>
@@ -780,17 +780,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.6555</t>
+          <t>0.6772</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.502</t>
+          <t>0.518</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.856</t>
+          <t>0.885</t>
         </is>
       </c>
     </row>
@@ -803,17 +803,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0604</t>
+          <t>1.3873</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.629</t>
+          <t>0.822</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.788</t>
+          <t>2.341</t>
         </is>
       </c>
     </row>
@@ -826,17 +826,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3.2430</t>
+          <t>2.5871</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.318</t>
+          <t>1.051</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.982</t>
+          <t>6.370</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.2718</t>
+          <t>0.4564</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.718</t>
+          <t>4.564</t>
         </is>
       </c>
     </row>
@@ -872,17 +872,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.1148</t>
+          <t>0.2059</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.065</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.203</t>
+          <t>0.364</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.3078</t>
+          <t>1.2238</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.198</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.449</t>
+          <t>1.250</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.8870</t>
+          <t>0.8381</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.779</t>
+          <t>0.736</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.010</t>
+          <t>0.954</t>
         </is>
       </c>
     </row>
@@ -959,17 +959,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.7904</t>
+          <t>0.8553</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.738</t>
+          <t>0.798</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.847</t>
+          <t>0.916</t>
         </is>
       </c>
     </row>
@@ -982,17 +982,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.9592</t>
+          <t>0.9577</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.912</t>
+          <t>0.910</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.009</t>
+          <t>1.008</t>
         </is>
       </c>
     </row>
@@ -1005,17 +1005,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.3569</t>
+          <t>1.2503</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.289</t>
+          <t>1.188</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.428</t>
+          <t>1.316</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1028,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.2348</t>
+          <t>1.2554</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.174</t>
+          <t>1.194</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.298</t>
+          <t>1.320</t>
         </is>
       </c>
     </row>
@@ -1051,17 +1051,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.3990</t>
+          <t>1.3348</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.327</t>
+          <t>1.266</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.475</t>
+          <t>1.408</t>
         </is>
       </c>
     </row>
@@ -1074,17 +1074,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.7457</t>
+          <t>1.5970</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.635</t>
+          <t>1.496</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.864</t>
+          <t>1.705</t>
         </is>
       </c>
     </row>
@@ -1097,17 +1097,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.6760</t>
+          <t>1.5021</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.535</t>
+          <t>1.375</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.830</t>
+          <t>1.640</t>
         </is>
       </c>
     </row>
@@ -1120,17 +1120,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.4945</t>
+          <t>1.3333</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.337</t>
+          <t>1.193</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.670</t>
+          <t>1.490</t>
         </is>
       </c>
     </row>
@@ -1143,17 +1143,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.6977</t>
+          <t>1.7816</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.412</t>
+          <t>1.481</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.042</t>
+          <t>2.143</t>
         </is>
       </c>
     </row>
@@ -1166,17 +1166,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.8615</t>
+          <t>1.0074</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.717</t>
+          <t>0.838</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.036</t>
+          <t>1.211</t>
         </is>
       </c>
     </row>
@@ -1189,17 +1189,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.6615</t>
+          <t>1.7876</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>1.316</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.255</t>
+          <t>2.427</t>
         </is>
       </c>
     </row>
@@ -1212,17 +1212,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.9527</t>
+          <t>0.8739</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.692</t>
+          <t>0.634</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.312</t>
+          <t>1.204</t>
         </is>
       </c>
     </row>
@@ -1235,17 +1235,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.8508</t>
+          <t>1.1669</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.504</t>
+          <t>0.691</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.436</t>
+          <t>1.971</t>
         </is>
       </c>
     </row>
@@ -1258,17 +1258,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3.4836</t>
+          <t>1.9053</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.800</t>
+          <t>0.984</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6.743</t>
+          <t>3.689</t>
         </is>
       </c>
     </row>
@@ -1281,17 +1281,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.4243</t>
+          <t>0.7450</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.220</t>
+          <t>0.386</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.819</t>
+          <t>1.439</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.4599</t>
+          <t>0.5804</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.233</t>
+          <t>0.294</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>1.146</t>
         </is>
       </c>
     </row>
@@ -1345,17 +1345,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.2216</t>
+          <t>1.2350</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>1.200</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.407</t>
+          <t>1.271</t>
         </is>
       </c>
     </row>
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.9655</t>
+          <t>0.8814</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.746</t>
+          <t>0.681</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.250</t>
+          <t>1.141</t>
         </is>
       </c>
     </row>
@@ -1391,17 +1391,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.0071</t>
+          <t>1.1142</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>0.997</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.125</t>
+          <t>1.245</t>
         </is>
       </c>
     </row>
@@ -1414,17 +1414,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.1680</t>
+          <t>1.1501</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.082</t>
+          <t>1.065</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>1.242</t>
         </is>
       </c>
     </row>
@@ -1437,17 +1437,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1414</t>
+          <t>1.1714</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.057</t>
+          <t>1.085</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.232</t>
+          <t>1.265</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1460,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.2330</t>
+          <t>1.2482</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.151</t>
+          <t>1.165</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.320</t>
+          <t>1.337</t>
         </is>
       </c>
     </row>
@@ -1483,17 +1483,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.3030</t>
+          <t>1.3300</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>1.245</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.392</t>
+          <t>1.421</t>
         </is>
       </c>
     </row>
@@ -1506,17 +1506,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.4202</t>
+          <t>1.3904</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.309</t>
+          <t>1.282</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.540</t>
+          <t>1.508</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1529,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.2449</t>
+          <t>1.2998</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.120</t>
+          <t>1.169</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.384</t>
+          <t>1.445</t>
         </is>
       </c>
     </row>
@@ -1552,17 +1552,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.2448</t>
+          <t>1.1456</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>0.997</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.430</t>
+          <t>1.317</t>
         </is>
       </c>
     </row>
@@ -1575,17 +1575,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.9481</t>
+          <t>1.9141</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.585</t>
+          <t>1.557</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2.394</t>
+          <t>2.353</t>
         </is>
       </c>
     </row>
@@ -1598,17 +1598,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.6972</t>
+          <t>0.8489</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.561</t>
+          <t>0.683</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.867</t>
+          <t>1.056</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1621,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.3293</t>
+          <t>1.5134</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.948</t>
+          <t>1.079</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.864</t>
+          <t>2.123</t>
         </is>
       </c>
     </row>
@@ -1644,17 +1644,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.4535</t>
+          <t>1.2904</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.888</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.112</t>
+          <t>1.876</t>
         </is>
       </c>
     </row>
@@ -1667,17 +1667,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.8024</t>
+          <t>0.8411</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.394</t>
+          <t>0.413</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.633</t>
+          <t>1.712</t>
         </is>
       </c>
     </row>
@@ -1690,17 +1690,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.0742</t>
+          <t>0.7365</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.366</t>
+          <t>0.251</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3.156</t>
+          <t>2.165</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2.5562</t>
+          <t>2.6726</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>25.562</t>
+          <t>26.726</t>
         </is>
       </c>
     </row>
@@ -1736,17 +1736,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4.0048</t>
+          <t>2.8191</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.811</t>
+          <t>1.273</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>8.855</t>
+          <t>6.245</t>
         </is>
       </c>
     </row>
@@ -1823,17 +1823,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.0712</t>
+          <t>1.0374</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.966</t>
+          <t>0.992</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.187</t>
+          <t>1.084</t>
         </is>
       </c>
     </row>
@@ -1846,17 +1846,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.5148</t>
+          <t>0.6639</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.356</t>
+          <t>0.457</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.745</t>
+          <t>0.964</t>
         </is>
       </c>
     </row>
@@ -1869,17 +1869,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.5158</t>
+          <t>1.3529</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.217</t>
+          <t>1.085</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.887</t>
+          <t>1.686</t>
         </is>
       </c>
     </row>
@@ -1892,17 +1892,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0495</t>
+          <t>1.0821</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.933</t>
+          <t>0.962</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.218</t>
         </is>
       </c>
     </row>
@@ -1915,17 +1915,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.3043</t>
+          <t>1.2875</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.144</t>
+          <t>1.129</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.487</t>
+          <t>1.468</t>
         </is>
       </c>
     </row>
@@ -1938,17 +1938,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.7888</t>
+          <t>0.8473</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.715</t>
+          <t>0.767</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.870</t>
+          <t>0.936</t>
         </is>
       </c>
     </row>
@@ -1961,17 +1961,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.9066</t>
+          <t>0.9453</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.814</t>
+          <t>0.848</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.010</t>
+          <t>1.054</t>
         </is>
       </c>
     </row>
@@ -1984,17 +1984,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.2288</t>
+          <t>1.2491</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.079</t>
+          <t>1.096</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.400</t>
+          <t>1.424</t>
         </is>
       </c>
     </row>
@@ -2007,17 +2007,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9963</t>
+          <t>0.9681</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.868</t>
+          <t>0.843</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.143</t>
+          <t>1.112</t>
         </is>
       </c>
     </row>
@@ -2030,17 +2030,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.1929</t>
+          <t>1.0766</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.997</t>
+          <t>0.899</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.427</t>
+          <t>1.289</t>
         </is>
       </c>
     </row>
@@ -2053,17 +2053,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.2211</t>
+          <t>0.8938</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.009</t>
+          <t>0.737</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.478</t>
+          <t>1.083</t>
         </is>
       </c>
     </row>
@@ -2076,17 +2076,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.6250</t>
+          <t>0.8520</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.493</t>
+          <t>0.671</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.792</t>
+          <t>1.082</t>
         </is>
       </c>
     </row>
@@ -2099,17 +2099,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.8821</t>
+          <t>0.8624</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.687</t>
+          <t>0.670</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.133</t>
+          <t>1.110</t>
         </is>
       </c>
     </row>
@@ -2122,17 +2122,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0620</t>
+          <t>1.0274</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.741</t>
+          <t>0.715</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.523</t>
+          <t>1.476</t>
         </is>
       </c>
     </row>
@@ -2145,17 +2145,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.6612</t>
+          <t>0.9029</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.414</t>
+          <t>0.564</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.056</t>
+          <t>1.446</t>
         </is>
       </c>
     </row>
@@ -2168,17 +2168,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3.1001</t>
+          <t>2.3662</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.612</t>
+          <t>1.228</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.963</t>
+          <t>4.560</t>
         </is>
       </c>
     </row>
@@ -2191,17 +2191,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.6026</t>
+          <t>0.6787</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.296</t>
+          <t>0.332</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>1.388</t>
         </is>
       </c>
     </row>
@@ -2214,17 +2214,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.3779</t>
+          <t>1.7949</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.940</t>
+          <t>0.708</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.013</t>
+          <t>4.552</t>
         </is>
       </c>
     </row>
@@ -2255,17 +2255,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.2476</t>
+          <t>1.0366</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.168</t>
+          <t>1.013</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.333</t>
+          <t>1.060</t>
         </is>
       </c>
     </row>
@@ -2278,17 +2278,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.7420</t>
+          <t>0.7552</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.620</t>
+          <t>0.630</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.888</t>
+          <t>0.905</t>
         </is>
       </c>
     </row>
@@ -2301,17 +2301,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.0909</t>
+          <t>0.9374</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.003</t>
+          <t>0.862</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.186</t>
+          <t>1.020</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2324,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.1227</t>
+          <t>1.0844</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.058</t>
+          <t>1.022</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.191</t>
+          <t>1.151</t>
         </is>
       </c>
     </row>
@@ -2347,17 +2347,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.9911</t>
+          <t>1.0100</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.935</t>
+          <t>0.952</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.051</t>
+          <t>1.071</t>
         </is>
       </c>
     </row>
@@ -2370,17 +2370,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9945</t>
+          <t>0.9759</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.941</t>
+          <t>0.923</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.051</t>
+          <t>1.032</t>
         </is>
       </c>
     </row>
@@ -2393,17 +2393,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.0404</t>
+          <t>0.9979</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.984</t>
+          <t>0.943</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.055</t>
         </is>
       </c>
     </row>
@@ -2416,17 +2416,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.4872</t>
+          <t>1.3080</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.391</t>
+          <t>1.223</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.590</t>
+          <t>1.399</t>
         </is>
       </c>
     </row>
@@ -2439,17 +2439,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0326</t>
+          <t>1.0008</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.953</t>
+          <t>0.923</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.119</t>
+          <t>1.085</t>
         </is>
       </c>
     </row>
@@ -2462,17 +2462,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0073</t>
+          <t>1.0181</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.908</t>
+          <t>0.917</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.118</t>
+          <t>1.131</t>
         </is>
       </c>
     </row>
@@ -2485,17 +2485,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9644</t>
+          <t>0.9680</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.853</t>
+          <t>0.856</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.090</t>
+          <t>1.095</t>
         </is>
       </c>
     </row>
@@ -2508,17 +2508,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.7775</t>
+          <t>0.8644</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.679</t>
+          <t>0.754</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.891</t>
+          <t>0.991</t>
         </is>
       </c>
     </row>
@@ -2531,17 +2531,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2.0621</t>
+          <t>1.8328</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.684</t>
+          <t>1.495</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.525</t>
+          <t>2.246</t>
         </is>
       </c>
     </row>
@@ -2554,17 +2554,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.1418</t>
+          <t>1.0605</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.900</t>
+          <t>0.835</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.449</t>
+          <t>1.348</t>
         </is>
       </c>
     </row>
@@ -2577,17 +2577,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.8731</t>
+          <t>1.0561</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.631</t>
+          <t>0.763</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.207</t>
+          <t>1.463</t>
         </is>
       </c>
     </row>
@@ -2600,17 +2600,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2.1000</t>
+          <t>1.5748</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.453</t>
+          <t>1.088</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.036</t>
+          <t>2.280</t>
         </is>
       </c>
     </row>
@@ -2623,17 +2623,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.2194</t>
+          <t>1.0330</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.735</t>
+          <t>0.622</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.022</t>
+          <t>1.716</t>
         </is>
       </c>
     </row>
@@ -2646,17 +2646,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.1069</t>
+          <t>2.6985</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.285</t>
+          <t>1.499</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7.381</t>
+          <t>4.857</t>
         </is>
       </c>
     </row>
@@ -2687,17 +2687,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.1647</t>
+          <t>0.9993</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.044</t>
+          <t>0.956</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.300</t>
+          <t>1.045</t>
         </is>
       </c>
     </row>
@@ -2710,17 +2710,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.4414</t>
+          <t>1.1375</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.981</t>
+          <t>0.771</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2.118</t>
+          <t>1.677</t>
         </is>
       </c>
     </row>
@@ -2733,17 +2733,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.7197</t>
+          <t>0.6929</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.576</t>
+          <t>0.554</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.899</t>
+          <t>0.866</t>
         </is>
       </c>
     </row>
@@ -2756,17 +2756,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.0697</t>
+          <t>1.0021</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.950</t>
+          <t>0.889</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>1.130</t>
         </is>
       </c>
     </row>
@@ -2779,17 +2779,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.7599</t>
+          <t>0.7844</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.666</t>
+          <t>0.687</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.866</t>
+          <t>0.895</t>
         </is>
       </c>
     </row>
@@ -2802,17 +2802,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.2609</t>
+          <t>1.1517</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.143</t>
+          <t>1.043</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.391</t>
+          <t>1.271</t>
         </is>
       </c>
     </row>
@@ -2825,17 +2825,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.1476</t>
+          <t>1.0556</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.947</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.278</t>
+          <t>1.177</t>
         </is>
       </c>
     </row>
@@ -2848,17 +2848,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.2103</t>
+          <t>1.0471</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.060</t>
+          <t>0.916</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.382</t>
+          <t>1.197</t>
         </is>
       </c>
     </row>
@@ -2871,17 +2871,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.0364</t>
+          <t>1.0338</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>0.898</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.192</t>
+          <t>1.190</t>
         </is>
       </c>
     </row>
@@ -2894,17 +2894,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.8444</t>
+          <t>0.9456</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.702</t>
+          <t>0.785</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.016</t>
+          <t>1.139</t>
         </is>
       </c>
     </row>
@@ -2917,17 +2917,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.7898</t>
+          <t>1.0830</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.649</t>
+          <t>0.889</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.960</t>
+          <t>1.319</t>
         </is>
       </c>
     </row>
@@ -2940,17 +2940,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.2440</t>
+          <t>1.0146</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.979</t>
+          <t>0.798</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.580</t>
+          <t>1.291</t>
         </is>
       </c>
     </row>
@@ -2963,17 +2963,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2.3377</t>
+          <t>2.1253</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.758</t>
+          <t>1.596</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3.108</t>
+          <t>2.830</t>
         </is>
       </c>
     </row>
@@ -2986,17 +2986,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.0751</t>
+          <t>1.0322</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.733</t>
+          <t>0.703</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.576</t>
+          <t>1.516</t>
         </is>
       </c>
     </row>
@@ -3009,17 +3009,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.3204</t>
+          <t>1.1697</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.787</t>
+          <t>0.696</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2.214</t>
+          <t>1.966</t>
         </is>
       </c>
     </row>
@@ -3032,17 +3032,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.6774</t>
+          <t>0.6656</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.337</t>
+          <t>0.331</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.361</t>
+          <t>1.340</t>
         </is>
       </c>
     </row>
@@ -3055,17 +3055,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2.0237</t>
+          <t>1.5221</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.992</t>
+          <t>0.743</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4.128</t>
+          <t>3.117</t>
         </is>
       </c>
     </row>
@@ -3078,17 +3078,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.7271</t>
+          <t>1.5034</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.625</t>
+          <t>0.542</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4.774</t>
+          <t>4.166</t>
         </is>
       </c>
     </row>
@@ -3119,17 +3119,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1.6866</t>
+          <t>1.5481</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.566</t>
+          <t>1.518</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.816</t>
+          <t>1.579</t>
         </is>
       </c>
     </row>
@@ -3142,17 +3142,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.4643</t>
+          <t>1.1995</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.274</t>
+          <t>1.043</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.683</t>
+          <t>1.380</t>
         </is>
       </c>
     </row>
@@ -3165,17 +3165,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.5004</t>
+          <t>1.3211</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.401</t>
+          <t>1.233</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.607</t>
+          <t>1.416</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3188,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.6313</t>
+          <t>1.5049</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.553</t>
+          <t>1.433</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.713</t>
+          <t>1.581</t>
         </is>
       </c>
     </row>
@@ -3211,17 +3211,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.5421</t>
+          <t>1.4957</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.467</t>
+          <t>1.423</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.621</t>
+          <t>1.572</t>
         </is>
       </c>
     </row>
@@ -3234,17 +3234,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.6823</t>
+          <t>1.6091</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.602</t>
+          <t>1.532</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.767</t>
+          <t>1.691</t>
         </is>
       </c>
     </row>
@@ -3257,17 +3257,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.8626</t>
+          <t>1.6700</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.772</t>
+          <t>1.588</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.958</t>
+          <t>1.756</t>
         </is>
       </c>
     </row>
@@ -3280,17 +3280,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2.0618</t>
+          <t>1.7767</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.945</t>
+          <t>1.675</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2.186</t>
+          <t>1.884</t>
         </is>
       </c>
     </row>
@@ -3303,17 +3303,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.6106</t>
+          <t>1.4631</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1.495</t>
+          <t>1.357</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.735</t>
+          <t>1.577</t>
         </is>
       </c>
     </row>
@@ -3326,17 +3326,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.4006</t>
+          <t>1.3359</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.269</t>
+          <t>1.209</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.547</t>
+          <t>1.476</t>
         </is>
       </c>
     </row>
@@ -3349,17 +3349,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1.1474</t>
+          <t>1.1756</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.014</t>
+          <t>1.038</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.298</t>
+          <t>1.331</t>
         </is>
       </c>
     </row>
@@ -3372,17 +3372,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1.3524</t>
+          <t>1.3730</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1.160</t>
+          <t>1.177</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.576</t>
+          <t>1.602</t>
         </is>
       </c>
     </row>
@@ -3395,17 +3395,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2.0824</t>
+          <t>1.9356</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.680</t>
+          <t>1.560</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2.582</t>
+          <t>2.401</t>
         </is>
       </c>
     </row>
@@ -3418,17 +3418,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.2798</t>
+          <t>1.1657</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>0.902</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.653</t>
+          <t>1.507</t>
         </is>
       </c>
     </row>
@@ -3441,17 +3441,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.8286</t>
+          <t>0.9280</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.592</t>
+          <t>0.661</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.161</t>
+          <t>1.302</t>
         </is>
       </c>
     </row>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2.5956</t>
+          <t>2.3353</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.510</t>
+          <t>1.356</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4.463</t>
+          <t>4.022</t>
         </is>
       </c>
     </row>
@@ -3487,17 +3487,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>3.0357</t>
+          <t>1.1689</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.714</t>
+          <t>0.659</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>5.376</t>
+          <t>2.075</t>
         </is>
       </c>
     </row>
@@ -3510,17 +3510,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2.8743</t>
+          <t>1.3889</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.596</t>
+          <t>0.769</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>5.176</t>
+          <t>2.507</t>
         </is>
       </c>
     </row>
@@ -3551,17 +3551,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1.3519</t>
+          <t>1.4934</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1.244</t>
+          <t>1.463</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.469</t>
+          <t>1.525</t>
         </is>
       </c>
     </row>
@@ -3574,17 +3574,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1.9734</t>
+          <t>1.5883</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1.658</t>
+          <t>1.332</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2.349</t>
+          <t>1.893</t>
         </is>
       </c>
     </row>
@@ -3597,17 +3597,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1.3754</t>
+          <t>1.4092</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.273</t>
+          <t>1.304</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.486</t>
+          <t>1.523</t>
         </is>
       </c>
     </row>
@@ -3620,17 +3620,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1.4530</t>
+          <t>1.3878</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.378</t>
+          <t>1.316</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.532</t>
+          <t>1.464</t>
         </is>
       </c>
     </row>
@@ -3643,17 +3643,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1.5559</t>
+          <t>1.4810</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1.479</t>
+          <t>1.407</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.637</t>
+          <t>1.559</t>
         </is>
       </c>
     </row>
@@ -3666,17 +3666,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.6915</t>
+          <t>1.6489</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.611</t>
+          <t>1.570</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.776</t>
+          <t>1.731</t>
         </is>
       </c>
     </row>
@@ -3689,17 +3689,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1.7903</t>
+          <t>1.6735</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1.704</t>
+          <t>1.592</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.881</t>
+          <t>1.759</t>
         </is>
       </c>
     </row>
@@ -3712,17 +3712,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.3863</t>
+          <t>1.3583</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.301</t>
+          <t>1.274</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.478</t>
+          <t>1.448</t>
         </is>
       </c>
     </row>
@@ -3735,17 +3735,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.5598</t>
+          <t>1.4619</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.441</t>
+          <t>1.350</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.688</t>
+          <t>1.583</t>
         </is>
       </c>
     </row>
@@ -3758,17 +3758,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.3905</t>
+          <t>1.3122</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.247</t>
+          <t>1.176</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.550</t>
+          <t>1.464</t>
         </is>
       </c>
     </row>
@@ -3781,17 +3781,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1.1898</t>
+          <t>1.2145</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.044</t>
+          <t>1.065</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.356</t>
+          <t>1.385</t>
         </is>
       </c>
     </row>
@@ -3804,17 +3804,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1.7395</t>
+          <t>1.5885</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.488</t>
+          <t>1.358</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2.034</t>
+          <t>1.859</t>
         </is>
       </c>
     </row>
@@ -3827,17 +3827,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1.0099</t>
+          <t>1.0561</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.783</t>
+          <t>0.819</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.302</t>
+          <t>1.363</t>
         </is>
       </c>
     </row>
@@ -3850,17 +3850,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1.1209</t>
+          <t>1.0992</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.842</t>
+          <t>0.825</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.492</t>
+          <t>1.465</t>
         </is>
       </c>
     </row>
@@ -3873,17 +3873,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.9491</t>
+          <t>0.8787</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.635</t>
+          <t>0.587</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.418</t>
+          <t>1.315</t>
         </is>
       </c>
     </row>
@@ -3896,17 +3896,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1.2360</t>
+          <t>1.4829</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.683</t>
+          <t>0.818</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2.238</t>
+          <t>2.690</t>
         </is>
       </c>
     </row>
@@ -3919,17 +3919,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2.4895</t>
+          <t>1.1316</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1.404</t>
+          <t>0.637</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4.414</t>
+          <t>2.011</t>
         </is>
       </c>
     </row>
@@ -3942,17 +3942,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.6999</t>
+          <t>0.5147</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.341</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.438</t>
+          <t>1.060</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_13" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,17 +482,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9919</t>
+          <t>1.4384</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.964</t>
+          <t>1.399</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.020</t>
+          <t>1.479</t>
         </is>
       </c>
     </row>
@@ -504,17 +505,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9509</t>
+          <t>1.0954</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.732</t>
+          <t>0.876</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>1.370</t>
         </is>
       </c>
     </row>
@@ -527,17 +528,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.7677</t>
+          <t>1.0430</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.684</t>
+          <t>0.956</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.862</t>
+          <t>1.138</t>
         </is>
       </c>
     </row>
@@ -550,17 +551,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8327</t>
+          <t>1.0372</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.768</t>
+          <t>0.977</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.903</t>
+          <t>1.101</t>
         </is>
       </c>
     </row>
@@ -573,17 +574,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0673</t>
+          <t>1.2582</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.985</t>
+          <t>1.192</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.157</t>
+          <t>1.328</t>
         </is>
       </c>
     </row>
@@ -596,17 +597,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0057</t>
+          <t>1.6523</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.938</t>
+          <t>1.574</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.079</t>
+          <t>1.735</t>
         </is>
       </c>
     </row>
@@ -619,17 +620,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0036</t>
+          <t>1.7959</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.940</t>
+          <t>1.702</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.071</t>
+          <t>1.895</t>
         </is>
       </c>
     </row>
@@ -642,17 +643,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.1486</t>
+          <t>1.7322</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.067</t>
+          <t>1.571</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>1.909</t>
         </is>
       </c>
     </row>
@@ -665,17 +666,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.1557</t>
+          <t>1.6728</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.056</t>
+          <t>1.451</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.264</t>
+          <t>1.929</t>
         </is>
       </c>
     </row>
@@ -688,17 +689,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.1638</t>
+          <t>1.8539</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.039</t>
+          <t>1.473</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.304</t>
+          <t>2.333</t>
         </is>
       </c>
     </row>
@@ -711,17 +712,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.9308</t>
+          <t>1.6915</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.815</t>
+          <t>1.276</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.064</t>
+          <t>2.242</t>
         </is>
       </c>
     </row>
@@ -734,17 +735,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.1867</t>
+          <t>1.9128</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.014</t>
+          <t>1.330</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.389</t>
+          <t>2.750</t>
         </is>
       </c>
     </row>
@@ -757,17 +758,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.1811</t>
+          <t>1.4165</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.972</t>
+          <t>0.855</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.436</t>
+          <t>2.347</t>
         </is>
       </c>
     </row>
@@ -780,17 +781,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.6772</t>
+          <t>2.2191</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.518</t>
+          <t>0.920</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.885</t>
+          <t>5.354</t>
         </is>
       </c>
     </row>
@@ -803,17 +804,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.3873</t>
+          <t>0.5014</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.822</t>
+          <t>0.209</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.341</t>
+          <t>1.202</t>
         </is>
       </c>
     </row>
@@ -826,17 +827,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.5871</t>
+          <t>1.2788</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.051</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.370</t>
+          <t>12.788</t>
         </is>
       </c>
     </row>
@@ -849,7 +850,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.4564</t>
+          <t>2.7232</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,7 +860,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.564</t>
+          <t>27.232</t>
         </is>
       </c>
     </row>
@@ -872,17 +873,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.2059</t>
+          <t>5.1710</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.117</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.364</t>
+          <t>51.710</t>
         </is>
       </c>
     </row>
@@ -913,17 +914,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.2238</t>
+          <t>1.7619</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>1.708</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.250</t>
+          <t>1.818</t>
         </is>
       </c>
     </row>
@@ -936,17 +937,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.8381</t>
+          <t>0.9372</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.736</t>
+          <t>0.816</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.954</t>
+          <t>1.077</t>
         </is>
       </c>
     </row>
@@ -959,17 +960,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.8553</t>
+          <t>1.3136</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.798</t>
+          <t>1.226</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.916</t>
+          <t>1.408</t>
         </is>
       </c>
     </row>
@@ -982,17 +983,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.9577</t>
+          <t>1.6230</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.910</t>
+          <t>1.544</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.008</t>
+          <t>1.706</t>
         </is>
       </c>
     </row>
@@ -1005,17 +1006,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.2503</t>
+          <t>2.0454</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.188</t>
+          <t>1.944</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>2.152</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1029,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.2554</t>
+          <t>1.9872</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.194</t>
+          <t>1.868</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.320</t>
+          <t>2.114</t>
         </is>
       </c>
     </row>
@@ -1051,17 +1052,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.3348</t>
+          <t>1.8347</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.266</t>
+          <t>1.682</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.408</t>
+          <t>2.001</t>
         </is>
       </c>
     </row>
@@ -1074,17 +1075,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.5970</t>
+          <t>1.8089</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.496</t>
+          <t>1.599</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.705</t>
+          <t>2.046</t>
         </is>
       </c>
     </row>
@@ -1097,17 +1098,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.5021</t>
+          <t>1.6578</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.375</t>
+          <t>1.378</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.640</t>
+          <t>1.995</t>
         </is>
       </c>
     </row>
@@ -1120,17 +1121,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.3333</t>
+          <t>1.8451</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.193</t>
+          <t>1.454</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.490</t>
+          <t>2.341</t>
         </is>
       </c>
     </row>
@@ -1143,17 +1144,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.7816</t>
+          <t>1.7436</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.481</t>
+          <t>1.273</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.143</t>
+          <t>2.387</t>
         </is>
       </c>
     </row>
@@ -1166,17 +1167,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.0074</t>
+          <t>2.2821</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.838</t>
+          <t>1.530</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.211</t>
+          <t>3.405</t>
         </is>
       </c>
     </row>
@@ -1189,17 +1190,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.7876</t>
+          <t>1.1980</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>0.643</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.427</t>
+          <t>2.233</t>
         </is>
       </c>
     </row>
@@ -1212,17 +1213,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.8739</t>
+          <t>0.6066</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.634</t>
+          <t>0.404</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.204</t>
+          <t>0.910</t>
         </is>
       </c>
     </row>
@@ -1235,17 +1236,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.1669</t>
+          <t>0.7044</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.691</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.971</t>
+          <t>7.044</t>
         </is>
       </c>
     </row>
@@ -1258,17 +1259,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.9053</t>
+          <t>1.5904</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.984</t>
+          <t>0.652</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.689</t>
+          <t>3.882</t>
         </is>
       </c>
     </row>
@@ -1281,17 +1282,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.7450</t>
+          <t>3.0805</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.386</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.439</t>
+          <t>30.805</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1305,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.5804</t>
+          <t>3.3321</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.294</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.146</t>
+          <t>33.321</t>
         </is>
       </c>
     </row>
@@ -1345,17 +1346,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.2350</t>
+          <t>1.2193</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.200</t>
+          <t>1.172</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.271</t>
+          <t>1.268</t>
         </is>
       </c>
     </row>
@@ -1368,17 +1369,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.8814</t>
+          <t>0.8556</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.681</t>
+          <t>0.678</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.141</t>
+          <t>1.080</t>
         </is>
       </c>
     </row>
@@ -1391,17 +1392,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.1142</t>
+          <t>1.2594</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.997</t>
+          <t>1.144</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.245</t>
+          <t>1.386</t>
         </is>
       </c>
     </row>
@@ -1414,17 +1415,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.1501</t>
+          <t>1.5648</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.065</t>
+          <t>1.464</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>1.672</t>
         </is>
       </c>
     </row>
@@ -1437,17 +1438,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1714</t>
+          <t>1.6257</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.085</t>
+          <t>1.525</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.265</t>
+          <t>1.733</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1461,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.2482</t>
+          <t>1.2027</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.165</t>
+          <t>1.119</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.337</t>
+          <t>1.293</t>
         </is>
       </c>
     </row>
@@ -1483,17 +1484,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.3300</t>
+          <t>1.0216</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.245</t>
+          <t>0.926</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.421</t>
+          <t>1.127</t>
         </is>
       </c>
     </row>
@@ -1506,17 +1507,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.3904</t>
+          <t>1.0443</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.282</t>
+          <t>0.896</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.508</t>
+          <t>1.218</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1530,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.2998</t>
+          <t>0.9910</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.169</t>
+          <t>0.788</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.445</t>
+          <t>1.247</t>
         </is>
       </c>
     </row>
@@ -1552,17 +1553,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1456</t>
+          <t>0.9953</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.997</t>
+          <t>0.718</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.317</t>
+          <t>1.380</t>
         </is>
       </c>
     </row>
@@ -1575,17 +1576,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.9141</t>
+          <t>1.0308</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.557</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2.353</t>
+          <t>1.564</t>
         </is>
       </c>
     </row>
@@ -1598,17 +1599,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.8489</t>
+          <t>1.1931</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.683</t>
+          <t>0.699</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.056</t>
+          <t>2.035</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1622,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.5134</t>
+          <t>0.8458</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.079</t>
+          <t>0.382</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2.123</t>
+          <t>1.874</t>
         </is>
       </c>
     </row>
@@ -1644,17 +1645,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.2904</t>
+          <t>0.2734</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.888</t>
+          <t>0.105</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.876</t>
+          <t>0.713</t>
         </is>
       </c>
     </row>
@@ -1667,17 +1668,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.8411</t>
+          <t>0.9429</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.413</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.712</t>
+          <t>9.429</t>
         </is>
       </c>
     </row>
@@ -1690,17 +1691,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.7365</t>
+          <t>1.3978</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.251</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.165</t>
+          <t>13.978</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1714,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2.6726</t>
+          <t>1.1312</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1723,7 +1724,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>26.726</t>
+          <t>11.312</t>
         </is>
       </c>
     </row>
@@ -1736,17 +1737,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2.8191</t>
+          <t>0.6444</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.273</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6.245</t>
+          <t>6.444</t>
         </is>
       </c>
     </row>
@@ -1763,6 +1764,1348 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dose_Combination</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>YearOfBirth</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>KCOR</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Lower</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1 vs 0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.9919</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.964</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.020</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.9509</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.732</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.236</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.7677</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.684</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.862</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.8327</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.768</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.903</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.0673</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.985</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.157</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.0057</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.938</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.079</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.0036</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.940</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.071</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.1486</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.067</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.236</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1.1557</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.056</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.264</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.1638</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.039</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.304</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.9308</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.815</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.064</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.1867</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.014</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.389</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1.1811</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.972</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.436</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.6772</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.518</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.885</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1.3873</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.822</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.341</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2.5871</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.051</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.4564</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4.564</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.117</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.364</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1.2238</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.198</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.8381</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.736</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.954</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.8553</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.798</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.916</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.9577</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.910</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.008</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1.2503</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.188</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1.316</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1.2554</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.194</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1.320</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1.3348</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.266</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.408</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1.5970</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.496</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.705</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1.5021</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.375</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.640</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1.3333</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.193</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1.490</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1.7816</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.481</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2.143</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1.0074</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.838</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.211</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1.7876</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.316</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2.427</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.8739</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.634</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1.204</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1.1669</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.691</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1.971</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1.9053</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.984</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3.689</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.7450</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.386</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1.439</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.5804</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.294</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1.146</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1.2350</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.200</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1.271</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.8814</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.681</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1.141</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1.1142</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.997</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1.245</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1.1501</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.065</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1.242</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1.1714</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.085</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1.265</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1.2482</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.165</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1.337</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1.3300</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.245</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1.421</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1.3904</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.282</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1.508</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1.2998</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.169</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1.445</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1.1456</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.997</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1.317</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1.9141</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.557</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2.353</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.8489</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.683</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1.056</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1.5134</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.079</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2.123</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1.2904</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.888</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1.876</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.8411</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.413</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1.712</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.7365</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.251</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2.165</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2.6726</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>26.726</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2.8191</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.273</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>6.245</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -7,9 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,17 +481,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.4384</t>
+          <t>1.0516</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.399</t>
+          <t>1.022</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.479</t>
+          <t>1.082</t>
         </is>
       </c>
     </row>
@@ -505,17 +504,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0954</t>
+          <t>1.0592</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.876</t>
+          <t>0.815</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.370</t>
+          <t>1.376</t>
         </is>
       </c>
     </row>
@@ -528,17 +527,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.0430</t>
+          <t>0.9682</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.956</t>
+          <t>0.863</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.138</t>
+          <t>1.087</t>
         </is>
       </c>
     </row>
@@ -551,17 +550,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0372</t>
+          <t>1.0076</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.977</t>
+          <t>0.929</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.101</t>
+          <t>1.092</t>
         </is>
       </c>
     </row>
@@ -574,17 +573,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2582</t>
+          <t>1.0673</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.192</t>
+          <t>0.985</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.328</t>
+          <t>1.157</t>
         </is>
       </c>
     </row>
@@ -597,17 +596,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.6523</t>
+          <t>1.0057</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.574</t>
+          <t>0.938</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.735</t>
+          <t>1.079</t>
         </is>
       </c>
     </row>
@@ -620,17 +619,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.7959</t>
+          <t>1.0036</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.702</t>
+          <t>0.940</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.895</t>
+          <t>1.071</t>
         </is>
       </c>
     </row>
@@ -643,17 +642,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.7322</t>
+          <t>1.1486</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.571</t>
+          <t>1.067</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.909</t>
+          <t>1.236</t>
         </is>
       </c>
     </row>
@@ -666,17 +665,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.6728</t>
+          <t>1.1557</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.451</t>
+          <t>1.056</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.929</t>
+          <t>1.264</t>
         </is>
       </c>
     </row>
@@ -689,17 +688,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.8539</t>
+          <t>1.1638</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.473</t>
+          <t>1.039</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.333</t>
+          <t>1.304</t>
         </is>
       </c>
     </row>
@@ -712,17 +711,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.6915</t>
+          <t>1.0280</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.276</t>
+          <t>0.900</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.242</t>
+          <t>1.175</t>
         </is>
       </c>
     </row>
@@ -735,17 +734,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.9128</t>
+          <t>1.1867</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.330</t>
+          <t>1.014</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>1.389</t>
         </is>
       </c>
     </row>
@@ -758,17 +757,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.4165</t>
+          <t>1.1811</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.855</t>
+          <t>0.972</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.347</t>
+          <t>1.436</t>
         </is>
       </c>
     </row>
@@ -781,17 +780,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.2191</t>
+          <t>1.0137</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.920</t>
+          <t>0.776</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.354</t>
+          <t>1.324</t>
         </is>
       </c>
     </row>
@@ -804,17 +803,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.5014</t>
+          <t>1.3873</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.209</t>
+          <t>0.822</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.202</t>
+          <t>2.341</t>
         </is>
       </c>
     </row>
@@ -827,17 +826,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.2788</t>
+          <t>2.5871</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.051</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12.788</t>
+          <t>6.370</t>
         </is>
       </c>
     </row>
@@ -850,7 +849,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.7232</t>
+          <t>1.4870</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -860,7 +859,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27.232</t>
+          <t>14.870</t>
         </is>
       </c>
     </row>
@@ -873,17 +872,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5.1710</t>
+          <t>1.5327</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.868</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>51.710</t>
+          <t>2.708</t>
         </is>
       </c>
     </row>
@@ -914,17 +913,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.7619</t>
+          <t>1.2579</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.708</t>
+          <t>1.232</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.818</t>
+          <t>1.285</t>
         </is>
       </c>
     </row>
@@ -937,17 +936,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.9372</t>
+          <t>0.9691</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.816</t>
+          <t>0.851</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.077</t>
+          <t>1.104</t>
         </is>
       </c>
     </row>
@@ -960,17 +959,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.3136</t>
+          <t>1.0397</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>0.970</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.408</t>
+          <t>1.114</t>
         </is>
       </c>
     </row>
@@ -983,17 +982,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.6230</t>
+          <t>0.9884</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.544</t>
+          <t>0.939</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.706</t>
+          <t>1.040</t>
         </is>
       </c>
     </row>
@@ -1006,17 +1005,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2.0454</t>
+          <t>1.2503</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.944</t>
+          <t>1.188</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.152</t>
+          <t>1.316</t>
         </is>
       </c>
     </row>
@@ -1029,17 +1028,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.9872</t>
+          <t>1.2554</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.868</t>
+          <t>1.194</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.114</t>
+          <t>1.320</t>
         </is>
       </c>
     </row>
@@ -1052,17 +1051,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.8347</t>
+          <t>1.3348</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.682</t>
+          <t>1.266</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.001</t>
+          <t>1.408</t>
         </is>
       </c>
     </row>
@@ -1075,17 +1074,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.8089</t>
+          <t>1.5970</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.599</t>
+          <t>1.496</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.046</t>
+          <t>1.705</t>
         </is>
       </c>
     </row>
@@ -1098,17 +1097,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.6578</t>
+          <t>1.5021</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.378</t>
+          <t>1.375</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.995</t>
+          <t>1.640</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1120,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.8451</t>
+          <t>1.3333</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.454</t>
+          <t>1.193</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.341</t>
+          <t>1.490</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1143,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.7436</t>
+          <t>1.7816</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.273</t>
+          <t>1.481</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.387</t>
+          <t>2.143</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1166,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2.2821</t>
+          <t>1.1135</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.530</t>
+          <t>0.926</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.405</t>
+          <t>1.339</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1189,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.1980</t>
+          <t>1.7876</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.643</t>
+          <t>1.316</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.233</t>
+          <t>2.427</t>
         </is>
       </c>
     </row>
@@ -1213,17 +1212,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.6066</t>
+          <t>0.9114</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.404</t>
+          <t>0.661</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.910</t>
+          <t>1.256</t>
         </is>
       </c>
     </row>
@@ -1236,17 +1235,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.7044</t>
+          <t>1.2977</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.768</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.044</t>
+          <t>2.191</t>
         </is>
       </c>
     </row>
@@ -1259,17 +1258,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.5904</t>
+          <t>1.9053</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.652</t>
+          <t>0.984</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.882</t>
+          <t>3.689</t>
         </is>
       </c>
     </row>
@@ -1282,17 +1281,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3.0805</t>
+          <t>1.5577</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.807</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>30.805</t>
+          <t>3.009</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1304,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3.3321</t>
+          <t>1.1682</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.592</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>33.321</t>
+          <t>2.307</t>
         </is>
       </c>
     </row>
@@ -1346,17 +1345,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.2193</t>
+          <t>1.2435</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.172</t>
+          <t>1.208</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.268</t>
+          <t>1.280</t>
         </is>
       </c>
     </row>
@@ -1369,17 +1368,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.8556</t>
+          <t>0.9149</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.678</t>
+          <t>0.706</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>1.185</t>
         </is>
       </c>
     </row>
@@ -1392,17 +1391,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.2594</t>
+          <t>1.1142</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.144</t>
+          <t>0.997</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.386</t>
+          <t>1.245</t>
         </is>
       </c>
     </row>
@@ -1415,17 +1414,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.5648</t>
+          <t>1.1501</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.464</t>
+          <t>1.065</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.672</t>
+          <t>1.242</t>
         </is>
       </c>
     </row>
@@ -1438,17 +1437,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.6257</t>
+          <t>1.1714</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.525</t>
+          <t>1.085</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.733</t>
+          <t>1.265</t>
         </is>
       </c>
     </row>
@@ -1461,17 +1460,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.2027</t>
+          <t>1.2482</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.119</t>
+          <t>1.165</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.293</t>
+          <t>1.337</t>
         </is>
       </c>
     </row>
@@ -1484,17 +1483,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.0216</t>
+          <t>1.3300</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.926</t>
+          <t>1.245</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.127</t>
+          <t>1.421</t>
         </is>
       </c>
     </row>
@@ -1507,17 +1506,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.0443</t>
+          <t>1.3904</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.896</t>
+          <t>1.282</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>1.508</t>
         </is>
       </c>
     </row>
@@ -1530,17 +1529,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.9910</t>
+          <t>1.2998</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.788</t>
+          <t>1.169</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.247</t>
+          <t>1.445</t>
         </is>
       </c>
     </row>
@@ -1553,17 +1552,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.9953</t>
+          <t>1.1456</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.718</t>
+          <t>0.997</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.380</t>
+          <t>1.317</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1575,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.0308</t>
+          <t>1.9141</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>1.557</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.564</t>
+          <t>2.353</t>
         </is>
       </c>
     </row>
@@ -1599,17 +1598,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.1931</t>
+          <t>1.1750</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.699</t>
+          <t>0.945</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2.035</t>
+          <t>1.461</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1621,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.8458</t>
+          <t>1.5134</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.382</t>
+          <t>1.079</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.874</t>
+          <t>2.123</t>
         </is>
       </c>
     </row>
@@ -1645,17 +1644,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.2734</t>
+          <t>1.2904</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.888</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.713</t>
+          <t>1.876</t>
         </is>
       </c>
     </row>
@@ -1668,17 +1667,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.9429</t>
+          <t>1.0548</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.518</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>9.429</t>
+          <t>2.147</t>
         </is>
       </c>
     </row>
@@ -1691,17 +1690,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.3978</t>
+          <t>0.8226</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13.978</t>
+          <t>2.418</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1713,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.1312</t>
+          <t>2.6726</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1724,7 +1723,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11.312</t>
+          <t>26.726</t>
         </is>
       </c>
     </row>
@@ -1737,17 +1736,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.6444</t>
+          <t>2.8191</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.273</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6.444</t>
+          <t>6.245</t>
         </is>
       </c>
     </row>
@@ -1764,1348 +1763,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Dose_Combination</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>YearOfBirth</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>KCOR</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CI_Lower</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CI_Upper</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1 vs 0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.9919</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.964</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.020</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1920</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.9509</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.732</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.236</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1925</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.7677</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.684</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.862</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1930</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.8327</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.768</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.903</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1935</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1.0673</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.985</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.157</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1940</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1.0057</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.938</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.079</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1945</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1.0036</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.940</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.071</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1.1486</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.067</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.236</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1955</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1.1557</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.056</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.264</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1.1638</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.039</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.304</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.9308</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.815</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.064</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1.1867</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.014</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.389</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1.1811</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.972</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.436</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0.6772</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.518</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.885</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1.3873</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.822</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.341</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2.5871</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.051</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6.370</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0.4564</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.564</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0.2059</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.117</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.364</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2 vs 0</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1.2238</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.198</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.250</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1920</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0.8381</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.736</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.954</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1925</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0.8553</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.798</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.916</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1930</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0.9577</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.910</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.008</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1935</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1.2503</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.188</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>1.316</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1940</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1.2554</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.194</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1.320</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1945</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1.3348</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.266</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1.408</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1.5970</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.496</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1.705</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1955</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1.5021</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.375</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1.640</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1.3333</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.193</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>1.490</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1.7816</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.481</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2.143</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1.0074</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.838</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>1.211</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1.7876</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.316</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2.427</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0.8739</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.634</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1.204</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1.1669</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.691</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>1.971</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1.9053</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.984</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3.689</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0.7450</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.386</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>1.439</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0.5804</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.294</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>1.146</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2 vs 1</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1.2350</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.200</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1.271</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1920</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0.8814</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.681</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>1.141</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1925</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1.1142</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.997</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1.245</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1930</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1.1501</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.065</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>1.242</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1935</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1.1714</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.085</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>1.265</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1940</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1.2482</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.165</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>1.337</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1945</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1.3300</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.245</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>1.421</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1.3904</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.282</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>1.508</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1955</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>1.2998</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.169</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>1.445</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1.1456</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.997</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>1.317</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>1.9141</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.557</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2.353</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>0.8489</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.683</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>1.056</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1.5134</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.079</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2.123</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>1.2904</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.888</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>1.876</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>0.8411</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.413</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>1.712</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>0.7365</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.251</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>2.165</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2.6726</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>26.726</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2.8191</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1.273</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>6.245</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3166,17 +1823,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.0374</t>
+          <t>1.1194</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.992</t>
+          <t>1.071</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.084</t>
+          <t>1.170</t>
         </is>
       </c>
     </row>
@@ -3189,17 +1846,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.6639</t>
+          <t>1.2078</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.457</t>
+          <t>0.831</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.964</t>
+          <t>1.755</t>
         </is>
       </c>
     </row>
@@ -3281,17 +1938,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.8473</t>
+          <t>1.0636</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.767</t>
+          <t>0.963</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.936</t>
+          <t>1.174</t>
         </is>
       </c>
     </row>
@@ -3304,17 +1961,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.9453</t>
+          <t>1.0217</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.848</t>
+          <t>0.916</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.054</t>
+          <t>1.139</t>
         </is>
       </c>
     </row>
@@ -3350,17 +2007,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9681</t>
+          <t>0.9831</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.843</t>
+          <t>0.856</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.112</t>
+          <t>1.129</t>
         </is>
       </c>
     </row>
@@ -3419,17 +2076,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.8520</t>
+          <t>1.2643</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.671</t>
+          <t>0.996</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.082</t>
+          <t>1.605</t>
         </is>
       </c>
     </row>
@@ -3442,17 +2099,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.8624</t>
+          <t>0.9690</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.670</t>
+          <t>0.753</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.247</t>
         </is>
       </c>
     </row>
@@ -3488,17 +2145,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.9029</t>
+          <t>1.2508</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.564</t>
+          <t>0.781</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.446</t>
+          <t>2.003</t>
         </is>
       </c>
     </row>
@@ -3534,17 +2191,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.6787</t>
+          <t>1.2070</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.332</t>
+          <t>0.590</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.388</t>
+          <t>2.469</t>
         </is>
       </c>
     </row>
@@ -3598,17 +2255,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.0366</t>
+          <t>1.0502</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.013</t>
+          <t>1.027</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.060</t>
+          <t>1.074</t>
         </is>
       </c>
     </row>
@@ -3621,17 +2278,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.7552</t>
+          <t>1.0324</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.630</t>
+          <t>0.862</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.905</t>
+          <t>1.237</t>
         </is>
       </c>
     </row>
@@ -3690,17 +2347,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.0100</t>
+          <t>1.0247</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.952</t>
+          <t>0.966</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.071</t>
+          <t>1.087</t>
         </is>
       </c>
     </row>
@@ -3713,17 +2370,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9759</t>
+          <t>0.9890</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.923</t>
+          <t>0.935</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.032</t>
+          <t>1.046</t>
         </is>
       </c>
     </row>
@@ -3828,17 +2485,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9680</t>
+          <t>1.0026</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.856</t>
+          <t>0.887</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.095</t>
+          <t>1.134</t>
         </is>
       </c>
     </row>
@@ -3851,17 +2508,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.8644</t>
+          <t>1.0967</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.754</t>
+          <t>0.957</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>1.257</t>
         </is>
       </c>
     </row>
@@ -3920,17 +2577,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.0561</t>
+          <t>1.1717</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.763</t>
+          <t>0.846</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.463</t>
+          <t>1.623</t>
         </is>
       </c>
     </row>
@@ -4030,17 +2687,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.9993</t>
+          <t>1.0697</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.956</t>
+          <t>1.023</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.045</t>
+          <t>1.119</t>
         </is>
       </c>
     </row>
@@ -4076,17 +2733,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.6929</t>
+          <t>0.9878</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.554</t>
+          <t>0.790</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.866</t>
+          <t>1.235</t>
         </is>
       </c>
     </row>
@@ -4122,17 +2779,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.7844</t>
+          <t>1.0291</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.687</t>
+          <t>0.902</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.895</t>
+          <t>1.174</t>
         </is>
       </c>
     </row>
@@ -4237,17 +2894,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.9456</t>
+          <t>1.1008</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.785</t>
+          <t>0.914</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>1.325</t>
         </is>
       </c>
     </row>
@@ -4260,17 +2917,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.0830</t>
+          <t>1.2781</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.889</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.319</t>
+          <t>1.556</t>
         </is>
       </c>
     </row>
@@ -4375,17 +3032,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.6656</t>
+          <t>0.8761</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.331</t>
+          <t>0.435</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.340</t>
+          <t>1.764</t>
         </is>
       </c>
     </row>
@@ -4462,7 +3119,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1.5481</t>
+          <t>1.5487</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4472,7 +3129,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.579</t>
+          <t>1.580</t>
         </is>
       </c>
     </row>
@@ -4784,17 +3441,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.9280</t>
+          <t>1.0823</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.661</t>
+          <t>0.771</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.302</t>
+          <t>1.518</t>
         </is>
       </c>
     </row>
@@ -4894,12 +3551,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1.4934</t>
+          <t>1.4941</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1.463</t>
+          <t>1.464</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5216,17 +3873,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.8787</t>
+          <t>0.9237</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.587</t>
+          <t>0.617</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.315</t>
+          <t>1.383</t>
         </is>
       </c>
     </row>
@@ -5285,17 +3942,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.5147</t>
+          <t>0.7737</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>0.376</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.060</t>
+          <t>1.593</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2021_24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2022_06" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,17 +481,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.0516</t>
+          <t>0.6033</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.022</t>
+          <t>0.518</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.082</t>
+          <t>0.703</t>
         </is>
       </c>
     </row>
@@ -504,17 +504,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0592</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.815</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.376</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -527,17 +527,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9682</t>
+          <t>0.0361</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.863</t>
+          <t>0.032</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.087</t>
+          <t>0.041</t>
         </is>
       </c>
     </row>
@@ -550,17 +550,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0076</t>
+          <t>1.3283</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>1.226</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>1.439</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0673</t>
+          <t>1.0358</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.985</t>
+          <t>0.956</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.157</t>
+          <t>1.122</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0057</t>
+          <t>1.0008</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.938</t>
+          <t>0.933</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.079</t>
+          <t>1.074</t>
         </is>
       </c>
     </row>
@@ -619,17 +619,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0036</t>
+          <t>1.0025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.940</t>
+          <t>0.939</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.071</t>
+          <t>1.070</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.1486</t>
+          <t>1.1488</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -665,17 +665,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.1557</t>
+          <t>1.1561</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.056</t>
+          <t>1.057</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.264</t>
+          <t>1.265</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.1638</t>
+          <t>1.1642</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.304</t>
+          <t>1.305</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.5871</t>
+          <t>2.5869</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -913,17 +913,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.2579</t>
+          <t>0.7287</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.232</t>
+          <t>0.683</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.285</t>
+          <t>0.777</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.9691</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.851</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.104</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -959,17 +959,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.0397</t>
+          <t>0.0402</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.970</t>
+          <t>0.038</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.114</t>
+          <t>0.043</t>
         </is>
       </c>
     </row>
@@ -982,17 +982,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.9884</t>
+          <t>1.5212</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.939</t>
+          <t>1.447</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.040</t>
+          <t>1.600</t>
         </is>
       </c>
     </row>
@@ -1005,17 +1005,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.2503</t>
+          <t>1.2110</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.188</t>
+          <t>1.151</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>1.275</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1028,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.2554</t>
+          <t>1.2473</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.194</t>
+          <t>1.186</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.320</t>
+          <t>1.311</t>
         </is>
       </c>
     </row>
@@ -1051,17 +1051,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.3348</t>
+          <t>1.3323</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.266</t>
+          <t>1.263</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.408</t>
+          <t>1.405</t>
         </is>
       </c>
     </row>
@@ -1074,17 +1074,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.5970</t>
+          <t>1.5959</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.496</t>
+          <t>1.495</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.705</t>
+          <t>1.704</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.5021</t>
+          <t>1.5014</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1120,12 +1120,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.3333</t>
+          <t>1.3326</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.193</t>
+          <t>1.192</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.7816</t>
+          <t>1.7815</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.7876</t>
+          <t>1.7875</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.9053</t>
+          <t>1.9052</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.1682</t>
+          <t>1.1681</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1345,17 +1345,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.2435</t>
+          <t>1.0921</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.208</t>
+          <t>0.989</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.280</t>
+          <t>1.206</t>
         </is>
       </c>
     </row>
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.9149</t>
+          <t>0.9104</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.706</t>
+          <t>0.704</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.185</t>
+          <t>1.178</t>
         </is>
       </c>
     </row>
@@ -1391,17 +1391,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.1142</t>
+          <t>1.1134</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.997</t>
+          <t>0.996</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.245</t>
+          <t>1.244</t>
         </is>
       </c>
     </row>
@@ -1414,17 +1414,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.1501</t>
+          <t>1.1453</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.065</t>
+          <t>1.061</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>1.236</t>
         </is>
       </c>
     </row>
@@ -1437,17 +1437,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1714</t>
+          <t>1.1692</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.085</t>
+          <t>1.083</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.265</t>
+          <t>1.262</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1460,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.2482</t>
+          <t>1.2463</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.165</t>
+          <t>1.164</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.337</t>
+          <t>1.335</t>
         </is>
       </c>
     </row>
@@ -1483,17 +1483,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.3300</t>
+          <t>1.3290</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.245</t>
+          <t>1.244</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.421</t>
+          <t>1.419</t>
         </is>
       </c>
     </row>
@@ -1506,17 +1506,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.3904</t>
+          <t>1.3892</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.282</t>
+          <t>1.281</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.508</t>
+          <t>1.507</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1529,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.2998</t>
+          <t>1.2987</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.169</t>
+          <t>1.168</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.445</t>
+          <t>1.444</t>
         </is>
       </c>
     </row>
@@ -1552,17 +1552,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1456</t>
+          <t>1.1447</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.997</t>
+          <t>0.996</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.317</t>
+          <t>1.315</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.9141</t>
+          <t>1.9137</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2.6726</t>
+          <t>1.7761</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>26.726</t>
+          <t>17.761</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2.8191</t>
+          <t>2.8197</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6.245</t>
+          <t>6.246</t>
         </is>
       </c>
     </row>
@@ -1823,17 +1823,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.1194</t>
+          <t>0.5400</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.071</t>
+          <t>0.492</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.170</t>
+          <t>0.592</t>
         </is>
       </c>
     </row>
@@ -1846,17 +1846,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.2078</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.831</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.755</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1869,17 +1869,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.3529</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.085</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.686</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1892,17 +1892,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0821</t>
+          <t>0.4533</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.962</t>
+          <t>0.405</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>0.508</t>
         </is>
       </c>
     </row>
@@ -1915,17 +1915,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2875</t>
+          <t>1.3099</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.129</t>
+          <t>1.149</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.468</t>
+          <t>1.494</t>
         </is>
       </c>
     </row>
@@ -1938,17 +1938,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0636</t>
+          <t>1.0703</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.963</t>
+          <t>0.969</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.174</t>
+          <t>1.182</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0217</t>
+          <t>1.0216</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1984,17 +1984,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.2491</t>
+          <t>1.2475</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.096</t>
+          <t>1.094</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.424</t>
+          <t>1.422</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9831</t>
+          <t>0.9835</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.129</t>
+          <t>1.130</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.0766</t>
+          <t>1.0765</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.737</t>
+          <t>0.738</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.3662</t>
+          <t>2.3661</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2255,17 +2255,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.0502</t>
+          <t>0.4660</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.027</t>
+          <t>0.448</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.074</t>
+          <t>0.485</t>
         </is>
       </c>
     </row>
@@ -2278,17 +2278,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.0324</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.862</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.237</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2301,17 +2301,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.9374</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.862</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.020</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2324,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.0844</t>
+          <t>0.3859</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.022</t>
+          <t>0.367</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.151</t>
+          <t>0.405</t>
         </is>
       </c>
     </row>
@@ -2347,17 +2347,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.0247</t>
+          <t>1.0308</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.966</t>
+          <t>0.972</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.087</t>
+          <t>1.093</t>
         </is>
       </c>
     </row>
@@ -2370,17 +2370,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9890</t>
+          <t>0.9953</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.935</t>
+          <t>0.941</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.046</t>
+          <t>1.052</t>
         </is>
       </c>
     </row>
@@ -2393,17 +2393,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9979</t>
+          <t>0.9986</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.943</t>
+          <t>0.944</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.055</t>
+          <t>1.056</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.3080</t>
+          <t>1.3082</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0008</t>
+          <t>1.0007</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0181</t>
+          <t>1.0180</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2687,17 +2687,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.0697</t>
+          <t>1.0791</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.023</t>
+          <t>0.985</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.119</t>
+          <t>1.183</t>
         </is>
       </c>
     </row>
@@ -2710,17 +2710,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.1375</t>
+          <t>1.0547</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.771</t>
+          <t>0.729</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.677</t>
+          <t>1.526</t>
         </is>
       </c>
     </row>
@@ -2733,17 +2733,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.9878</t>
+          <t>1.3579</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.790</t>
+          <t>1.093</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.687</t>
         </is>
       </c>
     </row>
@@ -2756,17 +2756,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.0021</t>
+          <t>1.0630</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.889</t>
+          <t>0.943</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.130</t>
+          <t>1.198</t>
         </is>
       </c>
     </row>
@@ -2779,17 +2779,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.0291</t>
+          <t>1.0236</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.902</t>
+          <t>0.897</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.174</t>
+          <t>1.168</t>
         </is>
       </c>
     </row>
@@ -2802,17 +2802,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.1517</t>
+          <t>1.1547</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.043</t>
+          <t>1.046</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.271</t>
+          <t>1.275</t>
         </is>
       </c>
     </row>
@@ -2825,17 +2825,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.0556</t>
+          <t>1.0567</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.947</t>
+          <t>0.948</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.177</t>
+          <t>1.178</t>
         </is>
       </c>
     </row>
@@ -2848,17 +2848,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.0471</t>
+          <t>1.0486</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.916</t>
+          <t>0.918</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.197</t>
+          <t>1.198</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.0338</t>
+          <t>1.0342</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.190</t>
+          <t>1.191</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.2781</t>
+          <t>1.2782</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2940,12 +2940,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.0146</t>
+          <t>1.0145</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.798</t>
+          <t>0.797</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.0322</t>
+          <t>1.0323</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3119,17 +3119,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1.5487</t>
+          <t>0.7400</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.518</t>
+          <t>0.718</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.580</t>
+          <t>0.763</t>
         </is>
       </c>
     </row>
@@ -3142,17 +3142,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.1995</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.043</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.380</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3165,17 +3165,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.3211</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.233</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.416</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3188,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.5049</t>
+          <t>0.6205</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.433</t>
+          <t>0.598</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.581</t>
+          <t>0.644</t>
         </is>
       </c>
     </row>
@@ -3211,17 +3211,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.4957</t>
+          <t>1.5214</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.423</t>
+          <t>1.448</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.572</t>
+          <t>1.599</t>
         </is>
       </c>
     </row>
@@ -3234,17 +3234,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.6091</t>
+          <t>1.5961</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.532</t>
+          <t>1.519</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.691</t>
+          <t>1.677</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.6700</t>
+          <t>1.6702</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.7767</t>
+          <t>1.7763</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.4631</t>
+          <t>1.4627</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.3359</t>
+          <t>1.3358</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.602</t>
+          <t>1.601</t>
         </is>
       </c>
     </row>
@@ -3551,17 +3551,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1.4941</t>
+          <t>1.5758</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1.464</t>
+          <t>1.514</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.525</t>
+          <t>1.641</t>
         </is>
       </c>
     </row>
@@ -3574,17 +3574,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1.5883</t>
+          <t>1.0899</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1.332</t>
+          <t>0.941</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.893</t>
+          <t>1.262</t>
         </is>
       </c>
     </row>
@@ -3597,17 +3597,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1.4092</t>
+          <t>1.5096</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.304</t>
+          <t>1.402</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.523</t>
+          <t>1.625</t>
         </is>
       </c>
     </row>
@@ -3620,17 +3620,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1.3878</t>
+          <t>1.6080</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>1.525</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.464</t>
+          <t>1.695</t>
         </is>
       </c>
     </row>
@@ -3643,17 +3643,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1.4810</t>
+          <t>1.4759</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1.407</t>
+          <t>1.403</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.559</t>
+          <t>1.553</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.6489</t>
+          <t>1.6486</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3689,17 +3689,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1.6735</t>
+          <t>1.6725</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1.592</t>
+          <t>1.591</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.759</t>
+          <t>1.758</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.3583</t>
+          <t>1.3579</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.4619</t>
+          <t>1.4617</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.583</t>
+          <t>1.582</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1.5885</t>
+          <t>1.5884</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021_24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2022_06" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2021_13" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2021_24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2022_06" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2022_47" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,17 +483,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.6033</t>
+          <t>1.4761</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.518</t>
+          <t>1.435</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.703</t>
+          <t>1.518</t>
         </is>
       </c>
     </row>
@@ -504,17 +506,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.1042</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.882</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.382</t>
         </is>
       </c>
     </row>
@@ -527,17 +529,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.0361</t>
+          <t>1.0386</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.952</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.041</t>
+          <t>1.133</t>
         </is>
       </c>
     </row>
@@ -550,17 +552,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.3283</t>
+          <t>1.0459</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>0.985</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.439</t>
+          <t>1.110</t>
         </is>
       </c>
     </row>
@@ -573,17 +575,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0358</t>
+          <t>1.2548</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.956</t>
+          <t>1.189</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.122</t>
+          <t>1.325</t>
         </is>
       </c>
     </row>
@@ -596,17 +598,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0008</t>
+          <t>1.6501</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.933</t>
+          <t>1.572</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.074</t>
+          <t>1.733</t>
         </is>
       </c>
     </row>
@@ -619,17 +621,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0025</t>
+          <t>1.7966</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.939</t>
+          <t>1.702</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.070</t>
+          <t>1.896</t>
         </is>
       </c>
     </row>
@@ -642,17 +644,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.1488</t>
+          <t>1.7522</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.067</t>
+          <t>1.589</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>1.932</t>
         </is>
       </c>
     </row>
@@ -665,17 +667,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.1561</t>
+          <t>1.6728</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.057</t>
+          <t>1.451</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.265</t>
+          <t>1.928</t>
         </is>
       </c>
     </row>
@@ -688,17 +690,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.1642</t>
+          <t>1.8539</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.039</t>
+          <t>1.473</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.305</t>
+          <t>2.333</t>
         </is>
       </c>
     </row>
@@ -711,17 +713,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.0280</t>
+          <t>1.8767</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.900</t>
+          <t>1.395</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.175</t>
+          <t>2.524</t>
         </is>
       </c>
     </row>
@@ -734,17 +736,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.1867</t>
+          <t>1.9128</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.014</t>
+          <t>1.330</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.389</t>
+          <t>2.750</t>
         </is>
       </c>
     </row>
@@ -757,17 +759,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.1811</t>
+          <t>1.4165</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.972</t>
+          <t>0.855</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.436</t>
+          <t>2.347</t>
         </is>
       </c>
     </row>
@@ -780,17 +782,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0137</t>
+          <t>2.2191</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>0.920</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>5.354</t>
         </is>
       </c>
     </row>
@@ -803,17 +805,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.3873</t>
+          <t>1.2996</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.822</t>
+          <t>0.542</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.341</t>
+          <t>3.117</t>
         </is>
       </c>
     </row>
@@ -826,17 +828,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.5869</t>
+          <t>1.2202</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.051</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.370</t>
+          <t>12.202</t>
         </is>
       </c>
     </row>
@@ -849,7 +851,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.4870</t>
+          <t>2.5921</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,7 +861,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14.870</t>
+          <t>25.921</t>
         </is>
       </c>
     </row>
@@ -872,17 +874,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.5327</t>
+          <t>5.2030</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.868</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.708</t>
+          <t>52.030</t>
         </is>
       </c>
     </row>
@@ -913,17 +915,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.7287</t>
+          <t>1.7614</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.683</t>
+          <t>1.705</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.777</t>
+          <t>1.820</t>
         </is>
       </c>
     </row>
@@ -936,17 +938,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.0511</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.914</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.209</t>
         </is>
       </c>
     </row>
@@ -959,17 +961,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.0402</t>
+          <t>1.2763</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>1.191</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>1.368</t>
         </is>
       </c>
     </row>
@@ -982,17 +984,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.5212</t>
+          <t>1.6099</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.447</t>
+          <t>1.532</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.600</t>
+          <t>1.692</t>
         </is>
       </c>
     </row>
@@ -1005,17 +1007,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.2110</t>
+          <t>2.0476</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.151</t>
+          <t>1.946</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.275</t>
+          <t>2.155</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1030,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.2473</t>
+          <t>2.0140</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.186</t>
+          <t>1.892</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.311</t>
+          <t>2.144</t>
         </is>
       </c>
     </row>
@@ -1051,17 +1053,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.3323</t>
+          <t>1.8398</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.263</t>
+          <t>1.686</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.405</t>
+          <t>2.007</t>
         </is>
       </c>
     </row>
@@ -1074,17 +1076,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.5959</t>
+          <t>1.8091</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.495</t>
+          <t>1.600</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.704</t>
+          <t>2.046</t>
         </is>
       </c>
     </row>
@@ -1097,17 +1099,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.5014</t>
+          <t>1.6578</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.375</t>
+          <t>1.378</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.640</t>
+          <t>1.995</t>
         </is>
       </c>
     </row>
@@ -1120,17 +1122,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.3326</t>
+          <t>1.8447</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.192</t>
+          <t>1.454</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.490</t>
+          <t>2.341</t>
         </is>
       </c>
     </row>
@@ -1143,17 +1145,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.7815</t>
+          <t>1.7484</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.481</t>
+          <t>1.277</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.143</t>
+          <t>2.394</t>
         </is>
       </c>
     </row>
@@ -1166,17 +1168,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1135</t>
+          <t>2.2820</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.926</t>
+          <t>1.530</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.339</t>
+          <t>3.405</t>
         </is>
       </c>
     </row>
@@ -1189,17 +1191,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.7875</t>
+          <t>1.1980</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>0.643</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.427</t>
+          <t>2.233</t>
         </is>
       </c>
     </row>
@@ -1212,17 +1214,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.9114</t>
+          <t>0.8905</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.661</t>
+          <t>0.594</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.256</t>
+          <t>1.336</t>
         </is>
       </c>
     </row>
@@ -1235,17 +1237,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.2977</t>
+          <t>1.2917</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.768</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.191</t>
+          <t>12.917</t>
         </is>
       </c>
     </row>
@@ -1258,17 +1260,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.9052</t>
+          <t>1.5903</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.984</t>
+          <t>0.651</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.689</t>
+          <t>3.882</t>
         </is>
       </c>
     </row>
@@ -1281,17 +1283,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.5577</t>
+          <t>3.7268</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.807</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.009</t>
+          <t>37.268</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1306,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.1681</t>
+          <t>4.2095</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.592</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.307</t>
+          <t>42.095</t>
         </is>
       </c>
     </row>
@@ -1345,17 +1347,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.0921</t>
+          <t>1.1879</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.989</t>
+          <t>1.140</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>1.238</t>
         </is>
       </c>
     </row>
@@ -1368,17 +1370,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.9104</t>
+          <t>1.0577</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.704</t>
+          <t>0.837</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.178</t>
+          <t>1.337</t>
         </is>
       </c>
     </row>
@@ -1391,17 +1393,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.1134</t>
+          <t>1.2289</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>1.116</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.244</t>
+          <t>1.353</t>
         </is>
       </c>
     </row>
@@ -1414,17 +1416,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.1453</t>
+          <t>1.5393</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>1.440</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>1.645</t>
         </is>
       </c>
     </row>
@@ -1437,17 +1439,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1692</t>
+          <t>1.6319</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>1.531</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>1.739</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1462,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.2463</t>
+          <t>1.2205</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.164</t>
+          <t>1.135</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.335</t>
+          <t>1.313</t>
         </is>
       </c>
     </row>
@@ -1483,17 +1485,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.3290</t>
+          <t>1.0589</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.244</t>
+          <t>0.960</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.419</t>
+          <t>1.168</t>
         </is>
       </c>
     </row>
@@ -1506,17 +1508,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.3892</t>
+          <t>1.0325</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>0.885</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.507</t>
+          <t>1.204</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1531,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.2987</t>
+          <t>1.1694</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.168</t>
+          <t>0.929</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.444</t>
+          <t>1.472</t>
         </is>
       </c>
     </row>
@@ -1552,17 +1554,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1447</t>
+          <t>0.9951</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>0.718</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.315</t>
+          <t>1.380</t>
         </is>
       </c>
     </row>
@@ -1575,17 +1577,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.9137</t>
+          <t>0.9394</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.557</t>
+          <t>0.613</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2.353</t>
+          <t>1.439</t>
         </is>
       </c>
     </row>
@@ -1598,17 +1600,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.1750</t>
+          <t>1.1930</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.945</t>
+          <t>0.699</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.461</t>
+          <t>2.035</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1623,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.5134</t>
+          <t>0.9680</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.079</t>
+          <t>0.437</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2.123</t>
+          <t>2.145</t>
         </is>
       </c>
     </row>
@@ -1644,17 +1646,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.2904</t>
+          <t>0.7970</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.888</t>
+          <t>0.305</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.876</t>
+          <t>2.079</t>
         </is>
       </c>
     </row>
@@ -1667,17 +1669,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.0548</t>
+          <t>1.1823</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.518</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2.147</t>
+          <t>11.823</t>
         </is>
       </c>
     </row>
@@ -1690,17 +1692,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.8226</t>
+          <t>1.7273</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.418</t>
+          <t>17.273</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1715,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.7761</t>
+          <t>1.4377</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1723,7 +1725,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>17.761</t>
+          <t>14.377</t>
         </is>
       </c>
     </row>
@@ -1736,17 +1738,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2.8197</t>
+          <t>0.8091</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.273</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6.246</t>
+          <t>8.091</t>
         </is>
       </c>
     </row>
@@ -1763,6 +1765,1348 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dose_Combination</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>YearOfBirth</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>KCOR</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Lower</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1 vs 0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.9917</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.964</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.020</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1.0616</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.816</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.381</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.9635</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.859</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.081</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.0038</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.926</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.089</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.0682</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.986</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.157</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.0060</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.938</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.079</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.0112</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.947</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.080</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.1446</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.064</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.232</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1.1243</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.029</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.229</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.027</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.288</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.0280</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.900</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.175</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.2241</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.044</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.435</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1.1394</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.940</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.381</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.0137</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.776</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.324</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1.2355</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.782</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.952</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2.5869</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.051</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.4870</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14.870</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.5327</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.868</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.708</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1.2325</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.206</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.259</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.9720</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.853</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1.108</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1.0349</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.966</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.109</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.9848</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.936</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.036</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1.2571</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.194</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1.323</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1.2610</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.199</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1.326</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1.3391</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.270</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.412</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1.6033</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.502</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.712</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1.5444</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.413</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1.3484</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.206</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1.508</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1.7815</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.481</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2.143</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1.1133</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.926</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.338</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2.0052</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.452</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2.770</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.9114</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.661</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1.256</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1.7461</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.923</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3.303</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1.9052</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.984</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3.689</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1.5577</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.807</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3.009</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1.1681</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.592</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2.307</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1.2442</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.209</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1.281</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.9156</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.706</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1.187</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1.1116</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.995</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1.242</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1.1351</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.051</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1.1769</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.090</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1.271</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1.2535</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.170</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1.342</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1.3243</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.240</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1.415</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1.4007</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.291</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1.519</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1.3737</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.235</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1.527</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1.1725</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.020</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1.347</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1.9137</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.557</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2.353</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1.1757</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.944</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1.464</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1.7599</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.237</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2.503</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1.2904</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.888</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1.876</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1.6693</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.783</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>3.558</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.8226</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.280</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2.418</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1.7762</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>17.762</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2.8197</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.273</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>6.246</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1823,17 +3167,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5400</t>
+          <t>1.0377</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.492</t>
+          <t>0.993</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.592</t>
+          <t>1.084</t>
         </is>
       </c>
     </row>
@@ -1846,17 +3190,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.2017</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.826</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.749</t>
         </is>
       </c>
     </row>
@@ -1869,17 +3213,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.3753</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.102</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.717</t>
         </is>
       </c>
     </row>
@@ -1892,17 +3236,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.4533</t>
+          <t>1.0759</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.956</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.508</t>
+          <t>1.211</t>
         </is>
       </c>
     </row>
@@ -1915,17 +3259,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.3099</t>
+          <t>1.2633</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.149</t>
+          <t>1.109</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.494</t>
+          <t>1.440</t>
         </is>
       </c>
     </row>
@@ -1938,17 +3282,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0703</t>
+          <t>1.0626</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.969</t>
+          <t>0.962</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.182</t>
+          <t>1.174</t>
         </is>
       </c>
     </row>
@@ -1961,7 +3305,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0216</t>
+          <t>1.0219</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1984,17 +3328,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.2475</t>
+          <t>1.2482</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>1.095</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.422</t>
+          <t>1.423</t>
         </is>
       </c>
     </row>
@@ -2007,17 +3351,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9835</t>
+          <t>0.9889</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.856</t>
+          <t>0.860</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.130</t>
+          <t>1.137</t>
         </is>
       </c>
     </row>
@@ -2030,7 +3374,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.0765</t>
+          <t>1.0766</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2255,17 +3599,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.4660</t>
+          <t>1.0408</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.448</t>
+          <t>1.018</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.485</t>
+          <t>1.065</t>
         </is>
       </c>
     </row>
@@ -2278,17 +3622,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.0148</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.846</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.218</t>
         </is>
       </c>
     </row>
@@ -2301,17 +3645,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.9556</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.878</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.040</t>
         </is>
       </c>
     </row>
@@ -2324,17 +3668,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.3859</t>
+          <t>1.0861</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>1.023</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>1.153</t>
         </is>
       </c>
     </row>
@@ -2347,17 +3691,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.0308</t>
+          <t>1.0248</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.972</t>
+          <t>0.966</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.093</t>
+          <t>1.087</t>
         </is>
       </c>
     </row>
@@ -2370,17 +3714,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9953</t>
+          <t>0.9887</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.941</t>
+          <t>0.935</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.052</t>
+          <t>1.045</t>
         </is>
       </c>
     </row>
@@ -2393,7 +3737,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9986</t>
+          <t>0.9988</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2416,17 +3760,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.3082</t>
+          <t>1.3088</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>1.224</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.399</t>
+          <t>1.400</t>
         </is>
       </c>
     </row>
@@ -2439,17 +3783,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0007</t>
+          <t>1.0043</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.923</t>
+          <t>0.926</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.085</t>
+          <t>1.089</t>
         </is>
       </c>
     </row>
@@ -2462,7 +3806,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0180</t>
+          <t>1.0181</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2687,17 +4031,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.0791</t>
+          <t>1.0030</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.985</t>
+          <t>0.960</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.183</t>
+          <t>1.048</t>
         </is>
       </c>
     </row>
@@ -2710,17 +4054,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.0547</t>
+          <t>1.1765</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.729</t>
+          <t>0.796</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.526</t>
+          <t>1.738</t>
         </is>
       </c>
     </row>
@@ -2733,17 +4077,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.3579</t>
+          <t>0.9984</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.093</t>
+          <t>0.798</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.687</t>
+          <t>1.250</t>
         </is>
       </c>
     </row>
@@ -2756,17 +4100,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.0630</t>
+          <t>1.0095</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.943</t>
+          <t>0.895</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>1.139</t>
         </is>
       </c>
     </row>
@@ -2779,17 +4123,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.0236</t>
+          <t>1.0256</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.897</t>
+          <t>0.900</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.168</t>
+          <t>1.169</t>
         </is>
       </c>
     </row>
@@ -2802,17 +4146,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.1547</t>
+          <t>1.1422</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.046</t>
+          <t>1.034</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.275</t>
+          <t>1.261</t>
         </is>
       </c>
     </row>
@@ -2825,7 +4169,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.0567</t>
+          <t>1.0564</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2871,17 +4215,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.0342</t>
+          <t>1.0156</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.898</t>
+          <t>0.881</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.191</t>
+          <t>1.171</t>
         </is>
       </c>
     </row>
@@ -3119,17 +4463,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.7400</t>
+          <t>1.5512</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.718</t>
+          <t>1.521</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.763</t>
+          <t>1.582</t>
         </is>
       </c>
     </row>
@@ -3142,17 +4486,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.2328</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.071</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.419</t>
         </is>
       </c>
     </row>
@@ -3165,17 +4509,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.3437</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.254</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.440</t>
         </is>
       </c>
     </row>
@@ -3188,17 +4532,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.6205</t>
+          <t>1.5100</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.598</t>
+          <t>1.437</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.644</t>
+          <t>1.586</t>
         </is>
       </c>
     </row>
@@ -3211,17 +4555,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.5214</t>
+          <t>1.5010</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.448</t>
+          <t>1.428</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.599</t>
+          <t>1.578</t>
         </is>
       </c>
     </row>
@@ -3234,17 +4578,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.5961</t>
+          <t>1.6186</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.519</t>
+          <t>1.541</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.677</t>
+          <t>1.701</t>
         </is>
       </c>
     </row>
@@ -3257,17 +4601,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.6702</t>
+          <t>1.6714</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.588</t>
+          <t>1.589</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.756</t>
+          <t>1.758</t>
         </is>
       </c>
     </row>
@@ -3280,17 +4624,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.7763</t>
+          <t>1.7775</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.675</t>
+          <t>1.676</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.884</t>
+          <t>1.885</t>
         </is>
       </c>
     </row>
@@ -3303,17 +4647,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.4627</t>
+          <t>1.4680</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1.357</t>
+          <t>1.362</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.577</t>
+          <t>1.582</t>
         </is>
       </c>
     </row>
@@ -3326,7 +4670,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.3358</t>
+          <t>1.3359</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3382,7 +4726,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.601</t>
+          <t>1.602</t>
         </is>
       </c>
     </row>
@@ -3551,17 +4895,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1.5758</t>
+          <t>1.4904</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1.514</t>
+          <t>1.460</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.641</t>
+          <t>1.522</t>
         </is>
       </c>
     </row>
@@ -3574,17 +4918,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1.0899</t>
+          <t>1.6001</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.941</t>
+          <t>1.341</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>1.909</t>
         </is>
       </c>
     </row>
@@ -3597,17 +4941,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1.5096</t>
+          <t>1.4061</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.402</t>
+          <t>1.301</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.625</t>
+          <t>1.520</t>
         </is>
       </c>
     </row>
@@ -3620,17 +4964,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1.6080</t>
+          <t>1.3904</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.525</t>
+          <t>1.318</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.695</t>
+          <t>1.467</t>
         </is>
       </c>
     </row>
@@ -3643,17 +4987,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1.4759</t>
+          <t>1.4838</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1.403</t>
+          <t>1.410</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.553</t>
+          <t>1.562</t>
         </is>
       </c>
     </row>
@@ -3666,17 +5010,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.6486</t>
+          <t>1.6579</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.570</t>
+          <t>1.579</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.731</t>
+          <t>1.741</t>
         </is>
       </c>
     </row>
@@ -3689,17 +5033,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1.6725</t>
+          <t>1.6734</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1.591</t>
+          <t>1.592</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.758</t>
+          <t>1.759</t>
         </is>
       </c>
     </row>
@@ -3712,7 +5056,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.3579</t>
+          <t>1.3581</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3735,7 +5079,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.4617</t>
+          <t>1.4618</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3966,4 +5310,1778 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dose_Combination</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>YearOfBirth</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>KCOR</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Lower</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4 vs 0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.9945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.956</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.035</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1.0016</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.752</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.335</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.0251</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.903</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.163</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.0121</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.927</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.105</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.9884</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.905</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.080</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.0163</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.928</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.113</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.0209</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.934</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.116</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.9991</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.894</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.117</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.9522</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.825</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.099</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.8494</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.659</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.094</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.0327</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.757</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.409</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.0350</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.609</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.759</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1.2449</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.650</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.385</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.8609</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.516</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.436</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.6556</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.188</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.287</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1.5740</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.661</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.747</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.8702</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.241</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.147</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2.1584</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.593</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7.852</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4 vs 1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1.0058</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.936</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.081</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1.3746</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.409</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>4.622</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1.2957</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.907</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.850</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1.0351</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.839</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.277</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.9476</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.788</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1.139</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1.0386</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.876</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1.231</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1.0488</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.891</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.235</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.9514</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.787</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.150</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.8369</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.671</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.044</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.9712</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.700</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1.348</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1.8660</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.228</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2.834</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.8887</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.497</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.589</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1.5889</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.781</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3.230</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1.2104</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.491</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2.986</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.7975</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.206</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3.087</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1.7185</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.620</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4.764</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1.0000</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.183</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5.477</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>10.5077</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>105.077</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4 vs 2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.9917</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.951</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1.034</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1.1139</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.760</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1.632</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1.0717</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.915</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1.255</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1.0770</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.979</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1.185</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.9385</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.857</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1.028</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1.0267</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.936</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1.126</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.9924</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.905</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1.089</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.9510</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.847</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1.067</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.8957</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.769</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1.043</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.9325</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.719</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1.210</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1.0706</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.778</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1.474</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.9828</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.575</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1.679</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1.3841</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.719</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2.666</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1.0367</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.607</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1.772</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.8739</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.246</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>3.101</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2.3314</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.961</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>5.657</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1.0000</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.273</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3.663</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2.3151</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.662</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>8.094</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4 vs 3</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1.0153</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.980</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1.052</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1.0316</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.779</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1.367</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1.0111</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.908</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1.126</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1.0455</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.975</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1.122</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0.9721</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.907</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1.041</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1.0622</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.990</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.140</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1.0092</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.938</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1.086</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1.0289</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.934</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1.134</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0.9511</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.832</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1.087</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0.9436</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.737</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1.209</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1.0576</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.778</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1.439</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1.0397</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.612</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1.766</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1.4071</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.732</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2.705</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1.0476</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.616</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1.782</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0.8264</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.233</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2.928</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2.1798</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.896</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>5.301</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1.6603</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.431</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>6.394</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5.2046</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.344</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.160</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 vs 0</t>
+          <t>Reporting date: 2023-01-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -475,48 +475,36 @@
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1.4761</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.435</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.518</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 vs 0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (pooled)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.1042</t>
+          <t>1.4796</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.882</t>
+          <t>1.439</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.382</t>
+          <t>1.521</t>
         </is>
       </c>
     </row>
@@ -524,22 +512,22 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.0386</t>
+          <t>1.1031</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.952</t>
+          <t>0.881</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.133</t>
+          <t>1.380</t>
         </is>
       </c>
     </row>
@@ -547,22 +535,22 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0459</t>
+          <t>1.0443</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.985</t>
+          <t>0.957</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.139</t>
         </is>
       </c>
     </row>
@@ -570,22 +558,22 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2548</t>
+          <t>1.0485</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.189</t>
+          <t>0.988</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.325</t>
+          <t>1.113</t>
         </is>
       </c>
     </row>
@@ -593,22 +581,22 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.6501</t>
+          <t>1.2584</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.572</t>
+          <t>1.192</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.733</t>
+          <t>1.328</t>
         </is>
       </c>
     </row>
@@ -616,22 +604,22 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.7966</t>
+          <t>1.6539</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.702</t>
+          <t>1.575</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.896</t>
+          <t>1.736</t>
         </is>
       </c>
     </row>
@@ -639,22 +627,22 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.7522</t>
+          <t>1.8032</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.589</t>
+          <t>1.709</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.932</t>
+          <t>1.903</t>
         </is>
       </c>
     </row>
@@ -662,17 +650,17 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.6728</t>
+          <t>1.7486</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.451</t>
+          <t>1.585</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -685,22 +673,22 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.8539</t>
+          <t>1.6833</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.473</t>
+          <t>1.460</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.333</t>
+          <t>1.941</t>
         </is>
       </c>
     </row>
@@ -708,22 +696,22 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.8767</t>
+          <t>1.8564</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.395</t>
+          <t>1.475</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.524</t>
+          <t>2.336</t>
         </is>
       </c>
     </row>
@@ -731,22 +719,22 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.9128</t>
+          <t>1.8740</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.330</t>
+          <t>1.393</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>2.521</t>
         </is>
       </c>
     </row>
@@ -754,22 +742,22 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.4165</t>
+          <t>1.9033</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.855</t>
+          <t>1.324</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.347</t>
+          <t>2.737</t>
         </is>
       </c>
     </row>
@@ -777,22 +765,22 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.2191</t>
+          <t>1.4228</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.920</t>
+          <t>0.859</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.354</t>
+          <t>2.357</t>
         </is>
       </c>
     </row>
@@ -800,22 +788,22 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.2996</t>
+          <t>2.1940</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.542</t>
+          <t>0.909</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.117</t>
+          <t>5.293</t>
         </is>
       </c>
     </row>
@@ -823,22 +811,22 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.2202</t>
+          <t>1.3262</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.553</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12.202</t>
+          <t>3.180</t>
         </is>
       </c>
     </row>
@@ -846,12 +834,12 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.5921</t>
+          <t>1.2019</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -861,7 +849,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25.921</t>
+          <t>12.019</t>
         </is>
       </c>
     </row>
@@ -869,12 +857,12 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5.2030</t>
+          <t>2.5772</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -884,71 +872,71 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>52.030</t>
+          <t>25.772</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5.1270</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>51.270</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2 vs 0</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1.7614</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.705</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.820</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (pooled)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.0511</t>
+          <t>1.7634</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.914</t>
+          <t>1.707</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>1.822</t>
         </is>
       </c>
     </row>
@@ -956,22 +944,22 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.2763</t>
+          <t>1.0551</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.191</t>
+          <t>0.918</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.368</t>
+          <t>1.213</t>
         </is>
       </c>
     </row>
@@ -979,22 +967,22 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.6099</t>
+          <t>1.2757</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.532</t>
+          <t>1.190</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.692</t>
+          <t>1.367</t>
         </is>
       </c>
     </row>
@@ -1002,22 +990,22 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2.0476</t>
+          <t>1.6114</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.946</t>
+          <t>1.533</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.155</t>
+          <t>1.694</t>
         </is>
       </c>
     </row>
@@ -1025,22 +1013,22 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2.0140</t>
+          <t>2.0558</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.892</t>
+          <t>1.954</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.144</t>
+          <t>2.163</t>
         </is>
       </c>
     </row>
@@ -1048,22 +1036,22 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.8398</t>
+          <t>2.0118</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.686</t>
+          <t>1.890</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.007</t>
+          <t>2.142</t>
         </is>
       </c>
     </row>
@@ -1071,22 +1059,22 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.8091</t>
+          <t>1.8367</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.600</t>
+          <t>1.683</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.046</t>
+          <t>2.004</t>
         </is>
       </c>
     </row>
@@ -1094,22 +1082,22 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.6578</t>
+          <t>1.8213</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.378</t>
+          <t>1.610</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.995</t>
+          <t>2.060</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1105,22 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.8447</t>
+          <t>1.6497</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.454</t>
+          <t>1.371</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.341</t>
+          <t>1.985</t>
         </is>
       </c>
     </row>
@@ -1140,22 +1128,22 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.7484</t>
+          <t>1.8502</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.277</t>
+          <t>1.458</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.394</t>
+          <t>2.347</t>
         </is>
       </c>
     </row>
@@ -1163,22 +1151,22 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2.2820</t>
+          <t>1.7498</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.530</t>
+          <t>1.278</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.405</t>
+          <t>2.396</t>
         </is>
       </c>
     </row>
@@ -1186,22 +1174,22 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.1980</t>
+          <t>2.3123</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.643</t>
+          <t>1.550</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.233</t>
+          <t>3.450</t>
         </is>
       </c>
     </row>
@@ -1209,22 +1197,22 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.8905</t>
+          <t>1.1979</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.594</t>
+          <t>0.643</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.336</t>
+          <t>2.233</t>
         </is>
       </c>
     </row>
@@ -1232,22 +1220,22 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.2917</t>
+          <t>0.9145</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.610</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12.917</t>
+          <t>1.372</t>
         </is>
       </c>
     </row>
@@ -1255,22 +1243,22 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.5903</t>
+          <t>1.2776</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.651</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.882</t>
+          <t>12.776</t>
         </is>
       </c>
     </row>
@@ -1278,22 +1266,22 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3.7268</t>
+          <t>1.5664</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.642</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>37.268</t>
+          <t>3.824</t>
         </is>
       </c>
     </row>
@@ -1301,12 +1289,12 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.2095</t>
+          <t>3.7054</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1316,71 +1304,71 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>42.095</t>
+          <t>37.054</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4.1480</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>41.480</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2 vs 1</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1.1879</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.140</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1.238</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (pooled)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.0577</t>
+          <t>1.1867</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.837</t>
+          <t>1.139</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.337</t>
+          <t>1.236</t>
         </is>
       </c>
     </row>
@@ -1388,22 +1376,22 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.2289</t>
+          <t>1.0628</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>0.841</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.353</t>
+          <t>1.343</t>
         </is>
       </c>
     </row>
@@ -1411,22 +1399,22 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.5393</t>
+          <t>1.2216</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.440</t>
+          <t>1.110</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.645</t>
+          <t>1.345</t>
         </is>
       </c>
     </row>
@@ -1434,22 +1422,22 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.6319</t>
+          <t>1.5368</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.531</t>
+          <t>1.438</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.739</t>
+          <t>1.643</t>
         </is>
       </c>
     </row>
@@ -1457,22 +1445,22 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.2205</t>
+          <t>1.6336</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.135</t>
+          <t>1.533</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.313</t>
+          <t>1.741</t>
         </is>
       </c>
     </row>
@@ -1480,22 +1468,22 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.0589</t>
+          <t>1.2164</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.960</t>
+          <t>1.131</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.168</t>
+          <t>1.308</t>
         </is>
       </c>
     </row>
@@ -1503,22 +1491,22 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.0325</t>
+          <t>1.0533</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.885</t>
+          <t>0.955</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.204</t>
+          <t>1.162</t>
         </is>
       </c>
     </row>
@@ -1526,22 +1514,22 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.1694</t>
+          <t>1.0416</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>0.893</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.472</t>
+          <t>1.215</t>
         </is>
       </c>
     </row>
@@ -1549,22 +1537,22 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.9951</t>
+          <t>1.1564</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.718</t>
+          <t>0.919</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.380</t>
+          <t>1.455</t>
         </is>
       </c>
     </row>
@@ -1572,22 +1560,22 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.9394</t>
+          <t>0.9967</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.613</t>
+          <t>0.719</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.439</t>
+          <t>1.382</t>
         </is>
       </c>
     </row>
@@ -1595,22 +1583,22 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.1930</t>
+          <t>0.9415</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.699</t>
+          <t>0.614</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2.035</t>
+          <t>1.443</t>
         </is>
       </c>
     </row>
@@ -1618,22 +1606,22 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.9680</t>
+          <t>1.2149</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.437</t>
+          <t>0.712</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2.145</t>
+          <t>2.072</t>
         </is>
       </c>
     </row>
@@ -1641,22 +1629,22 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.7970</t>
+          <t>0.9636</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.305</t>
+          <t>0.435</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.079</t>
+          <t>2.136</t>
         </is>
       </c>
     </row>
@@ -1664,22 +1652,22 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.1823</t>
+          <t>0.8278</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.317</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11.823</t>
+          <t>2.160</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1675,12 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.7273</t>
+          <t>1.1459</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1702,7 +1690,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>17.273</t>
+          <t>11.459</t>
         </is>
       </c>
     </row>
@@ -1710,12 +1698,12 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.4377</t>
+          <t>1.7273</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1725,7 +1713,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>14.377</t>
+          <t>17.273</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1721,12 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.8091</t>
+          <t>1.4377</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1748,16 +1736,39 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>8.091</t>
+          <t>14.377</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.8091</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>8.091</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1770,7 +1781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1808,7 +1819,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 vs 0</t>
+          <t>Reporting date: 2023-01-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -1817,48 +1828,36 @@
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.9917</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.964</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.020</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 vs 0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (pooled)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0616</t>
+          <t>0.9937</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.816</t>
+          <t>0.966</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.381</t>
+          <t>1.022</t>
         </is>
       </c>
     </row>
@@ -1866,22 +1865,22 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9635</t>
+          <t>1.0670</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.859</t>
+          <t>0.820</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.081</t>
+          <t>1.388</t>
         </is>
       </c>
     </row>
@@ -1889,22 +1888,22 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0038</t>
+          <t>0.9682</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.926</t>
+          <t>0.863</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.089</t>
+          <t>1.086</t>
         </is>
       </c>
     </row>
@@ -1912,22 +1911,22 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0682</t>
+          <t>1.0019</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.986</t>
+          <t>0.924</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.157</t>
+          <t>1.086</t>
         </is>
       </c>
     </row>
@@ -1935,22 +1934,22 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0060</t>
+          <t>1.0748</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.938</t>
+          <t>0.992</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.079</t>
+          <t>1.165</t>
         </is>
       </c>
     </row>
@@ -1958,22 +1957,22 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0112</t>
+          <t>1.0083</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.947</t>
+          <t>0.940</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>1.081</t>
         </is>
       </c>
     </row>
@@ -1981,22 +1980,22 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.1446</t>
+          <t>1.0085</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.064</t>
+          <t>0.945</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.232</t>
+          <t>1.077</t>
         </is>
       </c>
     </row>
@@ -2004,22 +2003,22 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.1243</t>
+          <t>1.1492</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.029</t>
+          <t>1.068</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.229</t>
+          <t>1.237</t>
         </is>
       </c>
     </row>
@@ -2027,22 +2026,22 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.1500</t>
+          <t>1.1290</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.027</t>
+          <t>1.033</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.288</t>
+          <t>1.234</t>
         </is>
       </c>
     </row>
@@ -2050,22 +2049,22 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.0280</t>
+          <t>1.1555</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.900</t>
+          <t>1.032</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.175</t>
+          <t>1.294</t>
         </is>
       </c>
     </row>
@@ -2073,22 +2072,22 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.2241</t>
+          <t>1.0368</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.044</t>
+          <t>0.907</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.435</t>
+          <t>1.185</t>
         </is>
       </c>
     </row>
@@ -2096,22 +2095,22 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.1394</t>
+          <t>1.2202</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.940</t>
+          <t>1.041</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.381</t>
+          <t>1.430</t>
         </is>
       </c>
     </row>
@@ -2119,22 +2118,22 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0137</t>
+          <t>1.1341</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>0.936</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>1.375</t>
         </is>
       </c>
     </row>
@@ -2142,22 +2141,22 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.2355</t>
+          <t>1.0131</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.782</t>
+          <t>0.775</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.952</t>
+          <t>1.324</t>
         </is>
       </c>
     </row>
@@ -2165,22 +2164,22 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.5869</t>
+          <t>1.2156</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.051</t>
+          <t>0.769</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.370</t>
+          <t>1.920</t>
         </is>
       </c>
     </row>
@@ -2188,22 +2187,22 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.4870</t>
+          <t>2.6880</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.092</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14.870</t>
+          <t>6.619</t>
         </is>
       </c>
     </row>
@@ -2211,86 +2210,86 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.5327</t>
+          <t>1.4736</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.868</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.708</t>
+          <t>14.736</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.5000</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.849</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.650</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2 vs 0</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1.2325</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.206</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.259</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (pooled)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.9720</t>
+          <t>1.2348</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.853</t>
+          <t>1.209</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.261</t>
         </is>
       </c>
     </row>
@@ -2298,22 +2297,22 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.0349</t>
+          <t>0.9756</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.966</t>
+          <t>0.856</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.109</t>
+          <t>1.112</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2320,22 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.9848</t>
+          <t>1.0356</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.936</t>
+          <t>0.966</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.036</t>
+          <t>1.110</t>
         </is>
       </c>
     </row>
@@ -2344,22 +2343,22 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.2571</t>
+          <t>0.9868</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.194</t>
+          <t>0.938</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.323</t>
+          <t>1.038</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2366,7 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2377,12 +2376,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>1.198</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.326</t>
+          <t>1.327</t>
         </is>
       </c>
     </row>
@@ -2390,22 +2389,22 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.3391</t>
+          <t>1.2632</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.270</t>
+          <t>1.201</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.412</t>
+          <t>1.328</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2412,22 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.6033</t>
+          <t>1.3395</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.502</t>
+          <t>1.270</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.712</t>
+          <t>1.413</t>
         </is>
       </c>
     </row>
@@ -2436,22 +2435,22 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.5444</t>
+          <t>1.6086</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.413</t>
+          <t>1.506</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.688</t>
+          <t>1.718</t>
         </is>
       </c>
     </row>
@@ -2459,22 +2458,22 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.3484</t>
+          <t>1.5462</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>1.415</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.508</t>
+          <t>1.690</t>
         </is>
       </c>
     </row>
@@ -2482,22 +2481,22 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.7815</t>
+          <t>1.3530</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.481</t>
+          <t>1.210</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.143</t>
+          <t>1.513</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2504,22 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1133</t>
+          <t>1.7911</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.926</t>
+          <t>1.489</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.338</t>
+          <t>2.154</t>
         </is>
       </c>
     </row>
@@ -2528,22 +2527,22 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2.0052</t>
+          <t>1.1069</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.452</t>
+          <t>0.921</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.770</t>
+          <t>1.331</t>
         </is>
       </c>
     </row>
@@ -2551,22 +2550,22 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.9114</t>
+          <t>1.9963</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.661</t>
+          <t>1.445</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.256</t>
+          <t>2.757</t>
         </is>
       </c>
     </row>
@@ -2574,22 +2573,22 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.7461</t>
+          <t>0.9376</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.923</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.303</t>
+          <t>1.292</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2596,22 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.9052</t>
+          <t>1.7426</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.984</t>
+          <t>0.921</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.689</t>
+          <t>3.296</t>
         </is>
       </c>
     </row>
@@ -2620,22 +2619,22 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.5577</t>
+          <t>1.9311</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.807</t>
+          <t>0.997</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.009</t>
+          <t>3.739</t>
         </is>
       </c>
     </row>
@@ -2643,86 +2642,86 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.1681</t>
+          <t>1.5437</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.592</t>
+          <t>0.799</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.307</t>
+          <t>2.981</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1.1432</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.579</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2.257</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2 vs 1</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1.2442</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.209</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1.281</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (pooled)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.9156</t>
+          <t>1.2441</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.706</t>
+          <t>1.209</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.187</t>
+          <t>1.281</t>
         </is>
       </c>
     </row>
@@ -2730,22 +2729,22 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.1116</t>
+          <t>0.9144</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.995</t>
+          <t>0.705</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>1.186</t>
         </is>
       </c>
     </row>
@@ -2753,22 +2752,22 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.1351</t>
+          <t>1.1069</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.051</t>
+          <t>0.991</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.237</t>
         </is>
       </c>
     </row>
@@ -2776,22 +2775,22 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1769</t>
+          <t>1.1396</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.090</t>
+          <t>1.055</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.271</t>
+          <t>1.231</t>
         </is>
       </c>
     </row>
@@ -2799,22 +2798,22 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.2535</t>
+          <t>1.1732</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.170</t>
+          <t>1.087</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.342</t>
+          <t>1.267</t>
         </is>
       </c>
     </row>
@@ -2822,22 +2821,22 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.3243</t>
+          <t>1.2528</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.240</t>
+          <t>1.170</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.415</t>
+          <t>1.342</t>
         </is>
       </c>
     </row>
@@ -2845,22 +2844,22 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.4007</t>
+          <t>1.3282</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.291</t>
+          <t>1.243</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.519</t>
+          <t>1.419</t>
         </is>
       </c>
     </row>
@@ -2868,22 +2867,22 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.3737</t>
+          <t>1.3997</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.291</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.527</t>
+          <t>1.518</t>
         </is>
       </c>
     </row>
@@ -2891,22 +2890,22 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1725</t>
+          <t>1.3696</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.020</t>
+          <t>1.232</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.347</t>
+          <t>1.523</t>
         </is>
       </c>
     </row>
@@ -2914,22 +2913,22 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.9137</t>
+          <t>1.1709</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.557</t>
+          <t>1.019</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2.353</t>
+          <t>1.346</t>
         </is>
       </c>
     </row>
@@ -2937,22 +2936,22 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.1757</t>
+          <t>1.9079</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.944</t>
+          <t>1.552</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.464</t>
+          <t>2.345</t>
         </is>
       </c>
     </row>
@@ -2960,22 +2959,22 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.7599</t>
+          <t>1.1727</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.237</t>
+          <t>0.942</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2.503</t>
+          <t>1.460</t>
         </is>
       </c>
     </row>
@@ -2983,22 +2982,22 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.2904</t>
+          <t>1.7602</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.888</t>
+          <t>1.238</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.876</t>
+          <t>2.504</t>
         </is>
       </c>
     </row>
@@ -3006,22 +3005,22 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.6693</t>
+          <t>1.3283</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.783</t>
+          <t>0.914</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3.558</t>
+          <t>1.931</t>
         </is>
       </c>
     </row>
@@ -3029,22 +3028,22 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.8226</t>
+          <t>1.6933</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.794</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.418</t>
+          <t>3.609</t>
         </is>
       </c>
     </row>
@@ -3052,22 +3051,22 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.7762</t>
+          <t>0.8023</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.273</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>17.762</t>
+          <t>2.359</t>
         </is>
       </c>
     </row>
@@ -3075,31 +3074,54 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2.8197</t>
+          <t>1.7762</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.273</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6.246</t>
+          <t>17.762</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2.8197</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.273</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>6.246</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3112,7 +3134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3150,7 +3172,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 vs 0</t>
+          <t>Reporting date: 2023-01-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -3159,48 +3181,36 @@
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1.0377</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.993</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.084</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 vs 0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (pooled)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.2017</t>
+          <t>1.0428</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.826</t>
+          <t>0.998</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.749</t>
+          <t>1.090</t>
         </is>
       </c>
     </row>
@@ -3208,22 +3218,22 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.3753</t>
+          <t>1.2104</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.102</t>
+          <t>0.832</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.717</t>
+          <t>1.761</t>
         </is>
       </c>
     </row>
@@ -3231,22 +3241,22 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0759</t>
+          <t>1.3710</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.956</t>
+          <t>1.099</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.211</t>
+          <t>1.711</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3264,22 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2633</t>
+          <t>1.0716</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.109</t>
+          <t>0.952</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.440</t>
+          <t>1.206</t>
         </is>
       </c>
     </row>
@@ -3277,22 +3287,22 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0626</t>
+          <t>1.2900</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.962</t>
+          <t>1.132</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.174</t>
+          <t>1.470</t>
         </is>
       </c>
     </row>
@@ -3300,22 +3310,22 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0219</t>
+          <t>1.0664</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.916</t>
+          <t>0.965</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>1.178</t>
         </is>
       </c>
     </row>
@@ -3323,22 +3333,22 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.2482</t>
+          <t>1.0196</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.095</t>
+          <t>0.914</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.423</t>
+          <t>1.137</t>
         </is>
       </c>
     </row>
@@ -3346,22 +3356,22 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9889</t>
+          <t>1.2601</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.860</t>
+          <t>1.105</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.137</t>
+          <t>1.436</t>
         </is>
       </c>
     </row>
@@ -3369,22 +3379,22 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.0766</t>
+          <t>0.9880</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.899</t>
+          <t>0.859</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.289</t>
+          <t>1.136</t>
         </is>
       </c>
     </row>
@@ -3392,22 +3402,22 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.8938</t>
+          <t>1.0980</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.738</t>
+          <t>0.917</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>1.314</t>
         </is>
       </c>
     </row>
@@ -3415,22 +3425,22 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.2643</t>
+          <t>0.9074</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>0.749</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.605</t>
+          <t>1.100</t>
         </is>
       </c>
     </row>
@@ -3438,22 +3448,22 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.9690</t>
+          <t>1.2532</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.753</t>
+          <t>0.987</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.247</t>
+          <t>1.591</t>
         </is>
       </c>
     </row>
@@ -3461,22 +3471,22 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0274</t>
+          <t>1.0130</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.715</t>
+          <t>0.787</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.476</t>
+          <t>1.303</t>
         </is>
       </c>
     </row>
@@ -3484,22 +3494,22 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.2508</t>
+          <t>1.0115</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.781</t>
+          <t>0.704</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.003</t>
+          <t>1.453</t>
         </is>
       </c>
     </row>
@@ -3507,22 +3517,22 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.3661</t>
+          <t>1.2460</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>0.778</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.560</t>
+          <t>1.995</t>
         </is>
       </c>
     </row>
@@ -3530,22 +3540,22 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.2070</t>
+          <t>2.3224</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.590</t>
+          <t>1.205</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.469</t>
+          <t>4.475</t>
         </is>
       </c>
     </row>
@@ -3553,86 +3563,86 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.7949</t>
+          <t>1.1923</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.708</t>
+          <t>0.583</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.552</t>
+          <t>2.439</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.7166</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.677</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4.353</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2 vs 0</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1.0408</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.018</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.065</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (pooled)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.0148</t>
+          <t>1.0443</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.846</t>
+          <t>1.021</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>1.068</t>
         </is>
       </c>
     </row>
@@ -3640,22 +3650,22 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.9556</t>
+          <t>1.0150</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.878</t>
+          <t>0.846</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.040</t>
+          <t>1.218</t>
         </is>
       </c>
     </row>
@@ -3663,22 +3673,22 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.0861</t>
+          <t>0.9658</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.023</t>
+          <t>0.888</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.153</t>
+          <t>1.051</t>
         </is>
       </c>
     </row>
@@ -3686,22 +3696,22 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.0248</t>
+          <t>1.0840</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.966</t>
+          <t>1.021</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.087</t>
+          <t>1.151</t>
         </is>
       </c>
     </row>
@@ -3709,22 +3719,22 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9887</t>
+          <t>1.0303</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.935</t>
+          <t>0.971</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.045</t>
+          <t>1.093</t>
         </is>
       </c>
     </row>
@@ -3732,22 +3742,22 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9988</t>
+          <t>0.9947</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.944</t>
+          <t>0.941</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.056</t>
+          <t>1.052</t>
         </is>
       </c>
     </row>
@@ -3755,22 +3765,22 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.3088</t>
+          <t>1.0003</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>0.946</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.400</t>
+          <t>1.058</t>
         </is>
       </c>
     </row>
@@ -3778,22 +3788,22 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0043</t>
+          <t>1.3165</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.926</t>
+          <t>1.231</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.089</t>
+          <t>1.408</t>
         </is>
       </c>
     </row>
@@ -3801,22 +3811,22 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0181</t>
+          <t>1.0045</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.917</t>
+          <t>0.926</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.131</t>
+          <t>1.089</t>
         </is>
       </c>
     </row>
@@ -3824,22 +3834,22 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.0026</t>
+          <t>1.0255</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.887</t>
+          <t>0.923</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.134</t>
+          <t>1.139</t>
         </is>
       </c>
     </row>
@@ -3847,22 +3857,22 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.0967</t>
+          <t>0.9986</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.957</t>
+          <t>0.883</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.257</t>
+          <t>1.129</t>
         </is>
       </c>
     </row>
@@ -3870,22 +3880,22 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.8328</t>
+          <t>1.0828</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.495</t>
+          <t>0.944</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.246</t>
+          <t>1.241</t>
         </is>
       </c>
     </row>
@@ -3893,22 +3903,22 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.0605</t>
+          <t>1.8389</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.835</t>
+          <t>1.500</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.348</t>
+          <t>2.254</t>
         </is>
       </c>
     </row>
@@ -3916,22 +3926,22 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.1717</t>
+          <t>1.0814</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.846</t>
+          <t>0.851</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.623</t>
+          <t>1.374</t>
         </is>
       </c>
     </row>
@@ -3939,22 +3949,22 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.5748</t>
+          <t>1.1685</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.088</t>
+          <t>0.844</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.280</t>
+          <t>1.618</t>
         </is>
       </c>
     </row>
@@ -3962,22 +3972,22 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.0330</t>
+          <t>1.6043</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.622</t>
+          <t>1.108</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.716</t>
+          <t>2.323</t>
         </is>
       </c>
     </row>
@@ -3985,86 +3995,86 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2.6985</t>
+          <t>1.0357</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.499</t>
+          <t>0.623</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.857</t>
+          <t>1.721</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2.5808</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.434</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>4.645</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2 vs 1</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1.0030</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.960</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1.048</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (pooled)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.1765</t>
+          <t>1.0014</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.796</t>
+          <t>0.958</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.738</t>
+          <t>1.047</t>
         </is>
       </c>
     </row>
@@ -4072,22 +4082,22 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.9984</t>
+          <t>1.1683</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.798</t>
+          <t>0.791</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.250</t>
+          <t>1.726</t>
         </is>
       </c>
     </row>
@@ -4095,22 +4105,22 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.0095</t>
+          <t>1.0122</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.895</t>
+          <t>0.809</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>1.267</t>
         </is>
       </c>
     </row>
@@ -4118,22 +4128,22 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.0256</t>
+          <t>1.0116</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.900</t>
+          <t>0.897</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.169</t>
+          <t>1.141</t>
         </is>
       </c>
     </row>
@@ -4141,22 +4151,22 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.1422</t>
+          <t>1.0098</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.034</t>
+          <t>0.886</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>1.151</t>
         </is>
       </c>
     </row>
@@ -4164,22 +4174,22 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.0564</t>
+          <t>1.1450</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.948</t>
+          <t>1.037</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.178</t>
+          <t>1.265</t>
         </is>
       </c>
     </row>
@@ -4187,22 +4197,22 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.0486</t>
+          <t>1.0602</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.918</t>
+          <t>0.951</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>1.182</t>
         </is>
       </c>
     </row>
@@ -4210,22 +4220,22 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.0156</t>
+          <t>1.0448</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.881</t>
+          <t>0.914</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.171</t>
+          <t>1.194</t>
         </is>
       </c>
     </row>
@@ -4233,22 +4243,22 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1008</t>
+          <t>1.0167</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.914</t>
+          <t>0.882</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.325</t>
+          <t>1.172</t>
         </is>
       </c>
     </row>
@@ -4256,22 +4266,22 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.2782</t>
+          <t>1.0872</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>0.903</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.556</t>
+          <t>1.309</t>
         </is>
       </c>
     </row>
@@ -4279,22 +4289,22 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.0145</t>
+          <t>1.2540</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.797</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.291</t>
+          <t>1.527</t>
         </is>
       </c>
     </row>
@@ -4302,22 +4312,22 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2.1253</t>
+          <t>1.0106</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.596</t>
+          <t>0.794</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2.830</t>
+          <t>1.286</t>
         </is>
       </c>
     </row>
@@ -4325,22 +4335,22 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.0323</t>
+          <t>2.0398</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.703</t>
+          <t>1.532</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.516</t>
+          <t>2.716</t>
         </is>
       </c>
     </row>
@@ -4348,22 +4358,22 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.1697</t>
+          <t>1.0692</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.696</t>
+          <t>0.728</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.966</t>
+          <t>1.570</t>
         </is>
       </c>
     </row>
@@ -4371,22 +4381,22 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.8761</t>
+          <t>1.1710</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.435</t>
+          <t>0.697</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.764</t>
+          <t>1.968</t>
         </is>
       </c>
     </row>
@@ -4394,22 +4404,22 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.5221</t>
+          <t>0.9092</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.743</t>
+          <t>0.452</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3.117</t>
+          <t>1.830</t>
         </is>
       </c>
     </row>
@@ -4417,86 +4427,86 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.5034</t>
+          <t>1.5448</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.542</t>
+          <t>0.755</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4.166</t>
+          <t>3.163</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1.5034</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.543</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>4.166</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>3 vs 0</t>
-        </is>
-      </c>
+      <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1.5512</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1.521</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1.582</t>
-        </is>
-      </c>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3 vs 0</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (pooled)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.2328</t>
+          <t>1.5581</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.071</t>
+          <t>1.527</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.419</t>
+          <t>1.589</t>
         </is>
       </c>
     </row>
@@ -4504,22 +4514,22 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.3437</t>
+          <t>1.2465</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.254</t>
+          <t>1.083</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.440</t>
+          <t>1.435</t>
         </is>
       </c>
     </row>
@@ -4527,22 +4537,22 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.5100</t>
+          <t>1.3606</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.437</t>
+          <t>1.269</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.586</t>
+          <t>1.458</t>
         </is>
       </c>
     </row>
@@ -4550,22 +4560,22 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.5010</t>
+          <t>1.5187</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.428</t>
+          <t>1.446</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.578</t>
+          <t>1.596</t>
         </is>
       </c>
     </row>
@@ -4573,22 +4583,22 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.6186</t>
+          <t>1.5079</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.541</t>
+          <t>1.434</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.701</t>
+          <t>1.585</t>
         </is>
       </c>
     </row>
@@ -4596,22 +4606,22 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.6714</t>
+          <t>1.6258</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.589</t>
+          <t>1.548</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.758</t>
+          <t>1.708</t>
         </is>
       </c>
     </row>
@@ -4619,22 +4629,22 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.7775</t>
+          <t>1.6714</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.676</t>
+          <t>1.589</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.885</t>
+          <t>1.758</t>
         </is>
       </c>
     </row>
@@ -4642,22 +4652,22 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.4680</t>
+          <t>1.7885</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1.362</t>
+          <t>1.686</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.582</t>
+          <t>1.897</t>
         </is>
       </c>
     </row>
@@ -4665,22 +4675,22 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.3359</t>
+          <t>1.4693</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>1.363</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.476</t>
+          <t>1.584</t>
         </is>
       </c>
     </row>
@@ -4688,22 +4698,22 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1.1756</t>
+          <t>1.3434</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.038</t>
+          <t>1.216</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.331</t>
+          <t>1.484</t>
         </is>
       </c>
     </row>
@@ -4711,22 +4721,22 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1.3730</t>
+          <t>1.1869</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1.177</t>
+          <t>1.048</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.602</t>
+          <t>1.344</t>
         </is>
       </c>
     </row>
@@ -4734,22 +4744,22 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1.9356</t>
+          <t>1.3670</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.560</t>
+          <t>1.172</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2.401</t>
+          <t>1.594</t>
         </is>
       </c>
     </row>
@@ -4757,22 +4767,22 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.1657</t>
+          <t>1.9547</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.902</t>
+          <t>1.576</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.507</t>
+          <t>2.425</t>
         </is>
       </c>
     </row>
@@ -4780,22 +4790,22 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.0823</t>
+          <t>1.1922</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.771</t>
+          <t>0.922</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.518</t>
+          <t>1.541</t>
         </is>
       </c>
     </row>
@@ -4803,22 +4813,22 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2.3353</t>
+          <t>1.0863</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.356</t>
+          <t>0.774</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4.022</t>
+          <t>1.524</t>
         </is>
       </c>
     </row>
@@ -4826,22 +4836,22 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1.1689</t>
+          <t>2.3645</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.659</t>
+          <t>1.373</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2.075</t>
+          <t>4.072</t>
         </is>
       </c>
     </row>
@@ -4849,86 +4859,86 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1.3889</t>
+          <t>1.1547</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.769</t>
+          <t>0.651</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2.507</t>
+          <t>2.049</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1.3885</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.769</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2.506</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>3 vs 2</t>
-        </is>
-      </c>
+      <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>1.4904</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>1.460</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>1.522</t>
-        </is>
-      </c>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>3 vs 2</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (pooled)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1.6001</t>
+          <t>1.4921</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1.341</t>
+          <t>1.462</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.909</t>
+          <t>1.523</t>
         </is>
       </c>
     </row>
@@ -4936,22 +4946,22 @@
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1.4061</t>
+          <t>1.6175</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.301</t>
+          <t>1.356</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.520</t>
+          <t>1.930</t>
         </is>
       </c>
     </row>
@@ -4959,22 +4969,22 @@
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1.3904</t>
+          <t>1.4087</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.318</t>
+          <t>1.303</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.467</t>
+          <t>1.523</t>
         </is>
       </c>
     </row>
@@ -4982,22 +4992,22 @@
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1.4838</t>
+          <t>1.4010</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1.410</t>
+          <t>1.328</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.562</t>
+          <t>1.478</t>
         </is>
       </c>
     </row>
@@ -5005,22 +5015,22 @@
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.6579</t>
+          <t>1.4827</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.579</t>
+          <t>1.409</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.741</t>
+          <t>1.560</t>
         </is>
       </c>
     </row>
@@ -5028,22 +5038,22 @@
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1.6734</t>
+          <t>1.6552</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1.592</t>
+          <t>1.576</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.759</t>
+          <t>1.738</t>
         </is>
       </c>
     </row>
@@ -5051,22 +5061,22 @@
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.3581</t>
+          <t>1.6710</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.274</t>
+          <t>1.590</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.448</t>
+          <t>1.757</t>
         </is>
       </c>
     </row>
@@ -5074,22 +5084,22 @@
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.4618</t>
+          <t>1.3585</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.350</t>
+          <t>1.274</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.582</t>
+          <t>1.448</t>
         </is>
       </c>
     </row>
@@ -5097,22 +5107,22 @@
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.3122</t>
+          <t>1.4627</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.176</t>
+          <t>1.351</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.464</t>
+          <t>1.583</t>
         </is>
       </c>
     </row>
@@ -5120,22 +5130,22 @@
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1.2145</t>
+          <t>1.3100</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.065</t>
+          <t>1.174</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.385</t>
+          <t>1.461</t>
         </is>
       </c>
     </row>
@@ -5143,22 +5153,22 @@
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1.5884</t>
+          <t>1.2310</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.358</t>
+          <t>1.080</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.859</t>
+          <t>1.403</t>
         </is>
       </c>
     </row>
@@ -5166,22 +5176,22 @@
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1.0561</t>
+          <t>1.6018</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.819</t>
+          <t>1.369</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.363</t>
+          <t>1.874</t>
         </is>
       </c>
     </row>
@@ -5189,22 +5199,22 @@
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1.0992</t>
+          <t>1.0630</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.825</t>
+          <t>0.824</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.465</t>
+          <t>1.371</t>
         </is>
       </c>
     </row>
@@ -5212,22 +5222,22 @@
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.9237</t>
+          <t>1.1024</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.617</t>
+          <t>0.827</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.383</t>
+          <t>1.469</t>
         </is>
       </c>
     </row>
@@ -5235,22 +5245,22 @@
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1.4829</t>
+          <t>0.9296</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.818</t>
+          <t>0.621</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2.690</t>
+          <t>1.391</t>
         </is>
       </c>
     </row>
@@ -5258,22 +5268,22 @@
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1.1316</t>
+          <t>1.4739</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.637</t>
+          <t>0.813</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2.011</t>
+          <t>2.673</t>
         </is>
       </c>
     </row>
@@ -5281,31 +5291,54 @@
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.7737</t>
+          <t>1.1150</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.376</t>
+          <t>0.627</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.593</t>
+          <t>1.981</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0.8087</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.393</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1.665</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5318,7 +5351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5356,7 +5389,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4 vs 0</t>
+          <t>Reporting date: 2024-01-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -5365,48 +5398,36 @@
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.9945</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.956</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.035</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4 vs 0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (pooled)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0016</t>
+          <t>1.2686</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.752</t>
+          <t>1.230</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.335</t>
+          <t>1.308</t>
         </is>
       </c>
     </row>
@@ -5414,22 +5435,22 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.0251</t>
+          <t>2.3713</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.903</t>
+          <t>1.890</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.163</t>
+          <t>2.975</t>
         </is>
       </c>
     </row>
@@ -5437,22 +5458,22 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0121</t>
+          <t>1.5225</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.927</t>
+          <t>1.380</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.105</t>
+          <t>1.680</t>
         </is>
       </c>
     </row>
@@ -5460,22 +5481,22 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9884</t>
+          <t>1.0851</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.905</t>
+          <t>1.013</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>1.162</t>
         </is>
       </c>
     </row>
@@ -5483,22 +5504,22 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0163</t>
+          <t>1.1365</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.928</t>
+          <t>1.061</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.113</t>
+          <t>1.217</t>
         </is>
       </c>
     </row>
@@ -5506,22 +5527,22 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0209</t>
+          <t>1.1229</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>1.046</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>1.206</t>
         </is>
       </c>
     </row>
@@ -5529,22 +5550,22 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9991</t>
+          <t>1.1968</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.894</t>
+          <t>1.117</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>1.283</t>
         </is>
       </c>
     </row>
@@ -5552,22 +5573,22 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9522</t>
+          <t>1.4908</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.825</t>
+          <t>1.367</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.099</t>
+          <t>1.625</t>
         </is>
       </c>
     </row>
@@ -5575,22 +5596,22 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.8494</t>
+          <t>1.2201</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.659</t>
+          <t>1.093</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>1.362</t>
         </is>
       </c>
     </row>
@@ -5598,22 +5619,22 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.0327</t>
+          <t>1.7231</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.757</t>
+          <t>1.418</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.409</t>
+          <t>2.093</t>
         </is>
       </c>
     </row>
@@ -5621,22 +5642,22 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.0350</t>
+          <t>1.0055</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.609</t>
+          <t>0.789</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.759</t>
+          <t>1.281</t>
         </is>
       </c>
     </row>
@@ -5644,22 +5665,22 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.2449</t>
+          <t>2.7491</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.650</t>
+          <t>1.828</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.385</t>
+          <t>4.135</t>
         </is>
       </c>
     </row>
@@ -5667,22 +5688,22 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.8609</t>
+          <t>3.1935</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.516</t>
+          <t>1.875</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.436</t>
+          <t>5.439</t>
         </is>
       </c>
     </row>
@@ -5690,22 +5711,22 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.6556</t>
+          <t>1.3598</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.188</t>
+          <t>0.916</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.287</t>
+          <t>2.018</t>
         </is>
       </c>
     </row>
@@ -5713,22 +5734,22 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.5740</t>
+          <t>4.9978</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.661</t>
+          <t>1.980</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.747</t>
+          <t>12.617</t>
         </is>
       </c>
     </row>
@@ -5736,22 +5757,22 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.8702</t>
+          <t>1.1167</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.241</t>
+          <t>0.583</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.147</t>
+          <t>2.137</t>
         </is>
       </c>
     </row>
@@ -5759,86 +5780,86 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.1584</t>
+          <t>1.1454</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.593</t>
+          <t>0.438</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.852</t>
+          <t>2.997</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.1402</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.434</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.996</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>4 vs 1</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1.0058</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.936</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.081</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4 vs 1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (pooled)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.3746</t>
+          <t>1.3796</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.409</t>
+          <t>1.305</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.622</t>
+          <t>1.459</t>
         </is>
       </c>
     </row>
@@ -5846,22 +5867,22 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.2957</t>
+          <t>1.1673</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>0.474</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.850</t>
+          <t>2.873</t>
         </is>
       </c>
     </row>
@@ -5869,22 +5890,22 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.0351</t>
+          <t>0.9831</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.839</t>
+          <t>0.754</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.277</t>
+          <t>1.281</t>
         </is>
       </c>
     </row>
@@ -5892,22 +5913,22 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.9476</t>
+          <t>1.3769</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.788</t>
+          <t>1.169</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>1.622</t>
         </is>
       </c>
     </row>
@@ -5915,22 +5936,22 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0386</t>
+          <t>1.1266</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.876</t>
+          <t>0.976</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.301</t>
         </is>
       </c>
     </row>
@@ -5938,22 +5959,22 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.0488</t>
+          <t>1.4013</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.891</t>
+          <t>1.227</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.600</t>
         </is>
       </c>
     </row>
@@ -5961,22 +5982,22 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.9514</t>
+          <t>1.6592</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.787</t>
+          <t>1.463</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.150</t>
+          <t>1.882</t>
         </is>
       </c>
     </row>
@@ -5984,22 +6005,22 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.8369</t>
+          <t>1.6309</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.671</t>
+          <t>1.406</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.044</t>
+          <t>1.892</t>
         </is>
       </c>
     </row>
@@ -6007,22 +6028,22 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.9712</t>
+          <t>1.2622</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>1.062</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.348</t>
+          <t>1.501</t>
         </is>
       </c>
     </row>
@@ -6030,22 +6051,22 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.8660</t>
+          <t>1.7646</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>1.372</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.834</t>
+          <t>2.270</t>
         </is>
       </c>
     </row>
@@ -6053,22 +6074,22 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.8887</t>
+          <t>1.0044</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.497</t>
+          <t>0.723</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.589</t>
+          <t>1.394</t>
         </is>
       </c>
     </row>
@@ -6076,22 +6097,22 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.5889</t>
+          <t>2.7676</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.781</t>
+          <t>1.764</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.230</t>
+          <t>4.341</t>
         </is>
       </c>
     </row>
@@ -6099,22 +6120,22 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.2104</t>
+          <t>4.8403</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.491</t>
+          <t>2.729</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.986</t>
+          <t>8.585</t>
         </is>
       </c>
     </row>
@@ -6122,22 +6143,22 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.7975</t>
+          <t>0.7803</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.206</t>
+          <t>0.382</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.087</t>
+          <t>1.596</t>
         </is>
       </c>
     </row>
@@ -6145,22 +6166,22 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.7185</t>
+          <t>5.4849</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.620</t>
+          <t>1.999</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.764</t>
+          <t>15.052</t>
         </is>
       </c>
     </row>
@@ -6168,22 +6189,22 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>1.0709</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.183</t>
+          <t>0.502</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5.477</t>
+          <t>2.286</t>
         </is>
       </c>
     </row>
@@ -6191,86 +6212,86 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10.5077</t>
+          <t>1.8376</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.521</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>105.077</t>
+          <t>6.486</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2.6269</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>26.269</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>4 vs 2</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>0.9917</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.951</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1.034</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4 vs 2</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (pooled)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.1139</t>
+          <t>1.2410</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.760</t>
+          <t>1.202</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.632</t>
+          <t>1.282</t>
         </is>
       </c>
     </row>
@@ -6278,22 +6299,22 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.0717</t>
+          <t>1.7433</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.915</t>
+          <t>1.294</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.255</t>
+          <t>2.348</t>
         </is>
       </c>
     </row>
@@ -6301,22 +6322,22 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.0770</t>
+          <t>1.0204</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.979</t>
+          <t>0.903</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.185</t>
+          <t>1.153</t>
         </is>
       </c>
     </row>
@@ -6324,22 +6345,22 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.9385</t>
+          <t>1.1106</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.857</t>
+          <t>1.031</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.028</t>
+          <t>1.196</t>
         </is>
       </c>
     </row>
@@ -6347,22 +6368,22 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.0267</t>
+          <t>1.3255</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.936</t>
+          <t>1.235</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.126</t>
+          <t>1.423</t>
         </is>
       </c>
     </row>
@@ -6370,22 +6391,22 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.9924</t>
+          <t>1.1773</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.905</t>
+          <t>1.095</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.089</t>
+          <t>1.265</t>
         </is>
       </c>
     </row>
@@ -6393,22 +6414,22 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.9510</t>
+          <t>1.2244</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.847</t>
+          <t>1.139</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.067</t>
+          <t>1.316</t>
         </is>
       </c>
     </row>
@@ -6416,22 +6437,22 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.8957</t>
+          <t>1.1931</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.769</t>
+          <t>1.091</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.043</t>
+          <t>1.305</t>
         </is>
       </c>
     </row>
@@ -6439,22 +6460,22 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.9325</t>
+          <t>1.0857</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.719</t>
+          <t>0.965</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.210</t>
+          <t>1.221</t>
         </is>
       </c>
     </row>
@@ -6462,22 +6483,22 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.0706</t>
+          <t>1.8843</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.778</t>
+          <t>1.543</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.474</t>
+          <t>2.302</t>
         </is>
       </c>
     </row>
@@ -6485,22 +6506,22 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.9828</t>
+          <t>1.0780</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.575</t>
+          <t>0.841</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.679</t>
+          <t>1.382</t>
         </is>
       </c>
     </row>
@@ -6508,22 +6529,22 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.3841</t>
+          <t>2.9262</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.719</t>
+          <t>1.937</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2.666</t>
+          <t>4.421</t>
         </is>
       </c>
     </row>
@@ -6531,22 +6552,22 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.0367</t>
+          <t>3.5025</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.607</t>
+          <t>2.049</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.772</t>
+          <t>5.987</t>
         </is>
       </c>
     </row>
@@ -6554,22 +6575,22 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.8739</t>
+          <t>1.1304</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.246</t>
+          <t>0.749</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3.101</t>
+          <t>1.705</t>
         </is>
       </c>
     </row>
@@ -6577,22 +6598,22 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2.3314</t>
+          <t>6.4106</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.961</t>
+          <t>2.510</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5.657</t>
+          <t>16.375</t>
         </is>
       </c>
     </row>
@@ -6600,22 +6621,22 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>1.2341</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.273</t>
+          <t>0.638</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3.663</t>
+          <t>2.387</t>
         </is>
       </c>
     </row>
@@ -6623,86 +6644,86 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2.3151</t>
+          <t>1.3918</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.662</t>
+          <t>0.532</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>8.094</t>
+          <t>3.641</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1.2554</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.492</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3.205</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>4 vs 3</t>
-        </is>
-      </c>
+      <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ASMR (pooled)</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1.0153</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.980</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1.052</t>
-        </is>
-      </c>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4 vs 3</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (pooled)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.0316</t>
+          <t>1.2084</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.779</t>
+          <t>1.176</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.367</t>
+          <t>1.242</t>
         </is>
       </c>
     </row>
@@ -6710,22 +6731,22 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.0111</t>
+          <t>1.2513</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.908</t>
+          <t>1.003</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.126</t>
+          <t>1.562</t>
         </is>
       </c>
     </row>
@@ -6733,22 +6754,22 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.0455</t>
+          <t>1.3344</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>1.227</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.122</t>
+          <t>1.451</t>
         </is>
       </c>
     </row>
@@ -6756,22 +6777,22 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.9721</t>
+          <t>1.0741</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>1.017</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.041</t>
+          <t>1.135</t>
         </is>
       </c>
     </row>
@@ -6779,22 +6800,22 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.0622</t>
+          <t>1.1526</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.990</t>
+          <t>1.093</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.140</t>
+          <t>1.216</t>
         </is>
       </c>
     </row>
@@ -6802,22 +6823,22 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.0092</t>
+          <t>1.1779</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.938</t>
+          <t>1.114</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.086</t>
+          <t>1.245</t>
         </is>
       </c>
     </row>
@@ -6825,22 +6846,22 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.0289</t>
+          <t>1.0264</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>0.970</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.134</t>
+          <t>1.086</t>
         </is>
       </c>
     </row>
@@ -6848,22 +6869,22 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.9511</t>
+          <t>1.3714</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.832</t>
+          <t>1.272</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.087</t>
+          <t>1.478</t>
         </is>
       </c>
     </row>
@@ -6871,22 +6892,22 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.9436</t>
+          <t>1.1674</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.737</t>
+          <t>1.054</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>1.293</t>
         </is>
       </c>
     </row>
@@ -6894,22 +6915,22 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1.0576</t>
+          <t>1.8326</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.778</t>
+          <t>1.516</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.439</t>
+          <t>2.216</t>
         </is>
       </c>
     </row>
@@ -6917,22 +6938,22 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1.0397</t>
+          <t>0.9869</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.612</t>
+          <t>0.777</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.766</t>
+          <t>1.254</t>
         </is>
       </c>
     </row>
@@ -6940,22 +6961,22 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1.4071</t>
+          <t>2.5930</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.732</t>
+          <t>1.725</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2.705</t>
+          <t>3.899</t>
         </is>
       </c>
     </row>
@@ -6963,22 +6984,22 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.0476</t>
+          <t>3.0467</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.616</t>
+          <t>1.785</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.782</t>
+          <t>5.200</t>
         </is>
       </c>
     </row>
@@ -6986,22 +7007,22 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.8264</t>
+          <t>1.2362</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.233</t>
+          <t>0.823</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2.928</t>
+          <t>1.858</t>
         </is>
       </c>
     </row>
@@ -7009,22 +7030,22 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2.1798</t>
+          <t>8.4201</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.896</t>
+          <t>3.298</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>5.301</t>
+          <t>21.497</t>
         </is>
       </c>
     </row>
@@ -7032,22 +7053,22 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1.6603</t>
+          <t>1.2023</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.431</t>
+          <t>0.620</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>6.394</t>
+          <t>2.333</t>
         </is>
       </c>
     </row>
@@ -7055,31 +7076,54 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>5.2046</t>
+          <t>1.3127</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.344</t>
+          <t>0.479</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>20.160</t>
+          <t>3.598</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1.4509</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.523</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>4.029</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -517,17 +517,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.1031</t>
+          <t>1.1030</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.881</t>
+          <t>0.882</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.380</t>
+          <t>1.379</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.957</t>
+          <t>0.958</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.736</t>
+          <t>1.737</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.709</t>
+          <t>1.708</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.928</t>
+          <t>1.929</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.460</t>
+          <t>1.462</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.941</t>
+          <t>1.938</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.475</t>
+          <t>1.476</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.336</t>
+          <t>2.335</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.393</t>
+          <t>1.394</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.521</t>
+          <t>2.520</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.737</t>
+          <t>2.735</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.859</t>
+          <t>0.851</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.357</t>
+          <t>2.378</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.909</t>
+          <t>0.901</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.293</t>
+          <t>5.341</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.553</t>
+          <t>0.535</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.180</t>
+          <t>3.287</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.2019</t>
+          <t>1.1976</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12.019</t>
+          <t>11.976</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.5772</t>
+          <t>2.5819</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25.772</t>
+          <t>25.819</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5.1270</t>
+          <t>5.1835</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>51.270</t>
+          <t>51.835</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.707</t>
+          <t>1.706</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>1.212</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.890</t>
+          <t>1.889</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.004</t>
+          <t>2.005</t>
         </is>
       </c>
     </row>
@@ -1092,12 +1092,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.610</t>
+          <t>1.611</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.060</t>
+          <t>2.059</t>
         </is>
       </c>
     </row>
@@ -1115,12 +1115,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.371</t>
+          <t>1.370</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.985</t>
+          <t>1.986</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.458</t>
+          <t>1.460</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.347</t>
+          <t>2.345</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.278</t>
+          <t>1.279</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.396</t>
+          <t>2.394</t>
         </is>
       </c>
     </row>
@@ -1184,12 +1184,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.550</t>
+          <t>1.560</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.450</t>
+          <t>3.428</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.643</t>
+          <t>0.633</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.233</t>
+          <t>2.266</t>
         </is>
       </c>
     </row>
@@ -1230,12 +1230,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.610</t>
+          <t>0.609</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.372</t>
+          <t>1.373</t>
         </is>
       </c>
     </row>
@@ -1276,12 +1276,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.642</t>
+          <t>0.646</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.824</t>
+          <t>3.796</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3.7054</t>
+          <t>3.7972</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>37.054</t>
+          <t>37.972</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.1480</t>
+          <t>4.1937</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>41.480</t>
+          <t>41.937</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.2216</t>
+          <t>1.2215</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.438</t>
+          <t>1.437</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.308</t>
+          <t>1.309</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.955</t>
+          <t>0.954</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1524,12 +1524,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.893</t>
+          <t>0.894</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>1.214</t>
         </is>
       </c>
     </row>
@@ -1570,12 +1570,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.719</t>
+          <t>0.720</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.382</t>
+          <t>1.380</t>
         </is>
       </c>
     </row>
@@ -1593,12 +1593,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.614</t>
+          <t>0.615</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.443</t>
+          <t>1.441</t>
         </is>
       </c>
     </row>
@@ -1616,12 +1616,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.712</t>
+          <t>0.716</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2.072</t>
+          <t>2.062</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1639,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.435</t>
+          <t>0.428</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.136</t>
+          <t>2.172</t>
         </is>
       </c>
     </row>
@@ -1662,12 +1662,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.317</t>
+          <t>0.315</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2.160</t>
+          <t>2.178</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.1459</t>
+          <t>1.1741</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11.459</t>
+          <t>11.741</t>
         </is>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.7273</t>
+          <t>1.7561</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>17.273</t>
+          <t>17.561</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.4377</t>
+          <t>1.4707</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>14.377</t>
+          <t>14.707</t>
         </is>
       </c>
     </row>
@@ -1875,12 +1875,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.820</t>
+          <t>0.822</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.388</t>
+          <t>1.385</t>
         </is>
       </c>
     </row>
@@ -1898,12 +1898,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.863</t>
+          <t>0.864</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.086</t>
+          <t>1.085</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.165</t>
+          <t>1.164</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2059,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.032</t>
+          <t>1.031</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.294</t>
+          <t>1.295</t>
         </is>
       </c>
     </row>
@@ -2082,12 +2082,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>0.906</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.185</t>
+          <t>1.186</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2105,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.041</t>
+          <t>1.040</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.430</t>
+          <t>1.431</t>
         </is>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.936</t>
+          <t>0.935</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2151,12 +2151,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.775</t>
+          <t>0.773</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>1.327</t>
         </is>
       </c>
     </row>
@@ -2174,12 +2174,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.769</t>
+          <t>0.761</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.920</t>
+          <t>1.942</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.619</t>
+          <t>6.620</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.849</t>
+          <t>0.831</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.650</t>
+          <t>2.708</t>
         </is>
       </c>
     </row>
@@ -2307,12 +2307,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.856</t>
+          <t>0.858</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.112</t>
+          <t>1.110</t>
         </is>
       </c>
     </row>
@@ -2330,12 +2330,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.966</t>
+          <t>0.967</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.109</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.201</t>
+          <t>1.202</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.415</t>
+          <t>1.414</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.690</t>
+          <t>1.691</t>
         </is>
       </c>
     </row>
@@ -2514,12 +2514,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.489</t>
+          <t>1.488</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.154</t>
+          <t>2.156</t>
         </is>
       </c>
     </row>
@@ -2537,12 +2537,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.921</t>
+          <t>0.919</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.331</t>
+          <t>1.333</t>
         </is>
       </c>
     </row>
@@ -2560,12 +2560,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.445</t>
+          <t>1.443</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.757</t>
+          <t>2.762</t>
         </is>
       </c>
     </row>
@@ -2606,12 +2606,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.921</t>
+          <t>0.909</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.296</t>
+          <t>3.340</t>
         </is>
       </c>
     </row>
@@ -2629,12 +2629,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.997</t>
+          <t>1.008</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.739</t>
+          <t>3.698</t>
         </is>
       </c>
     </row>
@@ -2652,12 +2652,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.799</t>
+          <t>0.793</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.981</t>
+          <t>3.003</t>
         </is>
       </c>
     </row>
@@ -2739,12 +2739,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.705</t>
+          <t>0.706</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.186</t>
+          <t>1.184</t>
         </is>
       </c>
     </row>
@@ -2762,12 +2762,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>0.992</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.237</t>
+          <t>1.236</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.267</t>
+          <t>1.266</t>
         </is>
       </c>
     </row>
@@ -2877,12 +2877,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.291</t>
+          <t>1.290</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.518</t>
+          <t>1.519</t>
         </is>
       </c>
     </row>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.232</t>
+          <t>1.231</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.019</t>
+          <t>1.018</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2946,12 +2946,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.552</t>
+          <t>1.550</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2.345</t>
+          <t>2.349</t>
         </is>
       </c>
     </row>
@@ -2969,12 +2969,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.942</t>
+          <t>0.940</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.460</t>
+          <t>1.463</t>
         </is>
       </c>
     </row>
@@ -2992,12 +2992,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>1.235</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.504</t>
+          <t>2.509</t>
         </is>
       </c>
     </row>
@@ -3015,12 +3015,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.914</t>
+          <t>0.912</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.931</t>
+          <t>1.935</t>
         </is>
       </c>
     </row>
@@ -3038,12 +3038,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.794</t>
+          <t>0.781</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3.609</t>
+          <t>3.673</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3061,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.273</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.359</t>
+          <t>2.343</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.7762</t>
+          <t>1.8156</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>17.762</t>
+          <t>18.156</t>
         </is>
       </c>
     </row>
@@ -3107,12 +3107,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.273</t>
+          <t>1.253</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6.246</t>
+          <t>6.345</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.090</t>
+          <t>1.089</t>
         </is>
       </c>
     </row>
@@ -3228,12 +3228,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.832</t>
+          <t>0.831</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.761</t>
+          <t>1.764</t>
         </is>
       </c>
     </row>
@@ -3246,17 +3246,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.3710</t>
+          <t>1.3711</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.099</t>
+          <t>1.101</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.711</t>
+          <t>1.707</t>
         </is>
       </c>
     </row>
@@ -3274,12 +3274,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.952</t>
+          <t>0.953</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>1.205</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.132</t>
+          <t>1.133</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.470</t>
+          <t>1.469</t>
         </is>
       </c>
     </row>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.965</t>
+          <t>0.966</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.917</t>
+          <t>0.918</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.314</t>
+          <t>1.313</t>
         </is>
       </c>
     </row>
@@ -3435,12 +3435,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.749</t>
+          <t>0.750</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.098</t>
         </is>
       </c>
     </row>
@@ -3458,12 +3458,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.987</t>
+          <t>0.984</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.591</t>
+          <t>1.596</t>
         </is>
       </c>
     </row>
@@ -3481,12 +3481,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.787</t>
+          <t>0.788</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.303</t>
+          <t>1.302</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.453</t>
+          <t>1.454</t>
         </is>
       </c>
     </row>
@@ -3527,12 +3527,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.778</t>
+          <t>0.776</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.995</t>
+          <t>2.001</t>
         </is>
       </c>
     </row>
@@ -3550,12 +3550,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>1.218</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.475</t>
+          <t>4.429</t>
         </is>
       </c>
     </row>
@@ -3573,12 +3573,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.583</t>
+          <t>0.580</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.439</t>
+          <t>2.452</t>
         </is>
       </c>
     </row>
@@ -3596,12 +3596,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.677</t>
+          <t>0.686</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.353</t>
+          <t>4.293</t>
         </is>
       </c>
     </row>
@@ -3660,12 +3660,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.846</t>
+          <t>0.847</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>1.216</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.051</t>
+          <t>1.050</t>
         </is>
       </c>
     </row>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.021</t>
+          <t>1.022</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.151</t>
+          <t>1.150</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>0.972</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.052</t>
+          <t>1.051</t>
         </is>
       </c>
     </row>
@@ -3798,12 +3798,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.232</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.408</t>
+          <t>1.407</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.923</t>
+          <t>0.924</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.241</t>
+          <t>1.242</t>
         </is>
       </c>
     </row>
@@ -3913,12 +3913,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.500</t>
+          <t>1.502</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.254</t>
+          <t>2.252</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.374</t>
+          <t>1.375</t>
         </is>
       </c>
     </row>
@@ -3959,12 +3959,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.844</t>
+          <t>0.843</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.618</t>
+          <t>1.619</t>
         </is>
       </c>
     </row>
@@ -3982,12 +3982,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.111</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.323</t>
+          <t>2.316</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.721</t>
+          <t>1.722</t>
         </is>
       </c>
     </row>
@@ -4028,12 +4028,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.434</t>
+          <t>1.438</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.645</t>
+          <t>4.631</t>
         </is>
       </c>
     </row>
@@ -4092,12 +4092,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.791</t>
+          <t>0.790</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.726</t>
+          <t>1.729</t>
         </is>
       </c>
     </row>
@@ -4115,12 +4115,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.809</t>
+          <t>0.811</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.267</t>
+          <t>1.264</t>
         </is>
       </c>
     </row>
@@ -4138,12 +4138,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.897</t>
+          <t>0.898</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.141</t>
+          <t>1.140</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4161,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.886</t>
+          <t>0.887</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.151</t>
+          <t>1.150</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.265</t>
+          <t>1.264</t>
         </is>
       </c>
     </row>
@@ -4276,12 +4276,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.903</t>
+          <t>0.904</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.309</t>
+          <t>1.308</t>
         </is>
       </c>
     </row>
@@ -4299,12 +4299,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.031</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.527</t>
+          <t>1.525</t>
         </is>
       </c>
     </row>
@@ -4322,12 +4322,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.794</t>
+          <t>0.792</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.286</t>
+          <t>1.290</t>
         </is>
       </c>
     </row>
@@ -4345,12 +4345,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.532</t>
+          <t>1.533</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.716</t>
+          <t>2.713</t>
         </is>
       </c>
     </row>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.728</t>
+          <t>0.727</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.570</t>
+          <t>1.571</t>
         </is>
       </c>
     </row>
@@ -4391,12 +4391,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.697</t>
+          <t>0.694</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.968</t>
+          <t>1.976</t>
         </is>
       </c>
     </row>
@@ -4414,12 +4414,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.452</t>
+          <t>0.457</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.830</t>
+          <t>1.810</t>
         </is>
       </c>
     </row>
@@ -4437,12 +4437,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.755</t>
+          <t>0.752</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.163</t>
+          <t>3.175</t>
         </is>
       </c>
     </row>
@@ -4460,12 +4460,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.543</t>
+          <t>0.550</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4.166</t>
+          <t>4.106</t>
         </is>
       </c>
     </row>
@@ -4524,12 +4524,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>1.085</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.435</t>
+          <t>1.433</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.269</t>
+          <t>1.270</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.596</t>
+          <t>1.595</t>
         </is>
       </c>
     </row>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.344</t>
+          <t>1.345</t>
         </is>
       </c>
     </row>
@@ -4754,12 +4754,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.172</t>
+          <t>1.171</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.594</t>
+          <t>1.595</t>
         </is>
       </c>
     </row>
@@ -4777,12 +4777,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.576</t>
+          <t>1.575</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2.425</t>
+          <t>2.426</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.541</t>
+          <t>1.542</t>
         </is>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.524</t>
+          <t>1.525</t>
         </is>
       </c>
     </row>
@@ -4846,12 +4846,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.373</t>
+          <t>1.370</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4.072</t>
+          <t>4.081</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.651</t>
+          <t>0.657</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2.049</t>
+          <t>2.029</t>
         </is>
       </c>
     </row>
@@ -4892,12 +4892,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.769</t>
+          <t>0.778</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2.506</t>
+          <t>2.478</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.930</t>
+          <t>1.929</t>
         </is>
       </c>
     </row>
@@ -4979,12 +4979,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.303</t>
+          <t>1.304</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.523</t>
+          <t>1.522</t>
         </is>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.583</t>
+          <t>1.584</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.461</t>
+          <t>1.462</t>
         </is>
       </c>
     </row>
@@ -5163,12 +5163,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>1.079</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.403</t>
+          <t>1.405</t>
         </is>
       </c>
     </row>
@@ -5186,12 +5186,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1.369</t>
+          <t>1.368</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.874</t>
+          <t>1.876</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.371</t>
+          <t>1.372</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.469</t>
+          <t>1.470</t>
         </is>
       </c>
     </row>
@@ -5255,12 +5255,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.621</t>
+          <t>0.619</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.391</t>
+          <t>1.395</t>
         </is>
       </c>
     </row>
@@ -5278,12 +5278,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.813</t>
+          <t>0.812</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2.673</t>
+          <t>2.674</t>
         </is>
       </c>
     </row>
@@ -5301,12 +5301,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.627</t>
+          <t>0.635</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.981</t>
+          <t>1.957</t>
         </is>
       </c>
     </row>
@@ -5324,12 +5324,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.393</t>
+          <t>0.397</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.665</t>
+          <t>1.646</t>
         </is>
       </c>
     </row>
@@ -5445,12 +5445,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.890</t>
+          <t>1.889</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.975</t>
+          <t>2.977</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.046</t>
+          <t>1.045</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>1.116</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.625</t>
+          <t>1.626</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5629,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.418</t>
+          <t>1.419</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.093</t>
+          <t>2.092</t>
         </is>
       </c>
     </row>
@@ -5652,12 +5652,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.789</t>
+          <t>0.787</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>1.285</t>
         </is>
       </c>
     </row>
@@ -5670,17 +5670,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.7491</t>
+          <t>2.7492</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.828</t>
+          <t>1.841</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.135</t>
+          <t>4.105</t>
         </is>
       </c>
     </row>
@@ -5698,12 +5698,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.875</t>
+          <t>1.902</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.439</t>
+          <t>5.361</t>
         </is>
       </c>
     </row>
@@ -5721,12 +5721,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.916</t>
+          <t>0.933</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.018</t>
+          <t>1.982</t>
         </is>
       </c>
     </row>
@@ -5739,17 +5739,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.9978</t>
+          <t>4.9979</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.980</t>
+          <t>2.100</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12.617</t>
+          <t>11.893</t>
         </is>
       </c>
     </row>
@@ -5767,12 +5767,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.583</t>
+          <t>0.575</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.137</t>
+          <t>2.170</t>
         </is>
       </c>
     </row>
@@ -5790,12 +5790,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.438</t>
+          <t>0.448</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.997</t>
+          <t>2.928</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.996</t>
+          <t>2.998</t>
         </is>
       </c>
     </row>
@@ -5877,12 +5877,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.474</t>
+          <t>0.476</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.873</t>
+          <t>2.865</t>
         </is>
       </c>
     </row>
@@ -5900,12 +5900,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.754</t>
+          <t>0.757</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>1.277</t>
         </is>
       </c>
     </row>
@@ -5923,12 +5923,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.169</t>
+          <t>1.167</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.622</t>
+          <t>1.625</t>
         </is>
       </c>
     </row>
@@ -5946,12 +5946,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.976</t>
+          <t>0.977</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.301</t>
+          <t>1.299</t>
         </is>
       </c>
     </row>
@@ -5992,12 +5992,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.463</t>
+          <t>1.460</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.882</t>
+          <t>1.885</t>
         </is>
       </c>
     </row>
@@ -6015,12 +6015,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.406</t>
+          <t>1.404</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.892</t>
+          <t>1.894</t>
         </is>
       </c>
     </row>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.501</t>
+          <t>1.500</t>
         </is>
       </c>
     </row>
@@ -6061,12 +6061,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.372</t>
+          <t>1.374</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.270</t>
+          <t>2.267</t>
         </is>
       </c>
     </row>
@@ -6084,12 +6084,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.723</t>
+          <t>0.724</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.394</t>
+          <t>1.393</t>
         </is>
       </c>
     </row>
@@ -6107,12 +6107,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.764</t>
+          <t>1.777</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.341</t>
+          <t>4.310</t>
         </is>
       </c>
     </row>
@@ -6130,12 +6130,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.729</t>
+          <t>2.763</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>8.585</t>
+          <t>8.480</t>
         </is>
       </c>
     </row>
@@ -6153,12 +6153,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.382</t>
+          <t>0.380</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.596</t>
+          <t>1.602</t>
         </is>
       </c>
     </row>
@@ -6171,17 +6171,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5.4849</t>
+          <t>5.4851</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.999</t>
+          <t>2.114</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15.052</t>
+          <t>14.231</t>
         </is>
       </c>
     </row>
@@ -6199,12 +6199,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.502</t>
+          <t>0.496</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.286</t>
+          <t>2.310</t>
         </is>
       </c>
     </row>
@@ -6222,12 +6222,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.521</t>
+          <t>0.515</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6.486</t>
+          <t>6.550</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2.6269</t>
+          <t>2.3717</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>26.269</t>
+          <t>23.717</t>
         </is>
       </c>
     </row>
@@ -6309,12 +6309,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.294</t>
+          <t>1.293</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2.348</t>
+          <t>2.350</t>
         </is>
       </c>
     </row>
@@ -6332,12 +6332,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.903</t>
+          <t>0.904</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.153</t>
+          <t>1.152</t>
         </is>
       </c>
     </row>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.265</t>
+          <t>1.266</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2.302</t>
+          <t>2.301</t>
         </is>
       </c>
     </row>
@@ -6516,12 +6516,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.841</t>
+          <t>0.838</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.382</t>
+          <t>1.387</t>
         </is>
       </c>
     </row>
@@ -6539,12 +6539,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.937</t>
+          <t>1.950</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4.421</t>
+          <t>4.390</t>
         </is>
       </c>
     </row>
@@ -6562,12 +6562,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.049</t>
+          <t>2.079</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5.987</t>
+          <t>5.901</t>
         </is>
       </c>
     </row>
@@ -6585,12 +6585,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.749</t>
+          <t>0.763</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.705</t>
+          <t>1.675</t>
         </is>
       </c>
     </row>
@@ -6603,17 +6603,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6.4106</t>
+          <t>6.4108</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.510</t>
+          <t>2.661</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>16.375</t>
+          <t>15.443</t>
         </is>
       </c>
     </row>
@@ -6631,12 +6631,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.638</t>
+          <t>0.630</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.387</t>
+          <t>2.417</t>
         </is>
       </c>
     </row>
@@ -6654,12 +6654,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.532</t>
+          <t>0.544</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.641</t>
+          <t>3.562</t>
         </is>
       </c>
     </row>
@@ -6677,12 +6677,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.492</t>
+          <t>0.493</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3.205</t>
+          <t>3.196</t>
         </is>
       </c>
     </row>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.562</t>
+          <t>1.561</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.227</t>
+          <t>1.228</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.017</t>
+          <t>1.016</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.093</t>
+          <t>1.092</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.245</t>
+          <t>1.246</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.086</t>
+          <t>1.087</t>
         </is>
       </c>
     </row>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.478</t>
+          <t>1.479</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2.216</t>
+          <t>2.215</t>
         </is>
       </c>
     </row>
@@ -6948,12 +6948,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.777</t>
+          <t>0.774</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.254</t>
+          <t>1.259</t>
         </is>
       </c>
     </row>
@@ -6971,12 +6971,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.725</t>
+          <t>1.737</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3.899</t>
+          <t>3.871</t>
         </is>
       </c>
     </row>
@@ -6994,12 +6994,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.785</t>
+          <t>1.811</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5.200</t>
+          <t>5.125</t>
         </is>
       </c>
     </row>
@@ -7017,12 +7017,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.823</t>
+          <t>0.837</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.858</t>
+          <t>1.825</t>
         </is>
       </c>
     </row>
@@ -7035,17 +7035,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>8.4201</t>
+          <t>8.4202</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3.298</t>
+          <t>3.493</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>21.497</t>
+          <t>20.300</t>
         </is>
       </c>
     </row>
@@ -7063,12 +7063,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.620</t>
+          <t>0.612</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2.333</t>
+          <t>2.363</t>
         </is>
       </c>
     </row>
@@ -7086,12 +7086,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.479</t>
+          <t>0.493</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.598</t>
+          <t>3.493</t>
         </is>
       </c>
     </row>
@@ -7109,12 +7109,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.523</t>
+          <t>0.529</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4.029</t>
+          <t>3.976</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -816,17 +816,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.3262</t>
+          <t>0.5117</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.535</t>
+          <t>0.206</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.287</t>
+          <t>1.268</t>
         </is>
       </c>
     </row>
@@ -949,17 +949,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.0551</t>
+          <t>0.8986</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.918</t>
+          <t>0.782</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>1.032</t>
         </is>
       </c>
     </row>
@@ -1225,17 +1225,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.9145</t>
+          <t>0.6229</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.609</t>
+          <t>0.415</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.373</t>
+          <t>0.935</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.2776</t>
+          <t>0.7986</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12.776</t>
+          <t>7.986</t>
         </is>
       </c>
     </row>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.0628</t>
+          <t>0.8146</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.841</t>
+          <t>0.645</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.343</t>
+          <t>1.029</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.0533</t>
+          <t>1.0185</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.954</t>
+          <t>0.923</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.162</t>
+          <t>1.124</t>
         </is>
       </c>
     </row>
@@ -1542,17 +1542,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1564</t>
+          <t>0.9801</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.919</t>
+          <t>0.779</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.455</t>
+          <t>1.233</t>
         </is>
       </c>
     </row>
@@ -1588,17 +1588,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.9415</t>
+          <t>0.9337</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.615</t>
+          <t>0.610</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.441</t>
+          <t>1.430</t>
         </is>
       </c>
     </row>
@@ -1634,17 +1634,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.9636</t>
+          <t>0.8419</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.428</t>
+          <t>0.374</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.172</t>
+          <t>1.898</t>
         </is>
       </c>
     </row>
@@ -1657,17 +1657,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.8278</t>
+          <t>0.2839</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.315</t>
+          <t>0.108</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2.178</t>
+          <t>0.747</t>
         </is>
       </c>
     </row>
@@ -1870,17 +1870,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.0670</t>
+          <t>0.9706</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.822</t>
+          <t>0.748</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.385</t>
+          <t>1.260</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9682</t>
+          <t>0.7755</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.864</t>
+          <t>0.692</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.085</t>
+          <t>0.869</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0019</t>
+          <t>0.8445</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.924</t>
+          <t>0.779</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.086</t>
+          <t>0.916</t>
         </is>
       </c>
     </row>
@@ -2077,17 +2077,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.0368</t>
+          <t>0.9388</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.906</t>
+          <t>0.821</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.186</t>
+          <t>1.074</t>
         </is>
       </c>
     </row>
@@ -2146,17 +2146,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0131</t>
+          <t>0.6768</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.773</t>
+          <t>0.517</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.327</t>
+          <t>0.887</t>
         </is>
       </c>
     </row>
@@ -2169,17 +2169,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.2156</t>
+          <t>1.0291</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.761</t>
+          <t>0.644</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.942</t>
+          <t>1.644</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.4736</t>
+          <t>0.7909</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14.736</t>
+          <t>7.909</t>
         </is>
       </c>
     </row>
@@ -2238,17 +2238,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.5000</t>
+          <t>0.2015</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.831</t>
+          <t>0.112</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.708</t>
+          <t>0.364</t>
         </is>
       </c>
     </row>
@@ -2302,17 +2302,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.9756</t>
+          <t>0.8326</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.858</t>
+          <t>0.732</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>0.947</t>
         </is>
       </c>
     </row>
@@ -2325,17 +2325,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.0356</t>
+          <t>0.8584</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.967</t>
+          <t>0.802</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.109</t>
+          <t>0.919</t>
         </is>
       </c>
     </row>
@@ -2348,17 +2348,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.9868</t>
+          <t>0.9624</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.938</t>
+          <t>0.915</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.038</t>
+          <t>1.013</t>
         </is>
       </c>
     </row>
@@ -2532,17 +2532,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.1069</t>
+          <t>1.0084</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.919</t>
+          <t>0.837</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.333</t>
+          <t>1.214</t>
         </is>
       </c>
     </row>
@@ -2578,17 +2578,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.9376</t>
+          <t>0.8990</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.652</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.292</t>
+          <t>1.239</t>
         </is>
       </c>
     </row>
@@ -2647,17 +2647,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.5437</t>
+          <t>0.7383</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.793</t>
+          <t>0.379</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.003</t>
+          <t>1.436</t>
         </is>
       </c>
     </row>
@@ -2670,17 +2670,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.1432</t>
+          <t>0.5681</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.579</t>
+          <t>0.288</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.257</t>
+          <t>1.122</t>
         </is>
       </c>
     </row>
@@ -2734,17 +2734,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.9144</t>
+          <t>0.8578</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.706</t>
+          <t>0.663</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.184</t>
+          <t>1.110</t>
         </is>
       </c>
     </row>
@@ -2964,17 +2964,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.1727</t>
+          <t>0.8265</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.940</t>
+          <t>0.663</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.463</t>
+          <t>1.031</t>
         </is>
       </c>
     </row>
@@ -3056,17 +3056,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.8023</t>
+          <t>0.7184</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.246</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.343</t>
+          <t>2.098</t>
         </is>
       </c>
     </row>
@@ -3223,17 +3223,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2104</t>
+          <t>0.6596</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.831</t>
+          <t>0.453</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.764</t>
+          <t>0.961</t>
         </is>
       </c>
     </row>
@@ -3315,17 +3315,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0664</t>
+          <t>0.8578</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.966</t>
+          <t>0.777</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.178</t>
+          <t>0.947</t>
         </is>
       </c>
     </row>
@@ -3338,17 +3338,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.0196</t>
+          <t>0.9434</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.914</t>
+          <t>0.846</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.137</t>
+          <t>1.052</t>
         </is>
       </c>
     </row>
@@ -3453,17 +3453,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.2532</t>
+          <t>0.8445</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.984</t>
+          <t>0.663</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.596</t>
+          <t>1.075</t>
         </is>
       </c>
     </row>
@@ -3476,17 +3476,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0130</t>
+          <t>0.9015</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.788</t>
+          <t>0.701</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.302</t>
+          <t>1.159</t>
         </is>
       </c>
     </row>
@@ -3522,17 +3522,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.2460</t>
+          <t>0.8994</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>0.560</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.001</t>
+          <t>1.444</t>
         </is>
       </c>
     </row>
@@ -3568,17 +3568,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1923</t>
+          <t>0.6704</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.580</t>
+          <t>0.326</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.452</t>
+          <t>1.379</t>
         </is>
       </c>
     </row>
@@ -3655,17 +3655,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.0150</t>
+          <t>0.7706</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.847</t>
+          <t>0.643</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>0.923</t>
         </is>
       </c>
     </row>
@@ -3724,17 +3724,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0303</t>
+          <t>1.0170</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.972</t>
+          <t>0.959</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.093</t>
+          <t>1.078</t>
         </is>
       </c>
     </row>
@@ -3747,17 +3747,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9947</t>
+          <t>0.9822</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.941</t>
+          <t>0.929</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.051</t>
+          <t>1.038</t>
         </is>
       </c>
     </row>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.9986</t>
+          <t>0.9641</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.883</t>
+          <t>0.853</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.129</t>
+          <t>1.090</t>
         </is>
       </c>
     </row>
@@ -3885,17 +3885,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.0828</t>
+          <t>0.8534</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.944</t>
+          <t>0.744</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>0.979</t>
         </is>
       </c>
     </row>
@@ -3954,17 +3954,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.1685</t>
+          <t>1.0533</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.843</t>
+          <t>0.760</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.619</t>
+          <t>1.460</t>
         </is>
       </c>
     </row>
@@ -4110,17 +4110,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.0122</t>
+          <t>0.7044</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.811</t>
+          <t>0.564</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.264</t>
+          <t>0.880</t>
         </is>
       </c>
     </row>
@@ -4156,17 +4156,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.0098</t>
+          <t>0.7884</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.887</t>
+          <t>0.692</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.150</t>
+          <t>0.898</t>
         </is>
       </c>
     </row>
@@ -4271,17 +4271,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.0872</t>
+          <t>0.9340</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.904</t>
+          <t>0.777</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.308</t>
+          <t>1.123</t>
         </is>
       </c>
     </row>
@@ -4294,17 +4294,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.2540</t>
+          <t>1.0625</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>0.874</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.525</t>
+          <t>1.292</t>
         </is>
       </c>
     </row>
@@ -4409,17 +4409,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.9092</t>
+          <t>0.6908</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.457</t>
+          <t>0.347</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.810</t>
+          <t>1.375</t>
         </is>
       </c>
     </row>
@@ -4818,17 +4818,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1.0863</t>
+          <t>0.9315</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.774</t>
+          <t>0.663</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.525</t>
+          <t>1.308</t>
         </is>
       </c>
     </row>
@@ -5250,17 +5250,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.9296</t>
+          <t>0.8844</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.619</t>
+          <t>0.589</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.395</t>
+          <t>1.327</t>
         </is>
       </c>
     </row>
@@ -5319,17 +5319,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.8087</t>
+          <t>0.5380</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.397</t>
+          <t>0.264</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.646</t>
+          <t>1.095</t>
         </is>
       </c>
     </row>
@@ -5762,17 +5762,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.1167</t>
+          <t>0.5340</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.575</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.170</t>
+          <t>1.038</t>
         </is>
       </c>
     </row>
@@ -5785,17 +5785,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1454</t>
+          <t>0.8316</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.448</t>
+          <t>0.325</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.928</t>
+          <t>2.126</t>
         </is>
       </c>
     </row>
@@ -5808,17 +5808,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.1402</t>
+          <t>0.4408</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.434</t>
+          <t>0.168</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.998</t>
+          <t>1.159</t>
         </is>
       </c>
     </row>
@@ -5872,17 +5872,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.1673</t>
+          <t>1.1495</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.476</t>
+          <t>0.468</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.865</t>
+          <t>2.821</t>
         </is>
       </c>
     </row>
@@ -5895,17 +5895,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.9831</t>
+          <t>0.9550</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.757</t>
+          <t>0.735</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.277</t>
+          <t>1.240</t>
         </is>
       </c>
     </row>
@@ -6079,17 +6079,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.0044</t>
+          <t>0.4953</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.724</t>
+          <t>0.357</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.393</t>
+          <t>0.687</t>
         </is>
       </c>
     </row>
@@ -6148,17 +6148,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.7803</t>
+          <t>0.5117</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.380</t>
+          <t>0.249</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.602</t>
+          <t>1.051</t>
         </is>
       </c>
     </row>
@@ -6194,17 +6194,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.0709</t>
+          <t>0.6231</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.496</t>
+          <t>0.289</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.310</t>
+          <t>1.344</t>
         </is>
       </c>
     </row>
@@ -6327,17 +6327,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.0204</t>
+          <t>0.9561</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.904</t>
+          <t>0.847</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.152</t>
+          <t>1.079</t>
         </is>
       </c>
     </row>
@@ -6626,17 +6626,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.2341</t>
+          <t>0.5293</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.630</t>
+          <t>0.270</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.417</t>
+          <t>1.037</t>
         </is>
       </c>
     </row>
@@ -6672,17 +6672,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1.2554</t>
+          <t>0.3897</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.493</t>
+          <t>0.153</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3.196</t>
+          <t>0.992</t>
         </is>
       </c>
     </row>
@@ -6943,17 +6943,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.9869</t>
+          <t>0.9795</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.774</t>
+          <t>0.768</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.259</t>
+          <t>1.249</t>
         </is>
       </c>
     </row>
@@ -7058,17 +7058,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1.2023</t>
+          <t>0.5113</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.612</t>
+          <t>0.260</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2.363</t>
+          <t>1.005</t>
         </is>
       </c>
     </row>
@@ -7081,17 +7081,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1.3127</t>
+          <t>0.6230</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.493</t>
+          <t>0.234</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.493</t>
+          <t>1.658</t>
         </is>
       </c>
     </row>
@@ -7104,17 +7104,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1.4509</t>
+          <t>0.2063</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.529</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3.976</t>
+          <t>0.565</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021_13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2021_24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2022_06" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2022_47" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_13" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -494,17 +494,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.4796</t>
+          <t>1.4523</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.439</t>
+          <t>1.413</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.521</t>
+          <t>1.493</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.1030</t>
+          <t>1.1095</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.882</t>
+          <t>0.887</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.379</t>
+          <t>1.388</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0443</t>
+          <t>1.0507</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.958</t>
+          <t>0.963</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>1.146</t>
         </is>
       </c>
     </row>
@@ -563,17 +563,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0485</t>
+          <t>1.0568</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.988</t>
+          <t>0.995</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.113</t>
+          <t>1.122</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2584</t>
+          <t>1.2800</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.192</t>
+          <t>1.213</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.328</t>
+          <t>1.351</t>
         </is>
       </c>
     </row>
@@ -609,17 +609,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.6539</t>
+          <t>1.6714</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.575</t>
+          <t>1.592</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.737</t>
+          <t>1.755</t>
         </is>
       </c>
     </row>
@@ -632,17 +632,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.8032</t>
+          <t>1.7542</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.708</t>
+          <t>1.662</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.903</t>
+          <t>1.852</t>
         </is>
       </c>
     </row>
@@ -655,17 +655,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.7486</t>
+          <t>1.7008</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.585</t>
+          <t>1.542</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.929</t>
+          <t>1.876</t>
         </is>
       </c>
     </row>
@@ -678,17 +678,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.6833</t>
+          <t>1.6770</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.462</t>
+          <t>1.456</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.938</t>
+          <t>1.931</t>
         </is>
       </c>
     </row>
@@ -701,17 +701,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.8564</t>
+          <t>1.9046</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.476</t>
+          <t>1.512</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.335</t>
+          <t>2.399</t>
         </is>
       </c>
     </row>
@@ -724,17 +724,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.8740</t>
+          <t>1.8706</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.394</t>
+          <t>1.393</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.520</t>
+          <t>2.511</t>
         </is>
       </c>
     </row>
@@ -747,17 +747,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.9033</t>
+          <t>1.9440</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>1.349</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.735</t>
+          <t>2.801</t>
         </is>
       </c>
     </row>
@@ -770,17 +770,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.4228</t>
+          <t>1.4459</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.851</t>
+          <t>0.864</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.378</t>
+          <t>2.421</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.1940</t>
+          <t>2.1921</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>0.906</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.341</t>
+          <t>5.307</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.5117</t>
+          <t>0.5115</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.206</t>
+          <t>0.207</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.268</t>
+          <t>1.262</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.1976</t>
+          <t>1.2551</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11.976</t>
+          <t>12.551</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.5819</t>
+          <t>2.7123</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25.819</t>
+          <t>27.123</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5.1835</t>
+          <t>5.1516</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>51.835</t>
+          <t>51.516</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.7634</t>
+          <t>1.6176</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.706</t>
+          <t>1.568</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.822</t>
+          <t>1.669</t>
         </is>
       </c>
     </row>
@@ -949,17 +949,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.8986</t>
+          <t>0.9537</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.782</t>
+          <t>0.830</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.032</t>
+          <t>1.096</t>
         </is>
       </c>
     </row>
@@ -972,17 +972,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.2757</t>
+          <t>1.2872</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.190</t>
+          <t>1.201</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.367</t>
+          <t>1.380</t>
         </is>
       </c>
     </row>
@@ -995,17 +995,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.6114</t>
+          <t>1.5861</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.533</t>
+          <t>1.509</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.694</t>
+          <t>1.667</t>
         </is>
       </c>
     </row>
@@ -1018,17 +1018,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2.0558</t>
+          <t>1.9914</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.954</t>
+          <t>1.892</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.163</t>
+          <t>2.096</t>
         </is>
       </c>
     </row>
@@ -1041,17 +1041,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2.0118</t>
+          <t>1.6760</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.889</t>
+          <t>1.577</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.142</t>
+          <t>1.781</t>
         </is>
       </c>
     </row>
@@ -1064,17 +1064,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.8367</t>
+          <t>1.4672</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.683</t>
+          <t>1.350</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.005</t>
+          <t>1.595</t>
         </is>
       </c>
     </row>
@@ -1087,17 +1087,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.8213</t>
+          <t>1.7083</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.611</t>
+          <t>1.511</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.059</t>
+          <t>1.931</t>
         </is>
       </c>
     </row>
@@ -1110,17 +1110,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.6497</t>
+          <t>1.6094</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.370</t>
+          <t>1.334</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.986</t>
+          <t>1.941</t>
         </is>
       </c>
     </row>
@@ -1133,17 +1133,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.8502</t>
+          <t>1.7080</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.460</t>
+          <t>1.353</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.345</t>
+          <t>2.157</t>
         </is>
       </c>
     </row>
@@ -1156,17 +1156,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.7498</t>
+          <t>1.6990</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.279</t>
+          <t>1.240</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.394</t>
+          <t>2.328</t>
         </is>
       </c>
     </row>
@@ -1179,17 +1179,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2.3123</t>
+          <t>2.1346</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.560</t>
+          <t>1.452</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.428</t>
+          <t>3.138</t>
         </is>
       </c>
     </row>
@@ -1202,17 +1202,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.1979</t>
+          <t>1.1964</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.633</t>
+          <t>0.626</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.266</t>
+          <t>2.288</t>
         </is>
       </c>
     </row>
@@ -1225,17 +1225,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.6229</t>
+          <t>0.6003</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.415</t>
+          <t>0.400</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.935</t>
+          <t>0.900</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.7986</t>
+          <t>0.6682</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7.986</t>
+          <t>6.682</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1271,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.5664</t>
+          <t>1.5649</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.646</t>
+          <t>0.637</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.796</t>
+          <t>3.842</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3.7972</t>
+          <t>3.1390</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>37.972</t>
+          <t>31.390</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.1937</t>
+          <t>3.3196</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>41.937</t>
+          <t>33.196</t>
         </is>
       </c>
     </row>
@@ -1358,17 +1358,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.1867</t>
+          <t>1.1085</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>1.066</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>1.153</t>
         </is>
       </c>
     </row>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.8146</t>
+          <t>0.8596</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.645</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.029</t>
+          <t>1.087</t>
         </is>
       </c>
     </row>
@@ -1404,17 +1404,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.2215</t>
+          <t>1.2251</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.113</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.345</t>
+          <t>1.349</t>
         </is>
       </c>
     </row>
@@ -1427,17 +1427,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.5368</t>
+          <t>1.5009</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.437</t>
+          <t>1.404</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.643</t>
+          <t>1.605</t>
         </is>
       </c>
     </row>
@@ -1450,17 +1450,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.6336</t>
+          <t>1.5558</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.533</t>
+          <t>1.459</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.741</t>
+          <t>1.659</t>
         </is>
       </c>
     </row>
@@ -1473,17 +1473,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.2164</t>
+          <t>1.0028</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.131</t>
+          <t>0.934</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.309</t>
+          <t>1.077</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.0185</t>
+          <t>0.8364</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.923</t>
+          <t>0.761</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.124</t>
+          <t>0.920</t>
         </is>
       </c>
     </row>
@@ -1519,17 +1519,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.0416</t>
+          <t>1.0044</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.894</t>
+          <t>0.862</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>1.171</t>
         </is>
       </c>
     </row>
@@ -1542,17 +1542,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.9801</t>
+          <t>0.9597</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.779</t>
+          <t>0.762</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.233</t>
+          <t>1.209</t>
         </is>
       </c>
     </row>
@@ -1565,17 +1565,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.9967</t>
+          <t>0.8967</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.720</t>
+          <t>0.649</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.380</t>
+          <t>1.239</t>
         </is>
       </c>
     </row>
@@ -1588,17 +1588,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.9337</t>
+          <t>0.9083</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.610</t>
+          <t>0.593</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.430</t>
+          <t>1.391</t>
         </is>
       </c>
     </row>
@@ -1611,17 +1611,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.2149</t>
+          <t>1.0980</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.716</t>
+          <t>0.650</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2.062</t>
+          <t>1.855</t>
         </is>
       </c>
     </row>
@@ -1634,17 +1634,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.8419</t>
+          <t>0.8274</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.374</t>
+          <t>0.364</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.898</t>
+          <t>1.883</t>
         </is>
       </c>
     </row>
@@ -1657,17 +1657,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.2839</t>
+          <t>0.2739</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.108</t>
+          <t>0.105</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.747</t>
+          <t>0.717</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.1741</t>
+          <t>0.9365</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11.741</t>
+          <t>9.365</t>
         </is>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.7561</t>
+          <t>1.4211</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>17.561</t>
+          <t>14.211</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.4707</t>
+          <t>1.1573</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>14.707</t>
+          <t>11.573</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.8091</t>
+          <t>0.6444</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>8.091</t>
+          <t>6.444</t>
         </is>
       </c>
     </row>
@@ -1847,17 +1847,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9937</t>
+          <t>1.0242</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.966</t>
+          <t>0.996</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.022</t>
+          <t>1.053</t>
         </is>
       </c>
     </row>
@@ -1870,17 +1870,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9706</t>
+          <t>0.9838</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.748</t>
+          <t>0.756</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.260</t>
+          <t>1.279</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.7755</t>
+          <t>0.7786</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.692</t>
+          <t>0.695</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.869</t>
+          <t>0.873</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8445</t>
+          <t>0.8584</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.779</t>
+          <t>0.792</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.916</t>
+          <t>0.931</t>
         </is>
       </c>
     </row>
@@ -1939,17 +1939,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0748</t>
+          <t>1.1041</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.992</t>
+          <t>1.019</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.164</t>
+          <t>1.196</t>
         </is>
       </c>
     </row>
@@ -1962,17 +1962,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0083</t>
+          <t>1.0340</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.940</t>
+          <t>0.964</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.081</t>
+          <t>1.109</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1985,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.0085</t>
+          <t>1.0437</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.945</t>
+          <t>0.978</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.077</t>
+          <t>1.114</t>
         </is>
       </c>
     </row>
@@ -2008,17 +2008,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.1492</t>
+          <t>1.2044</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>1.119</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.237</t>
+          <t>1.296</t>
         </is>
       </c>
     </row>
@@ -2031,17 +2031,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.1290</t>
+          <t>1.2034</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.033</t>
+          <t>1.102</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.234</t>
+          <t>1.314</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2054,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.1555</t>
+          <t>1.2433</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>1.111</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.295</t>
+          <t>1.391</t>
         </is>
       </c>
     </row>
@@ -2077,17 +2077,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.9388</t>
+          <t>0.9657</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.821</t>
+          <t>0.844</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.074</t>
+          <t>1.105</t>
         </is>
       </c>
     </row>
@@ -2100,17 +2100,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.2202</t>
+          <t>1.2210</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.040</t>
+          <t>1.041</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.431</t>
+          <t>1.433</t>
         </is>
       </c>
     </row>
@@ -2123,17 +2123,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.1341</t>
+          <t>1.1208</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.935</t>
+          <t>0.924</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.375</t>
+          <t>1.359</t>
         </is>
       </c>
     </row>
@@ -2146,17 +2146,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.6768</t>
+          <t>0.6638</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.517</t>
+          <t>0.507</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.887</t>
+          <t>0.869</t>
         </is>
       </c>
     </row>
@@ -2169,17 +2169,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0291</t>
+          <t>0.9785</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.644</t>
+          <t>0.614</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.644</t>
+          <t>1.559</t>
         </is>
       </c>
     </row>
@@ -2192,17 +2192,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.6880</t>
+          <t>2.6504</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>1.048</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.620</t>
+          <t>6.704</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.7909</t>
+          <t>0.4249</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.909</t>
+          <t>4.249</t>
         </is>
       </c>
     </row>
@@ -2238,17 +2238,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.2015</t>
+          <t>0.1985</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.112</t>
+          <t>0.108</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.364</t>
+          <t>0.367</t>
         </is>
       </c>
     </row>
@@ -2279,17 +2279,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.2348</t>
+          <t>1.2008</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>1.176</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>1.226</t>
         </is>
       </c>
     </row>
@@ -2302,17 +2302,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.8326</t>
+          <t>0.8385</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.732</t>
+          <t>0.737</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.947</t>
+          <t>0.954</t>
         </is>
       </c>
     </row>
@@ -2325,17 +2325,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.8584</t>
+          <t>0.8511</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.802</t>
+          <t>0.795</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.919</t>
+          <t>0.912</t>
         </is>
       </c>
     </row>
@@ -2348,17 +2348,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.9624</t>
+          <t>0.9531</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.915</t>
+          <t>0.906</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.013</t>
+          <t>1.003</t>
         </is>
       </c>
     </row>
@@ -2371,17 +2371,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.2610</t>
+          <t>1.2428</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>1.181</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.327</t>
+          <t>1.308</t>
         </is>
       </c>
     </row>
@@ -2394,17 +2394,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.2632</t>
+          <t>1.2369</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.202</t>
+          <t>1.177</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.328</t>
+          <t>1.300</t>
         </is>
       </c>
     </row>
@@ -2417,17 +2417,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.3395</t>
+          <t>1.3118</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.270</t>
+          <t>1.244</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.413</t>
+          <t>1.384</t>
         </is>
       </c>
     </row>
@@ -2440,17 +2440,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.6086</t>
+          <t>1.5500</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.506</t>
+          <t>1.451</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.718</t>
+          <t>1.655</t>
         </is>
       </c>
     </row>
@@ -2463,17 +2463,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.5462</t>
+          <t>1.4188</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.414</t>
+          <t>1.298</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.691</t>
+          <t>1.550</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2486,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.3530</t>
+          <t>1.2002</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.210</t>
+          <t>1.074</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.513</t>
+          <t>1.341</t>
         </is>
       </c>
     </row>
@@ -2509,17 +2509,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.7911</t>
+          <t>1.6727</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.488</t>
+          <t>1.388</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.156</t>
+          <t>2.016</t>
         </is>
       </c>
     </row>
@@ -2532,17 +2532,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.0084</t>
+          <t>0.9637</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.837</t>
+          <t>0.801</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>1.160</t>
         </is>
       </c>
     </row>
@@ -2555,17 +2555,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.9963</t>
+          <t>1.9073</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.443</t>
+          <t>1.381</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.762</t>
+          <t>2.635</t>
         </is>
       </c>
     </row>
@@ -2578,17 +2578,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.8990</t>
+          <t>0.8666</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.652</t>
+          <t>0.629</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.239</t>
+          <t>1.193</t>
         </is>
       </c>
     </row>
@@ -2601,17 +2601,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.7426</t>
+          <t>1.7144</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.909</t>
+          <t>0.887</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.340</t>
+          <t>3.314</t>
         </is>
       </c>
     </row>
@@ -2624,17 +2624,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.9311</t>
+          <t>1.9039</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.008</t>
+          <t>0.987</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.698</t>
+          <t>3.671</t>
         </is>
       </c>
     </row>
@@ -2647,17 +2647,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.7383</t>
+          <t>0.6852</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.379</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.436</t>
+          <t>1.319</t>
         </is>
       </c>
     </row>
@@ -2670,17 +2670,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.5681</t>
+          <t>0.5597</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.288</t>
+          <t>0.281</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.122</t>
+          <t>1.115</t>
         </is>
       </c>
     </row>
@@ -2711,17 +2711,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.2441</t>
+          <t>1.1738</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>1.140</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>1.208</t>
         </is>
       </c>
     </row>
@@ -2734,17 +2734,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.8578</t>
+          <t>0.8524</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.663</t>
+          <t>0.657</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.105</t>
         </is>
       </c>
     </row>
@@ -2757,17 +2757,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.1069</t>
+          <t>1.0932</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.992</t>
+          <t>0.979</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>1.220</t>
         </is>
       </c>
     </row>
@@ -2780,17 +2780,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1396</t>
+          <t>1.1103</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.055</t>
+          <t>1.028</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.199</t>
         </is>
       </c>
     </row>
@@ -2803,17 +2803,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.1732</t>
+          <t>1.1256</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.087</t>
+          <t>1.043</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.266</t>
+          <t>1.215</t>
         </is>
       </c>
     </row>
@@ -2826,17 +2826,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.2528</t>
+          <t>1.1963</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.170</t>
+          <t>1.117</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.342</t>
+          <t>1.281</t>
         </is>
       </c>
     </row>
@@ -2849,17 +2849,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.3282</t>
+          <t>1.2569</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>1.176</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.419</t>
+          <t>1.343</t>
         </is>
       </c>
     </row>
@@ -2872,17 +2872,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.3997</t>
+          <t>1.2869</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.290</t>
+          <t>1.186</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.519</t>
+          <t>1.396</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.3696</t>
+          <t>1.1790</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.061</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.523</t>
+          <t>1.310</t>
         </is>
       </c>
     </row>
@@ -2918,17 +2918,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.1709</t>
+          <t>0.9653</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.018</t>
+          <t>0.841</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.346</t>
+          <t>1.108</t>
         </is>
       </c>
     </row>
@@ -2941,17 +2941,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.9079</t>
+          <t>1.7320</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.550</t>
+          <t>1.406</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2.349</t>
+          <t>2.134</t>
         </is>
       </c>
     </row>
@@ -2964,17 +2964,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.8265</t>
+          <t>0.7893</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.663</t>
+          <t>0.633</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>0.984</t>
         </is>
       </c>
     </row>
@@ -2987,17 +2987,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.7602</t>
+          <t>1.7018</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.196</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.509</t>
+          <t>2.422</t>
         </is>
       </c>
     </row>
@@ -3010,17 +3010,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.3283</t>
+          <t>1.3056</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.912</t>
+          <t>0.897</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.935</t>
+          <t>1.900</t>
         </is>
       </c>
     </row>
@@ -3033,17 +3033,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.6933</t>
+          <t>1.7520</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.781</t>
+          <t>0.803</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3.673</t>
+          <t>3.822</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3061,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.246</t>
+          <t>0.239</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.098</t>
+          <t>2.155</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.8156</t>
+          <t>2.7427</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>18.156</t>
+          <t>27.427</t>
         </is>
       </c>
     </row>
@@ -3102,17 +3102,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2.8197</t>
+          <t>2.8191</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.253</t>
+          <t>1.223</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6.345</t>
+          <t>6.497</t>
         </is>
       </c>
     </row>
@@ -3200,17 +3200,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0428</t>
+          <t>1.0482</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.998</t>
+          <t>1.003</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.089</t>
+          <t>1.096</t>
         </is>
       </c>
     </row>
@@ -3223,17 +3223,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.6596</t>
+          <t>0.6635</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.453</t>
+          <t>0.455</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.961</t>
+          <t>0.968</t>
         </is>
       </c>
     </row>
@@ -3246,17 +3246,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.3711</t>
+          <t>1.3609</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.101</t>
+          <t>1.093</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.707</t>
+          <t>1.695</t>
         </is>
       </c>
     </row>
@@ -3269,17 +3269,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0716</t>
+          <t>1.0789</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.953</t>
+          <t>0.959</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>1.213</t>
         </is>
       </c>
     </row>
@@ -3292,17 +3292,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2900</t>
+          <t>1.2923</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.133</t>
+          <t>1.135</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.469</t>
+          <t>1.471</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.8578</t>
+          <t>0.8581</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.947</t>
+          <t>0.948</t>
         </is>
       </c>
     </row>
@@ -3338,17 +3338,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9434</t>
+          <t>0.9453</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.846</t>
+          <t>0.848</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.052</t>
+          <t>1.054</t>
         </is>
       </c>
     </row>
@@ -3361,17 +3361,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.2601</t>
+          <t>1.2622</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.105</t>
+          <t>1.107</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.436</t>
+          <t>1.439</t>
         </is>
       </c>
     </row>
@@ -3384,17 +3384,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.9880</t>
+          <t>0.9897</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.859</t>
+          <t>0.861</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.136</t>
+          <t>1.138</t>
         </is>
       </c>
     </row>
@@ -3407,17 +3407,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.0980</t>
+          <t>1.0993</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.918</t>
+          <t>0.919</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.313</t>
+          <t>1.315</t>
         </is>
       </c>
     </row>
@@ -3430,17 +3430,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.9074</t>
+          <t>0.9091</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.750</t>
+          <t>0.751</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.098</t>
+          <t>1.100</t>
         </is>
       </c>
     </row>
@@ -3453,17 +3453,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.8445</t>
+          <t>0.8459</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.663</t>
+          <t>0.664</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.075</t>
+          <t>1.077</t>
         </is>
       </c>
     </row>
@@ -3476,17 +3476,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.9015</t>
+          <t>0.9030</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.701</t>
+          <t>0.702</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.159</t>
+          <t>1.161</t>
         </is>
       </c>
     </row>
@@ -3499,17 +3499,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0115</t>
+          <t>1.0171</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.704</t>
+          <t>0.707</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.454</t>
+          <t>1.463</t>
         </is>
       </c>
     </row>
@@ -3522,17 +3522,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8994</t>
+          <t>0.9029</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.560</t>
+          <t>0.562</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.444</t>
+          <t>1.450</t>
         </is>
       </c>
     </row>
@@ -3545,17 +3545,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.3224</t>
+          <t>2.3219</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.429</t>
+          <t>4.422</t>
         </is>
       </c>
     </row>
@@ -3568,17 +3568,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.6704</t>
+          <t>0.6764</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.326</t>
+          <t>0.328</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.379</t>
+          <t>1.394</t>
         </is>
       </c>
     </row>
@@ -3591,17 +3591,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.7166</t>
+          <t>1.7152</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.686</t>
+          <t>0.687</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.293</t>
+          <t>4.281</t>
         </is>
       </c>
     </row>
@@ -3632,17 +3632,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.0443</t>
+          <t>1.0459</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.021</t>
+          <t>1.023</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>1.070</t>
         </is>
       </c>
     </row>
@@ -3655,17 +3655,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.7706</t>
+          <t>0.7394</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.643</t>
+          <t>0.616</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.923</t>
+          <t>0.887</t>
         </is>
       </c>
     </row>
@@ -3678,17 +3678,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.9658</t>
+          <t>0.9443</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.888</t>
+          <t>0.868</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.027</t>
         </is>
       </c>
     </row>
@@ -3701,17 +3701,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.0840</t>
+          <t>1.0827</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.022</t>
+          <t>1.020</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.150</t>
+          <t>1.149</t>
         </is>
       </c>
     </row>
@@ -3724,17 +3724,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0170</t>
+          <t>1.0225</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.959</t>
+          <t>0.964</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.078</t>
+          <t>1.084</t>
         </is>
       </c>
     </row>
@@ -3747,17 +3747,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9822</t>
+          <t>0.9890</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>0.936</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.038</t>
+          <t>1.045</t>
         </is>
       </c>
     </row>
@@ -3770,17 +3770,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.0003</t>
+          <t>1.0087</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.946</t>
+          <t>0.954</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.058</t>
+          <t>1.067</t>
         </is>
       </c>
     </row>
@@ -3793,17 +3793,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.3165</t>
+          <t>1.3280</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.232</t>
+          <t>1.242</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.407</t>
+          <t>1.420</t>
         </is>
       </c>
     </row>
@@ -3816,17 +3816,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0045</t>
+          <t>1.0114</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.926</t>
+          <t>0.933</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.089</t>
+          <t>1.097</t>
         </is>
       </c>
     </row>
@@ -3839,17 +3839,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.0255</t>
+          <t>1.0309</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.924</t>
+          <t>0.929</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>1.145</t>
         </is>
       </c>
     </row>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.9641</t>
+          <t>0.9699</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.853</t>
+          <t>0.858</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.090</t>
+          <t>1.097</t>
         </is>
       </c>
     </row>
@@ -3885,17 +3885,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.8534</t>
+          <t>0.8572</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.744</t>
+          <t>0.748</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.979</t>
+          <t>0.983</t>
         </is>
       </c>
     </row>
@@ -3908,17 +3908,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.8389</t>
+          <t>1.8431</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.502</t>
+          <t>1.505</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.252</t>
+          <t>2.257</t>
         </is>
       </c>
     </row>
@@ -3931,17 +3931,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.0814</t>
+          <t>1.0842</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.851</t>
+          <t>0.853</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.375</t>
+          <t>1.378</t>
         </is>
       </c>
     </row>
@@ -3954,17 +3954,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.0533</t>
+          <t>1.0567</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.760</t>
+          <t>0.762</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.460</t>
+          <t>1.464</t>
         </is>
       </c>
     </row>
@@ -3977,17 +3977,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.6043</t>
+          <t>1.6106</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.111</t>
+          <t>1.116</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.316</t>
+          <t>2.325</t>
         </is>
       </c>
     </row>
@@ -4000,17 +4000,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.0357</t>
+          <t>1.0424</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.623</t>
+          <t>0.627</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.722</t>
+          <t>1.734</t>
         </is>
       </c>
     </row>
@@ -4023,17 +4023,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2.5808</t>
+          <t>2.5990</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.438</t>
+          <t>1.447</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.631</t>
+          <t>4.668</t>
         </is>
       </c>
     </row>
@@ -4064,17 +4064,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.0014</t>
+          <t>0.9978</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.958</t>
+          <t>0.954</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.047</t>
+          <t>1.043</t>
         </is>
       </c>
     </row>
@@ -4087,17 +4087,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.1683</t>
+          <t>1.1144</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.790</t>
+          <t>0.752</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.729</t>
+          <t>1.652</t>
         </is>
       </c>
     </row>
@@ -4110,17 +4110,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.7044</t>
+          <t>0.6938</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.564</t>
+          <t>0.555</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.880</t>
+          <t>0.867</t>
         </is>
       </c>
     </row>
@@ -4133,17 +4133,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.0116</t>
+          <t>1.0036</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.898</t>
+          <t>0.891</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.140</t>
+          <t>1.131</t>
         </is>
       </c>
     </row>
@@ -4156,17 +4156,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.7884</t>
+          <t>0.7912</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.692</t>
+          <t>0.695</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.898</t>
+          <t>0.901</t>
         </is>
       </c>
     </row>
@@ -4179,17 +4179,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.1450</t>
+          <t>1.1525</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.037</t>
+          <t>1.044</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.264</t>
+          <t>1.273</t>
         </is>
       </c>
     </row>
@@ -4202,17 +4202,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.0602</t>
+          <t>1.0670</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.951</t>
+          <t>0.957</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.182</t>
+          <t>1.190</t>
         </is>
       </c>
     </row>
@@ -4225,17 +4225,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.0448</t>
+          <t>1.0522</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.914</t>
+          <t>0.921</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.194</t>
+          <t>1.202</t>
         </is>
       </c>
     </row>
@@ -4248,17 +4248,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.0167</t>
+          <t>1.0220</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.882</t>
+          <t>0.887</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.172</t>
+          <t>1.178</t>
         </is>
       </c>
     </row>
@@ -4271,17 +4271,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.9340</t>
+          <t>0.9378</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.777</t>
+          <t>0.780</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.123</t>
+          <t>1.128</t>
         </is>
       </c>
     </row>
@@ -4294,17 +4294,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.0625</t>
+          <t>1.0669</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.874</t>
+          <t>0.877</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.292</t>
+          <t>1.297</t>
         </is>
       </c>
     </row>
@@ -4317,17 +4317,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.0106</t>
+          <t>1.0134</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.792</t>
+          <t>0.794</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.290</t>
+          <t>1.293</t>
         </is>
       </c>
     </row>
@@ -4340,17 +4340,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2.0398</t>
+          <t>2.0411</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.533</t>
+          <t>1.535</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.713</t>
+          <t>2.715</t>
         </is>
       </c>
     </row>
@@ -4363,17 +4363,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.0692</t>
+          <t>1.0660</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.727</t>
+          <t>0.725</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.571</t>
+          <t>1.567</t>
         </is>
       </c>
     </row>
@@ -4386,17 +4386,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.1710</t>
+          <t>1.1703</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.694</t>
+          <t>0.693</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.976</t>
+          <t>1.975</t>
         </is>
       </c>
     </row>
@@ -4409,17 +4409,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.6908</t>
+          <t>0.6937</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.347</t>
+          <t>0.349</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.375</t>
+          <t>1.379</t>
         </is>
       </c>
     </row>
@@ -4432,17 +4432,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.5448</t>
+          <t>1.5410</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.752</t>
+          <t>0.748</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.175</t>
+          <t>3.173</t>
         </is>
       </c>
     </row>
@@ -4455,17 +4455,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1.5034</t>
+          <t>1.5153</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.550</t>
+          <t>0.556</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4.106</t>
+          <t>4.133</t>
         </is>
       </c>
     </row>
@@ -4496,17 +4496,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.5581</t>
+          <t>1.5515</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.527</t>
+          <t>1.521</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.589</t>
+          <t>1.583</t>
         </is>
       </c>
     </row>
@@ -4519,17 +4519,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.2465</t>
+          <t>1.2116</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.085</t>
+          <t>1.054</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.433</t>
+          <t>1.393</t>
         </is>
       </c>
     </row>
@@ -4542,17 +4542,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.3606</t>
+          <t>1.3352</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.270</t>
+          <t>1.246</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.458</t>
+          <t>1.431</t>
         </is>
       </c>
     </row>
@@ -4565,17 +4565,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.5187</t>
+          <t>1.5132</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.446</t>
+          <t>1.440</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.595</t>
+          <t>1.590</t>
         </is>
       </c>
     </row>
@@ -4588,17 +4588,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.5079</t>
+          <t>1.5019</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.434</t>
+          <t>1.429</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.585</t>
+          <t>1.579</t>
         </is>
       </c>
     </row>
@@ -4611,17 +4611,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.6258</t>
+          <t>1.6197</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.548</t>
+          <t>1.542</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.708</t>
+          <t>1.702</t>
         </is>
       </c>
     </row>
@@ -4634,17 +4634,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.6714</t>
+          <t>1.6677</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.589</t>
+          <t>1.586</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.758</t>
+          <t>1.754</t>
         </is>
       </c>
     </row>
@@ -4657,17 +4657,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.7885</t>
+          <t>1.7846</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1.686</t>
+          <t>1.683</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.897</t>
+          <t>1.893</t>
         </is>
       </c>
     </row>
@@ -4680,17 +4680,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.4693</t>
+          <t>1.4665</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.363</t>
+          <t>1.360</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.584</t>
+          <t>1.581</t>
         </is>
       </c>
     </row>
@@ -4703,17 +4703,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1.3434</t>
+          <t>1.3411</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>1.214</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.484</t>
+          <t>1.481</t>
         </is>
       </c>
     </row>
@@ -4726,17 +4726,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1.1869</t>
+          <t>1.1832</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1.048</t>
+          <t>1.044</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.345</t>
+          <t>1.340</t>
         </is>
       </c>
     </row>
@@ -4749,17 +4749,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1.3670</t>
+          <t>1.3651</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.171</t>
+          <t>1.170</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.595</t>
+          <t>1.593</t>
         </is>
       </c>
     </row>
@@ -4772,17 +4772,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.9547</t>
+          <t>1.9476</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.575</t>
+          <t>1.569</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2.426</t>
+          <t>2.417</t>
         </is>
       </c>
     </row>
@@ -4795,17 +4795,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.1922</t>
+          <t>1.1905</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.922</t>
+          <t>0.920</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.542</t>
+          <t>1.540</t>
         </is>
       </c>
     </row>
@@ -4818,17 +4818,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.9315</t>
+          <t>0.9191</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.663</t>
+          <t>0.655</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.308</t>
+          <t>1.289</t>
         </is>
       </c>
     </row>
@@ -4841,17 +4841,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2.3645</t>
+          <t>2.3314</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.370</t>
+          <t>1.353</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4.081</t>
+          <t>4.018</t>
         </is>
       </c>
     </row>
@@ -4864,17 +4864,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1.1547</t>
+          <t>1.1391</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.657</t>
+          <t>0.649</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2.029</t>
+          <t>2.001</t>
         </is>
       </c>
     </row>
@@ -4887,17 +4887,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1.3885</t>
+          <t>1.3873</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.778</t>
+          <t>0.774</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2.478</t>
+          <t>2.485</t>
         </is>
       </c>
     </row>
@@ -4928,17 +4928,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1.4921</t>
+          <t>1.4835</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1.462</t>
+          <t>1.453</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.523</t>
+          <t>1.514</t>
         </is>
       </c>
     </row>
@@ -4951,17 +4951,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1.6175</t>
+          <t>1.6387</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.356</t>
+          <t>1.372</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.929</t>
+          <t>1.957</t>
         </is>
       </c>
     </row>
@@ -4974,17 +4974,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1.4087</t>
+          <t>1.4140</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.304</t>
+          <t>1.309</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.522</t>
+          <t>1.528</t>
         </is>
       </c>
     </row>
@@ -4997,17 +4997,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1.4010</t>
+          <t>1.3976</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1.328</t>
+          <t>1.325</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.478</t>
+          <t>1.474</t>
         </is>
       </c>
     </row>
@@ -5020,17 +5020,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.4827</t>
+          <t>1.4689</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.409</t>
+          <t>1.396</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.560</t>
+          <t>1.546</t>
         </is>
       </c>
     </row>
@@ -5043,17 +5043,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1.6552</t>
+          <t>1.6378</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1.576</t>
+          <t>1.560</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.738</t>
+          <t>1.720</t>
         </is>
       </c>
     </row>
@@ -5066,17 +5066,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.6710</t>
+          <t>1.6532</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.590</t>
+          <t>1.573</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.757</t>
+          <t>1.738</t>
         </is>
       </c>
     </row>
@@ -5089,17 +5089,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.3585</t>
+          <t>1.3438</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.274</t>
+          <t>1.261</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.448</t>
+          <t>1.433</t>
         </is>
       </c>
     </row>
@@ -5112,17 +5112,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.4627</t>
+          <t>1.4499</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.351</t>
+          <t>1.339</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.584</t>
+          <t>1.570</t>
         </is>
       </c>
     </row>
@@ -5135,17 +5135,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1.3100</t>
+          <t>1.3008</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.174</t>
+          <t>1.166</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.462</t>
+          <t>1.452</t>
         </is>
       </c>
     </row>
@@ -5158,17 +5158,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1.2310</t>
+          <t>1.2199</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.079</t>
+          <t>1.069</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.405</t>
+          <t>1.392</t>
         </is>
       </c>
     </row>
@@ -5181,17 +5181,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1.6018</t>
+          <t>1.5925</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1.368</t>
+          <t>1.360</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.876</t>
+          <t>1.865</t>
         </is>
       </c>
     </row>
@@ -5204,17 +5204,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1.0630</t>
+          <t>1.0567</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.824</t>
+          <t>0.819</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.372</t>
+          <t>1.363</t>
         </is>
       </c>
     </row>
@@ -5227,17 +5227,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1.1024</t>
+          <t>1.0981</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.827</t>
+          <t>0.823</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.470</t>
+          <t>1.465</t>
         </is>
       </c>
     </row>
@@ -5250,17 +5250,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.8844</t>
+          <t>0.8698</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.589</t>
+          <t>0.580</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.327</t>
+          <t>1.304</t>
         </is>
       </c>
     </row>
@@ -5273,17 +5273,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1.4739</t>
+          <t>1.4475</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.812</t>
+          <t>0.799</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2.674</t>
+          <t>2.623</t>
         </is>
       </c>
     </row>
@@ -5296,17 +5296,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1.1150</t>
+          <t>1.0927</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.635</t>
+          <t>0.623</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.957</t>
+          <t>1.918</t>
         </is>
       </c>
     </row>
@@ -5319,17 +5319,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.5380</t>
+          <t>0.5338</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.264</t>
+          <t>0.261</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.095</t>
+          <t>1.090</t>
         </is>
       </c>
     </row>
@@ -5417,17 +5417,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.2686</t>
+          <t>1.2472</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.230</t>
+          <t>1.210</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.308</t>
+          <t>1.286</t>
         </is>
       </c>
     </row>
@@ -5440,17 +5440,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.3713</t>
+          <t>2.2649</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.889</t>
+          <t>1.804</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.977</t>
+          <t>2.844</t>
         </is>
       </c>
     </row>
@@ -5463,17 +5463,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.5225</t>
+          <t>1.4943</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.380</t>
+          <t>1.354</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.680</t>
+          <t>1.649</t>
         </is>
       </c>
     </row>
@@ -5486,17 +5486,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0851</t>
+          <t>1.0731</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.013</t>
+          <t>1.002</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.162</t>
+          <t>1.149</t>
         </is>
       </c>
     </row>
@@ -5509,17 +5509,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.1365</t>
+          <t>1.1310</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>1.056</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.217</t>
+          <t>1.212</t>
         </is>
       </c>
     </row>
@@ -5532,17 +5532,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.1229</t>
+          <t>1.1160</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.045</t>
+          <t>1.039</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>1.199</t>
         </is>
       </c>
     </row>
@@ -5555,17 +5555,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.1968</t>
+          <t>1.1899</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>1.110</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.283</t>
+          <t>1.276</t>
         </is>
       </c>
     </row>
@@ -5578,17 +5578,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.4908</t>
+          <t>1.4831</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.367</t>
+          <t>1.360</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.626</t>
+          <t>1.618</t>
         </is>
       </c>
     </row>
@@ -5601,17 +5601,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.2201</t>
+          <t>1.2133</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.093</t>
+          <t>1.087</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.362</t>
+          <t>1.354</t>
         </is>
       </c>
     </row>
@@ -5624,17 +5624,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.7231</t>
+          <t>1.7068</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.419</t>
+          <t>1.406</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.092</t>
+          <t>2.072</t>
         </is>
       </c>
     </row>
@@ -5647,17 +5647,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.0055</t>
+          <t>1.0025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.787</t>
+          <t>0.784</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.285</t>
+          <t>1.282</t>
         </is>
       </c>
     </row>
@@ -5670,17 +5670,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.7492</t>
+          <t>2.7232</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.841</t>
+          <t>1.824</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.105</t>
+          <t>4.066</t>
         </is>
       </c>
     </row>
@@ -5693,17 +5693,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3.1935</t>
+          <t>3.0980</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.902</t>
+          <t>1.855</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.361</t>
+          <t>5.173</t>
         </is>
       </c>
     </row>
@@ -5716,17 +5716,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.3598</t>
+          <t>1.3509</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.933</t>
+          <t>0.927</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.982</t>
+          <t>1.969</t>
         </is>
       </c>
     </row>
@@ -5744,12 +5744,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.100</t>
+          <t>2.092</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11.893</t>
+          <t>11.938</t>
         </is>
       </c>
     </row>
@@ -5767,12 +5767,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.274</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.038</t>
+          <t>1.040</t>
         </is>
       </c>
     </row>
@@ -5785,17 +5785,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.8316</t>
+          <t>0.7954</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.325</t>
+          <t>0.316</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.126</t>
+          <t>2.002</t>
         </is>
       </c>
     </row>
@@ -5813,12 +5813,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.168</t>
+          <t>0.167</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.159</t>
+          <t>1.162</t>
         </is>
       </c>
     </row>
@@ -5849,17 +5849,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.3796</t>
+          <t>1.3707</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.305</t>
+          <t>1.297</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.459</t>
+          <t>1.449</t>
         </is>
       </c>
     </row>
@@ -5872,17 +5872,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.1495</t>
+          <t>1.1541</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.468</t>
+          <t>0.470</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.821</t>
+          <t>2.831</t>
         </is>
       </c>
     </row>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.9550</t>
+          <t>0.9544</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5918,17 +5918,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.3769</t>
+          <t>1.3677</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.167</t>
+          <t>1.159</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.625</t>
+          <t>1.614</t>
         </is>
       </c>
     </row>
@@ -5941,17 +5941,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1266</t>
+          <t>1.1185</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.977</t>
+          <t>0.970</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.299</t>
+          <t>1.290</t>
         </is>
       </c>
     </row>
@@ -5964,17 +5964,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.4013</t>
+          <t>1.3933</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.227</t>
+          <t>1.220</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.600</t>
+          <t>1.591</t>
         </is>
       </c>
     </row>
@@ -5987,17 +5987,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.6592</t>
+          <t>1.6496</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.460</t>
+          <t>1.452</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.885</t>
+          <t>1.875</t>
         </is>
       </c>
     </row>
@@ -6010,17 +6010,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.6309</t>
+          <t>1.6225</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.404</t>
+          <t>1.397</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.894</t>
+          <t>1.885</t>
         </is>
       </c>
     </row>
@@ -6033,17 +6033,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.2622</t>
+          <t>1.2553</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.062</t>
+          <t>1.056</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.500</t>
+          <t>1.492</t>
         </is>
       </c>
     </row>
@@ -6056,17 +6056,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.7646</t>
+          <t>1.7479</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.374</t>
+          <t>1.361</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.267</t>
+          <t>2.245</t>
         </is>
       </c>
     </row>
@@ -6079,17 +6079,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.4953</t>
+          <t>0.4938</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.357</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.687</t>
+          <t>0.685</t>
         </is>
       </c>
     </row>
@@ -6102,17 +6102,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2.7676</t>
+          <t>2.7416</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.777</t>
+          <t>1.761</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.310</t>
+          <t>4.269</t>
         </is>
       </c>
     </row>
@@ -6125,17 +6125,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.8403</t>
+          <t>4.6955</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.763</t>
+          <t>2.694</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>8.480</t>
+          <t>8.185</t>
         </is>
       </c>
     </row>
@@ -6148,17 +6148,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.5117</t>
+          <t>0.5084</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.249</t>
+          <t>0.248</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.051</t>
+          <t>1.044</t>
         </is>
       </c>
     </row>
@@ -6176,12 +6176,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.114</t>
+          <t>2.107</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14.231</t>
+          <t>14.281</t>
         </is>
       </c>
     </row>
@@ -6199,12 +6199,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.289</t>
+          <t>0.288</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.344</t>
+          <t>1.348</t>
         </is>
       </c>
     </row>
@@ -6217,17 +6217,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.8376</t>
+          <t>1.7577</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.515</t>
+          <t>0.499</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6.550</t>
+          <t>6.194</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2.3717</t>
+          <t>2.2876</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>23.717</t>
+          <t>22.876</t>
         </is>
       </c>
     </row>
@@ -6281,17 +6281,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.2410</t>
+          <t>1.2318</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.202</t>
+          <t>1.193</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.282</t>
+          <t>1.271</t>
         </is>
       </c>
     </row>
@@ -6304,17 +6304,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.7433</t>
+          <t>1.8507</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.293</t>
+          <t>1.370</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2.350</t>
+          <t>2.500</t>
         </is>
       </c>
     </row>
@@ -6327,12 +6327,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.9561</t>
+          <t>0.9552</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.847</t>
+          <t>0.846</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -6350,12 +6350,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1106</t>
+          <t>1.1100</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -6373,17 +6373,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.3255</t>
+          <t>1.3166</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.226</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.423</t>
+          <t>1.414</t>
         </is>
       </c>
     </row>
@@ -6396,17 +6396,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.1773</t>
+          <t>1.1707</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.095</t>
+          <t>1.089</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.266</t>
+          <t>1.259</t>
         </is>
       </c>
     </row>
@@ -6419,17 +6419,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.2244</t>
+          <t>1.2163</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>1.131</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>1.308</t>
         </is>
       </c>
     </row>
@@ -6442,17 +6442,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.1931</t>
+          <t>1.1860</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.084</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.305</t>
+          <t>1.298</t>
         </is>
       </c>
     </row>
@@ -6465,17 +6465,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.0857</t>
+          <t>1.0790</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.965</t>
+          <t>0.959</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>1.214</t>
         </is>
       </c>
     </row>
@@ -6488,17 +6488,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.8843</t>
+          <t>1.8660</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.543</t>
+          <t>1.528</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2.301</t>
+          <t>2.279</t>
         </is>
       </c>
     </row>
@@ -6511,17 +6511,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.0780</t>
+          <t>1.0747</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.838</t>
+          <t>0.834</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.387</t>
+          <t>1.384</t>
         </is>
       </c>
     </row>
@@ -6534,17 +6534,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2.9262</t>
+          <t>2.8982</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.950</t>
+          <t>1.932</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4.390</t>
+          <t>4.348</t>
         </is>
       </c>
     </row>
@@ -6557,17 +6557,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3.5025</t>
+          <t>3.3975</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.079</t>
+          <t>2.027</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5.901</t>
+          <t>5.693</t>
         </is>
       </c>
     </row>
@@ -6580,17 +6580,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.1304</t>
+          <t>1.1229</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.763</t>
+          <t>0.758</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.675</t>
+          <t>1.664</t>
         </is>
       </c>
     </row>
@@ -6603,17 +6603,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6.4108</t>
+          <t>6.4101</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.661</t>
+          <t>2.651</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15.443</t>
+          <t>15.500</t>
         </is>
       </c>
     </row>
@@ -6631,12 +6631,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.270</t>
+          <t>0.269</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.037</t>
+          <t>1.040</t>
         </is>
       </c>
     </row>
@@ -6649,17 +6649,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.3918</t>
+          <t>1.3311</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.544</t>
+          <t>0.528</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.562</t>
+          <t>3.354</t>
         </is>
       </c>
     </row>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.992</t>
+          <t>0.995</t>
         </is>
       </c>
     </row>
@@ -6713,17 +6713,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.2084</t>
+          <t>1.1914</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.176</t>
+          <t>1.160</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>1.223</t>
         </is>
       </c>
     </row>
@@ -6736,17 +6736,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.2513</t>
+          <t>1.2402</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.003</t>
+          <t>0.994</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.561</t>
+          <t>1.547</t>
         </is>
       </c>
     </row>
@@ -6759,17 +6759,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.3344</t>
+          <t>1.3251</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.451</t>
+          <t>1.441</t>
         </is>
       </c>
     </row>
@@ -6782,17 +6782,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.0741</t>
+          <t>1.0660</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.016</t>
+          <t>1.009</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.135</t>
+          <t>1.127</t>
         </is>
       </c>
     </row>
@@ -6805,17 +6805,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.1526</t>
+          <t>1.1431</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>1.083</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>1.206</t>
         </is>
       </c>
     </row>
@@ -6828,17 +6828,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.1779</t>
+          <t>1.1679</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.114</t>
+          <t>1.104</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.246</t>
+          <t>1.235</t>
         </is>
       </c>
     </row>
@@ -6851,17 +6851,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.0264</t>
+          <t>1.0174</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.970</t>
+          <t>0.961</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.087</t>
+          <t>1.077</t>
         </is>
       </c>
     </row>
@@ -6874,17 +6874,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.3714</t>
+          <t>1.3606</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1.272</t>
+          <t>1.261</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.479</t>
+          <t>1.468</t>
         </is>
       </c>
     </row>
@@ -6897,17 +6897,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.1674</t>
+          <t>1.1589</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.054</t>
+          <t>1.046</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.293</t>
+          <t>1.284</t>
         </is>
       </c>
     </row>
@@ -6920,17 +6920,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1.8326</t>
+          <t>1.8133</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.516</t>
+          <t>1.500</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2.215</t>
+          <t>2.192</t>
         </is>
       </c>
     </row>
@@ -6943,17 +6943,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.9795</t>
+          <t>0.9760</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.768</t>
+          <t>0.765</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.249</t>
+          <t>1.246</t>
         </is>
       </c>
     </row>
@@ -6966,17 +6966,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2.5930</t>
+          <t>2.5674</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.737</t>
+          <t>1.720</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3.871</t>
+          <t>3.832</t>
         </is>
       </c>
     </row>
@@ -6989,17 +6989,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3.0467</t>
+          <t>2.9537</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.811</t>
+          <t>1.765</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5.125</t>
+          <t>4.943</t>
         </is>
       </c>
     </row>
@@ -7012,17 +7012,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.2362</t>
+          <t>1.2277</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.837</t>
+          <t>0.831</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.825</t>
+          <t>1.813</t>
         </is>
       </c>
     </row>
@@ -7035,17 +7035,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>8.4202</t>
+          <t>8.4178</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3.493</t>
+          <t>3.479</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>20.300</t>
+          <t>20.370</t>
         </is>
       </c>
     </row>
@@ -7058,17 +7058,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.5113</t>
+          <t>0.5112</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.260</t>
+          <t>0.259</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.005</t>
+          <t>1.007</t>
         </is>
       </c>
     </row>
@@ -7081,17 +7081,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.6230</t>
+          <t>0.5958</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.234</t>
+          <t>0.227</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.658</t>
+          <t>1.562</t>
         </is>
       </c>
     </row>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.2063</t>
+          <t>0.2062</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.565</t>
+          <t>0.567</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -494,17 +494,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.4523</t>
+          <t>1.4157</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.413</t>
+          <t>1.377</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.493</t>
+          <t>1.455</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.1095</t>
+          <t>1.0197</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.887</t>
+          <t>0.815</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.388</t>
+          <t>1.276</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0507</t>
+          <t>1.0722</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.963</t>
+          <t>0.983</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.146</t>
+          <t>1.169</t>
         </is>
       </c>
     </row>
@@ -563,17 +563,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0568</t>
+          <t>1.0882</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.995</t>
+          <t>1.025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.122</t>
+          <t>1.155</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2800</t>
+          <t>1.1400</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>1.080</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.351</t>
+          <t>1.203</t>
         </is>
       </c>
     </row>
@@ -609,17 +609,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.6714</t>
+          <t>1.7552</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.592</t>
+          <t>1.671</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.755</t>
+          <t>1.843</t>
         </is>
       </c>
     </row>
@@ -632,17 +632,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.7542</t>
+          <t>1.7164</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.662</t>
+          <t>1.626</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.852</t>
+          <t>1.812</t>
         </is>
       </c>
     </row>
@@ -655,17 +655,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.7008</t>
+          <t>1.6408</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.542</t>
+          <t>1.488</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.876</t>
+          <t>1.810</t>
         </is>
       </c>
     </row>
@@ -678,17 +678,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.6770</t>
+          <t>1.2922</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.456</t>
+          <t>1.121</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.931</t>
+          <t>1.489</t>
         </is>
       </c>
     </row>
@@ -701,17 +701,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.9046</t>
+          <t>2.7924</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.512</t>
+          <t>2.220</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.399</t>
+          <t>3.512</t>
         </is>
       </c>
     </row>
@@ -724,17 +724,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.8706</t>
+          <t>1.7248</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.393</t>
+          <t>1.284</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.511</t>
+          <t>2.317</t>
         </is>
       </c>
     </row>
@@ -747,17 +747,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.9440</t>
+          <t>1.4239</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.349</t>
+          <t>0.987</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.801</t>
+          <t>2.055</t>
         </is>
       </c>
     </row>
@@ -770,17 +770,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.4459</t>
+          <t>1.3386</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.864</t>
+          <t>0.799</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.421</t>
+          <t>2.242</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.1921</t>
+          <t>2.4534</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.906</t>
+          <t>1.017</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.307</t>
+          <t>5.916</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.5115</t>
+          <t>0.4460</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.207</t>
+          <t>0.180</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>1.104</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.2551</t>
+          <t>0.5387</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12.551</t>
+          <t>5.387</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.7123</t>
+          <t>5.8925</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27.123</t>
+          <t>58.925</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5.1516</t>
+          <t>5.4405</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>51.516</t>
+          <t>54.405</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.6176</t>
+          <t>1.5870</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.568</t>
+          <t>1.538</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.669</t>
+          <t>1.637</t>
         </is>
       </c>
     </row>
@@ -949,17 +949,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.9537</t>
+          <t>0.8884</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.830</t>
+          <t>0.773</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.096</t>
+          <t>1.021</t>
         </is>
       </c>
     </row>
@@ -972,17 +972,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.2872</t>
+          <t>1.2805</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.201</t>
+          <t>1.195</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.380</t>
+          <t>1.372</t>
         </is>
       </c>
     </row>
@@ -995,17 +995,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.5861</t>
+          <t>1.5561</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.509</t>
+          <t>1.480</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.667</t>
+          <t>1.636</t>
         </is>
       </c>
     </row>
@@ -1018,17 +1018,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.9914</t>
+          <t>1.8709</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.892</t>
+          <t>1.778</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.096</t>
+          <t>1.969</t>
         </is>
       </c>
     </row>
@@ -1041,17 +1041,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.6760</t>
+          <t>1.7281</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.577</t>
+          <t>1.626</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.781</t>
+          <t>1.836</t>
         </is>
       </c>
     </row>
@@ -1064,17 +1064,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.4672</t>
+          <t>1.4979</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.350</t>
+          <t>1.378</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.595</t>
+          <t>1.628</t>
         </is>
       </c>
     </row>
@@ -1087,17 +1087,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.7083</t>
+          <t>1.4078</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.511</t>
+          <t>1.245</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.931</t>
+          <t>1.592</t>
         </is>
       </c>
     </row>
@@ -1110,17 +1110,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.6094</t>
+          <t>1.8424</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.334</t>
+          <t>1.529</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.941</t>
+          <t>2.220</t>
         </is>
       </c>
     </row>
@@ -1133,17 +1133,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.7080</t>
+          <t>1.7430</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.353</t>
+          <t>1.380</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.157</t>
+          <t>2.201</t>
         </is>
       </c>
     </row>
@@ -1156,17 +1156,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.6990</t>
+          <t>2.1378</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.240</t>
+          <t>1.562</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.328</t>
+          <t>2.926</t>
         </is>
       </c>
     </row>
@@ -1179,17 +1179,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2.1346</t>
+          <t>1.9695</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.452</t>
+          <t>1.339</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.138</t>
+          <t>2.896</t>
         </is>
       </c>
     </row>
@@ -1202,17 +1202,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.1964</t>
+          <t>1.0116</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.626</t>
+          <t>0.526</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.288</t>
+          <t>1.945</t>
         </is>
       </c>
     </row>
@@ -1225,17 +1225,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.6003</t>
+          <t>0.4404</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.400</t>
+          <t>0.293</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.900</t>
+          <t>0.662</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.6682</t>
+          <t>0.5562</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6.682</t>
+          <t>5.562</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1271,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.5649</t>
+          <t>1.2359</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.637</t>
+          <t>0.499</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.842</t>
+          <t>3.060</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3.1390</t>
+          <t>2.7568</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>31.390</t>
+          <t>27.568</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3.3196</t>
+          <t>3.5058</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>33.196</t>
+          <t>35.058</t>
         </is>
       </c>
     </row>
@@ -1358,17 +1358,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.1085</t>
+          <t>1.1159</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.066</t>
+          <t>1.073</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.153</t>
+          <t>1.161</t>
         </is>
       </c>
     </row>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.8596</t>
+          <t>0.8713</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.689</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.087</t>
+          <t>1.102</t>
         </is>
       </c>
     </row>
@@ -1404,17 +1404,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.2251</t>
+          <t>1.1942</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.113</t>
+          <t>1.085</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.349</t>
+          <t>1.315</t>
         </is>
       </c>
     </row>
@@ -1427,17 +1427,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.5009</t>
+          <t>1.4300</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.404</t>
+          <t>1.338</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.605</t>
+          <t>1.529</t>
         </is>
       </c>
     </row>
@@ -1450,17 +1450,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.5558</t>
+          <t>1.6411</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.459</t>
+          <t>1.539</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.659</t>
+          <t>1.750</t>
         </is>
       </c>
     </row>
@@ -1473,17 +1473,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.0028</t>
+          <t>0.9845</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>0.917</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.077</t>
+          <t>1.057</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.8364</t>
+          <t>0.8727</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.761</t>
+          <t>0.794</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.920</t>
+          <t>0.960</t>
         </is>
       </c>
     </row>
@@ -1519,17 +1519,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.0044</t>
+          <t>0.8580</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.862</t>
+          <t>0.736</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.171</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -1542,17 +1542,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.9597</t>
+          <t>1.4257</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.762</t>
+          <t>1.132</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>1.796</t>
         </is>
       </c>
     </row>
@@ -1565,17 +1565,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.8967</t>
+          <t>0.6242</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.649</t>
+          <t>0.452</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.239</t>
+          <t>0.862</t>
         </is>
       </c>
     </row>
@@ -1588,17 +1588,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.9083</t>
+          <t>1.2394</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.593</t>
+          <t>0.810</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.391</t>
+          <t>1.897</t>
         </is>
       </c>
     </row>
@@ -1611,17 +1611,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.0980</t>
+          <t>1.3832</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.650</t>
+          <t>0.817</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.855</t>
+          <t>2.340</t>
         </is>
       </c>
     </row>
@@ -1634,17 +1634,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.8274</t>
+          <t>0.7557</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.364</t>
+          <t>0.330</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.883</t>
+          <t>1.728</t>
         </is>
       </c>
     </row>
@@ -1657,17 +1657,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.2739</t>
+          <t>0.1795</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.069</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.717</t>
+          <t>0.469</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.9365</t>
+          <t>0.9014</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>9.365</t>
+          <t>9.014</t>
         </is>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.4211</t>
+          <t>2.5757</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>14.211</t>
+          <t>25.757</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.1573</t>
+          <t>0.4678</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11.573</t>
+          <t>4.678</t>
         </is>
       </c>
     </row>
@@ -1847,17 +1847,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0242</t>
+          <t>1.0453</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>1.016</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.053</t>
+          <t>1.075</t>
         </is>
       </c>
     </row>
@@ -1870,17 +1870,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9838</t>
+          <t>1.0229</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.756</t>
+          <t>0.787</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.279</t>
+          <t>1.330</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.7786</t>
+          <t>0.8785</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.695</t>
+          <t>0.784</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.873</t>
+          <t>0.984</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8584</t>
+          <t>0.9416</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.792</t>
+          <t>0.869</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.931</t>
+          <t>1.021</t>
         </is>
       </c>
     </row>
@@ -1939,17 +1939,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.1041</t>
+          <t>1.0309</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.019</t>
+          <t>0.952</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.196</t>
+          <t>1.117</t>
         </is>
       </c>
     </row>
@@ -1962,17 +1962,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0340</t>
+          <t>1.0985</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.964</t>
+          <t>1.024</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.109</t>
+          <t>1.178</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1985,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.0437</t>
+          <t>1.0668</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.978</t>
+          <t>0.999</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.114</t>
+          <t>1.139</t>
         </is>
       </c>
     </row>
@@ -2008,17 +2008,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.2044</t>
+          <t>1.1410</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.119</t>
+          <t>1.060</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.296</t>
+          <t>1.228</t>
         </is>
       </c>
     </row>
@@ -2031,17 +2031,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.2034</t>
+          <t>1.2203</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.102</t>
+          <t>1.117</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.314</t>
+          <t>1.333</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2054,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.2433</t>
+          <t>1.2567</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.111</t>
+          <t>1.123</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.391</t>
+          <t>1.406</t>
         </is>
       </c>
     </row>
@@ -2077,17 +2077,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.9657</t>
+          <t>0.9672</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.844</t>
+          <t>0.846</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.105</t>
+          <t>1.106</t>
         </is>
       </c>
     </row>
@@ -2100,17 +2100,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.2210</t>
+          <t>1.2473</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.041</t>
+          <t>1.063</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.433</t>
+          <t>1.463</t>
         </is>
       </c>
     </row>
@@ -2123,17 +2123,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.1208</t>
+          <t>1.0378</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.924</t>
+          <t>0.856</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.359</t>
+          <t>1.259</t>
         </is>
       </c>
     </row>
@@ -2146,17 +2146,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.6638</t>
+          <t>0.5671</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.507</t>
+          <t>0.433</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.869</t>
+          <t>0.743</t>
         </is>
       </c>
     </row>
@@ -2169,17 +2169,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.9785</t>
+          <t>0.8167</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.614</t>
+          <t>0.512</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.559</t>
+          <t>1.304</t>
         </is>
       </c>
     </row>
@@ -2192,17 +2192,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.6504</t>
+          <t>2.3924</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.048</t>
+          <t>0.941</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.704</t>
+          <t>6.080</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.4249</t>
+          <t>0.4770</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.249</t>
+          <t>4.770</t>
         </is>
       </c>
     </row>
@@ -2238,17 +2238,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.1985</t>
+          <t>0.2420</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.108</t>
+          <t>0.131</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.446</t>
         </is>
       </c>
     </row>
@@ -2279,17 +2279,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.2008</t>
+          <t>1.2091</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.176</t>
+          <t>1.184</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.235</t>
         </is>
       </c>
     </row>
@@ -2302,17 +2302,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.8385</t>
+          <t>0.7840</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.737</t>
+          <t>0.689</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.954</t>
+          <t>0.892</t>
         </is>
       </c>
     </row>
@@ -2325,17 +2325,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.8511</t>
+          <t>0.8710</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.795</t>
+          <t>0.813</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.912</t>
+          <t>0.933</t>
         </is>
       </c>
     </row>
@@ -2348,17 +2348,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.9531</t>
+          <t>0.9746</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.906</t>
+          <t>0.926</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.003</t>
+          <t>1.025</t>
         </is>
       </c>
     </row>
@@ -2371,17 +2371,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.2428</t>
+          <t>1.1848</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.181</t>
+          <t>1.126</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.308</t>
+          <t>1.247</t>
         </is>
       </c>
     </row>
@@ -2394,17 +2394,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.2369</t>
+          <t>1.3258</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.177</t>
+          <t>1.261</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.300</t>
+          <t>1.394</t>
         </is>
       </c>
     </row>
@@ -2417,17 +2417,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.3118</t>
+          <t>1.3030</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.244</t>
+          <t>1.235</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.384</t>
+          <t>1.374</t>
         </is>
       </c>
     </row>
@@ -2440,17 +2440,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.5500</t>
+          <t>1.4975</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.451</t>
+          <t>1.402</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.655</t>
+          <t>1.599</t>
         </is>
       </c>
     </row>
@@ -2463,17 +2463,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.4188</t>
+          <t>1.5202</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.298</t>
+          <t>1.391</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.550</t>
+          <t>1.661</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2486,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.2002</t>
+          <t>1.1897</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.074</t>
+          <t>1.065</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.341</t>
+          <t>1.329</t>
         </is>
       </c>
     </row>
@@ -2509,17 +2509,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.6727</t>
+          <t>1.7786</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.388</t>
+          <t>1.476</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.016</t>
+          <t>2.143</t>
         </is>
       </c>
     </row>
@@ -2532,17 +2532,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.9637</t>
+          <t>0.9308</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.801</t>
+          <t>0.773</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.160</t>
+          <t>1.121</t>
         </is>
       </c>
     </row>
@@ -2555,17 +2555,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.9073</t>
+          <t>1.9751</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.381</t>
+          <t>1.430</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.635</t>
+          <t>2.728</t>
         </is>
       </c>
     </row>
@@ -2578,17 +2578,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.8666</t>
+          <t>0.6512</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.629</t>
+          <t>0.472</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.193</t>
+          <t>0.898</t>
         </is>
       </c>
     </row>
@@ -2601,17 +2601,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.7144</t>
+          <t>1.9111</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.887</t>
+          <t>0.995</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.314</t>
+          <t>3.672</t>
         </is>
       </c>
     </row>
@@ -2624,17 +2624,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.9039</t>
+          <t>0.8491</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.987</t>
+          <t>0.436</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.671</t>
+          <t>1.652</t>
         </is>
       </c>
     </row>
@@ -2647,17 +2647,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.6852</t>
+          <t>1.1959</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.356</t>
+          <t>0.622</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.319</t>
+          <t>2.298</t>
         </is>
       </c>
     </row>
@@ -2670,17 +2670,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.5597</t>
+          <t>0.6286</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.281</t>
+          <t>0.315</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.115</t>
+          <t>1.252</t>
         </is>
       </c>
     </row>
@@ -2711,17 +2711,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.1738</t>
+          <t>1.1568</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.140</t>
+          <t>1.124</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.208</t>
+          <t>1.191</t>
         </is>
       </c>
     </row>
@@ -2734,17 +2734,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.8524</t>
+          <t>0.7665</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.657</t>
+          <t>0.591</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.105</t>
+          <t>0.994</t>
         </is>
       </c>
     </row>
@@ -2757,17 +2757,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.0932</t>
+          <t>0.9915</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.979</t>
+          <t>0.889</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>1.107</t>
         </is>
       </c>
     </row>
@@ -2780,17 +2780,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1103</t>
+          <t>1.0350</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.028</t>
+          <t>0.959</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>1.117</t>
         </is>
       </c>
     </row>
@@ -2803,17 +2803,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.1256</t>
+          <t>1.1493</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.043</t>
+          <t>1.065</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>1.241</t>
         </is>
       </c>
     </row>
@@ -2826,17 +2826,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.1963</t>
+          <t>1.2068</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>1.127</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>1.292</t>
         </is>
       </c>
     </row>
@@ -2849,17 +2849,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.2569</t>
+          <t>1.2214</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.176</t>
+          <t>1.143</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.343</t>
+          <t>1.305</t>
         </is>
       </c>
     </row>
@@ -2872,17 +2872,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.2869</t>
+          <t>1.3125</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.186</t>
+          <t>1.210</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.396</t>
+          <t>1.424</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1790</t>
+          <t>1.2458</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>1.121</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.310</t>
+          <t>1.384</t>
         </is>
       </c>
     </row>
@@ -2918,17 +2918,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.9653</t>
+          <t>0.9467</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.841</t>
+          <t>0.825</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.086</t>
         </is>
       </c>
     </row>
@@ -2941,17 +2941,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.7320</t>
+          <t>1.8389</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.406</t>
+          <t>1.493</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2.134</t>
+          <t>2.266</t>
         </is>
       </c>
     </row>
@@ -2964,17 +2964,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.7893</t>
+          <t>0.7463</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.633</t>
+          <t>0.598</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.984</t>
+          <t>0.931</t>
         </is>
       </c>
     </row>
@@ -2987,17 +2987,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.7018</t>
+          <t>1.9031</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.196</t>
+          <t>1.338</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.422</t>
+          <t>2.708</t>
         </is>
       </c>
     </row>
@@ -3010,17 +3010,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.3056</t>
+          <t>1.1482</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.897</t>
+          <t>0.787</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.900</t>
+          <t>1.675</t>
         </is>
       </c>
     </row>
@@ -3033,17 +3033,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.7520</t>
+          <t>2.3399</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.803</t>
+          <t>1.077</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3.822</t>
+          <t>5.085</t>
         </is>
       </c>
     </row>
@@ -3056,17 +3056,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.7184</t>
+          <t>0.3549</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.239</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.155</t>
+          <t>1.075</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2.7427</t>
+          <t>4.3541</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>27.427</t>
+          <t>43.541</t>
         </is>
       </c>
     </row>
@@ -3102,17 +3102,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2.8191</t>
+          <t>2.5975</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>1.129</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6.497</t>
+          <t>5.979</t>
         </is>
       </c>
     </row>
@@ -3200,17 +3200,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0482</t>
+          <t>1.0156</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.003</t>
+          <t>0.971</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.096</t>
+          <t>1.062</t>
         </is>
       </c>
     </row>
@@ -3223,17 +3223,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.6635</t>
+          <t>0.6805</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.455</t>
+          <t>0.465</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.968</t>
+          <t>0.996</t>
         </is>
       </c>
     </row>
@@ -3246,17 +3246,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.3609</t>
+          <t>1.4523</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.093</t>
+          <t>1.166</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.695</t>
+          <t>1.810</t>
         </is>
       </c>
     </row>
@@ -3269,17 +3269,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0789</t>
+          <t>0.9552</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.959</t>
+          <t>0.848</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>1.075</t>
         </is>
       </c>
     </row>
@@ -3292,17 +3292,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2923</t>
+          <t>1.3157</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.135</t>
+          <t>1.155</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.471</t>
+          <t>1.498</t>
         </is>
       </c>
     </row>
@@ -3315,17 +3315,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.8581</t>
+          <t>0.8111</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.777</t>
+          <t>0.734</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.948</t>
+          <t>0.896</t>
         </is>
       </c>
     </row>
@@ -3338,17 +3338,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9453</t>
+          <t>0.8987</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.848</t>
+          <t>0.806</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.054</t>
+          <t>1.003</t>
         </is>
       </c>
     </row>
@@ -3361,17 +3361,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.2622</t>
+          <t>1.3052</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.107</t>
+          <t>1.145</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.439</t>
+          <t>1.488</t>
         </is>
       </c>
     </row>
@@ -3384,17 +3384,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.9897</t>
+          <t>0.9989</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.861</t>
+          <t>0.869</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.138</t>
+          <t>1.148</t>
         </is>
       </c>
     </row>
@@ -3407,17 +3407,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.0993</t>
+          <t>1.2626</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.919</t>
+          <t>1.057</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.315</t>
+          <t>1.509</t>
         </is>
       </c>
     </row>
@@ -3430,17 +3430,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.9091</t>
+          <t>0.7446</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.751</t>
+          <t>0.615</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>0.902</t>
         </is>
       </c>
     </row>
@@ -3453,17 +3453,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.8459</t>
+          <t>0.8493</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.664</t>
+          <t>0.667</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.077</t>
+          <t>1.082</t>
         </is>
       </c>
     </row>
@@ -3476,17 +3476,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.9030</t>
+          <t>0.6598</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.702</t>
+          <t>0.512</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.161</t>
+          <t>0.850</t>
         </is>
       </c>
     </row>
@@ -3499,17 +3499,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0171</t>
+          <t>0.7846</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.707</t>
+          <t>0.544</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.463</t>
+          <t>1.131</t>
         </is>
       </c>
     </row>
@@ -3522,17 +3522,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.9029</t>
+          <t>0.7824</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.562</t>
+          <t>0.486</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.450</t>
+          <t>1.260</t>
         </is>
       </c>
     </row>
@@ -3545,17 +3545,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.3219</t>
+          <t>1.7079</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>0.888</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.422</t>
+          <t>3.284</t>
         </is>
       </c>
     </row>
@@ -3568,17 +3568,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.6764</t>
+          <t>0.2720</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.328</t>
+          <t>0.131</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.394</t>
+          <t>0.565</t>
         </is>
       </c>
     </row>
@@ -3591,17 +3591,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.7152</t>
+          <t>2.6251</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.687</t>
+          <t>1.069</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.281</t>
+          <t>6.448</t>
         </is>
       </c>
     </row>
@@ -3632,17 +3632,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.0459</t>
+          <t>1.0654</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.023</t>
+          <t>1.042</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.070</t>
+          <t>1.090</t>
         </is>
       </c>
     </row>
@@ -3655,17 +3655,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.7394</t>
+          <t>0.9973</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.616</t>
+          <t>0.832</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.887</t>
+          <t>1.196</t>
         </is>
       </c>
     </row>
@@ -3678,17 +3678,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.9443</t>
+          <t>1.0343</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.868</t>
+          <t>0.951</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.027</t>
+          <t>1.125</t>
         </is>
       </c>
     </row>
@@ -3701,17 +3701,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.0827</t>
+          <t>1.1064</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.020</t>
+          <t>1.043</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.149</t>
+          <t>1.174</t>
         </is>
       </c>
     </row>
@@ -3724,17 +3724,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0225</t>
+          <t>0.9954</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.964</t>
+          <t>0.938</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.084</t>
+          <t>1.056</t>
         </is>
       </c>
     </row>
@@ -3747,17 +3747,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9890</t>
+          <t>1.0087</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.936</t>
+          <t>0.954</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.045</t>
+          <t>1.066</t>
         </is>
       </c>
     </row>
@@ -3770,17 +3770,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.0087</t>
+          <t>0.9695</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.954</t>
+          <t>0.917</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.067</t>
+          <t>1.025</t>
         </is>
       </c>
     </row>
@@ -3793,17 +3793,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.3280</t>
+          <t>1.5191</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>1.421</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.420</t>
+          <t>1.624</t>
         </is>
       </c>
     </row>
@@ -3816,17 +3816,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0114</t>
+          <t>1.0080</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.933</t>
+          <t>0.930</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.097</t>
+          <t>1.093</t>
         </is>
       </c>
     </row>
@@ -3839,17 +3839,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.0309</t>
+          <t>0.9817</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>0.884</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.145</t>
+          <t>1.090</t>
         </is>
       </c>
     </row>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.9699</t>
+          <t>0.9684</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.858</t>
+          <t>0.856</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.097</t>
+          <t>1.095</t>
         </is>
       </c>
     </row>
@@ -3885,17 +3885,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.8572</t>
+          <t>0.8881</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.748</t>
+          <t>0.774</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.983</t>
+          <t>1.018</t>
         </is>
       </c>
     </row>
@@ -3908,17 +3908,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.8431</t>
+          <t>1.7474</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.505</t>
+          <t>1.428</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.257</t>
+          <t>2.138</t>
         </is>
       </c>
     </row>
@@ -3931,17 +3931,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.0842</t>
+          <t>1.0652</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.853</t>
+          <t>0.839</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.378</t>
+          <t>1.353</t>
         </is>
       </c>
     </row>
@@ -3954,17 +3954,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.0567</t>
+          <t>1.1402</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.762</t>
+          <t>0.823</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.464</t>
+          <t>1.579</t>
         </is>
       </c>
     </row>
@@ -3977,17 +3977,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.6106</t>
+          <t>1.9408</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>1.348</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.325</t>
+          <t>2.794</t>
         </is>
       </c>
     </row>
@@ -4000,17 +4000,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.0424</t>
+          <t>1.0013</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.627</t>
+          <t>0.604</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.734</t>
+          <t>1.659</t>
         </is>
       </c>
     </row>
@@ -4023,17 +4023,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2.5990</t>
+          <t>4.1330</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.447</t>
+          <t>2.312</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.668</t>
+          <t>7.387</t>
         </is>
       </c>
     </row>
@@ -4064,17 +4064,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.9978</t>
+          <t>1.0490</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.954</t>
+          <t>1.003</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.043</t>
+          <t>1.097</t>
         </is>
       </c>
     </row>
@@ -4087,17 +4087,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.1144</t>
+          <t>1.4655</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.752</t>
+          <t>0.987</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.652</t>
+          <t>2.177</t>
         </is>
       </c>
     </row>
@@ -4110,17 +4110,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.6938</t>
+          <t>0.7121</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.555</t>
+          <t>0.570</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.867</t>
+          <t>0.890</t>
         </is>
       </c>
     </row>
@@ -4133,17 +4133,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.0036</t>
+          <t>1.1584</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.891</t>
+          <t>1.027</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.131</t>
+          <t>1.306</t>
         </is>
       </c>
     </row>
@@ -4156,17 +4156,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.7912</t>
+          <t>0.7566</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.695</t>
+          <t>0.664</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>0.862</t>
         </is>
       </c>
     </row>
@@ -4179,17 +4179,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.1525</t>
+          <t>1.2436</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.044</t>
+          <t>1.126</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.273</t>
+          <t>1.374</t>
         </is>
       </c>
     </row>
@@ -4202,17 +4202,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.0670</t>
+          <t>1.0788</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.957</t>
+          <t>0.967</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.190</t>
+          <t>1.203</t>
         </is>
       </c>
     </row>
@@ -4225,17 +4225,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.0522</t>
+          <t>1.1639</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.921</t>
+          <t>1.018</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.202</t>
+          <t>1.330</t>
         </is>
       </c>
     </row>
@@ -4248,17 +4248,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.0220</t>
+          <t>1.0091</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.887</t>
+          <t>0.876</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.178</t>
+          <t>1.162</t>
         </is>
       </c>
     </row>
@@ -4271,17 +4271,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.9378</t>
+          <t>0.7775</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.780</t>
+          <t>0.647</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.128</t>
+          <t>0.934</t>
         </is>
       </c>
     </row>
@@ -4294,17 +4294,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.0669</t>
+          <t>1.3005</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.877</t>
+          <t>1.068</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.297</t>
+          <t>1.583</t>
         </is>
       </c>
     </row>
@@ -4317,17 +4317,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.0134</t>
+          <t>1.0456</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.794</t>
+          <t>0.819</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.293</t>
+          <t>1.335</t>
         </is>
       </c>
     </row>
@@ -4340,17 +4340,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2.0411</t>
+          <t>2.6484</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.535</t>
+          <t>1.988</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.715</t>
+          <t>3.529</t>
         </is>
       </c>
     </row>
@@ -4363,17 +4363,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.0660</t>
+          <t>1.3576</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.725</t>
+          <t>0.921</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.567</t>
+          <t>2.000</t>
         </is>
       </c>
     </row>
@@ -4386,17 +4386,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.1703</t>
+          <t>1.4573</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.693</t>
+          <t>0.862</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.975</t>
+          <t>2.465</t>
         </is>
       </c>
     </row>
@@ -4409,17 +4409,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.6937</t>
+          <t>1.1364</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.349</t>
+          <t>0.567</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.379</t>
+          <t>2.277</t>
         </is>
       </c>
     </row>
@@ -4432,17 +4432,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.5410</t>
+          <t>3.6812</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.748</t>
+          <t>1.774</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.173</t>
+          <t>7.640</t>
         </is>
       </c>
     </row>
@@ -4455,17 +4455,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1.5153</t>
+          <t>1.5744</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.556</t>
+          <t>0.588</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4.133</t>
+          <t>4.218</t>
         </is>
       </c>
     </row>
@@ -4496,17 +4496,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.5515</t>
+          <t>1.6354</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.521</t>
+          <t>1.603</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.583</t>
+          <t>1.668</t>
         </is>
       </c>
     </row>
@@ -4519,17 +4519,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.2116</t>
+          <t>1.4772</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.054</t>
+          <t>1.284</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.393</t>
+          <t>1.700</t>
         </is>
       </c>
     </row>
@@ -4542,17 +4542,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.3352</t>
+          <t>1.4910</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.246</t>
+          <t>1.391</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.431</t>
+          <t>1.598</t>
         </is>
       </c>
     </row>
@@ -4565,17 +4565,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.5132</t>
+          <t>1.5579</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.440</t>
+          <t>1.483</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.590</t>
+          <t>1.637</t>
         </is>
       </c>
     </row>
@@ -4588,17 +4588,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.5019</t>
+          <t>1.5526</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.429</t>
+          <t>1.477</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.579</t>
+          <t>1.632</t>
         </is>
       </c>
     </row>
@@ -4611,17 +4611,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.6197</t>
+          <t>1.6705</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.542</t>
+          <t>1.590</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.702</t>
+          <t>1.755</t>
         </is>
       </c>
     </row>
@@ -4634,17 +4634,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.6677</t>
+          <t>1.7754</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.586</t>
+          <t>1.688</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.754</t>
+          <t>1.867</t>
         </is>
       </c>
     </row>
@@ -4657,17 +4657,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.7846</t>
+          <t>1.9816</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1.683</t>
+          <t>1.868</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.893</t>
+          <t>2.102</t>
         </is>
       </c>
     </row>
@@ -4680,17 +4680,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.4665</t>
+          <t>1.3913</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.360</t>
+          <t>1.291</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.581</t>
+          <t>1.500</t>
         </is>
       </c>
     </row>
@@ -4703,17 +4703,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1.3411</t>
+          <t>1.4482</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>1.311</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.481</t>
+          <t>1.600</t>
         </is>
       </c>
     </row>
@@ -4726,17 +4726,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1.1832</t>
+          <t>1.2128</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1.044</t>
+          <t>1.071</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.340</t>
+          <t>1.374</t>
         </is>
       </c>
     </row>
@@ -4749,17 +4749,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1.3651</t>
+          <t>1.6034</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.170</t>
+          <t>1.375</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.593</t>
+          <t>1.870</t>
         </is>
       </c>
     </row>
@@ -4772,17 +4772,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.9476</t>
+          <t>2.1304</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.569</t>
+          <t>1.719</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2.417</t>
+          <t>2.640</t>
         </is>
       </c>
     </row>
@@ -4795,17 +4795,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.1905</t>
+          <t>1.3762</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.920</t>
+          <t>1.066</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.540</t>
+          <t>1.777</t>
         </is>
       </c>
     </row>
@@ -4818,17 +4818,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.9191</t>
+          <t>1.4743</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.655</t>
+          <t>1.056</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.289</t>
+          <t>2.059</t>
         </is>
       </c>
     </row>
@@ -4841,17 +4841,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2.3314</t>
+          <t>2.3016</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.353</t>
+          <t>1.337</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4.018</t>
+          <t>3.962</t>
         </is>
       </c>
     </row>
@@ -4864,17 +4864,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1.1391</t>
+          <t>1.7428</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.649</t>
+          <t>1.002</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2.001</t>
+          <t>3.032</t>
         </is>
       </c>
     </row>
@@ -4887,17 +4887,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1.3873</t>
+          <t>3.0065</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.774</t>
+          <t>1.702</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2.485</t>
+          <t>5.312</t>
         </is>
       </c>
     </row>
@@ -4928,17 +4928,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1.4835</t>
+          <t>1.5350</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1.453</t>
+          <t>1.504</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.514</t>
+          <t>1.567</t>
         </is>
       </c>
     </row>
@@ -4951,17 +4951,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1.6387</t>
+          <t>1.4812</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.372</t>
+          <t>1.242</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.957</t>
+          <t>1.767</t>
         </is>
       </c>
     </row>
@@ -4974,17 +4974,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1.4140</t>
+          <t>1.4416</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.309</t>
+          <t>1.334</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.528</t>
+          <t>1.558</t>
         </is>
       </c>
     </row>
@@ -4997,17 +4997,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1.3976</t>
+          <t>1.4080</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1.325</t>
+          <t>1.335</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.474</t>
+          <t>1.485</t>
         </is>
       </c>
     </row>
@@ -5020,17 +5020,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.4689</t>
+          <t>1.5597</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.396</t>
+          <t>1.482</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.546</t>
+          <t>1.642</t>
         </is>
       </c>
     </row>
@@ -5043,17 +5043,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1.6378</t>
+          <t>1.6561</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1.560</t>
+          <t>1.577</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.720</t>
+          <t>1.739</t>
         </is>
       </c>
     </row>
@@ -5066,17 +5066,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.6532</t>
+          <t>1.8312</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.573</t>
+          <t>1.742</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.738</t>
+          <t>1.925</t>
         </is>
       </c>
     </row>
@@ -5089,17 +5089,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.3438</t>
+          <t>1.3044</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>1.224</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.433</t>
+          <t>1.390</t>
         </is>
       </c>
     </row>
@@ -5112,17 +5112,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.4499</t>
+          <t>1.3803</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.339</t>
+          <t>1.275</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.570</t>
+          <t>1.494</t>
         </is>
       </c>
     </row>
@@ -5135,17 +5135,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1.3008</t>
+          <t>1.4752</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.166</t>
+          <t>1.322</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.452</t>
+          <t>1.646</t>
         </is>
       </c>
     </row>
@@ -5158,17 +5158,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1.2199</t>
+          <t>1.2525</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.069</t>
+          <t>1.098</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.392</t>
+          <t>1.429</t>
         </is>
       </c>
     </row>
@@ -5181,17 +5181,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1.5925</t>
+          <t>1.8055</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1.360</t>
+          <t>1.543</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.865</t>
+          <t>2.113</t>
         </is>
       </c>
     </row>
@@ -5204,17 +5204,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1.0567</t>
+          <t>1.2191</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.819</t>
+          <t>0.946</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.363</t>
+          <t>1.570</t>
         </is>
       </c>
     </row>
@@ -5227,17 +5227,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1.0981</t>
+          <t>1.2920</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.823</t>
+          <t>0.970</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.465</t>
+          <t>1.720</t>
         </is>
       </c>
     </row>
@@ -5250,17 +5250,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.8698</t>
+          <t>1.2931</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.580</t>
+          <t>0.866</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.304</t>
+          <t>1.930</t>
         </is>
       </c>
     </row>
@@ -5273,17 +5273,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1.4475</t>
+          <t>1.1859</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.799</t>
+          <t>0.656</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2.623</t>
+          <t>2.144</t>
         </is>
       </c>
     </row>
@@ -5296,17 +5296,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1.0927</t>
+          <t>1.7404</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.623</t>
+          <t>1.001</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.918</t>
+          <t>3.027</t>
         </is>
       </c>
     </row>
@@ -5319,17 +5319,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.5338</t>
+          <t>0.7274</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.261</t>
+          <t>0.362</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.090</t>
+          <t>1.462</t>
         </is>
       </c>
     </row>
@@ -5417,17 +5417,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.2472</t>
+          <t>1.2811</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.210</t>
+          <t>1.243</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.286</t>
+          <t>1.321</t>
         </is>
       </c>
     </row>
@@ -5440,17 +5440,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.2649</t>
+          <t>1.9710</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.804</t>
+          <t>1.569</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.844</t>
+          <t>2.476</t>
         </is>
       </c>
     </row>
@@ -5463,17 +5463,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.4943</t>
+          <t>1.5544</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.354</t>
+          <t>1.409</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.649</t>
+          <t>1.715</t>
         </is>
       </c>
     </row>
@@ -5486,17 +5486,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0731</t>
+          <t>1.2051</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.002</t>
+          <t>1.125</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.149</t>
+          <t>1.291</t>
         </is>
       </c>
     </row>
@@ -5509,17 +5509,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.1310</t>
+          <t>1.1515</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.056</t>
+          <t>1.075</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>1.234</t>
         </is>
       </c>
     </row>
@@ -5532,17 +5532,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.1160</t>
+          <t>1.1451</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.039</t>
+          <t>1.066</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>1.230</t>
         </is>
       </c>
     </row>
@@ -5555,17 +5555,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.1899</t>
+          <t>1.2073</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.126</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.276</t>
+          <t>1.294</t>
         </is>
       </c>
     </row>
@@ -5578,17 +5578,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.4831</t>
+          <t>1.5860</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.360</t>
+          <t>1.454</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.618</t>
+          <t>1.730</t>
         </is>
       </c>
     </row>
@@ -5601,17 +5601,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.2133</t>
+          <t>1.0921</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.087</t>
+          <t>0.978</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.354</t>
+          <t>1.219</t>
         </is>
       </c>
     </row>
@@ -5624,17 +5624,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.7068</t>
+          <t>1.6444</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.406</t>
+          <t>1.354</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.072</t>
+          <t>1.997</t>
         </is>
       </c>
     </row>
@@ -5647,17 +5647,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.0025</t>
+          <t>0.9766</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.784</t>
+          <t>0.764</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.282</t>
+          <t>1.249</t>
         </is>
       </c>
     </row>
@@ -5670,17 +5670,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.7232</t>
+          <t>3.2806</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.824</t>
+          <t>2.202</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.066</t>
+          <t>4.888</t>
         </is>
       </c>
     </row>
@@ -5693,17 +5693,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3.0980</t>
+          <t>3.5807</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.855</t>
+          <t>2.147</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.173</t>
+          <t>5.972</t>
         </is>
       </c>
     </row>
@@ -5716,17 +5716,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.3509</t>
+          <t>1.0004</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.927</t>
+          <t>0.685</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.969</t>
+          <t>1.461</t>
         </is>
       </c>
     </row>
@@ -5739,17 +5739,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.9979</t>
+          <t>5.7469</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.092</t>
+          <t>2.417</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11.938</t>
+          <t>13.666</t>
         </is>
       </c>
     </row>
@@ -5762,17 +5762,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.5340</t>
+          <t>0.4821</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.274</t>
+          <t>0.248</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.040</t>
+          <t>0.937</t>
         </is>
       </c>
     </row>
@@ -5785,17 +5785,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.7954</t>
+          <t>0.5733</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.316</t>
+          <t>0.228</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.002</t>
+          <t>1.445</t>
         </is>
       </c>
     </row>
@@ -5808,17 +5808,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.4408</t>
+          <t>0.4882</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.167</t>
+          <t>0.185</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.162</t>
+          <t>1.288</t>
         </is>
       </c>
     </row>
@@ -5849,17 +5849,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.3707</t>
+          <t>1.4395</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.297</t>
+          <t>1.362</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.449</t>
+          <t>1.522</t>
         </is>
       </c>
     </row>
@@ -5872,17 +5872,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.1541</t>
+          <t>1.4345</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.470</t>
+          <t>0.581</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.831</t>
+          <t>3.542</t>
         </is>
       </c>
     </row>
@@ -5895,17 +5895,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.9544</t>
+          <t>0.8646</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.735</t>
+          <t>0.666</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.240</t>
+          <t>1.122</t>
         </is>
       </c>
     </row>
@@ -5918,17 +5918,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.3677</t>
+          <t>1.4488</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.159</t>
+          <t>1.228</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.614</t>
+          <t>1.709</t>
         </is>
       </c>
     </row>
@@ -5941,17 +5941,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1185</t>
+          <t>1.1649</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.970</t>
+          <t>1.010</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.290</t>
+          <t>1.344</t>
         </is>
       </c>
     </row>
@@ -5964,17 +5964,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.3933</t>
+          <t>1.5188</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>1.330</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.591</t>
+          <t>1.734</t>
         </is>
       </c>
     </row>
@@ -5987,17 +5987,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.6496</t>
+          <t>1.6945</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.452</t>
+          <t>1.491</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.875</t>
+          <t>1.925</t>
         </is>
       </c>
     </row>
@@ -6010,17 +6010,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.6225</t>
+          <t>1.6939</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.397</t>
+          <t>1.458</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.885</t>
+          <t>1.967</t>
         </is>
       </c>
     </row>
@@ -6033,17 +6033,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.2553</t>
+          <t>1.0967</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.056</t>
+          <t>0.923</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.492</t>
+          <t>1.303</t>
         </is>
       </c>
     </row>
@@ -6056,17 +6056,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.7479</t>
+          <t>1.6082</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.361</t>
+          <t>1.252</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.245</t>
+          <t>2.065</t>
         </is>
       </c>
     </row>
@@ -6079,17 +6079,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.4938</t>
+          <t>0.7542</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.356</t>
+          <t>0.542</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.685</t>
+          <t>1.049</t>
         </is>
       </c>
     </row>
@@ -6102,17 +6102,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2.7416</t>
+          <t>4.4129</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.761</t>
+          <t>2.835</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.269</t>
+          <t>6.869</t>
         </is>
       </c>
     </row>
@@ -6125,17 +6125,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.6955</t>
+          <t>7.0451</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.694</t>
+          <t>4.042</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>8.185</t>
+          <t>12.279</t>
         </is>
       </c>
     </row>
@@ -6148,17 +6148,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.5084</t>
+          <t>0.4966</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.248</t>
+          <t>0.241</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.044</t>
+          <t>1.025</t>
         </is>
       </c>
     </row>
@@ -6171,17 +6171,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5.4851</t>
+          <t>8.8857</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.107</t>
+          <t>3.417</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14.281</t>
+          <t>23.107</t>
         </is>
       </c>
     </row>
@@ -6194,17 +6194,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.6231</t>
+          <t>0.7150</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.288</t>
+          <t>0.331</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.348</t>
+          <t>1.544</t>
         </is>
       </c>
     </row>
@@ -6217,17 +6217,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.7577</t>
+          <t>1.8216</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.499</t>
+          <t>0.501</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6.194</t>
+          <t>6.620</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2.2876</t>
+          <t>4.4026</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>22.876</t>
+          <t>44.026</t>
         </is>
       </c>
     </row>
@@ -6281,17 +6281,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.2318</t>
+          <t>1.2577</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.193</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.271</t>
+          <t>1.298</t>
         </is>
       </c>
     </row>
@@ -6304,17 +6304,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.8507</t>
+          <t>1.5761</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.370</t>
+          <t>1.167</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>2.130</t>
         </is>
       </c>
     </row>
@@ -6327,17 +6327,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.9552</t>
+          <t>1.0002</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.846</t>
+          <t>0.886</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.079</t>
+          <t>1.130</t>
         </is>
       </c>
     </row>
@@ -6350,17 +6350,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1100</t>
+          <t>1.1529</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.070</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.196</t>
+          <t>1.242</t>
         </is>
       </c>
     </row>
@@ -6373,17 +6373,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.3166</t>
+          <t>1.3963</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.300</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.414</t>
+          <t>1.499</t>
         </is>
       </c>
     </row>
@@ -6396,17 +6396,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.1707</t>
+          <t>1.2086</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.089</t>
+          <t>1.124</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.259</t>
+          <t>1.299</t>
         </is>
       </c>
     </row>
@@ -6419,17 +6419,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.2163</t>
+          <t>1.2972</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.131</t>
+          <t>1.206</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.308</t>
+          <t>1.395</t>
         </is>
       </c>
     </row>
@@ -6442,17 +6442,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.1860</t>
+          <t>1.1300</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.084</t>
+          <t>1.033</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.298</t>
+          <t>1.236</t>
         </is>
       </c>
     </row>
@@ -6465,17 +6465,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.0790</t>
+          <t>0.9833</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.959</t>
+          <t>0.874</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>1.106</t>
         </is>
       </c>
     </row>
@@ -6488,17 +6488,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.8660</t>
+          <t>1.9148</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.528</t>
+          <t>1.568</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2.279</t>
+          <t>2.339</t>
         </is>
       </c>
     </row>
@@ -6511,17 +6511,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.0747</t>
+          <t>0.9300</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.834</t>
+          <t>0.722</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.384</t>
+          <t>1.197</t>
         </is>
       </c>
     </row>
@@ -6534,17 +6534,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2.8982</t>
+          <t>3.3619</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.932</t>
+          <t>2.246</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4.348</t>
+          <t>5.033</t>
         </is>
       </c>
     </row>
@@ -6557,17 +6557,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3.3975</t>
+          <t>4.3439</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.027</t>
+          <t>2.595</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5.693</t>
+          <t>7.271</t>
         </is>
       </c>
     </row>
@@ -6580,17 +6580,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.1229</t>
+          <t>0.8704</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.758</t>
+          <t>0.586</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.664</t>
+          <t>1.292</t>
         </is>
       </c>
     </row>
@@ -6603,17 +6603,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6.4101</t>
+          <t>8.1228</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.651</t>
+          <t>3.374</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15.500</t>
+          <t>19.558</t>
         </is>
       </c>
     </row>
@@ -6626,17 +6626,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.5293</t>
+          <t>0.5791</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.269</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.040</t>
+          <t>1.135</t>
         </is>
       </c>
     </row>
@@ -6649,17 +6649,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.3311</t>
+          <t>0.9328</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.528</t>
+          <t>0.370</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.354</t>
+          <t>2.353</t>
         </is>
       </c>
     </row>
@@ -6672,17 +6672,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.3897</t>
+          <t>0.3500</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.153</t>
+          <t>0.137</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.995</t>
+          <t>0.893</t>
         </is>
       </c>
     </row>
@@ -6713,17 +6713,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.1914</t>
+          <t>1.2437</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.160</t>
+          <t>1.211</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>1.277</t>
         </is>
       </c>
     </row>
@@ -6736,17 +6736,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.2402</t>
+          <t>1.0408</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.994</t>
+          <t>0.834</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.547</t>
+          <t>1.299</t>
         </is>
       </c>
     </row>
@@ -6759,17 +6759,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.3251</t>
+          <t>1.3901</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>1.279</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.441</t>
+          <t>1.511</t>
         </is>
       </c>
     </row>
@@ -6782,17 +6782,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.0660</t>
+          <t>1.1891</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.009</t>
+          <t>1.125</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.127</t>
+          <t>1.257</t>
         </is>
       </c>
     </row>
@@ -6805,17 +6805,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.1431</t>
+          <t>1.1914</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>1.129</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>1.257</t>
         </is>
       </c>
     </row>
@@ -6828,17 +6828,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.1679</t>
+          <t>1.2587</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.104</t>
+          <t>1.190</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.331</t>
         </is>
       </c>
     </row>
@@ -6851,17 +6851,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.0174</t>
+          <t>1.0743</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.961</t>
+          <t>1.015</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.077</t>
+          <t>1.137</t>
         </is>
       </c>
     </row>
@@ -6874,17 +6874,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.3606</t>
+          <t>1.4038</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>1.302</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.468</t>
+          <t>1.514</t>
         </is>
       </c>
     </row>
@@ -6897,17 +6897,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.1589</t>
+          <t>1.1152</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.046</t>
+          <t>1.006</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.284</t>
+          <t>1.236</t>
         </is>
       </c>
     </row>
@@ -6920,17 +6920,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1.8133</t>
+          <t>1.6774</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.500</t>
+          <t>1.388</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2.192</t>
+          <t>2.028</t>
         </is>
       </c>
     </row>
@@ -6943,17 +6943,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.9760</t>
+          <t>0.9967</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.765</t>
+          <t>0.781</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.246</t>
+          <t>1.272</t>
         </is>
       </c>
     </row>
@@ -6966,17 +6966,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2.5674</t>
+          <t>2.8328</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.720</t>
+          <t>1.902</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3.832</t>
+          <t>4.219</t>
         </is>
       </c>
     </row>
@@ -6989,17 +6989,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2.9537</t>
+          <t>3.3963</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.765</t>
+          <t>2.032</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4.943</t>
+          <t>5.676</t>
         </is>
       </c>
     </row>
@@ -7012,17 +7012,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.2277</t>
+          <t>0.9610</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.831</t>
+          <t>0.650</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.813</t>
+          <t>1.422</t>
         </is>
       </c>
     </row>
@@ -7035,17 +7035,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>8.4178</t>
+          <t>7.4513</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3.479</t>
+          <t>3.095</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>20.370</t>
+          <t>17.937</t>
         </is>
       </c>
     </row>
@@ -7058,17 +7058,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.5112</t>
+          <t>0.5806</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.259</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.007</t>
+          <t>1.142</t>
         </is>
       </c>
     </row>
@@ -7081,17 +7081,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.5958</t>
+          <t>0.4173</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.227</t>
+          <t>0.159</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.562</t>
+          <t>1.095</t>
         </is>
       </c>
     </row>
@@ -7104,17 +7104,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.2062</t>
+          <t>0.1796</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>0.065</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.567</t>
+          <t>0.493</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -494,17 +494,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.4176</t>
+          <t>1.3870</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.379</t>
+          <t>1.349</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.457</t>
+          <t>1.426</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.0606</t>
+          <t>0.9562</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.978</t>
+          <t>0.882</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.150</t>
+          <t>1.036</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1182</t>
+          <t>1.1516</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.074</t>
+          <t>1.107</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.164</t>
+          <t>1.198</t>
         </is>
       </c>
     </row>
@@ -563,17 +563,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.7242</t>
+          <t>1.6557</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.663</t>
+          <t>1.597</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.788</t>
+          <t>1.716</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.5448</t>
+          <t>1.5213</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.425</t>
+          <t>1.397</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.674</t>
+          <t>1.657</t>
         </is>
       </c>
     </row>
@@ -609,17 +609,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.3480</t>
+          <t>1.7967</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.960</t>
+          <t>1.499</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.813</t>
+          <t>2.154</t>
         </is>
       </c>
     </row>
@@ -632,17 +632,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.3816</t>
+          <t>1.2856</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.024</t>
+          <t>0.955</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.863</t>
+          <t>1.730</t>
         </is>
       </c>
     </row>
@@ -655,17 +655,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.1173</t>
+          <t>1.5204</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.594</t>
+          <t>0.811</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.101</t>
+          <t>2.851</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.8595</t>
+          <t>1.9119</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18.595</t>
+          <t>19.119</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5.4405</t>
+          <t>6.6914</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>54.405</t>
+          <t>66.914</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.5855</t>
+          <t>1.5504</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.538</t>
+          <t>1.501</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.635</t>
+          <t>1.602</t>
         </is>
       </c>
     </row>
@@ -765,17 +765,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.1952</t>
+          <t>1.1817</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.123</t>
+          <t>1.110</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.272</t>
+          <t>1.258</t>
         </is>
       </c>
     </row>
@@ -788,17 +788,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.7055</t>
+          <t>1.6916</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.646</t>
+          <t>1.631</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.767</t>
+          <t>1.755</t>
         </is>
       </c>
     </row>
@@ -811,17 +811,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.6450</t>
+          <t>1.6920</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.567</t>
+          <t>1.600</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.727</t>
+          <t>1.789</t>
         </is>
       </c>
     </row>
@@ -834,17 +834,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.5478</t>
+          <t>1.3836</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.397</t>
+          <t>1.247</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.715</t>
+          <t>1.536</t>
         </is>
       </c>
     </row>
@@ -857,17 +857,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.8734</t>
+          <t>1.9049</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.553</t>
+          <t>1.563</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.260</t>
+          <t>2.321</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.4348</t>
+          <t>1.2708</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.908</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.999</t>
+          <t>1.778</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.5056</t>
+          <t>0.3440</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.338</t>
+          <t>0.229</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.757</t>
+          <t>0.517</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.9652</t>
+          <t>1.6347</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.793</t>
+          <t>0.668</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.868</t>
+          <t>4.002</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.5058</t>
+          <t>2.6556</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>35.058</t>
+          <t>26.556</t>
         </is>
       </c>
     </row>
@@ -990,17 +990,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1175</t>
+          <t>1.1176</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.075</t>
+          <t>1.073</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.162</t>
+          <t>1.164</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.1269</t>
+          <t>1.2358</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.032</t>
+          <t>1.131</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.350</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.5253</t>
+          <t>1.4689</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.457</t>
+          <t>1.403</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.597</t>
+          <t>1.538</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.9540</t>
+          <t>1.0219</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>0.960</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.010</t>
+          <t>1.088</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0019</t>
+          <t>0.9095</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.882</t>
+          <t>0.797</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>1.038</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.7979</t>
+          <t>1.0602</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.617</t>
+          <t>0.813</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.032</t>
+          <t>1.382</t>
         </is>
       </c>
     </row>
@@ -1128,17 +1128,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.0385</t>
+          <t>0.9885</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.667</t>
+          <t>0.634</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.616</t>
+          <t>1.541</t>
         </is>
       </c>
     </row>
@@ -1151,17 +1151,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.4526</t>
+          <t>0.2263</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.216</t>
+          <t>0.108</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.949</t>
+          <t>0.474</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.8081</t>
+          <t>0.7738</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>8.081</t>
+          <t>7.738</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.6444</t>
+          <t>0.3969</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6.444</t>
+          <t>3.969</t>
         </is>
       </c>
     </row>
@@ -1295,17 +1295,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0481</t>
+          <t>1.0841</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.019</t>
+          <t>1.055</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.078</t>
+          <t>1.114</t>
         </is>
       </c>
     </row>
@@ -1318,17 +1318,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9085</t>
+          <t>0.9338</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.819</t>
+          <t>0.844</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.008</t>
+          <t>1.033</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9832</t>
+          <t>1.0141</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>0.959</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.041</t>
+          <t>1.072</t>
         </is>
       </c>
     </row>
@@ -1364,17 +1364,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0834</t>
+          <t>1.1232</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.033</t>
+          <t>1.072</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.136</t>
+          <t>1.177</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.1867</t>
+          <t>1.2476</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.122</t>
+          <t>1.181</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.256</t>
+          <t>1.317</t>
         </is>
       </c>
     </row>
@@ -1410,17 +1410,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.1199</t>
+          <t>1.1305</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.027</t>
+          <t>1.041</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>1.228</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1433,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.1573</t>
+          <t>1.0609</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.023</t>
+          <t>0.941</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.309</t>
+          <t>1.197</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.6337</t>
+          <t>0.6321</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.503</t>
+          <t>0.505</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.798</t>
+          <t>0.792</t>
         </is>
       </c>
     </row>
@@ -1479,17 +1479,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.0864</t>
+          <t>3.5740</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.606</t>
+          <t>1.456</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10.400</t>
+          <t>8.775</t>
         </is>
       </c>
     </row>
@@ -1502,17 +1502,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.2420</t>
+          <t>0.6728</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.131</t>
+          <t>0.264</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.446</t>
+          <t>1.711</t>
         </is>
       </c>
     </row>
@@ -1543,17 +1543,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.2052</t>
+          <t>1.1996</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.174</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.226</t>
         </is>
       </c>
     </row>
@@ -1566,17 +1566,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8608</t>
+          <t>0.8674</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.810</t>
+          <t>0.816</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.915</t>
+          <t>0.922</t>
         </is>
       </c>
     </row>
@@ -1589,17 +1589,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0770</t>
+          <t>1.0733</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.039</t>
+          <t>1.035</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>1.113</t>
         </is>
       </c>
     </row>
@@ -1612,17 +1612,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.3126</t>
+          <t>1.2762</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.266</t>
+          <t>1.230</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.361</t>
+          <t>1.324</t>
         </is>
       </c>
     </row>
@@ -1635,12 +1635,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.5214</t>
+          <t>1.5182</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.443</t>
+          <t>1.437</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1658,17 +1658,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.3346</t>
+          <t>1.3526</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.467</t>
+          <t>1.501</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1710</t>
+          <t>1.2546</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.998</t>
+          <t>1.060</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.374</t>
+          <t>1.485</t>
         </is>
       </c>
     </row>
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.8802</t>
+          <t>0.9778</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.663</t>
+          <t>0.717</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.169</t>
+          <t>1.334</t>
         </is>
       </c>
     </row>
@@ -1727,17 +1727,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.8986</t>
+          <t>0.9727</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.564</t>
+          <t>0.610</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.431</t>
+          <t>1.551</t>
         </is>
       </c>
     </row>
@@ -1750,17 +1750,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.6286</t>
+          <t>1.4530</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.315</t>
+          <t>0.584</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.252</t>
+          <t>3.613</t>
         </is>
       </c>
     </row>
@@ -1791,17 +1791,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1499</t>
+          <t>1.1066</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>1.075</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.183</t>
+          <t>1.139</t>
         </is>
       </c>
     </row>
@@ -1814,17 +1814,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9476</t>
+          <t>0.9289</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.857</t>
+          <t>0.842</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.048</t>
+          <t>1.025</t>
         </is>
       </c>
     </row>
@@ -1837,17 +1837,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.0954</t>
+          <t>1.0584</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.038</t>
+          <t>1.004</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.156</t>
+          <t>1.116</t>
         </is>
       </c>
     </row>
@@ -1860,17 +1860,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.2115</t>
+          <t>1.1362</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.156</t>
+          <t>1.084</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.270</t>
+          <t>1.191</t>
         </is>
       </c>
     </row>
@@ -1883,17 +1883,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.2821</t>
+          <t>1.2169</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.202</t>
+          <t>1.141</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.367</t>
+          <t>1.298</t>
         </is>
       </c>
     </row>
@@ -1906,17 +1906,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.1917</t>
+          <t>1.1965</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.064</t>
+          <t>1.063</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.334</t>
+          <t>1.347</t>
         </is>
       </c>
     </row>
@@ -1929,17 +1929,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.0118</t>
+          <t>1.1826</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.842</t>
+          <t>0.978</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>1.430</t>
         </is>
       </c>
     </row>
@@ -1952,17 +1952,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.3891</t>
+          <t>1.5469</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.990</t>
+          <t>1.081</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.949</t>
+          <t>2.214</t>
         </is>
       </c>
     </row>
@@ -1975,17 +1975,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.2199</t>
+          <t>0.2722</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.079</t>
+          <t>0.101</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.610</t>
+          <t>0.731</t>
         </is>
       </c>
     </row>
@@ -1998,17 +1998,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2.5975</t>
+          <t>2.1597</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.129</t>
+          <t>0.614</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5.979</t>
+          <t>7.598</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0060</t>
+          <t>1.0348</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.963</t>
+          <t>0.990</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.052</t>
+          <t>1.082</t>
         </is>
       </c>
     </row>
@@ -2119,17 +2119,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2279</t>
+          <t>1.3341</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.015</t>
+          <t>1.094</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.485</t>
+          <t>1.627</t>
         </is>
       </c>
     </row>
@@ -2142,17 +2142,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1207</t>
+          <t>1.1327</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.027</t>
+          <t>1.039</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>1.235</t>
         </is>
       </c>
     </row>
@@ -2165,17 +2165,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8488</t>
+          <t>0.8772</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.789</t>
+          <t>0.815</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.914</t>
+          <t>0.944</t>
         </is>
       </c>
     </row>
@@ -2188,17 +2188,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.1640</t>
+          <t>1.2184</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.058</t>
+          <t>1.108</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.280</t>
+          <t>1.340</t>
         </is>
       </c>
     </row>
@@ -2211,17 +2211,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0063</t>
+          <t>0.9983</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.883</t>
+          <t>0.877</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.146</t>
+          <t>1.136</t>
         </is>
       </c>
     </row>
@@ -2234,17 +2234,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7556</t>
+          <t>0.7500</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.634</t>
+          <t>0.631</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.900</t>
+          <t>0.891</t>
         </is>
       </c>
     </row>
@@ -2257,17 +2257,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.7770</t>
+          <t>0.7943</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.581</t>
+          <t>0.595</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.038</t>
+          <t>1.061</t>
         </is>
       </c>
     </row>
@@ -2280,17 +2280,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.8070</t>
+          <t>0.6889</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.499</t>
+          <t>0.445</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.305</t>
+          <t>1.065</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.6251</t>
+          <t>2.6272</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.069</t>
+          <t>1.068</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.448</t>
+          <t>6.465</t>
         </is>
       </c>
     </row>
@@ -2344,17 +2344,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0614</t>
+          <t>1.0725</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.038</t>
+          <t>1.049</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.086</t>
+          <t>1.097</t>
         </is>
       </c>
     </row>
@@ -2367,17 +2367,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0377</t>
+          <t>1.0736</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.962</t>
+          <t>0.995</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.120</t>
+          <t>1.158</t>
         </is>
       </c>
     </row>
@@ -2390,17 +2390,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0499</t>
+          <t>1.0693</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.007</t>
+          <t>1.026</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.095</t>
+          <t>1.115</t>
         </is>
       </c>
     </row>
@@ -2413,17 +2413,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.9910</t>
+          <t>0.9997</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.953</t>
+          <t>0.961</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>1.040</t>
         </is>
       </c>
     </row>
@@ -2436,17 +2436,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.2777</t>
+          <t>1.2589</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>1.196</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.345</t>
+          <t>1.325</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2459,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.9771</t>
+          <t>0.9935</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.902</t>
+          <t>0.918</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.058</t>
+          <t>1.076</t>
         </is>
       </c>
     </row>
@@ -2482,17 +2482,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.0850</t>
+          <t>1.1055</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>0.989</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>1.236</t>
         </is>
       </c>
     </row>
@@ -2505,17 +2505,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.0763</t>
+          <t>1.0913</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.888</t>
+          <t>0.903</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.304</t>
+          <t>1.319</t>
         </is>
       </c>
     </row>
@@ -2528,17 +2528,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.5720</t>
+          <t>1.6620</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.177</t>
+          <t>1.236</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.099</t>
+          <t>2.235</t>
         </is>
       </c>
     </row>
@@ -2551,17 +2551,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.1330</t>
+          <t>4.2222</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.312</t>
+          <t>2.364</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.387</t>
+          <t>7.541</t>
         </is>
       </c>
     </row>
@@ -2592,17 +2592,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0550</t>
+          <t>1.0364</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.009</t>
+          <t>0.991</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.103</t>
+          <t>1.084</t>
         </is>
       </c>
     </row>
@@ -2615,17 +2615,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.8451</t>
+          <t>0.8047</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.697</t>
+          <t>0.658</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.025</t>
+          <t>0.984</t>
         </is>
       </c>
     </row>
@@ -2638,17 +2638,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.9369</t>
+          <t>0.9440</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.858</t>
+          <t>0.865</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.023</t>
+          <t>1.030</t>
         </is>
       </c>
     </row>
@@ -2661,17 +2661,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.1675</t>
+          <t>1.1396</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.085</t>
+          <t>1.059</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.257</t>
+          <t>1.226</t>
         </is>
       </c>
     </row>
@@ -2684,17 +2684,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0977</t>
+          <t>1.0332</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>0.938</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.210</t>
+          <t>1.138</t>
         </is>
       </c>
     </row>
@@ -2707,17 +2707,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9710</t>
+          <t>0.9952</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.849</t>
+          <t>0.871</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.137</t>
         </is>
       </c>
     </row>
@@ -2730,17 +2730,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.4360</t>
+          <t>1.4739</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.197</t>
+          <t>1.231</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.722</t>
+          <t>1.764</t>
         </is>
       </c>
     </row>
@@ -2753,17 +2753,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.3851</t>
+          <t>1.3740</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.014</t>
+          <t>1.008</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.892</t>
+          <t>1.873</t>
         </is>
       </c>
     </row>
@@ -2776,17 +2776,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.9478</t>
+          <t>2.4128</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.175</t>
+          <t>1.512</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.228</t>
+          <t>3.851</t>
         </is>
       </c>
     </row>
@@ -2799,17 +2799,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.5744</t>
+          <t>1.6071</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.588</t>
+          <t>0.599</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.218</t>
+          <t>4.311</t>
         </is>
       </c>
     </row>
@@ -2840,17 +2840,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.6330</t>
+          <t>1.6269</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.601</t>
+          <t>1.595</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.666</t>
+          <t>1.659</t>
         </is>
       </c>
     </row>
@@ -2863,17 +2863,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.4932</t>
+          <t>1.4961</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.404</t>
+          <t>1.406</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.589</t>
+          <t>1.592</t>
         </is>
       </c>
     </row>
@@ -2886,17 +2886,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.5585</t>
+          <t>1.5511</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.505</t>
+          <t>1.498</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.614</t>
+          <t>1.607</t>
         </is>
       </c>
     </row>
@@ -2909,17 +2909,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.7256</t>
+          <t>1.7160</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.666</t>
+          <t>1.657</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.787</t>
+          <t>1.778</t>
         </is>
       </c>
     </row>
@@ -2932,17 +2932,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.7196</t>
+          <t>1.7316</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.642</t>
+          <t>1.653</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.801</t>
+          <t>1.814</t>
         </is>
       </c>
     </row>
@@ -2955,17 +2955,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.3536</t>
+          <t>1.3366</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.252</t>
+          <t>1.236</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.463</t>
+          <t>1.445</t>
         </is>
       </c>
     </row>
@@ -2978,17 +2978,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.7359</t>
+          <t>1.6958</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.534</t>
+          <t>1.498</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.965</t>
+          <t>1.919</t>
         </is>
       </c>
     </row>
@@ -3001,17 +3001,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.3960</t>
+          <t>1.3538</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.140</t>
+          <t>1.102</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.709</t>
+          <t>1.663</t>
         </is>
       </c>
     </row>
@@ -3024,17 +3024,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.6408</t>
+          <t>1.6497</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.132</t>
+          <t>1.138</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.379</t>
+          <t>2.392</t>
         </is>
       </c>
     </row>
@@ -3047,17 +3047,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3.0065</t>
+          <t>2.8179</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.702</t>
+          <t>1.601</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5.312</t>
+          <t>4.961</t>
         </is>
       </c>
     </row>
@@ -3088,17 +3088,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.5386</t>
+          <t>1.5170</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.507</t>
+          <t>1.486</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.571</t>
+          <t>1.548</t>
         </is>
       </c>
     </row>
@@ -3111,17 +3111,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.4390</t>
+          <t>1.3936</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.341</t>
+          <t>1.298</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.545</t>
+          <t>1.496</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3134,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.4844</t>
+          <t>1.4506</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.430</t>
+          <t>1.398</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.540</t>
+          <t>1.505</t>
         </is>
       </c>
     </row>
@@ -3157,17 +3157,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.7413</t>
+          <t>1.7165</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.682</t>
+          <t>1.658</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.803</t>
+          <t>1.777</t>
         </is>
       </c>
     </row>
@@ -3180,17 +3180,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.3459</t>
+          <t>1.3756</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>1.309</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.414</t>
+          <t>1.445</t>
         </is>
       </c>
     </row>
@@ -3203,17 +3203,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.3853</t>
+          <t>1.3454</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.274</t>
+          <t>1.237</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.507</t>
+          <t>1.463</t>
         </is>
       </c>
     </row>
@@ -3226,17 +3226,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.5999</t>
+          <t>1.5340</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.400</t>
+          <t>1.342</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.828</t>
+          <t>1.753</t>
         </is>
       </c>
     </row>
@@ -3249,17 +3249,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.2971</t>
+          <t>1.2405</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1.028</t>
+          <t>0.982</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.637</t>
+          <t>1.567</t>
         </is>
       </c>
     </row>
@@ -3272,17 +3272,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.0438</t>
+          <t>0.9926</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.698</t>
+          <t>0.660</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.562</t>
+          <t>1.493</t>
         </is>
       </c>
     </row>
@@ -3295,17 +3295,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.7274</t>
+          <t>0.6674</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.362</t>
+          <t>0.333</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.462</t>
+          <t>1.337</t>
         </is>
       </c>
     </row>
@@ -3393,17 +3393,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.2862</t>
+          <t>1.2803</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.248</t>
+          <t>1.242</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.326</t>
+          <t>1.320</t>
         </is>
       </c>
     </row>
@@ -3416,17 +3416,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.6233</t>
+          <t>1.6084</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.484</t>
+          <t>1.470</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.776</t>
+          <t>1.760</t>
         </is>
       </c>
     </row>
@@ -3439,17 +3439,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1788</t>
+          <t>1.1660</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.123</t>
+          <t>1.110</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>1.224</t>
         </is>
       </c>
     </row>
@@ -3462,17 +3462,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.1810</t>
+          <t>1.1762</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.124</t>
+          <t>1.119</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.241</t>
+          <t>1.237</t>
         </is>
       </c>
     </row>
@@ -3485,17 +3485,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.3745</t>
+          <t>1.3796</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.284</t>
+          <t>1.289</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.471</t>
+          <t>1.477</t>
         </is>
       </c>
     </row>
@@ -3508,17 +3508,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.3835</t>
+          <t>1.3576</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.188</t>
+          <t>1.166</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.611</t>
+          <t>1.581</t>
         </is>
       </c>
     </row>
@@ -3531,17 +3531,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.2398</t>
+          <t>3.1916</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.366</t>
+          <t>2.328</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.436</t>
+          <t>4.376</t>
         </is>
       </c>
     </row>
@@ -3554,17 +3554,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.5696</t>
+          <t>1.5789</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>1.124</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.205</t>
+          <t>2.217</t>
         </is>
       </c>
     </row>
@@ -3577,17 +3577,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.7912</t>
+          <t>0.6202</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.464</t>
+          <t>0.362</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.349</t>
+          <t>1.062</t>
         </is>
       </c>
     </row>
@@ -3600,17 +3600,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.4882</t>
+          <t>4.0061</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.185</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.288</t>
+          <t>40.061</t>
         </is>
       </c>
     </row>
@@ -3641,17 +3641,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.4658</t>
+          <t>1.4554</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.387</t>
+          <t>1.377</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.549</t>
+          <t>1.538</t>
         </is>
       </c>
     </row>
@@ -3664,17 +3664,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0285</t>
+          <t>1.0434</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.800</t>
+          <t>0.811</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.323</t>
+          <t>1.342</t>
         </is>
       </c>
     </row>
@@ -3687,17 +3687,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.2916</t>
+          <t>1.2819</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.159</t>
+          <t>1.151</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.439</t>
+          <t>1.427</t>
         </is>
       </c>
     </row>
@@ -3710,17 +3710,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.6304</t>
+          <t>1.6093</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.487</t>
+          <t>1.467</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.788</t>
+          <t>1.765</t>
         </is>
       </c>
     </row>
@@ -3733,17 +3733,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.4290</t>
+          <t>1.4526</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.277</t>
+          <t>1.298</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.599</t>
+          <t>1.626</t>
         </is>
       </c>
     </row>
@@ -3756,17 +3756,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.2178</t>
+          <t>1.1731</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.998</t>
+          <t>0.961</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.486</t>
+          <t>1.431</t>
         </is>
       </c>
     </row>
@@ -3779,17 +3779,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5.1441</t>
+          <t>5.0675</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.641</t>
+          <t>3.583</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.267</t>
+          <t>7.168</t>
         </is>
       </c>
     </row>
@@ -3802,17 +3802,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.4641</t>
+          <t>1.4727</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>0.907</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.378</t>
+          <t>2.392</t>
         </is>
       </c>
     </row>
@@ -3825,17 +3825,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.9588</t>
+          <t>1.5354</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.029</t>
+          <t>0.804</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.728</t>
+          <t>2.932</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.4026</t>
+          <t>3.8004</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>44.026</t>
+          <t>38.004</t>
         </is>
       </c>
     </row>
@@ -3889,17 +3889,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.2666</t>
+          <t>1.2608</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.227</t>
+          <t>1.222</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.307</t>
+          <t>1.301</t>
         </is>
       </c>
     </row>
@@ -3912,17 +3912,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.0720</t>
+          <t>1.0473</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.958</t>
+          <t>0.935</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.200</t>
+          <t>1.172</t>
         </is>
       </c>
     </row>
@@ -3935,17 +3935,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.2798</t>
+          <t>1.2647</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>1.201</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.347</t>
+          <t>1.332</t>
         </is>
       </c>
     </row>
@@ -3958,17 +3958,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.2532</t>
+          <t>1.2496</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.191</t>
+          <t>1.187</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.319</t>
+          <t>1.316</t>
         </is>
       </c>
     </row>
@@ -3981,17 +3981,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0925</t>
+          <t>1.0942</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.017</t>
+          <t>1.019</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.173</t>
+          <t>1.175</t>
         </is>
       </c>
     </row>
@@ -4004,17 +4004,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.4769</t>
+          <t>1.4547</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.263</t>
+          <t>1.244</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.727</t>
+          <t>1.701</t>
         </is>
       </c>
     </row>
@@ -4027,17 +4027,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3.6011</t>
+          <t>3.5269</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.622</t>
+          <t>2.565</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.946</t>
+          <t>4.850</t>
         </is>
       </c>
     </row>
@@ -4050,17 +4050,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.6684</t>
+          <t>1.6784</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.174</t>
+          <t>1.181</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.372</t>
+          <t>2.385</t>
         </is>
       </c>
     </row>
@@ -4073,17 +4073,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.0533</t>
+          <t>0.8258</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.614</t>
+          <t>0.480</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.806</t>
+          <t>1.421</t>
         </is>
       </c>
     </row>
@@ -4096,17 +4096,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.3500</t>
+          <t>2.3521</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.137</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.893</t>
+          <t>23.521</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4137,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.2531</t>
+          <t>1.2465</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>1.214</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.286</t>
+          <t>1.280</t>
         </is>
       </c>
     </row>
@@ -4160,17 +4160,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.3431</t>
+          <t>1.3231</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>1.223</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.452</t>
+          <t>1.431</t>
         </is>
       </c>
     </row>
@@ -4183,17 +4183,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.1926</t>
+          <t>1.1708</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.148</t>
+          <t>1.126</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.239</t>
+          <t>1.217</t>
         </is>
       </c>
     </row>
@@ -4206,17 +4206,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.1664</t>
+          <t>1.1573</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.121</t>
+          <t>1.112</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>1.205</t>
         </is>
       </c>
     </row>
@@ -4229,17 +4229,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.3004</t>
+          <t>1.3080</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>1.230</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.382</t>
+          <t>1.390</t>
         </is>
       </c>
     </row>
@@ -4252,17 +4252,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.4101</t>
+          <t>1.3794</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>1.188</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.637</t>
+          <t>1.602</t>
         </is>
       </c>
     </row>
@@ -4275,17 +4275,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2.9715</t>
+          <t>2.9288</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.170</t>
+          <t>2.136</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.070</t>
+          <t>4.017</t>
         </is>
       </c>
     </row>
@@ -4298,17 +4298,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.7163</t>
+          <t>1.7269</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>1.217</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.436</t>
+          <t>2.450</t>
         </is>
       </c>
     </row>
@@ -4321,17 +4321,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.8570</t>
+          <t>0.6454</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.496</t>
+          <t>0.372</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.480</t>
+          <t>1.119</t>
         </is>
       </c>
     </row>
@@ -4344,17 +4344,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.1796</t>
+          <t>1.7436</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.065</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.493</t>
+          <t>17.436</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -701,7 +701,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6.6914</t>
+          <t>7.9660</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>66.914</t>
+          <t>79.660</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2.6556</t>
+          <t>3.1674</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>26.556</t>
+          <t>31.674</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.3969</t>
+          <t>0.3976</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.969</t>
+          <t>3.976</t>
         </is>
       </c>
     </row>
@@ -1295,17 +1295,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0841</t>
+          <t>1.0814</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.055</t>
+          <t>1.052</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.114</t>
+          <t>1.112</t>
         </is>
       </c>
     </row>
@@ -1502,17 +1502,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.6728</t>
+          <t>0.4953</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.264</t>
+          <t>0.196</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.711</t>
+          <t>1.250</t>
         </is>
       </c>
     </row>
@@ -1543,17 +1543,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.1996</t>
+          <t>1.1986</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.174</t>
+          <t>1.173</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.225</t>
         </is>
       </c>
     </row>
@@ -1750,17 +1750,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.4530</t>
+          <t>1.1109</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.584</t>
+          <t>0.450</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.613</t>
+          <t>2.740</t>
         </is>
       </c>
     </row>
@@ -1791,17 +1791,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1066</t>
+          <t>1.1084</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.075</t>
+          <t>1.077</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>1.141</t>
         </is>
       </c>
     </row>
@@ -1998,17 +1998,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2.1597</t>
+          <t>2.2428</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.614</t>
+          <t>0.638</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.598</t>
+          <t>7.890</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0348</t>
+          <t>1.0350</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.6272</t>
+          <t>2.0390</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>0.830</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.465</t>
+          <t>5.010</t>
         </is>
       </c>
     </row>
@@ -2344,17 +2344,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0725</t>
+          <t>1.0718</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.049</t>
+          <t>1.048</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.097</t>
+          <t>1.096</t>
         </is>
       </c>
     </row>
@@ -2551,17 +2551,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.2222</t>
+          <t>1.6744</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.364</t>
+          <t>1.140</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.541</t>
+          <t>2.459</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0364</t>
+          <t>1.0355</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.084</t>
+          <t>1.083</t>
         </is>
       </c>
     </row>
@@ -2799,17 +2799,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.6071</t>
+          <t>0.8212</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.599</t>
+          <t>0.326</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.311</t>
+          <t>2.067</t>
         </is>
       </c>
     </row>
@@ -2840,17 +2840,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.6269</t>
+          <t>1.6281</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.595</t>
+          <t>1.596</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.659</t>
+          <t>1.661</t>
         </is>
       </c>
     </row>
@@ -3047,17 +3047,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2.8179</t>
+          <t>3.4111</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.601</t>
+          <t>2.008</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4.961</t>
+          <t>5.795</t>
         </is>
       </c>
     </row>
@@ -3088,17 +3088,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.5170</t>
+          <t>1.5190</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.486</t>
+          <t>1.488</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.548</t>
+          <t>1.551</t>
         </is>
       </c>
     </row>
@@ -3295,17 +3295,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.6674</t>
+          <t>2.0372</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.333</t>
+          <t>1.152</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.337</t>
+          <t>3.603</t>
         </is>
       </c>
     </row>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.0061</t>
+          <t>4.1845</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>40.061</t>
+          <t>41.845</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.8004</t>
+          <t>4.9146</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>38.004</t>
+          <t>49.146</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2.3521</t>
+          <t>3.5630</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>23.521</t>
+          <t>35.630</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.7436</t>
+          <t>3.7594</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>17.436</t>
+          <t>37.594</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -494,17 +494,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.3870</t>
+          <t>1.5019</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.349</t>
+          <t>1.461</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.426</t>
+          <t>1.544</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9562</t>
+          <t>1.1943</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.882</t>
+          <t>1.102</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.036</t>
+          <t>1.294</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1516</t>
+          <t>1.2437</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.107</t>
+          <t>1.196</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>1.293</t>
         </is>
       </c>
     </row>
@@ -563,17 +563,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.6557</t>
+          <t>1.8376</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.597</t>
+          <t>1.773</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.716</t>
+          <t>1.905</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.5213</t>
+          <t>1.5456</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.397</t>
+          <t>1.419</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.657</t>
+          <t>1.683</t>
         </is>
       </c>
     </row>
@@ -609,17 +609,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.7967</t>
+          <t>1.5894</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.499</t>
+          <t>1.326</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.154</t>
+          <t>1.906</t>
         </is>
       </c>
     </row>
@@ -632,17 +632,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.2856</t>
+          <t>1.5770</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.955</t>
+          <t>1.173</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.730</t>
+          <t>2.120</t>
         </is>
       </c>
     </row>
@@ -655,17 +655,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.5204</t>
+          <t>1.6376</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.811</t>
+          <t>0.876</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.851</t>
+          <t>3.062</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.9119</t>
+          <t>1.7281</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19.119</t>
+          <t>17.281</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.9660</t>
+          <t>8.0955</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.660</t>
+          <t>80.955</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.5504</t>
+          <t>1.6879</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.501</t>
+          <t>1.634</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.602</t>
+          <t>1.744</t>
         </is>
       </c>
     </row>
@@ -765,17 +765,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.1817</t>
+          <t>1.5732</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.478</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.258</t>
+          <t>1.675</t>
         </is>
       </c>
     </row>
@@ -788,17 +788,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.6916</t>
+          <t>1.9558</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.631</t>
+          <t>1.886</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.755</t>
+          <t>2.029</t>
         </is>
       </c>
     </row>
@@ -811,17 +811,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.6920</t>
+          <t>1.8148</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.600</t>
+          <t>1.717</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.789</t>
+          <t>1.919</t>
         </is>
       </c>
     </row>
@@ -834,17 +834,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.3836</t>
+          <t>1.3536</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.247</t>
+          <t>1.220</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.536</t>
+          <t>1.502</t>
         </is>
       </c>
     </row>
@@ -857,17 +857,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.9049</t>
+          <t>1.4626</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.563</t>
+          <t>1.199</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.321</t>
+          <t>1.784</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.2708</t>
+          <t>1.3922</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.908</t>
+          <t>0.996</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.778</t>
+          <t>1.945</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.3440</t>
+          <t>0.6550</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.229</t>
+          <t>0.438</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.517</t>
+          <t>0.979</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.6347</t>
+          <t>2.0453</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.668</t>
+          <t>0.843</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.002</t>
+          <t>4.959</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.1674</t>
+          <t>3.2189</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31.674</t>
+          <t>32.189</t>
         </is>
       </c>
     </row>
@@ -990,17 +990,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1176</t>
+          <t>1.1229</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.073</t>
+          <t>1.078</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.164</t>
+          <t>1.170</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.2358</t>
+          <t>1.3173</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.131</t>
+          <t>1.206</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.350</t>
+          <t>1.439</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.4689</t>
+          <t>1.5726</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.403</t>
+          <t>1.502</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.538</t>
+          <t>1.647</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0219</t>
+          <t>0.9876</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.960</t>
+          <t>0.928</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.088</t>
+          <t>1.051</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.9095</t>
+          <t>0.8758</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.797</t>
+          <t>0.767</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.038</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.0602</t>
+          <t>0.9202</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.813</t>
+          <t>0.705</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.382</t>
+          <t>1.200</t>
         </is>
       </c>
     </row>
@@ -1128,17 +1128,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.9885</t>
+          <t>0.8828</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.634</t>
+          <t>0.567</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.541</t>
+          <t>1.374</t>
         </is>
       </c>
     </row>
@@ -1151,17 +1151,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.2263</t>
+          <t>0.4000</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.108</t>
+          <t>0.192</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.474</t>
+          <t>0.833</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.7738</t>
+          <t>1.0896</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.738</t>
+          <t>10.896</t>
         </is>
       </c>
     </row>
@@ -1295,17 +1295,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0814</t>
+          <t>1.1929</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.052</t>
+          <t>1.160</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.112</t>
+          <t>1.226</t>
         </is>
       </c>
     </row>
@@ -1318,17 +1318,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9338</t>
+          <t>0.9462</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.844</t>
+          <t>0.855</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.033</t>
+          <t>1.047</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0141</t>
+          <t>1.0840</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.959</t>
+          <t>1.025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.072</t>
+          <t>1.146</t>
         </is>
       </c>
     </row>
@@ -1364,17 +1364,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.1232</t>
+          <t>1.2713</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.072</t>
+          <t>1.213</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.177</t>
+          <t>1.332</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2476</t>
+          <t>1.3714</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.181</t>
+          <t>1.299</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.317</t>
+          <t>1.448</t>
         </is>
       </c>
     </row>
@@ -1410,17 +1410,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.1305</t>
+          <t>1.3244</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.041</t>
+          <t>1.220</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>1.438</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1433,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.0609</t>
+          <t>1.2309</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.941</t>
+          <t>1.092</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.197</t>
+          <t>1.388</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.6321</t>
+          <t>0.8595</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.505</t>
+          <t>0.687</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.792</t>
+          <t>1.075</t>
         </is>
       </c>
     </row>
@@ -1479,17 +1479,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.5740</t>
+          <t>3.9998</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.456</t>
+          <t>1.642</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.775</t>
+          <t>9.745</t>
         </is>
       </c>
     </row>
@@ -1502,17 +1502,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.4953</t>
+          <t>1.0927</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.196</t>
+          <t>0.443</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.250</t>
+          <t>2.696</t>
         </is>
       </c>
     </row>
@@ -1543,17 +1543,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.1986</t>
+          <t>1.3704</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.173</t>
+          <t>1.341</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.225</t>
+          <t>1.400</t>
         </is>
       </c>
     </row>
@@ -1566,17 +1566,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8674</t>
+          <t>1.0828</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.816</t>
+          <t>1.019</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.922</t>
+          <t>1.151</t>
         </is>
       </c>
     </row>
@@ -1589,17 +1589,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0733</t>
+          <t>1.2331</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.035</t>
+          <t>1.189</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.113</t>
+          <t>1.278</t>
         </is>
       </c>
     </row>
@@ -1612,17 +1612,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.2762</t>
+          <t>1.4916</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.230</t>
+          <t>1.438</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>1.547</t>
         </is>
       </c>
     </row>
@@ -1635,17 +1635,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.5182</t>
+          <t>1.6234</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.437</t>
+          <t>1.537</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.604</t>
+          <t>1.715</t>
         </is>
       </c>
     </row>
@@ -1658,17 +1658,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.3526</t>
+          <t>1.3924</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>1.255</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.501</t>
+          <t>1.545</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.2546</t>
+          <t>1.4244</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.060</t>
+          <t>1.204</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.485</t>
+          <t>1.685</t>
         </is>
       </c>
     </row>
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.9778</t>
+          <t>1.2366</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.717</t>
+          <t>0.909</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.334</t>
+          <t>1.683</t>
         </is>
       </c>
     </row>
@@ -1727,17 +1727,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.9727</t>
+          <t>1.0700</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.610</t>
+          <t>0.672</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.551</t>
+          <t>1.704</t>
         </is>
       </c>
     </row>
@@ -1750,17 +1750,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.1109</t>
+          <t>1.1812</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.450</t>
+          <t>0.479</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.740</t>
+          <t>2.914</t>
         </is>
       </c>
     </row>
@@ -1791,17 +1791,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1084</t>
+          <t>1.1487</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.077</t>
+          <t>1.116</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.141</t>
+          <t>1.182</t>
         </is>
       </c>
     </row>
@@ -1814,17 +1814,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9289</t>
+          <t>1.1443</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.842</t>
+          <t>1.037</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.025</t>
+          <t>1.262</t>
         </is>
       </c>
     </row>
@@ -1837,17 +1837,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.0584</t>
+          <t>1.1375</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.004</t>
+          <t>1.079</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>1.199</t>
         </is>
       </c>
     </row>
@@ -1860,17 +1860,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.1362</t>
+          <t>1.1733</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.084</t>
+          <t>1.120</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.191</t>
+          <t>1.229</t>
         </is>
       </c>
     </row>
@@ -1883,17 +1883,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.2169</t>
+          <t>1.1838</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.141</t>
+          <t>1.110</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.298</t>
+          <t>1.263</t>
         </is>
       </c>
     </row>
@@ -1906,17 +1906,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.1965</t>
+          <t>1.0514</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.063</t>
+          <t>0.934</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.347</t>
+          <t>1.183</t>
         </is>
       </c>
     </row>
@@ -1929,17 +1929,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1826</t>
+          <t>1.1572</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.978</t>
+          <t>0.958</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.430</t>
+          <t>1.398</t>
         </is>
       </c>
     </row>
@@ -1952,17 +1952,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.5469</t>
+          <t>1.4386</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.081</t>
+          <t>1.009</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.214</t>
+          <t>2.052</t>
         </is>
       </c>
     </row>
@@ -1975,17 +1975,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.2722</t>
+          <t>0.2675</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.101</t>
+          <t>0.100</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.731</t>
+          <t>0.713</t>
         </is>
       </c>
     </row>
@@ -1998,17 +1998,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2.2428</t>
+          <t>1.0810</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.638</t>
+          <t>0.312</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.890</t>
+          <t>3.739</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0350</t>
+          <t>1.0689</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.990</t>
+          <t>1.023</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.082</t>
+          <t>1.117</t>
         </is>
       </c>
     </row>
@@ -2119,17 +2119,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.3341</t>
+          <t>1.2860</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>1.055</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.627</t>
+          <t>1.568</t>
         </is>
       </c>
     </row>
@@ -2142,17 +2142,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1327</t>
+          <t>1.1245</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.039</t>
+          <t>1.031</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.226</t>
         </is>
       </c>
     </row>
@@ -2165,17 +2165,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8772</t>
+          <t>0.9575</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.815</t>
+          <t>0.890</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.944</t>
+          <t>1.030</t>
         </is>
       </c>
     </row>
@@ -2188,17 +2188,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2184</t>
+          <t>1.1957</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.087</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.340</t>
+          <t>1.315</t>
         </is>
       </c>
     </row>
@@ -2211,17 +2211,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.9983</t>
+          <t>0.9700</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.877</t>
+          <t>0.852</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.136</t>
+          <t>1.104</t>
         </is>
       </c>
     </row>
@@ -2234,17 +2234,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7500</t>
+          <t>0.9634</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.631</t>
+          <t>0.812</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.891</t>
+          <t>1.143</t>
         </is>
       </c>
     </row>
@@ -2257,17 +2257,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.7943</t>
+          <t>1.0706</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.595</t>
+          <t>0.803</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>1.427</t>
         </is>
       </c>
     </row>
@@ -2280,17 +2280,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.6889</t>
+          <t>1.1050</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.445</t>
+          <t>0.719</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.065</t>
+          <t>1.699</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.0390</t>
+          <t>1.7519</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.830</t>
+          <t>0.706</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.010</t>
+          <t>4.345</t>
         </is>
       </c>
     </row>
@@ -2344,17 +2344,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0718</t>
+          <t>1.0605</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.048</t>
+          <t>1.037</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.096</t>
+          <t>1.084</t>
         </is>
       </c>
     </row>
@@ -2367,17 +2367,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0736</t>
+          <t>0.9535</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.995</t>
+          <t>0.884</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.158</t>
+          <t>1.029</t>
         </is>
       </c>
     </row>
@@ -2390,17 +2390,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0693</t>
+          <t>1.0785</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.026</t>
+          <t>1.034</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.115</t>
+          <t>1.124</t>
         </is>
       </c>
     </row>
@@ -2413,17 +2413,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.9997</t>
+          <t>1.0149</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.961</t>
+          <t>0.976</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.040</t>
+          <t>1.056</t>
         </is>
       </c>
     </row>
@@ -2436,17 +2436,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.2589</t>
+          <t>1.1590</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.196</t>
+          <t>1.101</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.325</t>
+          <t>1.220</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2459,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.9935</t>
+          <t>1.0527</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.918</t>
+          <t>0.972</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.076</t>
+          <t>1.140</t>
         </is>
       </c>
     </row>
@@ -2482,17 +2482,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1055</t>
+          <t>1.1585</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.989</t>
+          <t>1.036</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>1.295</t>
         </is>
       </c>
     </row>
@@ -2505,17 +2505,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.0913</t>
+          <t>1.1282</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.903</t>
+          <t>0.933</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.319</t>
+          <t>1.365</t>
         </is>
       </c>
     </row>
@@ -2528,17 +2528,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.6620</t>
+          <t>1.3582</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>1.007</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.235</t>
+          <t>1.832</t>
         </is>
       </c>
     </row>
@@ -2551,17 +2551,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.6744</t>
+          <t>1.4233</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.140</t>
+          <t>0.968</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.459</t>
+          <t>2.093</t>
         </is>
       </c>
     </row>
@@ -2592,17 +2592,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0355</t>
+          <t>0.9921</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>0.949</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>1.037</t>
         </is>
       </c>
     </row>
@@ -2615,17 +2615,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.8047</t>
+          <t>0.7415</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.658</t>
+          <t>0.606</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.984</t>
+          <t>0.907</t>
         </is>
       </c>
     </row>
@@ -2638,17 +2638,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.9440</t>
+          <t>0.9591</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.865</t>
+          <t>0.879</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.046</t>
         </is>
       </c>
     </row>
@@ -2661,17 +2661,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.1396</t>
+          <t>1.0599</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.059</t>
+          <t>0.985</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.140</t>
         </is>
       </c>
     </row>
@@ -2684,17 +2684,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0332</t>
+          <t>0.9693</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.938</t>
+          <t>0.880</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.138</t>
+          <t>1.068</t>
         </is>
       </c>
     </row>
@@ -2707,17 +2707,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9952</t>
+          <t>1.0853</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.871</t>
+          <t>0.950</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.137</t>
+          <t>1.240</t>
         </is>
       </c>
     </row>
@@ -2730,17 +2730,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.4739</t>
+          <t>1.2025</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.006</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.764</t>
+          <t>1.437</t>
         </is>
       </c>
     </row>
@@ -2753,17 +2753,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.3740</t>
+          <t>1.0537</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.008</t>
+          <t>0.774</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.873</t>
+          <t>1.434</t>
         </is>
       </c>
     </row>
@@ -2776,17 +2776,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2.4128</t>
+          <t>1.2292</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.512</t>
+          <t>0.773</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.851</t>
+          <t>1.954</t>
         </is>
       </c>
     </row>
@@ -2799,17 +2799,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.8212</t>
+          <t>0.8124</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.326</t>
+          <t>0.320</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.067</t>
+          <t>2.065</t>
         </is>
       </c>
     </row>
@@ -2840,17 +2840,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.6281</t>
+          <t>1.6880</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.596</t>
+          <t>1.655</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.661</t>
+          <t>1.722</t>
         </is>
       </c>
     </row>
@@ -2863,17 +2863,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.4961</t>
+          <t>1.4012</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.406</t>
+          <t>1.317</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.592</t>
+          <t>1.490</t>
         </is>
       </c>
     </row>
@@ -2886,17 +2886,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.5511</t>
+          <t>1.6389</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.498</t>
+          <t>1.582</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.607</t>
+          <t>1.697</t>
         </is>
       </c>
     </row>
@@ -2909,17 +2909,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.7160</t>
+          <t>1.8140</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.657</t>
+          <t>1.751</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.778</t>
+          <t>1.879</t>
         </is>
       </c>
     </row>
@@ -2932,17 +2932,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.7316</t>
+          <t>1.7760</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.653</t>
+          <t>1.696</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.814</t>
+          <t>1.860</t>
         </is>
       </c>
     </row>
@@ -2955,17 +2955,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.3366</t>
+          <t>1.4229</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>1.316</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.445</t>
+          <t>1.538</t>
         </is>
       </c>
     </row>
@@ -2978,17 +2978,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.6958</t>
+          <t>1.6409</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.498</t>
+          <t>1.449</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.919</t>
+          <t>1.858</t>
         </is>
       </c>
     </row>
@@ -3001,17 +3001,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.3538</t>
+          <t>1.1953</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.102</t>
+          <t>0.971</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.663</t>
+          <t>1.471</t>
         </is>
       </c>
     </row>
@@ -3024,17 +3024,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.6497</t>
+          <t>1.4701</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.138</t>
+          <t>1.011</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.392</t>
+          <t>2.139</t>
         </is>
       </c>
     </row>
@@ -3047,17 +3047,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3.4111</t>
+          <t>1.0949</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2.008</t>
+          <t>0.627</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5.795</t>
+          <t>1.912</t>
         </is>
       </c>
     </row>
@@ -3088,17 +3088,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.5190</t>
+          <t>1.5917</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.488</t>
+          <t>1.559</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.551</t>
+          <t>1.625</t>
         </is>
       </c>
     </row>
@@ -3111,17 +3111,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.3936</t>
+          <t>1.4695</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.298</t>
+          <t>1.369</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.496</t>
+          <t>1.577</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3134,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.4506</t>
+          <t>1.5195</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.398</t>
+          <t>1.464</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.505</t>
+          <t>1.577</t>
         </is>
       </c>
     </row>
@@ -3157,17 +3157,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.7165</t>
+          <t>1.7873</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.658</t>
+          <t>1.726</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.777</t>
+          <t>1.851</t>
         </is>
       </c>
     </row>
@@ -3180,17 +3180,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.3756</t>
+          <t>1.5324</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.309</t>
+          <t>1.458</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.445</t>
+          <t>1.610</t>
         </is>
       </c>
     </row>
@@ -3203,17 +3203,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.3454</t>
+          <t>1.3517</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.237</t>
+          <t>1.243</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.463</t>
+          <t>1.470</t>
         </is>
       </c>
     </row>
@@ -3226,17 +3226,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.5340</t>
+          <t>1.4165</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.342</t>
+          <t>1.239</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.753</t>
+          <t>1.619</t>
         </is>
       </c>
     </row>
@@ -3249,17 +3249,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.2405</t>
+          <t>1.0595</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.982</t>
+          <t>0.837</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.567</t>
+          <t>1.340</t>
         </is>
       </c>
     </row>
@@ -3272,17 +3272,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.9926</t>
+          <t>1.0824</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.660</t>
+          <t>0.717</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.493</t>
+          <t>1.635</t>
         </is>
       </c>
     </row>
@@ -3295,17 +3295,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2.0372</t>
+          <t>0.7693</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.152</t>
+          <t>0.424</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3.603</t>
+          <t>1.397</t>
         </is>
       </c>
     </row>
@@ -3393,17 +3393,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.2803</t>
+          <t>1.3201</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>1.281</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.320</t>
+          <t>1.361</t>
         </is>
       </c>
     </row>
@@ -3416,17 +3416,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.6084</t>
+          <t>1.4970</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.470</t>
+          <t>1.368</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.760</t>
+          <t>1.638</t>
         </is>
       </c>
     </row>
@@ -3439,17 +3439,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1660</t>
+          <t>1.2118</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.154</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>1.272</t>
         </is>
       </c>
     </row>
@@ -3462,17 +3462,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.1762</t>
+          <t>1.2986</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.119</t>
+          <t>1.235</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.237</t>
+          <t>1.365</t>
         </is>
       </c>
     </row>
@@ -3485,17 +3485,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.3796</t>
+          <t>1.4239</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.289</t>
+          <t>1.330</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.477</t>
+          <t>1.524</t>
         </is>
       </c>
     </row>
@@ -3508,17 +3508,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.3576</t>
+          <t>1.5274</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.166</t>
+          <t>1.312</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.581</t>
+          <t>1.778</t>
         </is>
       </c>
     </row>
@@ -3531,17 +3531,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.1916</t>
+          <t>2.0696</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.328</t>
+          <t>1.503</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.376</t>
+          <t>2.849</t>
         </is>
       </c>
     </row>
@@ -3554,17 +3554,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.5789</t>
+          <t>0.7346</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.124</t>
+          <t>0.516</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.217</t>
+          <t>1.045</t>
         </is>
       </c>
     </row>
@@ -3577,17 +3577,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.6202</t>
+          <t>0.6613</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.362</t>
+          <t>0.386</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.062</t>
+          <t>1.133</t>
         </is>
       </c>
     </row>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.1845</t>
+          <t>4.2108</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>41.845</t>
+          <t>42.108</t>
         </is>
       </c>
     </row>
@@ -3641,17 +3641,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.4554</t>
+          <t>1.4465</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.377</t>
+          <t>1.369</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.538</t>
+          <t>1.528</t>
         </is>
       </c>
     </row>
@@ -3664,17 +3664,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0434</t>
+          <t>1.1299</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.811</t>
+          <t>0.878</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.342</t>
+          <t>1.455</t>
         </is>
       </c>
     </row>
@@ -3687,17 +3687,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.2819</t>
+          <t>1.3817</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.151</t>
+          <t>1.241</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.427</t>
+          <t>1.538</t>
         </is>
       </c>
     </row>
@@ -3710,17 +3710,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.6093</t>
+          <t>1.5873</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.467</t>
+          <t>1.448</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.765</t>
+          <t>1.740</t>
         </is>
       </c>
     </row>
@@ -3733,17 +3733,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.4526</t>
+          <t>1.4909</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.298</t>
+          <t>1.332</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.626</t>
+          <t>1.669</t>
         </is>
       </c>
     </row>
@@ -3756,17 +3756,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.1731</t>
+          <t>1.3669</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.961</t>
+          <t>1.120</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.431</t>
+          <t>1.668</t>
         </is>
       </c>
     </row>
@@ -3779,17 +3779,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5.0675</t>
+          <t>2.3933</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.583</t>
+          <t>1.687</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.168</t>
+          <t>3.395</t>
         </is>
       </c>
     </row>
@@ -3802,17 +3802,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.4727</t>
+          <t>0.4435</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>0.272</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.392</t>
+          <t>0.724</t>
         </is>
       </c>
     </row>
@@ -3825,17 +3825,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.5354</t>
+          <t>0.9133</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.804</t>
+          <t>0.480</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.932</t>
+          <t>1.738</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.9146</t>
+          <t>3.8273</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>49.146</t>
+          <t>38.273</t>
         </is>
       </c>
     </row>
@@ -3889,17 +3889,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.2608</t>
+          <t>1.3020</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.222</t>
+          <t>1.262</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.301</t>
+          <t>1.344</t>
         </is>
       </c>
     </row>
@@ -3912,17 +3912,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.0473</t>
+          <t>1.0790</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.935</t>
+          <t>0.964</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.172</t>
+          <t>1.208</t>
         </is>
       </c>
     </row>
@@ -3935,17 +3935,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.2647</t>
+          <t>1.2837</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.201</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.332</t>
+          <t>1.352</t>
         </is>
       </c>
     </row>
@@ -3958,17 +3958,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.2496</t>
+          <t>1.3089</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.187</t>
+          <t>1.243</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>1.378</t>
         </is>
       </c>
     </row>
@@ -3981,17 +3981,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0942</t>
+          <t>1.3016</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.019</t>
+          <t>1.212</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.175</t>
+          <t>1.398</t>
         </is>
       </c>
     </row>
@@ -4004,17 +4004,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.4547</t>
+          <t>1.5054</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.244</t>
+          <t>1.288</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.701</t>
+          <t>1.760</t>
         </is>
       </c>
     </row>
@@ -4027,17 +4027,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3.5269</t>
+          <t>2.1529</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.565</t>
+          <t>1.559</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.850</t>
+          <t>2.973</t>
         </is>
       </c>
     </row>
@@ -4050,17 +4050,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.6784</t>
+          <t>0.7758</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.181</t>
+          <t>0.539</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.385</t>
+          <t>1.116</t>
         </is>
       </c>
     </row>
@@ -4073,17 +4073,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.8258</t>
+          <t>0.9312</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.480</t>
+          <t>0.541</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.421</t>
+          <t>1.604</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3.5630</t>
+          <t>5.0326</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>35.630</t>
+          <t>50.326</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4137,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.2465</t>
+          <t>1.2474</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>1.215</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.280</t>
+          <t>1.281</t>
         </is>
       </c>
     </row>
@@ -4160,17 +4160,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.3231</t>
+          <t>1.3400</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>1.239</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.431</t>
+          <t>1.449</t>
         </is>
       </c>
     </row>
@@ -4183,17 +4183,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.1708</t>
+          <t>1.1606</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.126</t>
+          <t>1.117</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.217</t>
+          <t>1.206</t>
         </is>
       </c>
     </row>
@@ -4206,17 +4206,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.1573</t>
+          <t>1.2272</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.112</t>
+          <t>1.179</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>1.277</t>
         </is>
       </c>
     </row>
@@ -4229,17 +4229,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.3080</t>
+          <t>1.3146</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.230</t>
+          <t>1.237</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.390</t>
+          <t>1.397</t>
         </is>
       </c>
     </row>
@@ -4252,17 +4252,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.3794</t>
+          <t>1.4505</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.188</t>
+          <t>1.250</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.602</t>
+          <t>1.684</t>
         </is>
       </c>
     </row>
@@ -4275,17 +4275,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2.9288</t>
+          <t>1.8937</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.136</t>
+          <t>1.375</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.017</t>
+          <t>2.608</t>
         </is>
       </c>
     </row>
@@ -4298,17 +4298,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.7269</t>
+          <t>0.8047</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.217</t>
+          <t>0.560</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.450</t>
+          <t>1.156</t>
         </is>
       </c>
     </row>
@@ -4321,17 +4321,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.6454</t>
+          <t>0.8414</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.372</t>
+          <t>0.485</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.119</t>
+          <t>1.461</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3.7594</t>
+          <t>4.9744</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>37.594</t>
+          <t>49.744</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -494,17 +494,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.5019</t>
+          <t>1.3906</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.461</t>
+          <t>1.352</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.544</t>
+          <t>1.430</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.1943</t>
+          <t>0.9549</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.102</t>
+          <t>0.881</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.294</t>
+          <t>1.035</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.2437</t>
+          <t>1.1517</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.196</t>
+          <t>1.108</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.293</t>
+          <t>1.198</t>
         </is>
       </c>
     </row>
@@ -563,17 +563,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.8376</t>
+          <t>1.6773</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.773</t>
+          <t>1.618</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.905</t>
+          <t>1.739</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.5456</t>
+          <t>1.5238</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.419</t>
+          <t>1.399</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.683</t>
+          <t>1.659</t>
         </is>
       </c>
     </row>
@@ -632,17 +632,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.5770</t>
+          <t>1.5195</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.173</t>
+          <t>1.130</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.120</t>
+          <t>2.043</t>
         </is>
       </c>
     </row>
@@ -655,17 +655,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.6376</t>
+          <t>1.6303</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.876</t>
+          <t>0.872</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.062</t>
+          <t>3.048</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8.0955</t>
+          <t>7.9660</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.955</t>
+          <t>79.660</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.6879</t>
+          <t>1.5633</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.634</t>
+          <t>1.513</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.744</t>
+          <t>1.615</t>
         </is>
       </c>
     </row>
@@ -765,17 +765,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.5732</t>
+          <t>1.2579</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.478</t>
+          <t>1.182</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.675</t>
+          <t>1.339</t>
         </is>
       </c>
     </row>
@@ -788,17 +788,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.9558</t>
+          <t>1.8112</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.886</t>
+          <t>1.746</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.029</t>
+          <t>1.879</t>
         </is>
       </c>
     </row>
@@ -811,17 +811,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.8148</t>
+          <t>1.6564</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.717</t>
+          <t>1.567</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.919</t>
+          <t>1.751</t>
         </is>
       </c>
     </row>
@@ -834,17 +834,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.3536</t>
+          <t>1.3345</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>1.202</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.502</t>
+          <t>1.481</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.3922</t>
+          <t>1.3414</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>0.960</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.945</t>
+          <t>1.875</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.6550</t>
+          <t>0.6520</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.438</t>
+          <t>0.436</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.979</t>
+          <t>0.974</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.2189</t>
+          <t>3.1674</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32.189</t>
+          <t>31.674</t>
         </is>
       </c>
     </row>
@@ -1295,17 +1295,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.1929</t>
+          <t>1.0948</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.160</t>
+          <t>1.065</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.126</t>
         </is>
       </c>
     </row>
@@ -1318,17 +1318,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9462</t>
+          <t>0.9336</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.855</t>
+          <t>0.844</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.047</t>
+          <t>1.033</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0840</t>
+          <t>1.0134</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.025</t>
+          <t>0.959</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.146</t>
+          <t>1.071</t>
         </is>
       </c>
     </row>
@@ -1364,17 +1364,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2713</t>
+          <t>1.1255</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>1.074</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.332</t>
+          <t>1.179</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.3714</t>
+          <t>1.2537</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.299</t>
+          <t>1.187</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.448</t>
+          <t>1.324</t>
         </is>
       </c>
     </row>
@@ -1410,17 +1410,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.3244</t>
+          <t>1.2049</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>1.110</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.438</t>
+          <t>1.308</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1433,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.2309</t>
+          <t>1.1353</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>1.007</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.388</t>
+          <t>1.280</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.8595</t>
+          <t>0.8069</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.687</t>
+          <t>0.645</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.075</t>
+          <t>1.009</t>
         </is>
       </c>
     </row>
@@ -1502,17 +1502,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.0927</t>
+          <t>0.9435</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.443</t>
+          <t>0.383</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.696</t>
+          <t>2.327</t>
         </is>
       </c>
     </row>
@@ -1543,17 +1543,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.3704</t>
+          <t>1.2577</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.341</t>
+          <t>1.231</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.400</t>
+          <t>1.285</t>
         </is>
       </c>
     </row>
@@ -1566,17 +1566,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0828</t>
+          <t>1.0684</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.019</t>
+          <t>1.005</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.151</t>
+          <t>1.135</t>
         </is>
       </c>
     </row>
@@ -1589,17 +1589,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.2331</t>
+          <t>1.1528</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.189</t>
+          <t>1.112</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.278</t>
+          <t>1.195</t>
         </is>
       </c>
     </row>
@@ -1612,17 +1612,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.4916</t>
+          <t>1.3206</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.438</t>
+          <t>1.273</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.547</t>
+          <t>1.370</t>
         </is>
       </c>
     </row>
@@ -1635,17 +1635,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.6234</t>
+          <t>1.4842</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.537</t>
+          <t>1.405</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.715</t>
+          <t>1.568</t>
         </is>
       </c>
     </row>
@@ -1658,17 +1658,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.3924</t>
+          <t>1.2668</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.255</t>
+          <t>1.142</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.545</t>
+          <t>1.405</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.4244</t>
+          <t>1.3137</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.204</t>
+          <t>1.111</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.685</t>
+          <t>1.554</t>
         </is>
       </c>
     </row>
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.2366</t>
+          <t>1.1608</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.909</t>
+          <t>0.853</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.683</t>
+          <t>1.580</t>
         </is>
       </c>
     </row>
@@ -1750,17 +1750,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.1812</t>
+          <t>1.0200</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.479</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.914</t>
+          <t>2.516</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0689</t>
+          <t>1.0464</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.023</t>
+          <t>1.001</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>1.094</t>
         </is>
       </c>
     </row>
@@ -2165,17 +2165,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9575</t>
+          <t>0.9128</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.890</t>
+          <t>0.848</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.982</t>
         </is>
       </c>
     </row>
@@ -2234,17 +2234,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9634</t>
+          <t>0.8771</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.812</t>
+          <t>0.739</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.143</t>
+          <t>1.041</t>
         </is>
       </c>
     </row>
@@ -2257,17 +2257,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.0706</t>
+          <t>0.9461</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.803</t>
+          <t>0.710</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.427</t>
+          <t>1.261</t>
         </is>
       </c>
     </row>
@@ -2280,17 +2280,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.1050</t>
+          <t>0.9657</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.719</t>
+          <t>0.628</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.699</t>
+          <t>1.484</t>
         </is>
       </c>
     </row>
@@ -2344,17 +2344,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0605</t>
+          <t>1.0382</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.037</t>
+          <t>1.015</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.084</t>
+          <t>1.062</t>
         </is>
       </c>
     </row>
@@ -2413,17 +2413,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0149</t>
+          <t>0.9674</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.976</t>
+          <t>0.930</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.056</t>
+          <t>1.006</t>
         </is>
       </c>
     </row>
@@ -2482,17 +2482,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1585</t>
+          <t>1.0548</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.036</t>
+          <t>0.944</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.295</t>
+          <t>1.179</t>
         </is>
       </c>
     </row>
@@ -2505,17 +2505,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.1282</t>
+          <t>0.9969</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.933</t>
+          <t>0.825</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.365</t>
+          <t>1.205</t>
         </is>
       </c>
     </row>
@@ -2528,17 +2528,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.3582</t>
+          <t>1.1870</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.007</t>
+          <t>0.881</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.832</t>
+          <t>1.600</t>
         </is>
       </c>
     </row>
@@ -2840,17 +2840,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.6880</t>
+          <t>1.6525</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.655</t>
+          <t>1.620</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.722</t>
+          <t>1.686</t>
         </is>
       </c>
     </row>
@@ -2909,17 +2909,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.8140</t>
+          <t>1.7291</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.751</t>
+          <t>1.669</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.879</t>
+          <t>1.791</t>
         </is>
       </c>
     </row>
@@ -2978,17 +2978,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.6409</t>
+          <t>1.4940</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.449</t>
+          <t>1.320</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.858</t>
+          <t>1.691</t>
         </is>
       </c>
     </row>
@@ -3001,17 +3001,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1953</t>
+          <t>1.0562</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>0.859</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.471</t>
+          <t>1.299</t>
         </is>
       </c>
     </row>
@@ -3024,17 +3024,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.4701</t>
+          <t>1.2848</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.011</t>
+          <t>0.884</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.139</t>
+          <t>1.868</t>
         </is>
       </c>
     </row>
@@ -3393,17 +3393,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.3201</t>
+          <t>1.2823</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>1.244</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.361</t>
+          <t>1.322</t>
         </is>
       </c>
     </row>
@@ -3462,17 +3462,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2986</t>
+          <t>1.2202</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.161</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.365</t>
+          <t>1.283</t>
         </is>
       </c>
     </row>
@@ -3485,17 +3485,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.4239</t>
+          <t>1.4155</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.330</t>
+          <t>1.322</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.524</t>
+          <t>1.515</t>
         </is>
       </c>
     </row>
@@ -3531,17 +3531,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.0696</t>
+          <t>1.8479</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.503</t>
+          <t>1.342</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.849</t>
+          <t>2.544</t>
         </is>
       </c>
     </row>
@@ -3554,17 +3554,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.7346</t>
+          <t>0.6339</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.516</t>
+          <t>0.446</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.045</t>
+          <t>0.901</t>
         </is>
       </c>
     </row>
@@ -3577,17 +3577,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.6613</t>
+          <t>0.5545</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.386</t>
+          <t>0.324</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.133</t>
+          <t>0.950</t>
         </is>
       </c>
     </row>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.2108</t>
+          <t>3.9484</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>42.108</t>
+          <t>39.484</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -494,17 +494,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.3906</t>
+          <t>1.3509</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.352</t>
+          <t>1.314</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.430</t>
+          <t>1.389</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9549</t>
+          <t>1.1593</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.881</t>
+          <t>1.070</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.035</t>
+          <t>1.257</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1517</t>
+          <t>1.0564</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.016</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>1.099</t>
         </is>
       </c>
     </row>
@@ -563,17 +563,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.6773</t>
+          <t>1.5362</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.618</t>
+          <t>1.482</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.739</t>
+          <t>1.592</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.5238</t>
+          <t>1.5418</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.399</t>
+          <t>1.416</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.659</t>
+          <t>1.679</t>
         </is>
       </c>
     </row>
@@ -609,17 +609,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.5894</t>
+          <t>1.9595</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.326</t>
+          <t>1.633</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.906</t>
+          <t>2.351</t>
         </is>
       </c>
     </row>
@@ -632,17 +632,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.5195</t>
+          <t>0.8338</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.130</t>
+          <t>0.623</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.043</t>
+          <t>1.115</t>
         </is>
       </c>
     </row>
@@ -655,17 +655,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.6303</t>
+          <t>3.8202</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.872</t>
+          <t>2.035</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.048</t>
+          <t>7.171</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.7281</t>
+          <t>0.6522</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17.281</t>
+          <t>6.522</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.9660</t>
+          <t>15.6989</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.660</t>
+          <t>156.989</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.5633</t>
+          <t>1.3126</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.513</t>
+          <t>1.271</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.615</t>
+          <t>1.356</t>
         </is>
       </c>
     </row>
@@ -765,17 +765,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.2579</t>
+          <t>0.8255</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.182</t>
+          <t>0.776</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.339</t>
+          <t>0.878</t>
         </is>
       </c>
     </row>
@@ -788,17 +788,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.8112</t>
+          <t>1.6200</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.746</t>
+          <t>1.562</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.879</t>
+          <t>1.680</t>
         </is>
       </c>
     </row>
@@ -811,17 +811,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.6564</t>
+          <t>1.5608</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.567</t>
+          <t>1.476</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.751</t>
+          <t>1.650</t>
         </is>
       </c>
     </row>
@@ -834,17 +834,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.3345</t>
+          <t>0.7137</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.202</t>
+          <t>0.644</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.481</t>
+          <t>0.791</t>
         </is>
       </c>
     </row>
@@ -857,17 +857,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.4626</t>
+          <t>2.0646</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>1.691</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.784</t>
+          <t>2.521</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.3414</t>
+          <t>1.8872</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.960</t>
+          <t>1.348</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.875</t>
+          <t>2.642</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.6520</t>
+          <t>1.5912</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.436</t>
+          <t>1.061</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.974</t>
+          <t>2.386</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2.0453</t>
+          <t>0.3335</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.843</t>
+          <t>0.139</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.959</t>
+          <t>0.799</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.1674</t>
+          <t>6.2421</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31.674</t>
+          <t>62.421</t>
         </is>
       </c>
     </row>
@@ -990,17 +990,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1229</t>
+          <t>0.9772</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.078</t>
+          <t>0.938</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.170</t>
+          <t>1.018</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.3173</t>
+          <t>0.7121</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>0.652</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.439</t>
+          <t>0.778</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.5726</t>
+          <t>1.5334</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.502</t>
+          <t>1.465</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.647</t>
+          <t>1.606</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.9876</t>
+          <t>1.0160</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.928</t>
+          <t>0.954</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.051</t>
+          <t>1.082</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.8758</t>
+          <t>0.4629</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.767</t>
+          <t>0.406</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.528</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9202</t>
+          <t>1.0537</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.705</t>
+          <t>0.807</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.200</t>
+          <t>1.376</t>
         </is>
       </c>
     </row>
@@ -1128,17 +1128,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.8828</t>
+          <t>2.2634</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.567</t>
+          <t>1.457</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.374</t>
+          <t>3.516</t>
         </is>
       </c>
     </row>
@@ -1151,17 +1151,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.4000</t>
+          <t>0.4165</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.192</t>
+          <t>0.199</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.833</t>
+          <t>0.873</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.0896</t>
+          <t>0.4971</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10.896</t>
+          <t>4.971</t>
         </is>
       </c>
     </row>
@@ -1295,17 +1295,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0948</t>
+          <t>1.0220</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.065</t>
+          <t>0.994</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.126</t>
+          <t>1.051</t>
         </is>
       </c>
     </row>
@@ -1318,17 +1318,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9336</t>
+          <t>1.6093</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.844</t>
+          <t>1.453</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.033</t>
+          <t>1.782</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0134</t>
+          <t>0.7304</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.959</t>
+          <t>0.691</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.071</t>
+          <t>0.772</t>
         </is>
       </c>
     </row>
@@ -1364,17 +1364,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.1255</t>
+          <t>1.2363</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.074</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.179</t>
+          <t>1.296</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2537</t>
+          <t>1.1702</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.187</t>
+          <t>1.108</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>1.235</t>
         </is>
       </c>
     </row>
@@ -1410,17 +1410,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.2049</t>
+          <t>0.7018</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>0.647</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.308</t>
+          <t>0.762</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1433,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.1353</t>
+          <t>0.9530</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.007</t>
+          <t>0.845</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.280</t>
+          <t>1.074</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.8069</t>
+          <t>0.5019</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.645</t>
+          <t>0.403</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.009</t>
+          <t>0.625</t>
         </is>
       </c>
     </row>
@@ -1479,17 +1479,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.9998</t>
+          <t>1.2168</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.642</t>
+          <t>0.499</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.745</t>
+          <t>2.966</t>
         </is>
       </c>
     </row>
@@ -1502,17 +1502,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.9435</t>
+          <t>6.6490</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.383</t>
+          <t>2.673</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.327</t>
+          <t>16.540</t>
         </is>
       </c>
     </row>
@@ -1543,17 +1543,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.2577</t>
+          <t>1.1487</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.124</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.285</t>
+          <t>1.174</t>
         </is>
       </c>
     </row>
@@ -1566,17 +1566,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0684</t>
+          <t>1.1116</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.005</t>
+          <t>1.046</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.135</t>
+          <t>1.181</t>
         </is>
       </c>
     </row>
@@ -1589,17 +1589,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.1528</t>
+          <t>0.8410</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.112</t>
+          <t>0.811</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.195</t>
+          <t>0.872</t>
         </is>
       </c>
     </row>
@@ -1612,17 +1612,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.3206</t>
+          <t>1.2780</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.273</t>
+          <t>1.232</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.370</t>
+          <t>1.326</t>
         </is>
       </c>
     </row>
@@ -1635,17 +1635,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.4842</t>
+          <t>1.5048</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.405</t>
+          <t>1.425</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.568</t>
+          <t>1.590</t>
         </is>
       </c>
     </row>
@@ -1658,17 +1658,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.2668</t>
+          <t>1.5611</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.142</t>
+          <t>1.406</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.405</t>
+          <t>1.733</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.3137</t>
+          <t>1.1042</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.111</t>
+          <t>0.934</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.554</t>
+          <t>1.306</t>
         </is>
       </c>
     </row>
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.1608</t>
+          <t>2.1261</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.853</t>
+          <t>1.561</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.580</t>
+          <t>2.896</t>
         </is>
       </c>
     </row>
@@ -1727,17 +1727,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.0700</t>
+          <t>0.4298</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.672</t>
+          <t>0.271</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.704</t>
+          <t>0.682</t>
         </is>
       </c>
     </row>
@@ -1750,17 +1750,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.0200</t>
+          <t>2.0936</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.414</t>
+          <t>0.850</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.516</t>
+          <t>5.159</t>
         </is>
       </c>
     </row>
@@ -1791,17 +1791,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1487</t>
+          <t>1.1240</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>1.092</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.182</t>
+          <t>1.157</t>
         </is>
       </c>
     </row>
@@ -1814,17 +1814,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.1443</t>
+          <t>0.6907</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.037</t>
+          <t>0.626</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>0.763</t>
         </is>
       </c>
     </row>
@@ -1837,17 +1837,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.1375</t>
+          <t>1.1515</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.079</t>
+          <t>1.092</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>1.214</t>
         </is>
       </c>
     </row>
@@ -1860,17 +1860,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.1733</t>
+          <t>1.0337</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.120</t>
+          <t>0.986</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.229</t>
+          <t>1.083</t>
         </is>
       </c>
     </row>
@@ -1883,17 +1883,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.1838</t>
+          <t>1.2860</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.206</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.263</t>
+          <t>1.372</t>
         </is>
       </c>
     </row>
@@ -1906,17 +1906,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.0514</t>
+          <t>2.2246</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>1.977</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.183</t>
+          <t>2.504</t>
         </is>
       </c>
     </row>
@@ -1929,17 +1929,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1572</t>
+          <t>1.1587</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.958</t>
+          <t>0.959</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.398</t>
+          <t>1.400</t>
         </is>
       </c>
     </row>
@@ -1952,17 +1952,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.4386</t>
+          <t>4.2360</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.009</t>
+          <t>2.973</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.052</t>
+          <t>6.035</t>
         </is>
       </c>
     </row>
@@ -1975,17 +1975,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.2675</t>
+          <t>0.3532</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.133</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.713</t>
+          <t>0.940</t>
         </is>
       </c>
     </row>
@@ -1998,17 +1998,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.0810</t>
+          <t>0.3149</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.312</t>
+          <t>0.090</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.739</t>
+          <t>1.097</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0464</t>
+          <t>1.1220</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.001</t>
+          <t>1.074</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>1.172</t>
         </is>
       </c>
     </row>
@@ -2119,17 +2119,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2860</t>
+          <t>0.8176</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.055</t>
+          <t>0.674</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.568</t>
+          <t>0.991</t>
         </is>
       </c>
     </row>
@@ -2142,17 +2142,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1245</t>
+          <t>1.2319</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>1.129</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.344</t>
         </is>
       </c>
     </row>
@@ -2165,17 +2165,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9128</t>
+          <t>0.8681</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.848</t>
+          <t>0.807</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.982</t>
+          <t>0.934</t>
         </is>
       </c>
     </row>
@@ -2188,17 +2188,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.1957</t>
+          <t>1.4653</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.087</t>
+          <t>1.331</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.315</t>
+          <t>1.613</t>
         </is>
       </c>
     </row>
@@ -2211,17 +2211,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.9700</t>
+          <t>1.7452</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.852</t>
+          <t>1.529</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.104</t>
+          <t>1.992</t>
         </is>
       </c>
     </row>
@@ -2234,17 +2234,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.8771</t>
+          <t>1.9465</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.739</t>
+          <t>1.635</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.041</t>
+          <t>2.318</t>
         </is>
       </c>
     </row>
@@ -2257,17 +2257,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9461</t>
+          <t>2.0873</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.710</t>
+          <t>1.557</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>2.798</t>
         </is>
       </c>
     </row>
@@ -2280,17 +2280,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.9657</t>
+          <t>1.3405</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.628</t>
+          <t>0.869</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.484</t>
+          <t>2.068</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.7519</t>
+          <t>3.1262</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.706</t>
+          <t>1.270</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.345</t>
+          <t>7.696</t>
         </is>
       </c>
     </row>
@@ -2344,17 +2344,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0382</t>
+          <t>1.0198</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.015</t>
+          <t>0.997</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.062</t>
+          <t>1.043</t>
         </is>
       </c>
     </row>
@@ -2367,17 +2367,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.9535</t>
+          <t>0.8228</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.884</t>
+          <t>0.763</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.029</t>
+          <t>0.887</t>
         </is>
       </c>
     </row>
@@ -2390,17 +2390,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0785</t>
+          <t>0.9352</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.034</t>
+          <t>0.897</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.124</t>
+          <t>0.975</t>
         </is>
       </c>
     </row>
@@ -2413,17 +2413,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.9674</t>
+          <t>1.0959</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.930</t>
+          <t>1.054</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.006</t>
+          <t>1.140</t>
         </is>
       </c>
     </row>
@@ -2436,17 +2436,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1590</t>
+          <t>1.0842</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.101</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>1.141</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2459,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.0527</t>
+          <t>0.9069</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.972</t>
+          <t>0.838</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.140</t>
+          <t>0.982</t>
         </is>
       </c>
     </row>
@@ -2482,17 +2482,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.0548</t>
+          <t>1.1798</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.944</t>
+          <t>1.055</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.179</t>
+          <t>1.319</t>
         </is>
       </c>
     </row>
@@ -2505,17 +2505,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.9969</t>
+          <t>1.0963</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.825</t>
+          <t>0.908</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>1.323</t>
         </is>
       </c>
     </row>
@@ -2528,17 +2528,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.1870</t>
+          <t>3.6832</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.881</t>
+          <t>2.715</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.600</t>
+          <t>4.997</t>
         </is>
       </c>
     </row>
@@ -2551,17 +2551,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.4233</t>
+          <t>4.2188</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.968</t>
+          <t>2.879</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.093</t>
+          <t>6.182</t>
         </is>
       </c>
     </row>
@@ -2592,17 +2592,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9921</t>
+          <t>0.9089</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.949</t>
+          <t>0.870</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.037</t>
+          <t>0.950</t>
         </is>
       </c>
     </row>
@@ -2615,17 +2615,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.7415</t>
+          <t>1.0064</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.606</t>
+          <t>0.828</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>1.224</t>
         </is>
       </c>
     </row>
@@ -2638,17 +2638,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.9591</t>
+          <t>0.7592</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.879</t>
+          <t>0.695</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.046</t>
+          <t>0.829</t>
         </is>
       </c>
     </row>
@@ -2661,17 +2661,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0599</t>
+          <t>1.2623</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.985</t>
+          <t>1.174</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.140</t>
+          <t>1.358</t>
         </is>
       </c>
     </row>
@@ -2684,17 +2684,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.9693</t>
+          <t>0.7399</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.880</t>
+          <t>0.671</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>0.816</t>
         </is>
       </c>
     </row>
@@ -2707,17 +2707,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.0853</t>
+          <t>0.5197</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.950</t>
+          <t>0.454</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.240</t>
+          <t>0.595</t>
         </is>
       </c>
     </row>
@@ -2730,17 +2730,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.2025</t>
+          <t>0.6061</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.006</t>
+          <t>0.505</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.437</t>
+          <t>0.727</t>
         </is>
       </c>
     </row>
@@ -2753,17 +2753,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.0537</t>
+          <t>0.5252</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.774</t>
+          <t>0.384</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.434</t>
+          <t>0.719</t>
         </is>
       </c>
     </row>
@@ -2776,17 +2776,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.2292</t>
+          <t>2.7476</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.773</t>
+          <t>1.714</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.954</t>
+          <t>4.404</t>
         </is>
       </c>
     </row>
@@ -2799,17 +2799,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.8124</t>
+          <t>1.3495</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.320</t>
+          <t>0.532</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.065</t>
+          <t>3.420</t>
         </is>
       </c>
     </row>
@@ -2840,17 +2840,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.6525</t>
+          <t>1.6293</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.620</t>
+          <t>1.597</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.686</t>
+          <t>1.662</t>
         </is>
       </c>
     </row>
@@ -2863,17 +2863,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.4012</t>
+          <t>1.4330</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.317</t>
+          <t>1.347</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.490</t>
+          <t>1.524</t>
         </is>
       </c>
     </row>
@@ -2886,17 +2886,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.6389</t>
+          <t>1.4447</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.582</t>
+          <t>1.395</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.697</t>
+          <t>1.496</t>
         </is>
       </c>
     </row>
@@ -2909,17 +2909,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.7291</t>
+          <t>1.8425</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.669</t>
+          <t>1.779</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.791</t>
+          <t>1.908</t>
         </is>
       </c>
     </row>
@@ -2932,17 +2932,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.7760</t>
+          <t>1.7557</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.696</t>
+          <t>1.676</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.860</t>
+          <t>1.839</t>
         </is>
       </c>
     </row>
@@ -2955,17 +2955,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.4229</t>
+          <t>1.5044</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>1.392</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.538</t>
+          <t>1.626</t>
         </is>
       </c>
     </row>
@@ -2978,17 +2978,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.4940</t>
+          <t>1.4376</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.320</t>
+          <t>1.270</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.691</t>
+          <t>1.627</t>
         </is>
       </c>
     </row>
@@ -3001,17 +3001,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.0562</t>
+          <t>1.0735</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.859</t>
+          <t>0.875</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.299</t>
+          <t>1.318</t>
         </is>
       </c>
     </row>
@@ -3024,17 +3024,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.2848</t>
+          <t>0.9452</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.884</t>
+          <t>0.654</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.868</t>
+          <t>1.366</t>
         </is>
       </c>
     </row>
@@ -3047,17 +3047,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.0949</t>
+          <t>0.8850</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.627</t>
+          <t>0.518</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.912</t>
+          <t>1.513</t>
         </is>
       </c>
     </row>
@@ -3088,17 +3088,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.5917</t>
+          <t>1.5977</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.559</t>
+          <t>1.565</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.625</t>
+          <t>1.631</t>
         </is>
       </c>
     </row>
@@ -3111,17 +3111,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.4695</t>
+          <t>1.7415</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.369</t>
+          <t>1.623</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.577</t>
+          <t>1.869</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3134,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.5195</t>
+          <t>1.5448</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.464</t>
+          <t>1.489</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.577</t>
+          <t>1.603</t>
         </is>
       </c>
     </row>
@@ -3157,17 +3157,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.7873</t>
+          <t>1.6813</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.726</t>
+          <t>1.624</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.851</t>
+          <t>1.741</t>
         </is>
       </c>
     </row>
@@ -3180,17 +3180,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.5324</t>
+          <t>1.6193</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.458</t>
+          <t>1.541</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.610</t>
+          <t>1.701</t>
         </is>
       </c>
     </row>
@@ -3203,17 +3203,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.3517</t>
+          <t>1.6588</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>1.526</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.470</t>
+          <t>1.804</t>
         </is>
       </c>
     </row>
@@ -3226,17 +3226,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.4165</t>
+          <t>1.2186</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.239</t>
+          <t>1.066</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.619</t>
+          <t>1.393</t>
         </is>
       </c>
     </row>
@@ -3249,17 +3249,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.0595</t>
+          <t>0.9792</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.837</t>
+          <t>0.776</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.340</t>
+          <t>1.236</t>
         </is>
       </c>
     </row>
@@ -3272,17 +3272,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.0824</t>
+          <t>0.2566</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.717</t>
+          <t>0.170</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.635</t>
+          <t>0.388</t>
         </is>
       </c>
     </row>
@@ -3295,17 +3295,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.7693</t>
+          <t>0.2098</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.424</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.397</t>
+          <t>0.376</t>
         </is>
       </c>
     </row>
@@ -3393,17 +3393,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.2823</t>
+          <t>1.1551</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.244</t>
+          <t>1.121</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.322</t>
+          <t>1.190</t>
         </is>
       </c>
     </row>
@@ -3416,17 +3416,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.4970</t>
+          <t>1.8015</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.368</t>
+          <t>1.646</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.638</t>
+          <t>1.971</t>
         </is>
       </c>
     </row>
@@ -3439,17 +3439,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.2118</t>
+          <t>0.8489</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.154</t>
+          <t>0.809</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.272</t>
+          <t>0.891</t>
         </is>
       </c>
     </row>
@@ -3462,17 +3462,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2202</t>
+          <t>1.2149</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.161</t>
+          <t>1.156</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.283</t>
+          <t>1.277</t>
         </is>
       </c>
     </row>
@@ -3485,17 +3485,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.4155</t>
+          <t>1.2039</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.322</t>
+          <t>1.125</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.515</t>
+          <t>1.288</t>
         </is>
       </c>
     </row>
@@ -3508,17 +3508,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.5274</t>
+          <t>1.5648</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.312</t>
+          <t>1.344</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.778</t>
+          <t>1.821</t>
         </is>
       </c>
     </row>
@@ -3531,17 +3531,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.8479</t>
+          <t>2.3385</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.342</t>
+          <t>1.696</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.544</t>
+          <t>3.225</t>
         </is>
       </c>
     </row>
@@ -3554,17 +3554,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.6339</t>
+          <t>1.4439</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.446</t>
+          <t>1.012</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>2.060</t>
         </is>
       </c>
     </row>
@@ -3577,17 +3577,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.5545</t>
+          <t>0.7234</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.324</t>
+          <t>0.423</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.950</t>
+          <t>1.238</t>
         </is>
       </c>
     </row>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.9484</t>
+          <t>9.5750</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>39.484</t>
+          <t>95.750</t>
         </is>
       </c>
     </row>
@@ -3641,17 +3641,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.4465</t>
+          <t>1.1034</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.369</t>
+          <t>1.044</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.528</t>
+          <t>1.166</t>
         </is>
       </c>
     </row>
@@ -3664,17 +3664,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.1299</t>
+          <t>2.6423</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.878</t>
+          <t>2.064</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.455</t>
+          <t>3.382</t>
         </is>
       </c>
     </row>
@@ -3687,17 +3687,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.3817</t>
+          <t>0.8357</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.241</t>
+          <t>0.750</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.538</t>
+          <t>0.931</t>
         </is>
       </c>
     </row>
@@ -3710,17 +3710,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.5873</t>
+          <t>1.4639</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.448</t>
+          <t>1.335</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.740</t>
+          <t>1.605</t>
         </is>
       </c>
     </row>
@@ -3733,17 +3733,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.4909</t>
+          <t>1.0665</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.332</t>
+          <t>0.953</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.669</t>
+          <t>1.194</t>
         </is>
       </c>
     </row>
@@ -3756,17 +3756,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.3669</t>
+          <t>0.6444</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.120</t>
+          <t>0.527</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.668</t>
+          <t>0.788</t>
         </is>
       </c>
     </row>
@@ -3779,17 +3779,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2.3933</t>
+          <t>0.9549</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.687</t>
+          <t>0.670</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.395</t>
+          <t>1.360</t>
         </is>
       </c>
     </row>
@@ -3802,17 +3802,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.4435</t>
+          <t>0.4320</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.272</t>
+          <t>0.263</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.724</t>
+          <t>0.709</t>
         </is>
       </c>
     </row>
@@ -3825,17 +3825,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.9133</t>
+          <t>0.2292</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.480</t>
+          <t>0.119</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.738</t>
+          <t>0.441</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.8273</t>
+          <t>4.1025</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>38.273</t>
+          <t>41.025</t>
         </is>
       </c>
     </row>
@@ -3889,17 +3889,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.3020</t>
+          <t>1.1947</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>1.158</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.344</t>
+          <t>1.233</t>
         </is>
       </c>
     </row>
@@ -3912,17 +3912,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.0790</t>
+          <t>1.2090</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.964</t>
+          <t>1.080</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.208</t>
+          <t>1.354</t>
         </is>
       </c>
     </row>
@@ -3935,17 +3935,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.2837</t>
+          <t>1.0871</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>1.033</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.352</t>
+          <t>1.144</t>
         </is>
       </c>
     </row>
@@ -3958,17 +3958,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.3089</t>
+          <t>1.1065</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>1.051</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.378</t>
+          <t>1.165</t>
         </is>
       </c>
     </row>
@@ -3981,17 +3981,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.3016</t>
+          <t>1.2195</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>1.136</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.398</t>
+          <t>1.309</t>
         </is>
       </c>
     </row>
@@ -4004,17 +4004,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.5054</t>
+          <t>1.9446</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.288</t>
+          <t>1.664</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.760</t>
+          <t>2.272</t>
         </is>
       </c>
     </row>
@@ -4027,17 +4027,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2.1529</t>
+          <t>2.6442</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.559</t>
+          <t>1.911</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.973</t>
+          <t>3.658</t>
         </is>
       </c>
     </row>
@@ -4050,17 +4050,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.7758</t>
+          <t>1.7315</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.539</t>
+          <t>1.200</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>2.498</t>
         </is>
       </c>
     </row>
@@ -4073,17 +4073,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.9312</t>
+          <t>0.3904</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.541</t>
+          <t>0.226</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.604</t>
+          <t>0.674</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5.0326</t>
+          <t>4.1678</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>50.326</t>
+          <t>41.678</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4137,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.2474</t>
+          <t>1.0765</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>1.049</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>1.105</t>
         </is>
       </c>
     </row>
@@ -4160,17 +4160,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.3400</t>
+          <t>1.7862</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.239</t>
+          <t>1.651</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.449</t>
+          <t>1.932</t>
         </is>
       </c>
     </row>
@@ -4183,17 +4183,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.1606</t>
+          <t>0.8624</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>0.830</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>0.896</t>
         </is>
       </c>
     </row>
@@ -4206,17 +4206,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.2272</t>
+          <t>1.0631</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.179</t>
+          <t>1.021</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.277</t>
+          <t>1.107</t>
         </is>
       </c>
     </row>
@@ -4229,17 +4229,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.3146</t>
+          <t>1.0367</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.237</t>
+          <t>0.976</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.397</t>
+          <t>1.102</t>
         </is>
       </c>
     </row>
@@ -4252,17 +4252,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.4505</t>
+          <t>1.4325</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.250</t>
+          <t>1.234</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.684</t>
+          <t>1.663</t>
         </is>
       </c>
     </row>
@@ -4275,17 +4275,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.8937</t>
+          <t>2.4178</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.375</t>
+          <t>1.752</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.608</t>
+          <t>3.336</t>
         </is>
       </c>
     </row>
@@ -4298,17 +4298,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.8047</t>
+          <t>1.8669</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.560</t>
+          <t>1.296</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.156</t>
+          <t>2.689</t>
         </is>
       </c>
     </row>
@@ -4321,17 +4321,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.8414</t>
+          <t>0.6681</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.485</t>
+          <t>0.384</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.461</t>
+          <t>1.161</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.9744</t>
+          <t>7.1111</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>49.744</t>
+          <t>71.111</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -494,17 +494,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.3509</t>
+          <t>1.3906</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.314</t>
+          <t>1.352</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.389</t>
+          <t>1.430</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.1593</t>
+          <t>0.9549</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.070</t>
+          <t>0.881</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.257</t>
+          <t>1.035</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0564</t>
+          <t>1.1517</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.016</t>
+          <t>1.108</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.099</t>
+          <t>1.198</t>
         </is>
       </c>
     </row>
@@ -563,17 +563,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.5362</t>
+          <t>1.6773</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.482</t>
+          <t>1.618</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.592</t>
+          <t>1.739</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.5418</t>
+          <t>1.5238</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.416</t>
+          <t>1.399</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.679</t>
+          <t>1.659</t>
         </is>
       </c>
     </row>
@@ -609,17 +609,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.9595</t>
+          <t>1.5894</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.633</t>
+          <t>1.326</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.351</t>
+          <t>1.906</t>
         </is>
       </c>
     </row>
@@ -632,17 +632,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.8338</t>
+          <t>1.5195</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.623</t>
+          <t>1.130</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.115</t>
+          <t>2.043</t>
         </is>
       </c>
     </row>
@@ -655,17 +655,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.8202</t>
+          <t>1.6303</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.035</t>
+          <t>0.872</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.171</t>
+          <t>3.048</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.6522</t>
+          <t>1.7281</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.522</t>
+          <t>17.281</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15.6989</t>
+          <t>7.9660</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>156.989</t>
+          <t>79.660</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.3126</t>
+          <t>1.5633</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.271</t>
+          <t>1.513</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.356</t>
+          <t>1.615</t>
         </is>
       </c>
     </row>
@@ -765,17 +765,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8255</t>
+          <t>1.2579</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>1.182</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.878</t>
+          <t>1.339</t>
         </is>
       </c>
     </row>
@@ -788,17 +788,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.6200</t>
+          <t>1.8112</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.562</t>
+          <t>1.746</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.680</t>
+          <t>1.879</t>
         </is>
       </c>
     </row>
@@ -811,17 +811,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.5608</t>
+          <t>1.6564</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.476</t>
+          <t>1.567</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.650</t>
+          <t>1.751</t>
         </is>
       </c>
     </row>
@@ -834,17 +834,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.7137</t>
+          <t>1.3345</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.644</t>
+          <t>1.202</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.791</t>
+          <t>1.481</t>
         </is>
       </c>
     </row>
@@ -857,17 +857,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2.0646</t>
+          <t>1.4626</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.691</t>
+          <t>1.199</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.521</t>
+          <t>1.784</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.8872</t>
+          <t>1.3414</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.348</t>
+          <t>0.960</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.642</t>
+          <t>1.875</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.5912</t>
+          <t>0.6520</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>0.436</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.386</t>
+          <t>0.974</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.3335</t>
+          <t>2.0453</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.139</t>
+          <t>0.843</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.799</t>
+          <t>4.959</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6.2421</t>
+          <t>3.1674</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>62.421</t>
+          <t>31.674</t>
         </is>
       </c>
     </row>
@@ -990,17 +990,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9772</t>
+          <t>1.1229</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.938</t>
+          <t>1.078</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.018</t>
+          <t>1.170</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.7121</t>
+          <t>1.3173</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.652</t>
+          <t>1.206</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.778</t>
+          <t>1.439</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.5334</t>
+          <t>1.5726</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.465</t>
+          <t>1.502</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.606</t>
+          <t>1.647</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0160</t>
+          <t>0.9876</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.954</t>
+          <t>0.928</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.082</t>
+          <t>1.051</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.4629</t>
+          <t>0.8758</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.406</t>
+          <t>0.767</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.528</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.0537</t>
+          <t>0.9202</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.807</t>
+          <t>0.705</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.376</t>
+          <t>1.200</t>
         </is>
       </c>
     </row>
@@ -1128,17 +1128,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2.2634</t>
+          <t>0.8828</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.457</t>
+          <t>0.567</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.516</t>
+          <t>1.374</t>
         </is>
       </c>
     </row>
@@ -1151,17 +1151,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.4165</t>
+          <t>0.4000</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.199</t>
+          <t>0.192</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.873</t>
+          <t>0.833</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.4971</t>
+          <t>1.0896</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.971</t>
+          <t>10.896</t>
         </is>
       </c>
     </row>
@@ -1295,17 +1295,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0220</t>
+          <t>1.0948</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.994</t>
+          <t>1.065</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.051</t>
+          <t>1.126</t>
         </is>
       </c>
     </row>
@@ -1318,17 +1318,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.6093</t>
+          <t>0.9336</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.453</t>
+          <t>0.844</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.782</t>
+          <t>1.033</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.7304</t>
+          <t>1.0134</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.691</t>
+          <t>0.959</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.772</t>
+          <t>1.071</t>
         </is>
       </c>
     </row>
@@ -1364,17 +1364,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2363</t>
+          <t>1.1255</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.074</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.296</t>
+          <t>1.179</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.1702</t>
+          <t>1.2537</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.187</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.324</t>
         </is>
       </c>
     </row>
@@ -1410,17 +1410,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.7018</t>
+          <t>1.2049</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.647</t>
+          <t>1.110</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.762</t>
+          <t>1.308</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1433,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9530</t>
+          <t>1.1353</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.845</t>
+          <t>1.007</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.074</t>
+          <t>1.280</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.5019</t>
+          <t>0.8069</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.403</t>
+          <t>0.645</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.625</t>
+          <t>1.009</t>
         </is>
       </c>
     </row>
@@ -1479,17 +1479,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.2168</t>
+          <t>3.9998</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.499</t>
+          <t>1.642</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.966</t>
+          <t>9.745</t>
         </is>
       </c>
     </row>
@@ -1502,17 +1502,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6.6490</t>
+          <t>0.9435</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.673</t>
+          <t>0.383</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>16.540</t>
+          <t>2.327</t>
         </is>
       </c>
     </row>
@@ -1543,17 +1543,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.1487</t>
+          <t>1.2577</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.124</t>
+          <t>1.231</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.174</t>
+          <t>1.285</t>
         </is>
       </c>
     </row>
@@ -1566,17 +1566,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.1116</t>
+          <t>1.0684</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.046</t>
+          <t>1.005</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.181</t>
+          <t>1.135</t>
         </is>
       </c>
     </row>
@@ -1589,17 +1589,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8410</t>
+          <t>1.1528</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.811</t>
+          <t>1.112</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.872</t>
+          <t>1.195</t>
         </is>
       </c>
     </row>
@@ -1612,17 +1612,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.2780</t>
+          <t>1.3206</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.232</t>
+          <t>1.273</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.326</t>
+          <t>1.370</t>
         </is>
       </c>
     </row>
@@ -1635,17 +1635,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.5048</t>
+          <t>1.4842</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.425</t>
+          <t>1.405</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.590</t>
+          <t>1.568</t>
         </is>
       </c>
     </row>
@@ -1658,17 +1658,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.5611</t>
+          <t>1.2668</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.406</t>
+          <t>1.142</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.733</t>
+          <t>1.405</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1042</t>
+          <t>1.3137</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>1.111</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.306</t>
+          <t>1.554</t>
         </is>
       </c>
     </row>
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2.1261</t>
+          <t>1.1608</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.561</t>
+          <t>0.853</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.896</t>
+          <t>1.580</t>
         </is>
       </c>
     </row>
@@ -1727,17 +1727,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.4298</t>
+          <t>1.0700</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.271</t>
+          <t>0.672</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.682</t>
+          <t>1.704</t>
         </is>
       </c>
     </row>
@@ -1750,17 +1750,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2.0936</t>
+          <t>1.0200</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.850</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.159</t>
+          <t>2.516</t>
         </is>
       </c>
     </row>
@@ -1791,17 +1791,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1240</t>
+          <t>1.1487</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>1.116</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.157</t>
+          <t>1.182</t>
         </is>
       </c>
     </row>
@@ -1814,17 +1814,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.6907</t>
+          <t>1.1443</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.626</t>
+          <t>1.037</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.763</t>
+          <t>1.262</t>
         </is>
       </c>
     </row>
@@ -1837,17 +1837,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.1515</t>
+          <t>1.1375</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>1.079</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>1.199</t>
         </is>
       </c>
     </row>
@@ -1860,17 +1860,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0337</t>
+          <t>1.1733</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.986</t>
+          <t>1.120</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>1.229</t>
         </is>
       </c>
     </row>
@@ -1883,17 +1883,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.2860</t>
+          <t>1.1838</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>1.110</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.372</t>
+          <t>1.263</t>
         </is>
       </c>
     </row>
@@ -1906,17 +1906,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2.2246</t>
+          <t>1.0514</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.977</t>
+          <t>0.934</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.504</t>
+          <t>1.183</t>
         </is>
       </c>
     </row>
@@ -1929,17 +1929,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1587</t>
+          <t>1.1572</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.959</t>
+          <t>0.958</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.400</t>
+          <t>1.398</t>
         </is>
       </c>
     </row>
@@ -1952,17 +1952,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.2360</t>
+          <t>1.4386</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.973</t>
+          <t>1.009</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6.035</t>
+          <t>2.052</t>
         </is>
       </c>
     </row>
@@ -1975,17 +1975,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.3532</t>
+          <t>0.2675</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.133</t>
+          <t>0.100</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.940</t>
+          <t>0.713</t>
         </is>
       </c>
     </row>
@@ -1998,17 +1998,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.3149</t>
+          <t>1.0810</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.090</t>
+          <t>0.312</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.097</t>
+          <t>3.739</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.1220</t>
+          <t>1.0464</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.074</t>
+          <t>1.001</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.172</t>
+          <t>1.094</t>
         </is>
       </c>
     </row>
@@ -2119,17 +2119,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8176</t>
+          <t>1.2860</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.674</t>
+          <t>1.055</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>1.568</t>
         </is>
       </c>
     </row>
@@ -2142,17 +2142,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.2319</t>
+          <t>1.1245</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.129</t>
+          <t>1.031</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.344</t>
+          <t>1.226</t>
         </is>
       </c>
     </row>
@@ -2165,17 +2165,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8681</t>
+          <t>0.9128</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.807</t>
+          <t>0.848</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>0.982</t>
         </is>
       </c>
     </row>
@@ -2188,17 +2188,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.4653</t>
+          <t>1.1957</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.331</t>
+          <t>1.087</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.613</t>
+          <t>1.315</t>
         </is>
       </c>
     </row>
@@ -2211,17 +2211,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.7452</t>
+          <t>0.9700</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.529</t>
+          <t>0.852</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.992</t>
+          <t>1.104</t>
         </is>
       </c>
     </row>
@@ -2234,17 +2234,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.9465</t>
+          <t>0.8771</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.635</t>
+          <t>0.739</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.318</t>
+          <t>1.041</t>
         </is>
       </c>
     </row>
@@ -2257,17 +2257,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.0873</t>
+          <t>0.9461</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.557</t>
+          <t>0.710</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.798</t>
+          <t>1.261</t>
         </is>
       </c>
     </row>
@@ -2280,17 +2280,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.3405</t>
+          <t>0.9657</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.869</t>
+          <t>0.628</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.068</t>
+          <t>1.484</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.1262</t>
+          <t>1.7519</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.270</t>
+          <t>0.706</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.696</t>
+          <t>4.345</t>
         </is>
       </c>
     </row>
@@ -2344,17 +2344,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0198</t>
+          <t>1.0382</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.997</t>
+          <t>1.015</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.043</t>
+          <t>1.062</t>
         </is>
       </c>
     </row>
@@ -2367,17 +2367,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8228</t>
+          <t>0.9535</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.763</t>
+          <t>0.884</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.887</t>
+          <t>1.029</t>
         </is>
       </c>
     </row>
@@ -2390,17 +2390,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.9352</t>
+          <t>1.0785</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.897</t>
+          <t>1.034</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>1.124</t>
         </is>
       </c>
     </row>
@@ -2413,17 +2413,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0959</t>
+          <t>0.9674</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.054</t>
+          <t>0.930</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.140</t>
+          <t>1.006</t>
         </is>
       </c>
     </row>
@@ -2436,17 +2436,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.0842</t>
+          <t>1.1590</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.101</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.141</t>
+          <t>1.220</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2459,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.9069</t>
+          <t>1.0527</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.838</t>
+          <t>0.972</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.982</t>
+          <t>1.140</t>
         </is>
       </c>
     </row>
@@ -2482,17 +2482,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1798</t>
+          <t>1.0548</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.055</t>
+          <t>0.944</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.319</t>
+          <t>1.179</t>
         </is>
       </c>
     </row>
@@ -2505,17 +2505,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.0963</t>
+          <t>0.9969</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.908</t>
+          <t>0.825</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.323</t>
+          <t>1.205</t>
         </is>
       </c>
     </row>
@@ -2528,17 +2528,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3.6832</t>
+          <t>1.1870</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.715</t>
+          <t>0.881</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.997</t>
+          <t>1.600</t>
         </is>
       </c>
     </row>
@@ -2551,17 +2551,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.2188</t>
+          <t>1.4233</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.879</t>
+          <t>0.968</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6.182</t>
+          <t>2.093</t>
         </is>
       </c>
     </row>
@@ -2592,17 +2592,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9089</t>
+          <t>0.9921</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.870</t>
+          <t>0.949</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.950</t>
+          <t>1.037</t>
         </is>
       </c>
     </row>
@@ -2615,17 +2615,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.0064</t>
+          <t>0.7415</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.828</t>
+          <t>0.606</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>0.907</t>
         </is>
       </c>
     </row>
@@ -2638,17 +2638,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.7592</t>
+          <t>0.9591</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.695</t>
+          <t>0.879</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.829</t>
+          <t>1.046</t>
         </is>
       </c>
     </row>
@@ -2661,17 +2661,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.2623</t>
+          <t>1.0599</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.174</t>
+          <t>0.985</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.358</t>
+          <t>1.140</t>
         </is>
       </c>
     </row>
@@ -2684,17 +2684,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.7399</t>
+          <t>0.9693</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.671</t>
+          <t>0.880</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.816</t>
+          <t>1.068</t>
         </is>
       </c>
     </row>
@@ -2707,17 +2707,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.5197</t>
+          <t>1.0853</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.454</t>
+          <t>0.950</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.595</t>
+          <t>1.240</t>
         </is>
       </c>
     </row>
@@ -2730,17 +2730,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.6061</t>
+          <t>1.2025</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.505</t>
+          <t>1.006</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.727</t>
+          <t>1.437</t>
         </is>
       </c>
     </row>
@@ -2753,17 +2753,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.5252</t>
+          <t>1.0537</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.384</t>
+          <t>0.774</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.719</t>
+          <t>1.434</t>
         </is>
       </c>
     </row>
@@ -2776,17 +2776,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2.7476</t>
+          <t>1.2292</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.714</t>
+          <t>0.773</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.404</t>
+          <t>1.954</t>
         </is>
       </c>
     </row>
@@ -2799,17 +2799,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.3495</t>
+          <t>0.8124</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.532</t>
+          <t>0.320</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.420</t>
+          <t>2.065</t>
         </is>
       </c>
     </row>
@@ -2840,17 +2840,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.6293</t>
+          <t>1.6525</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.597</t>
+          <t>1.620</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.662</t>
+          <t>1.686</t>
         </is>
       </c>
     </row>
@@ -2863,17 +2863,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.4330</t>
+          <t>1.4012</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.347</t>
+          <t>1.317</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.524</t>
+          <t>1.490</t>
         </is>
       </c>
     </row>
@@ -2886,17 +2886,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.4447</t>
+          <t>1.6389</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.395</t>
+          <t>1.582</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.496</t>
+          <t>1.697</t>
         </is>
       </c>
     </row>
@@ -2909,17 +2909,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.8425</t>
+          <t>1.7291</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.779</t>
+          <t>1.669</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.908</t>
+          <t>1.791</t>
         </is>
       </c>
     </row>
@@ -2932,17 +2932,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.7557</t>
+          <t>1.7760</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.676</t>
+          <t>1.696</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.839</t>
+          <t>1.860</t>
         </is>
       </c>
     </row>
@@ -2955,17 +2955,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.5044</t>
+          <t>1.4229</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.392</t>
+          <t>1.316</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.626</t>
+          <t>1.538</t>
         </is>
       </c>
     </row>
@@ -2978,17 +2978,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.4376</t>
+          <t>1.4940</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.270</t>
+          <t>1.320</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.627</t>
+          <t>1.691</t>
         </is>
       </c>
     </row>
@@ -3001,17 +3001,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.0735</t>
+          <t>1.0562</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.875</t>
+          <t>0.859</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.318</t>
+          <t>1.299</t>
         </is>
       </c>
     </row>
@@ -3024,17 +3024,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.9452</t>
+          <t>1.2848</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.654</t>
+          <t>0.884</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.366</t>
+          <t>1.868</t>
         </is>
       </c>
     </row>
@@ -3047,17 +3047,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.8850</t>
+          <t>1.0949</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.518</t>
+          <t>0.627</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.513</t>
+          <t>1.912</t>
         </is>
       </c>
     </row>
@@ -3088,17 +3088,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.5977</t>
+          <t>1.5917</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.565</t>
+          <t>1.559</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.631</t>
+          <t>1.625</t>
         </is>
       </c>
     </row>
@@ -3111,17 +3111,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.7415</t>
+          <t>1.4695</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.623</t>
+          <t>1.369</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.869</t>
+          <t>1.577</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3134,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.5448</t>
+          <t>1.5195</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.489</t>
+          <t>1.464</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.603</t>
+          <t>1.577</t>
         </is>
       </c>
     </row>
@@ -3157,17 +3157,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.6813</t>
+          <t>1.7873</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.624</t>
+          <t>1.726</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.741</t>
+          <t>1.851</t>
         </is>
       </c>
     </row>
@@ -3180,17 +3180,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.6193</t>
+          <t>1.5324</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.541</t>
+          <t>1.458</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.701</t>
+          <t>1.610</t>
         </is>
       </c>
     </row>
@@ -3203,17 +3203,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.6588</t>
+          <t>1.3517</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.526</t>
+          <t>1.243</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.804</t>
+          <t>1.470</t>
         </is>
       </c>
     </row>
@@ -3226,17 +3226,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.2186</t>
+          <t>1.4165</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.066</t>
+          <t>1.239</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.393</t>
+          <t>1.619</t>
         </is>
       </c>
     </row>
@@ -3249,17 +3249,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.9792</t>
+          <t>1.0595</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>0.837</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>1.340</t>
         </is>
       </c>
     </row>
@@ -3272,17 +3272,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.2566</t>
+          <t>1.0824</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.170</t>
+          <t>0.717</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.388</t>
+          <t>1.635</t>
         </is>
       </c>
     </row>
@@ -3295,17 +3295,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.2098</t>
+          <t>0.7693</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.117</t>
+          <t>0.424</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.376</t>
+          <t>1.397</t>
         </is>
       </c>
     </row>
@@ -3393,17 +3393,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.1551</t>
+          <t>1.2823</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.121</t>
+          <t>1.244</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.190</t>
+          <t>1.322</t>
         </is>
       </c>
     </row>
@@ -3416,17 +3416,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.8015</t>
+          <t>1.4970</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.646</t>
+          <t>1.368</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.971</t>
+          <t>1.638</t>
         </is>
       </c>
     </row>
@@ -3439,17 +3439,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8489</t>
+          <t>1.2118</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.809</t>
+          <t>1.154</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.891</t>
+          <t>1.272</t>
         </is>
       </c>
     </row>
@@ -3462,17 +3462,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2149</t>
+          <t>1.2202</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.156</t>
+          <t>1.161</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.277</t>
+          <t>1.283</t>
         </is>
       </c>
     </row>
@@ -3485,17 +3485,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2039</t>
+          <t>1.4155</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.125</t>
+          <t>1.322</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.288</t>
+          <t>1.515</t>
         </is>
       </c>
     </row>
@@ -3508,17 +3508,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.5648</t>
+          <t>1.5274</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.344</t>
+          <t>1.312</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.821</t>
+          <t>1.778</t>
         </is>
       </c>
     </row>
@@ -3531,17 +3531,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.3385</t>
+          <t>1.8479</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.696</t>
+          <t>1.342</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.225</t>
+          <t>2.544</t>
         </is>
       </c>
     </row>
@@ -3554,17 +3554,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.4439</t>
+          <t>0.6339</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.012</t>
+          <t>0.446</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.060</t>
+          <t>0.901</t>
         </is>
       </c>
     </row>
@@ -3577,17 +3577,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.7234</t>
+          <t>0.5545</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.423</t>
+          <t>0.324</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>0.950</t>
         </is>
       </c>
     </row>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9.5750</t>
+          <t>3.9484</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>95.750</t>
+          <t>39.484</t>
         </is>
       </c>
     </row>
@@ -3641,17 +3641,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.1034</t>
+          <t>1.4465</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.044</t>
+          <t>1.369</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.166</t>
+          <t>1.528</t>
         </is>
       </c>
     </row>
@@ -3664,17 +3664,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.6423</t>
+          <t>1.1299</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.064</t>
+          <t>0.878</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.382</t>
+          <t>1.455</t>
         </is>
       </c>
     </row>
@@ -3687,17 +3687,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8357</t>
+          <t>1.3817</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.750</t>
+          <t>1.241</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.931</t>
+          <t>1.538</t>
         </is>
       </c>
     </row>
@@ -3710,17 +3710,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.4639</t>
+          <t>1.5873</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.335</t>
+          <t>1.448</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.605</t>
+          <t>1.740</t>
         </is>
       </c>
     </row>
@@ -3733,17 +3733,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.0665</t>
+          <t>1.4909</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.953</t>
+          <t>1.332</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.194</t>
+          <t>1.669</t>
         </is>
       </c>
     </row>
@@ -3756,17 +3756,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.6444</t>
+          <t>1.3669</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.527</t>
+          <t>1.120</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.788</t>
+          <t>1.668</t>
         </is>
       </c>
     </row>
@@ -3779,17 +3779,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.9549</t>
+          <t>2.3933</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.670</t>
+          <t>1.687</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.360</t>
+          <t>3.395</t>
         </is>
       </c>
     </row>
@@ -3802,17 +3802,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.4320</t>
+          <t>0.4435</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.263</t>
+          <t>0.272</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.709</t>
+          <t>0.724</t>
         </is>
       </c>
     </row>
@@ -3825,17 +3825,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.2292</t>
+          <t>0.9133</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.119</t>
+          <t>0.480</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.441</t>
+          <t>1.738</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.1025</t>
+          <t>3.8273</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>41.025</t>
+          <t>38.273</t>
         </is>
       </c>
     </row>
@@ -3889,17 +3889,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1947</t>
+          <t>1.3020</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.158</t>
+          <t>1.262</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.233</t>
+          <t>1.344</t>
         </is>
       </c>
     </row>
@@ -3912,17 +3912,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.2090</t>
+          <t>1.0790</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>0.964</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.354</t>
+          <t>1.208</t>
         </is>
       </c>
     </row>
@@ -3935,17 +3935,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.0871</t>
+          <t>1.2837</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.033</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.144</t>
+          <t>1.352</t>
         </is>
       </c>
     </row>
@@ -3958,17 +3958,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.1065</t>
+          <t>1.3089</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.051</t>
+          <t>1.243</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.165</t>
+          <t>1.378</t>
         </is>
       </c>
     </row>
@@ -3981,17 +3981,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.2195</t>
+          <t>1.3016</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.136</t>
+          <t>1.212</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.309</t>
+          <t>1.398</t>
         </is>
       </c>
     </row>
@@ -4004,17 +4004,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.9446</t>
+          <t>1.5054</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.664</t>
+          <t>1.288</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.272</t>
+          <t>1.760</t>
         </is>
       </c>
     </row>
@@ -4027,17 +4027,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2.6442</t>
+          <t>2.1529</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.911</t>
+          <t>1.559</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.658</t>
+          <t>2.973</t>
         </is>
       </c>
     </row>
@@ -4050,17 +4050,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.7315</t>
+          <t>0.7758</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.200</t>
+          <t>0.539</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.498</t>
+          <t>1.116</t>
         </is>
       </c>
     </row>
@@ -4073,17 +4073,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.3904</t>
+          <t>0.9312</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.226</t>
+          <t>0.541</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.674</t>
+          <t>1.604</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.1678</t>
+          <t>5.0326</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>41.678</t>
+          <t>50.326</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4137,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.0765</t>
+          <t>1.2474</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.049</t>
+          <t>1.215</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.105</t>
+          <t>1.281</t>
         </is>
       </c>
     </row>
@@ -4160,17 +4160,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.7862</t>
+          <t>1.3400</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.651</t>
+          <t>1.239</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.932</t>
+          <t>1.449</t>
         </is>
       </c>
     </row>
@@ -4183,17 +4183,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.8624</t>
+          <t>1.1606</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.830</t>
+          <t>1.117</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.896</t>
+          <t>1.206</t>
         </is>
       </c>
     </row>
@@ -4206,17 +4206,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.0631</t>
+          <t>1.2272</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.021</t>
+          <t>1.179</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.107</t>
+          <t>1.277</t>
         </is>
       </c>
     </row>
@@ -4229,17 +4229,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.0367</t>
+          <t>1.3146</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.976</t>
+          <t>1.237</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.102</t>
+          <t>1.397</t>
         </is>
       </c>
     </row>
@@ -4252,17 +4252,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.4325</t>
+          <t>1.4505</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.234</t>
+          <t>1.250</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.663</t>
+          <t>1.684</t>
         </is>
       </c>
     </row>
@@ -4275,17 +4275,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2.4178</t>
+          <t>1.8937</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.752</t>
+          <t>1.375</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3.336</t>
+          <t>2.608</t>
         </is>
       </c>
     </row>
@@ -4298,17 +4298,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.8669</t>
+          <t>0.8047</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.296</t>
+          <t>0.560</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.689</t>
+          <t>1.156</t>
         </is>
       </c>
     </row>
@@ -4321,17 +4321,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.6681</t>
+          <t>0.8414</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.384</t>
+          <t>0.485</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.161</t>
+          <t>1.461</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>7.1111</t>
+          <t>4.9744</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>71.111</t>
+          <t>49.744</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -494,17 +494,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.3906</t>
+          <t>1.5012</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.352</t>
+          <t>1.459</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.430</t>
+          <t>1.545</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9549</t>
+          <t>1.1943</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.881</t>
+          <t>1.102</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.035</t>
+          <t>1.294</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1517</t>
+          <t>1.2437</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.196</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>1.293</t>
         </is>
       </c>
     </row>
@@ -563,17 +563,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.6773</t>
+          <t>1.8376</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.618</t>
+          <t>1.773</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.739</t>
+          <t>1.905</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.5238</t>
+          <t>1.5456</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.399</t>
+          <t>1.419</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.659</t>
+          <t>1.683</t>
         </is>
       </c>
     </row>
@@ -632,17 +632,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.5195</t>
+          <t>1.5770</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.130</t>
+          <t>1.173</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.043</t>
+          <t>2.120</t>
         </is>
       </c>
     </row>
@@ -655,17 +655,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.6303</t>
+          <t>1.6376</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.872</t>
+          <t>0.876</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.048</t>
+          <t>3.062</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.9660</t>
+          <t>8.0955</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.660</t>
+          <t>80.955</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.5633</t>
+          <t>1.6843</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.513</t>
+          <t>1.629</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.615</t>
+          <t>1.741</t>
         </is>
       </c>
     </row>
@@ -765,17 +765,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.2579</t>
+          <t>1.5732</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.182</t>
+          <t>1.478</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.339</t>
+          <t>1.675</t>
         </is>
       </c>
     </row>
@@ -788,17 +788,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.8112</t>
+          <t>1.9558</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.746</t>
+          <t>1.886</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.879</t>
+          <t>2.029</t>
         </is>
       </c>
     </row>
@@ -811,17 +811,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.6564</t>
+          <t>1.8148</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.567</t>
+          <t>1.717</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.751</t>
+          <t>1.919</t>
         </is>
       </c>
     </row>
@@ -834,17 +834,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.3345</t>
+          <t>1.3536</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.202</t>
+          <t>1.220</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.481</t>
+          <t>1.502</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.3414</t>
+          <t>1.3922</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.960</t>
+          <t>0.996</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.875</t>
+          <t>1.945</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.6520</t>
+          <t>0.6550</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.436</t>
+          <t>0.438</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.974</t>
+          <t>0.979</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.1674</t>
+          <t>3.2189</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31.674</t>
+          <t>32.189</t>
         </is>
       </c>
     </row>
@@ -990,17 +990,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1229</t>
+          <t>1.1203</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.078</t>
+          <t>1.075</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.170</t>
+          <t>1.168</t>
         </is>
       </c>
     </row>
@@ -1295,17 +1295,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0948</t>
+          <t>1.1956</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.065</t>
+          <t>1.161</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.126</t>
+          <t>1.231</t>
         </is>
       </c>
     </row>
@@ -1318,17 +1318,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9336</t>
+          <t>0.9462</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.844</t>
+          <t>0.855</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.033</t>
+          <t>1.047</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0134</t>
+          <t>1.0840</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.959</t>
+          <t>1.025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.071</t>
+          <t>1.146</t>
         </is>
       </c>
     </row>
@@ -1364,17 +1364,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.1255</t>
+          <t>1.2713</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.074</t>
+          <t>1.213</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.179</t>
+          <t>1.332</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2537</t>
+          <t>1.3714</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.187</t>
+          <t>1.299</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>1.448</t>
         </is>
       </c>
     </row>
@@ -1410,17 +1410,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.2049</t>
+          <t>1.3244</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.220</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.308</t>
+          <t>1.438</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1433,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.1353</t>
+          <t>1.2309</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.007</t>
+          <t>1.092</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.280</t>
+          <t>1.388</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.8069</t>
+          <t>0.8595</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.645</t>
+          <t>0.687</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.009</t>
+          <t>1.075</t>
         </is>
       </c>
     </row>
@@ -1502,17 +1502,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.9435</t>
+          <t>1.0927</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.383</t>
+          <t>0.443</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.327</t>
+          <t>2.696</t>
         </is>
       </c>
     </row>
@@ -1543,17 +1543,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.2577</t>
+          <t>1.3673</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.336</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.285</t>
+          <t>1.399</t>
         </is>
       </c>
     </row>
@@ -1566,17 +1566,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0684</t>
+          <t>1.0828</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.005</t>
+          <t>1.019</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.135</t>
+          <t>1.151</t>
         </is>
       </c>
     </row>
@@ -1589,17 +1589,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.1528</t>
+          <t>1.2331</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.112</t>
+          <t>1.189</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.195</t>
+          <t>1.278</t>
         </is>
       </c>
     </row>
@@ -1612,17 +1612,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.3206</t>
+          <t>1.4916</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.273</t>
+          <t>1.438</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.370</t>
+          <t>1.547</t>
         </is>
       </c>
     </row>
@@ -1635,17 +1635,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.4842</t>
+          <t>1.6234</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.405</t>
+          <t>1.537</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.568</t>
+          <t>1.715</t>
         </is>
       </c>
     </row>
@@ -1658,17 +1658,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.2668</t>
+          <t>1.3924</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.142</t>
+          <t>1.255</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.405</t>
+          <t>1.545</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.3137</t>
+          <t>1.4244</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.111</t>
+          <t>1.204</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.554</t>
+          <t>1.685</t>
         </is>
       </c>
     </row>
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.1608</t>
+          <t>1.2366</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.853</t>
+          <t>0.909</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.580</t>
+          <t>1.683</t>
         </is>
       </c>
     </row>
@@ -1750,17 +1750,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.0200</t>
+          <t>1.1812</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.414</t>
+          <t>0.479</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.516</t>
+          <t>2.914</t>
         </is>
       </c>
     </row>
@@ -1791,17 +1791,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1487</t>
+          <t>1.1436</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>1.108</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.182</t>
+          <t>1.180</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0464</t>
+          <t>1.0673</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.001</t>
+          <t>1.021</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>1.115</t>
         </is>
       </c>
     </row>
@@ -2165,17 +2165,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9128</t>
+          <t>0.9575</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.848</t>
+          <t>0.890</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.982</t>
+          <t>1.030</t>
         </is>
       </c>
     </row>
@@ -2234,17 +2234,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.8771</t>
+          <t>0.9634</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.739</t>
+          <t>0.812</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.041</t>
+          <t>1.143</t>
         </is>
       </c>
     </row>
@@ -2257,17 +2257,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9461</t>
+          <t>1.0706</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.710</t>
+          <t>0.803</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>1.427</t>
         </is>
       </c>
     </row>
@@ -2280,17 +2280,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.9657</t>
+          <t>1.1050</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.628</t>
+          <t>0.719</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.484</t>
+          <t>1.699</t>
         </is>
       </c>
     </row>
@@ -2344,17 +2344,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0382</t>
+          <t>1.0599</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.015</t>
+          <t>1.036</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.062</t>
+          <t>1.084</t>
         </is>
       </c>
     </row>
@@ -2413,17 +2413,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.9674</t>
+          <t>1.0149</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.930</t>
+          <t>0.976</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.006</t>
+          <t>1.056</t>
         </is>
       </c>
     </row>
@@ -2482,17 +2482,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.0548</t>
+          <t>1.1585</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.944</t>
+          <t>1.036</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.179</t>
+          <t>1.295</t>
         </is>
       </c>
     </row>
@@ -2505,17 +2505,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.9969</t>
+          <t>1.1282</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.825</t>
+          <t>0.933</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>1.365</t>
         </is>
       </c>
     </row>
@@ -2528,17 +2528,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.1870</t>
+          <t>1.3582</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.881</t>
+          <t>1.007</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.600</t>
+          <t>1.832</t>
         </is>
       </c>
     </row>
@@ -2592,17 +2592,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9921</t>
+          <t>0.9931</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.949</t>
+          <t>0.950</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.037</t>
+          <t>1.038</t>
         </is>
       </c>
     </row>
@@ -2840,17 +2840,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.6525</t>
+          <t>1.6883</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.620</t>
+          <t>1.655</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.686</t>
+          <t>1.722</t>
         </is>
       </c>
     </row>
@@ -2909,17 +2909,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.7291</t>
+          <t>1.8140</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.669</t>
+          <t>1.751</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.791</t>
+          <t>1.879</t>
         </is>
       </c>
     </row>
@@ -2978,17 +2978,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.4940</t>
+          <t>1.6409</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.320</t>
+          <t>1.449</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.691</t>
+          <t>1.858</t>
         </is>
       </c>
     </row>
@@ -3001,17 +3001,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.0562</t>
+          <t>1.1953</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.859</t>
+          <t>0.971</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.299</t>
+          <t>1.471</t>
         </is>
       </c>
     </row>
@@ -3024,17 +3024,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.2848</t>
+          <t>1.4701</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.884</t>
+          <t>1.011</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.868</t>
+          <t>2.139</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3 vs 2</t>
+          <t>3 vs 1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -3088,17 +3088,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.5917</t>
+          <t>1.5819</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.559</t>
+          <t>1.515</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.625</t>
+          <t>1.652</t>
         </is>
       </c>
     </row>
@@ -3111,17 +3111,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.4695</t>
+          <t>1.0896</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.369</t>
+          <t>0.895</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.577</t>
+          <t>1.326</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3134,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.5195</t>
+          <t>1.4574</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.464</t>
+          <t>1.340</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.577</t>
+          <t>1.585</t>
         </is>
       </c>
     </row>
@@ -3157,17 +3157,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.7873</t>
+          <t>1.8944</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.726</t>
+          <t>1.764</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.851</t>
+          <t>2.034</t>
         </is>
       </c>
     </row>
@@ -3180,17 +3180,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.5324</t>
+          <t>1.4853</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.458</t>
+          <t>1.351</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.610</t>
+          <t>1.633</t>
         </is>
       </c>
     </row>
@@ -3203,17 +3203,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.3517</t>
+          <t>1.4670</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>1.285</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.470</t>
+          <t>1.675</t>
         </is>
       </c>
     </row>
@@ -3226,17 +3226,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.4165</t>
+          <t>1.7033</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.239</t>
+          <t>1.413</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.619</t>
+          <t>2.053</t>
         </is>
       </c>
     </row>
@@ -3249,17 +3249,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.0595</t>
+          <t>1.1164</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.837</t>
+          <t>0.812</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.340</t>
+          <t>1.536</t>
         </is>
       </c>
     </row>
@@ -3272,17 +3272,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.0824</t>
+          <t>1.3305</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.717</t>
+          <t>0.794</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.635</t>
+          <t>2.228</t>
         </is>
       </c>
     </row>
@@ -3295,17 +3295,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.7693</t>
+          <t>0.6250</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.424</t>
+          <t>0.226</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.397</t>
+          <t>1.726</t>
         </is>
       </c>
     </row>
@@ -3315,6 +3315,254 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3 vs 2</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1.5929</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.560</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1.626</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1.4695</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.369</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1.577</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1.5195</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.464</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1.577</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1.7873</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.726</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1.851</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1.5324</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.458</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.610</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1.3517</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.243</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1.470</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1.4165</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.239</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1.619</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1.0595</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.837</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1.340</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1.0824</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.717</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1.635</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0.7693</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.424</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1.397</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3393,17 +3641,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.2823</t>
+          <t>1.3158</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.244</t>
+          <t>1.276</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.322</t>
+          <t>1.357</t>
         </is>
       </c>
     </row>
@@ -3462,17 +3710,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2202</t>
+          <t>1.2986</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.161</t>
+          <t>1.235</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.283</t>
+          <t>1.365</t>
         </is>
       </c>
     </row>
@@ -3485,17 +3733,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.4155</t>
+          <t>1.4239</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.322</t>
+          <t>1.330</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.515</t>
+          <t>1.524</t>
         </is>
       </c>
     </row>
@@ -3531,17 +3779,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.8479</t>
+          <t>2.0696</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.342</t>
+          <t>1.503</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.544</t>
+          <t>2.849</t>
         </is>
       </c>
     </row>
@@ -3554,17 +3802,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.6339</t>
+          <t>0.7346</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.446</t>
+          <t>0.516</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>1.045</t>
         </is>
       </c>
     </row>
@@ -3577,17 +3825,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.5545</t>
+          <t>0.6613</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.324</t>
+          <t>0.386</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.950</t>
+          <t>1.133</t>
         </is>
       </c>
     </row>
@@ -3600,7 +3848,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.9484</t>
+          <t>4.2108</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3610,7 +3858,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>39.484</t>
+          <t>42.108</t>
         </is>
       </c>
     </row>
@@ -3641,17 +3889,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.4465</t>
+          <t>1.4395</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.369</t>
+          <t>1.362</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.528</t>
+          <t>1.521</t>
         </is>
       </c>
     </row>
@@ -3889,17 +4137,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.3020</t>
+          <t>1.2990</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>1.258</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.344</t>
+          <t>1.341</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4385,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.2474</t>
+          <t>1.2451</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>1.212</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>1.279</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -494,17 +494,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.5012</t>
+          <t>1.4167</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.459</t>
+          <t>1.377</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.545</t>
+          <t>1.458</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.1943</t>
+          <t>0.9581</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.102</t>
+          <t>0.884</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.294</t>
+          <t>1.038</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.2437</t>
+          <t>1.1192</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.196</t>
+          <t>1.076</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.293</t>
+          <t>1.164</t>
         </is>
       </c>
     </row>
@@ -563,17 +563,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.8376</t>
+          <t>1.6699</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.773</t>
+          <t>1.611</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.905</t>
+          <t>1.731</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.5456</t>
+          <t>1.6071</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.419</t>
+          <t>1.476</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.683</t>
+          <t>1.750</t>
         </is>
       </c>
     </row>
@@ -609,17 +609,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.5894</t>
+          <t>1.9472</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.326</t>
+          <t>1.625</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.906</t>
+          <t>2.334</t>
         </is>
       </c>
     </row>
@@ -632,17 +632,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.5770</t>
+          <t>1.7622</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.173</t>
+          <t>1.311</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.120</t>
+          <t>2.368</t>
         </is>
       </c>
     </row>
@@ -655,17 +655,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.6376</t>
+          <t>2.1262</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.876</t>
+          <t>1.141</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.062</t>
+          <t>3.964</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.7281</t>
+          <t>1.3165</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17.281</t>
+          <t>13.165</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8.0955</t>
+          <t>7.9791</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.955</t>
+          <t>79.791</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.6843</t>
+          <t>1.5611</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.629</t>
+          <t>1.510</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.741</t>
+          <t>1.614</t>
         </is>
       </c>
     </row>
@@ -765,17 +765,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.5732</t>
+          <t>1.2666</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.478</t>
+          <t>1.190</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.675</t>
+          <t>1.348</t>
         </is>
       </c>
     </row>
@@ -788,17 +788,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.9558</t>
+          <t>1.7540</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.886</t>
+          <t>1.691</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.029</t>
+          <t>1.819</t>
         </is>
       </c>
     </row>
@@ -811,17 +811,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.8148</t>
+          <t>1.6937</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.717</t>
+          <t>1.602</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.919</t>
+          <t>1.791</t>
         </is>
       </c>
     </row>
@@ -834,17 +834,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.3536</t>
+          <t>1.2352</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>1.113</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.502</t>
+          <t>1.371</t>
         </is>
       </c>
     </row>
@@ -857,17 +857,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.4626</t>
+          <t>1.8737</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>1.537</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.784</t>
+          <t>2.283</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.3922</t>
+          <t>1.6215</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>1.162</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.945</t>
+          <t>2.264</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.6550</t>
+          <t>0.5699</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.438</t>
+          <t>0.381</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.979</t>
+          <t>0.853</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2.0453</t>
+          <t>1.9358</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.843</t>
+          <t>0.798</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.959</t>
+          <t>4.694</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.2189</t>
+          <t>3.1726</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32.189</t>
+          <t>31.726</t>
         </is>
       </c>
     </row>
@@ -990,17 +990,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1203</t>
+          <t>1.1001</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.075</t>
+          <t>1.055</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.168</t>
+          <t>1.147</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.3173</t>
+          <t>1.3220</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>1.210</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.439</t>
+          <t>1.445</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.5726</t>
+          <t>1.5672</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.502</t>
+          <t>1.497</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.647</t>
+          <t>1.641</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.9876</t>
+          <t>1.0143</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.928</t>
+          <t>0.953</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.051</t>
+          <t>1.080</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.8758</t>
+          <t>0.7686</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.767</t>
+          <t>0.673</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.877</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9202</t>
+          <t>0.9623</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.705</t>
+          <t>0.738</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.200</t>
+          <t>1.254</t>
         </is>
       </c>
     </row>
@@ -1128,17 +1128,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.8828</t>
+          <t>0.9202</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.567</t>
+          <t>0.592</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.374</t>
+          <t>1.430</t>
         </is>
       </c>
     </row>
@@ -1151,17 +1151,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.4000</t>
+          <t>0.2680</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.192</t>
+          <t>0.129</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.833</t>
+          <t>0.558</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.0896</t>
+          <t>1.3512</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10.896</t>
+          <t>13.512</t>
         </is>
       </c>
     </row>
@@ -1295,17 +1295,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.1956</t>
+          <t>1.0522</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.161</t>
+          <t>1.022</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.083</t>
         </is>
       </c>
     </row>
@@ -1318,17 +1318,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9462</t>
+          <t>0.9005</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.855</t>
+          <t>0.814</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.047</t>
+          <t>0.996</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0840</t>
+          <t>0.9685</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.025</t>
+          <t>0.916</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.146</t>
+          <t>1.024</t>
         </is>
       </c>
     </row>
@@ -1364,17 +1364,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2713</t>
+          <t>1.0998</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.332</t>
+          <t>1.152</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.3714</t>
+          <t>1.2016</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.299</t>
+          <t>1.138</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.448</t>
+          <t>1.269</t>
         </is>
       </c>
     </row>
@@ -1410,17 +1410,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.3244</t>
+          <t>1.0766</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>0.991</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.438</t>
+          <t>1.169</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1433,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.2309</t>
+          <t>1.0475</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>0.929</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.388</t>
+          <t>1.181</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.8595</t>
+          <t>0.6147</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.687</t>
+          <t>0.491</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.075</t>
+          <t>0.770</t>
         </is>
       </c>
     </row>
@@ -1479,17 +1479,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.9998</t>
+          <t>2.5299</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.642</t>
+          <t>1.024</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.745</t>
+          <t>6.253</t>
         </is>
       </c>
     </row>
@@ -1502,17 +1502,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.0927</t>
+          <t>1.3448</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.443</t>
+          <t>0.548</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.696</t>
+          <t>3.299</t>
         </is>
       </c>
     </row>
@@ -1543,17 +1543,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.3673</t>
+          <t>1.1878</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.336</t>
+          <t>1.161</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.399</t>
+          <t>1.216</t>
         </is>
       </c>
     </row>
@@ -1566,17 +1566,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0828</t>
+          <t>0.8712</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.019</t>
+          <t>0.820</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.151</t>
+          <t>0.926</t>
         </is>
       </c>
     </row>
@@ -1589,17 +1589,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.2331</t>
+          <t>1.0528</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.189</t>
+          <t>1.016</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.278</t>
+          <t>1.092</t>
         </is>
       </c>
     </row>
@@ -1612,17 +1612,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.4916</t>
+          <t>1.2651</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.438</t>
+          <t>1.220</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.547</t>
+          <t>1.312</t>
         </is>
       </c>
     </row>
@@ -1635,17 +1635,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.6234</t>
+          <t>1.5152</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.537</t>
+          <t>1.434</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.715</t>
+          <t>1.601</t>
         </is>
       </c>
     </row>
@@ -1658,17 +1658,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.3924</t>
+          <t>1.4005</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.255</t>
+          <t>1.263</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.545</t>
+          <t>1.554</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.4244</t>
+          <t>1.4143</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.204</t>
+          <t>1.196</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.685</t>
+          <t>1.673</t>
         </is>
       </c>
     </row>
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.2366</t>
+          <t>1.2226</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.909</t>
+          <t>0.898</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.683</t>
+          <t>1.664</t>
         </is>
       </c>
     </row>
@@ -1727,17 +1727,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.0700</t>
+          <t>0.9631</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.672</t>
+          <t>0.605</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.704</t>
+          <t>1.534</t>
         </is>
       </c>
     </row>
@@ -1750,17 +1750,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.1812</t>
+          <t>0.6418</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.479</t>
+          <t>0.255</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.914</t>
+          <t>1.614</t>
         </is>
       </c>
     </row>
@@ -1791,17 +1791,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1436</t>
+          <t>1.1289</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.094</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.165</t>
         </is>
       </c>
     </row>
@@ -1814,17 +1814,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.1443</t>
+          <t>0.9674</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.037</t>
+          <t>0.877</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>1.067</t>
         </is>
       </c>
     </row>
@@ -1837,17 +1837,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.1375</t>
+          <t>1.0871</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.079</t>
+          <t>1.031</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>1.146</t>
         </is>
       </c>
     </row>
@@ -1860,17 +1860,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.1733</t>
+          <t>1.1503</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.120</t>
+          <t>1.098</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.229</t>
+          <t>1.205</t>
         </is>
       </c>
     </row>
@@ -1883,17 +1883,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.1838</t>
+          <t>1.2610</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.182</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.263</t>
+          <t>1.345</t>
         </is>
       </c>
     </row>
@@ -1906,17 +1906,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.0514</t>
+          <t>1.3009</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>1.156</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.183</t>
+          <t>1.464</t>
         </is>
       </c>
     </row>
@@ -1929,17 +1929,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1572</t>
+          <t>1.3502</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.958</t>
+          <t>1.117</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.398</t>
+          <t>1.632</t>
         </is>
       </c>
     </row>
@@ -1952,17 +1952,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.4386</t>
+          <t>1.9889</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.009</t>
+          <t>1.392</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.052</t>
+          <t>2.841</t>
         </is>
       </c>
     </row>
@@ -1975,17 +1975,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.2675</t>
+          <t>0.3807</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.141</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.713</t>
+          <t>1.028</t>
         </is>
       </c>
     </row>
@@ -1998,17 +1998,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.0810</t>
+          <t>0.4773</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.312</t>
+          <t>0.137</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.739</t>
+          <t>1.667</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0673</t>
+          <t>1.0719</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.021</t>
+          <t>1.026</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.115</t>
+          <t>1.120</t>
         </is>
       </c>
     </row>
@@ -2119,17 +2119,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2860</t>
+          <t>1.2719</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.055</t>
+          <t>1.044</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.568</t>
+          <t>1.549</t>
         </is>
       </c>
     </row>
@@ -2142,17 +2142,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1245</t>
+          <t>1.1881</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>1.090</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.294</t>
         </is>
       </c>
     </row>
@@ -2165,17 +2165,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9575</t>
+          <t>0.9180</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.890</t>
+          <t>0.853</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.988</t>
         </is>
       </c>
     </row>
@@ -2188,17 +2188,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.1957</t>
+          <t>1.2070</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.087</t>
+          <t>1.098</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.315</t>
+          <t>1.327</t>
         </is>
       </c>
     </row>
@@ -2211,17 +2211,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.9700</t>
+          <t>1.0105</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.852</t>
+          <t>0.888</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.104</t>
+          <t>1.150</t>
         </is>
       </c>
     </row>
@@ -2234,17 +2234,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9634</t>
+          <t>0.8909</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.812</t>
+          <t>0.751</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.143</t>
+          <t>1.057</t>
         </is>
       </c>
     </row>
@@ -2257,17 +2257,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.0706</t>
+          <t>1.1599</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.803</t>
+          <t>0.871</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.427</t>
+          <t>1.545</t>
         </is>
       </c>
     </row>
@@ -2280,17 +2280,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.1050</t>
+          <t>1.5780</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.719</t>
+          <t>1.031</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.699</t>
+          <t>2.414</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.7519</t>
+          <t>2.5085</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.706</t>
+          <t>1.035</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.345</t>
+          <t>6.080</t>
         </is>
       </c>
     </row>
@@ -2344,17 +2344,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0599</t>
+          <t>1.0079</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.036</t>
+          <t>0.986</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.084</t>
+          <t>1.031</t>
         </is>
       </c>
     </row>
@@ -2367,17 +2367,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.9535</t>
+          <t>0.8176</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.884</t>
+          <t>0.758</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.029</t>
+          <t>0.882</t>
         </is>
       </c>
     </row>
@@ -2390,17 +2390,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0785</t>
+          <t>1.0363</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.034</t>
+          <t>0.994</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.124</t>
+          <t>1.080</t>
         </is>
       </c>
     </row>
@@ -2413,17 +2413,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0149</t>
+          <t>0.9664</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.976</t>
+          <t>0.929</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.056</t>
+          <t>1.005</t>
         </is>
       </c>
     </row>
@@ -2436,17 +2436,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1590</t>
+          <t>1.1169</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.101</t>
+          <t>1.061</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>1.176</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2459,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.0527</t>
+          <t>1.0236</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.972</t>
+          <t>0.945</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.140</t>
+          <t>1.108</t>
         </is>
       </c>
     </row>
@@ -2482,17 +2482,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1585</t>
+          <t>1.0936</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.036</t>
+          <t>0.978</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.295</t>
+          <t>1.222</t>
         </is>
       </c>
     </row>
@@ -2505,17 +2505,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.1282</t>
+          <t>1.0699</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.933</t>
+          <t>0.884</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.365</t>
+          <t>1.295</t>
         </is>
       </c>
     </row>
@@ -2528,17 +2528,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.3582</t>
+          <t>1.4223</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.007</t>
+          <t>1.055</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.832</t>
+          <t>1.917</t>
         </is>
       </c>
     </row>
@@ -2551,17 +2551,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.4233</t>
+          <t>1.3813</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.968</t>
+          <t>0.939</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.093</t>
+          <t>2.031</t>
         </is>
       </c>
     </row>
@@ -2592,17 +2592,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9931</t>
+          <t>0.9403</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.950</t>
+          <t>0.900</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.038</t>
+          <t>0.983</t>
         </is>
       </c>
     </row>
@@ -2615,17 +2615,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.7415</t>
+          <t>0.6428</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.606</t>
+          <t>0.526</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>0.785</t>
         </is>
       </c>
     </row>
@@ -2638,17 +2638,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.9591</t>
+          <t>0.8722</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.879</t>
+          <t>0.800</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.046</t>
+          <t>0.951</t>
         </is>
       </c>
     </row>
@@ -2661,17 +2661,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0599</t>
+          <t>1.0527</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.985</t>
+          <t>0.979</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.140</t>
+          <t>1.132</t>
         </is>
       </c>
     </row>
@@ -2684,17 +2684,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.9693</t>
+          <t>0.9254</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.880</t>
+          <t>0.840</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>1.019</t>
         </is>
       </c>
     </row>
@@ -2707,17 +2707,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.0853</t>
+          <t>1.0130</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.950</t>
+          <t>0.887</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.240</t>
+          <t>1.157</t>
         </is>
       </c>
     </row>
@@ -2730,17 +2730,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.2025</t>
+          <t>1.2276</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.006</t>
+          <t>1.027</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.437</t>
+          <t>1.467</t>
         </is>
       </c>
     </row>
@@ -2753,17 +2753,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.0537</t>
+          <t>0.9224</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.774</t>
+          <t>0.678</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.434</t>
+          <t>1.254</t>
         </is>
       </c>
     </row>
@@ -2776,17 +2776,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.2292</t>
+          <t>0.9013</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.773</t>
+          <t>0.570</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.954</t>
+          <t>1.426</t>
         </is>
       </c>
     </row>
@@ -2799,17 +2799,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.8124</t>
+          <t>0.5506</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.320</t>
+          <t>0.222</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.065</t>
+          <t>1.369</t>
         </is>
       </c>
     </row>
@@ -2840,17 +2840,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.6883</t>
+          <t>1.4920</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.655</t>
+          <t>1.463</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.722</t>
+          <t>1.522</t>
         </is>
       </c>
     </row>
@@ -2863,17 +2863,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.4012</t>
+          <t>1.2063</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.317</t>
+          <t>1.134</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.490</t>
+          <t>1.283</t>
         </is>
       </c>
     </row>
@@ -2886,17 +2886,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.6389</t>
+          <t>1.4690</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.582</t>
+          <t>1.418</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.697</t>
+          <t>1.521</t>
         </is>
       </c>
     </row>
@@ -2909,17 +2909,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.8140</t>
+          <t>1.5937</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.751</t>
+          <t>1.539</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.879</t>
+          <t>1.651</t>
         </is>
       </c>
     </row>
@@ -2932,17 +2932,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.7760</t>
+          <t>1.5824</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.696</t>
+          <t>1.511</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.860</t>
+          <t>1.657</t>
         </is>
       </c>
     </row>
@@ -2955,17 +2955,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.4229</t>
+          <t>1.2821</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>1.186</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.538</t>
+          <t>1.386</t>
         </is>
       </c>
     </row>
@@ -2978,17 +2978,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.6409</t>
+          <t>1.3494</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.449</t>
+          <t>1.191</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.858</t>
+          <t>1.529</t>
         </is>
       </c>
     </row>
@@ -3001,17 +3001,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1953</t>
+          <t>0.9958</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>0.808</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.471</t>
+          <t>1.227</t>
         </is>
       </c>
     </row>
@@ -3024,17 +3024,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.4701</t>
+          <t>1.2055</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.011</t>
+          <t>0.826</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.139</t>
+          <t>1.758</t>
         </is>
       </c>
     </row>
@@ -3047,17 +3047,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.0949</t>
+          <t>0.8977</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.627</t>
+          <t>0.511</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.912</t>
+          <t>1.576</t>
         </is>
       </c>
     </row>
@@ -3088,17 +3088,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.5819</t>
+          <t>1.3919</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.515</t>
+          <t>1.333</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.652</t>
+          <t>1.453</t>
         </is>
       </c>
     </row>
@@ -3111,17 +3111,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.0896</t>
+          <t>0.9484</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.895</t>
+          <t>0.780</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.326</t>
+          <t>1.153</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3134,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.4574</t>
+          <t>1.2364</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.340</t>
+          <t>1.137</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.585</t>
+          <t>1.344</t>
         </is>
       </c>
     </row>
@@ -3157,17 +3157,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.8944</t>
+          <t>1.7360</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.764</t>
+          <t>1.617</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2.034</t>
+          <t>1.864</t>
         </is>
       </c>
     </row>
@@ -3180,17 +3180,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.4853</t>
+          <t>1.3110</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.351</t>
+          <t>1.193</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.633</t>
+          <t>1.441</t>
         </is>
       </c>
     </row>
@@ -3203,17 +3203,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.4670</t>
+          <t>1.2687</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.285</t>
+          <t>1.111</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.675</t>
+          <t>1.448</t>
         </is>
       </c>
     </row>
@@ -3226,17 +3226,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.7033</t>
+          <t>1.5147</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.413</t>
+          <t>1.257</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.053</t>
+          <t>1.826</t>
         </is>
       </c>
     </row>
@@ -3249,17 +3249,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.1164</t>
+          <t>0.8585</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.812</t>
+          <t>0.624</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.536</t>
+          <t>1.181</t>
         </is>
       </c>
     </row>
@@ -3272,17 +3272,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.3305</t>
+          <t>0.7640</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.794</t>
+          <t>0.457</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2.228</t>
+          <t>1.277</t>
         </is>
       </c>
     </row>
@@ -3295,17 +3295,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.6250</t>
+          <t>0.3578</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.226</t>
+          <t>0.132</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.726</t>
+          <t>0.971</t>
         </is>
       </c>
     </row>
@@ -3336,17 +3336,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.5929</t>
+          <t>1.4803</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.560</t>
+          <t>1.450</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.626</t>
+          <t>1.511</t>
         </is>
       </c>
     </row>
@@ -3359,17 +3359,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.4695</t>
+          <t>1.4754</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.369</t>
+          <t>1.374</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.577</t>
+          <t>1.584</t>
         </is>
       </c>
     </row>
@@ -3382,17 +3382,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.5195</t>
+          <t>1.4175</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.464</t>
+          <t>1.366</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.577</t>
+          <t>1.471</t>
         </is>
       </c>
     </row>
@@ -3405,17 +3405,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.7873</t>
+          <t>1.6491</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.726</t>
+          <t>1.593</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.851</t>
+          <t>1.708</t>
         </is>
       </c>
     </row>
@@ -3428,17 +3428,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.5324</t>
+          <t>1.4167</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.458</t>
+          <t>1.348</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.610</t>
+          <t>1.489</t>
         </is>
       </c>
     </row>
@@ -3451,17 +3451,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.3517</t>
+          <t>1.2524</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>1.151</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.470</t>
+          <t>1.363</t>
         </is>
       </c>
     </row>
@@ -3474,17 +3474,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.4165</t>
+          <t>1.2339</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.239</t>
+          <t>1.079</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.619</t>
+          <t>1.411</t>
         </is>
       </c>
     </row>
@@ -3497,17 +3497,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.0595</t>
+          <t>0.9308</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.837</t>
+          <t>0.735</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.340</t>
+          <t>1.179</t>
         </is>
       </c>
     </row>
@@ -3520,17 +3520,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.0824</t>
+          <t>0.8476</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.717</t>
+          <t>0.560</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.635</t>
+          <t>1.283</t>
         </is>
       </c>
     </row>
@@ -3543,17 +3543,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.7693</t>
+          <t>0.6499</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.424</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.397</t>
+          <t>1.186</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3624,7 +3624,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4 vs 0</t>
+          <t>1 vs 0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -3641,17 +3641,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.3158</t>
+          <t>0.9141</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.276</t>
+          <t>0.867</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.357</t>
+          <t>0.964</t>
         </is>
       </c>
     </row>
@@ -3664,17 +3664,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.4970</t>
+          <t>1.3249</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.368</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.638</t>
+          <t>1.704</t>
         </is>
       </c>
     </row>
@@ -3687,17 +3687,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.2118</t>
+          <t>0.8771</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.154</t>
+          <t>0.787</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.272</t>
+          <t>0.978</t>
         </is>
       </c>
     </row>
@@ -3710,17 +3710,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2986</t>
+          <t>0.8181</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>0.746</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.365</t>
+          <t>0.897</t>
         </is>
       </c>
     </row>
@@ -3733,17 +3733,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.4239</t>
+          <t>0.9551</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.330</t>
+          <t>0.859</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.524</t>
+          <t>1.062</t>
         </is>
       </c>
     </row>
@@ -3756,17 +3756,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.5274</t>
+          <t>1.1174</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.312</t>
+          <t>0.960</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.778</t>
+          <t>1.301</t>
         </is>
       </c>
     </row>
@@ -3779,17 +3779,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.0696</t>
+          <t>0.8647</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.503</t>
+          <t>0.724</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.849</t>
+          <t>1.033</t>
         </is>
       </c>
     </row>
@@ -3802,17 +3802,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.7346</t>
+          <t>1.6562</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.516</t>
+          <t>1.136</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.045</t>
+          <t>2.414</t>
         </is>
       </c>
     </row>
@@ -3825,17 +3825,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.6613</t>
+          <t>0.7241</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.386</t>
+          <t>0.470</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.133</t>
+          <t>1.115</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.2108</t>
+          <t>1.1002</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>42.108</t>
+          <t>11.002</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4 vs 1</t>
+          <t>2 vs 0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -3889,17 +3889,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.4395</t>
+          <t>1.0121</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.362</t>
+          <t>0.984</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.521</t>
+          <t>1.041</t>
         </is>
       </c>
     </row>
@@ -3912,17 +3912,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.1299</t>
+          <t>1.3874</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.878</t>
+          <t>1.243</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.455</t>
+          <t>1.549</t>
         </is>
       </c>
     </row>
@@ -3935,17 +3935,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.3817</t>
+          <t>0.9440</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.241</t>
+          <t>0.895</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.538</t>
+          <t>0.996</t>
         </is>
       </c>
     </row>
@@ -3958,17 +3958,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.5873</t>
+          <t>0.9921</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.448</t>
+          <t>0.942</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.740</t>
+          <t>1.045</t>
         </is>
       </c>
     </row>
@@ -3981,17 +3981,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.4909</t>
+          <t>1.0939</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.332</t>
+          <t>1.029</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.669</t>
+          <t>1.163</t>
         </is>
       </c>
     </row>
@@ -4004,17 +4004,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.3669</t>
+          <t>1.0146</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.120</t>
+          <t>0.929</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.668</t>
+          <t>1.108</t>
         </is>
       </c>
     </row>
@@ -4027,17 +4027,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2.3933</t>
+          <t>0.9613</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.687</t>
+          <t>0.856</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.395</t>
+          <t>1.080</t>
         </is>
       </c>
     </row>
@@ -4050,17 +4050,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.4435</t>
+          <t>0.9469</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.272</t>
+          <t>0.786</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.724</t>
+          <t>1.141</t>
         </is>
       </c>
     </row>
@@ -4073,17 +4073,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.9133</t>
+          <t>0.7101</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.480</t>
+          <t>0.547</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.738</t>
+          <t>0.922</t>
         </is>
       </c>
     </row>
@@ -4096,17 +4096,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.8273</t>
+          <t>0.7319</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.507</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>38.273</t>
+          <t>1.057</t>
         </is>
       </c>
     </row>
@@ -4120,7 +4120,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4 vs 2</t>
+          <t>2 vs 1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -4137,17 +4137,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.2990</t>
+          <t>1.1081</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.258</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.341</t>
+          <t>1.169</t>
         </is>
       </c>
     </row>
@@ -4160,17 +4160,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.0790</t>
+          <t>1.0472</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.964</t>
+          <t>0.807</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.208</t>
+          <t>1.359</t>
         </is>
       </c>
     </row>
@@ -4183,17 +4183,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.2837</t>
+          <t>1.0763</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>0.964</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.352</t>
+          <t>1.201</t>
         </is>
       </c>
     </row>
@@ -4206,17 +4206,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.3089</t>
+          <t>1.2126</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>1.105</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.378</t>
+          <t>1.331</t>
         </is>
       </c>
     </row>
@@ -4229,17 +4229,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.3016</t>
+          <t>1.1454</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>1.028</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.398</t>
+          <t>1.277</t>
         </is>
       </c>
     </row>
@@ -4252,17 +4252,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.5054</t>
+          <t>0.9080</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.288</t>
+          <t>0.777</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.760</t>
+          <t>1.061</t>
         </is>
       </c>
     </row>
@@ -4275,17 +4275,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2.1529</t>
+          <t>1.1117</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.559</t>
+          <t>0.926</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.973</t>
+          <t>1.335</t>
         </is>
       </c>
     </row>
@@ -4298,17 +4298,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.7758</t>
+          <t>0.5717</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.539</t>
+          <t>0.388</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>0.842</t>
         </is>
       </c>
     </row>
@@ -4321,17 +4321,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.9312</t>
+          <t>0.9807</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.541</t>
+          <t>0.633</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.604</t>
+          <t>1.520</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5.0326</t>
+          <t>0.7605</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>50.326</t>
+          <t>7.605</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4 vs 3</t>
+          <t>3 vs 0</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -4385,17 +4385,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.2451</t>
+          <t>1.0565</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>1.033</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.279</t>
+          <t>1.080</t>
         </is>
       </c>
     </row>
@@ -4408,17 +4408,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.3400</t>
+          <t>1.1172</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.239</t>
+          <t>1.037</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.449</t>
+          <t>1.204</t>
         </is>
       </c>
     </row>
@@ -4431,17 +4431,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.1606</t>
+          <t>1.0441</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>1.001</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>1.089</t>
         </is>
       </c>
     </row>
@@ -4454,17 +4454,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.2272</t>
+          <t>1.0582</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.179</t>
+          <t>1.016</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.277</t>
+          <t>1.102</t>
         </is>
       </c>
     </row>
@@ -4477,17 +4477,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.3146</t>
+          <t>1.0831</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.237</t>
+          <t>1.032</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.397</t>
+          <t>1.137</t>
         </is>
       </c>
     </row>
@@ -4500,17 +4500,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.4505</t>
+          <t>1.0530</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.250</t>
+          <t>0.977</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.684</t>
+          <t>1.135</t>
         </is>
       </c>
     </row>
@@ -4523,17 +4523,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.8937</t>
+          <t>1.0929</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.375</t>
+          <t>0.980</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.608</t>
+          <t>1.219</t>
         </is>
       </c>
     </row>
@@ -4546,17 +4546,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.8047</t>
+          <t>0.9128</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.560</t>
+          <t>0.760</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.156</t>
+          <t>1.097</t>
         </is>
       </c>
     </row>
@@ -4569,17 +4569,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.8414</t>
+          <t>0.7859</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.485</t>
+          <t>0.596</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.461</t>
+          <t>1.036</t>
         </is>
       </c>
     </row>
@@ -4592,17 +4592,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.9744</t>
+          <t>0.9440</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.565</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>49.744</t>
+          <t>1.578</t>
         </is>
       </c>
     </row>
@@ -4613,6 +4613,1494 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3 vs 1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1.1561</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.099</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1.217</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.8432</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.658</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1.080</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1.1904</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.072</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1.321</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1.2934</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.185</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1.411</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1.1341</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.024</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1.256</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.9423</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.812</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1.094</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1.2638</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.057</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1.511</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.5512</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.375</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.811</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1.0855</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.693</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1.699</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.7694</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>7.694</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3 vs 2</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1.0439</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.019</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1.069</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.8053</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.728</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.891</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1.1061</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.058</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1.157</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1.0666</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.022</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1.113</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0.9901</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.939</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.044</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1.0378</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.955</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1.128</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1.1369</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.011</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1.279</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0.9640</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.786</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1.183</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1.1068</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.830</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1.475</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1.2897</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.776</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2.144</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4 vs 0</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1.3158</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.276</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1.357</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1.4970</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.368</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1.638</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1.2118</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.154</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1.272</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1.2986</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.235</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1.365</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1.4239</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.330</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1.524</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1.5274</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.312</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1.778</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2.0696</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.503</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2.849</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0.7346</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.516</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1.045</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0.6613</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.386</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1.133</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>4.2108</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>42.108</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4 vs 1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1.4395</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.362</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1.521</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1.1299</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.878</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1.455</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1.3817</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.241</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1.538</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1.5873</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.448</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1.740</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1.4909</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.332</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1.669</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1.3669</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.120</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1.668</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2.3933</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.687</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>3.395</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0.4435</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.272</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.724</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0.9133</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.480</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1.738</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>3.8273</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>38.273</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4 vs 2</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1.2990</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.258</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1.341</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1.0790</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.964</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1.208</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1.2837</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.219</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1.352</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1.3089</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.243</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1.378</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1.3016</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.212</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1.398</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1.5054</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.288</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1.760</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2.1529</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.559</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2.973</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0.7758</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.539</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1.116</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0.9312</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.541</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1.604</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>5.0326</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>50.326</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4 vs 3</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ASMR (pooled)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1.2451</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.212</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1.279</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1.3400</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.239</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1.449</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1.1606</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.117</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1.206</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1.2272</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.179</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1.277</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1.3146</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.237</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1.397</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1.4505</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1.684</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1.8937</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.375</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2.608</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0.8047</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.560</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1.156</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0.8414</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.485</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1.461</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>4.9744</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>49.744</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -3641,17 +3641,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9141</t>
+          <t>0.9159</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.867</t>
+          <t>0.869</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.964</t>
+          <t>0.966</t>
         </is>
       </c>
     </row>
@@ -3664,17 +3664,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.3249</t>
+          <t>1.5083</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.174</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.704</t>
+          <t>1.938</t>
         </is>
       </c>
     </row>
@@ -3687,17 +3687,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8771</t>
+          <t>0.9797</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.787</t>
+          <t>0.879</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.978</t>
+          <t>1.092</t>
         </is>
       </c>
     </row>
@@ -3710,17 +3710,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8181</t>
+          <t>0.7719</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.746</t>
+          <t>0.704</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.897</t>
+          <t>0.847</t>
         </is>
       </c>
     </row>
@@ -3733,17 +3733,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.9551</t>
+          <t>0.9542</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.859</t>
+          <t>0.858</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.062</t>
+          <t>1.061</t>
         </is>
       </c>
     </row>
@@ -3756,17 +3756,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.1174</t>
+          <t>1.0988</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.960</t>
+          <t>0.944</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.301</t>
+          <t>1.278</t>
         </is>
       </c>
     </row>
@@ -3779,17 +3779,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.8647</t>
+          <t>0.7458</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.724</t>
+          <t>0.624</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.033</t>
+          <t>0.891</t>
         </is>
       </c>
     </row>
@@ -3802,17 +3802,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.6562</t>
+          <t>1.0785</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.136</t>
+          <t>0.737</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.414</t>
+          <t>1.578</t>
         </is>
       </c>
     </row>
@@ -3825,17 +3825,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.7241</t>
+          <t>0.4034</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.470</t>
+          <t>0.260</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.115</t>
+          <t>0.626</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.1002</t>
+          <t>0.4649</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11.002</t>
+          <t>4.649</t>
         </is>
       </c>
     </row>
@@ -3889,17 +3889,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0121</t>
+          <t>0.9854</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.984</t>
+          <t>0.958</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.041</t>
+          <t>1.013</t>
         </is>
       </c>
     </row>
@@ -3912,17 +3912,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.3874</t>
+          <t>1.5024</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>1.346</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.549</t>
+          <t>1.677</t>
         </is>
       </c>
     </row>
@@ -3935,17 +3935,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.9440</t>
+          <t>0.8917</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.895</t>
+          <t>0.845</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>0.941</t>
         </is>
       </c>
     </row>
@@ -3958,17 +3958,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.9921</t>
+          <t>0.9406</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.942</t>
+          <t>0.893</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.045</t>
+          <t>0.991</t>
         </is>
       </c>
     </row>
@@ -3981,17 +3981,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.0939</t>
+          <t>1.1755</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.029</t>
+          <t>1.106</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.163</t>
+          <t>1.249</t>
         </is>
       </c>
     </row>
@@ -4004,17 +4004,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.0146</t>
+          <t>0.9190</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>0.842</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.003</t>
         </is>
       </c>
     </row>
@@ -4027,17 +4027,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.9613</t>
+          <t>0.8755</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.856</t>
+          <t>0.779</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>0.983</t>
         </is>
       </c>
     </row>
@@ -4050,17 +4050,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.9469</t>
+          <t>0.8059</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.786</t>
+          <t>0.669</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.141</t>
+          <t>0.971</t>
         </is>
       </c>
     </row>
@@ -4073,17 +4073,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.7101</t>
+          <t>0.7425</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.547</t>
+          <t>0.572</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.922</t>
+          <t>0.963</t>
         </is>
       </c>
     </row>
@@ -4096,17 +4096,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.7319</t>
+          <t>0.7581</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.507</t>
+          <t>0.526</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.057</t>
+          <t>1.093</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4137,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1081</t>
+          <t>1.0766</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.020</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.169</t>
+          <t>1.136</t>
         </is>
       </c>
     </row>
@@ -4160,17 +4160,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.0472</t>
+          <t>0.9961</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.807</t>
+          <t>0.768</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.359</t>
+          <t>1.292</t>
         </is>
       </c>
     </row>
@@ -4183,17 +4183,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.0763</t>
+          <t>0.9102</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.964</t>
+          <t>0.816</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.201</t>
+          <t>1.016</t>
         </is>
       </c>
     </row>
@@ -4206,17 +4206,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.2126</t>
+          <t>1.2185</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.105</t>
+          <t>1.110</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.331</t>
+          <t>1.338</t>
         </is>
       </c>
     </row>
@@ -4229,17 +4229,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.1454</t>
+          <t>1.2319</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.028</t>
+          <t>1.105</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.277</t>
+          <t>1.373</t>
         </is>
       </c>
     </row>
@@ -4252,17 +4252,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9080</t>
+          <t>0.8364</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.777</t>
+          <t>0.716</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>0.977</t>
         </is>
       </c>
     </row>
@@ -4275,17 +4275,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1117</t>
+          <t>1.1739</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.926</t>
+          <t>0.977</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.335</t>
+          <t>1.410</t>
         </is>
       </c>
     </row>
@@ -4298,17 +4298,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.5717</t>
+          <t>0.7472</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.388</t>
+          <t>0.505</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.842</t>
+          <t>1.105</t>
         </is>
       </c>
     </row>
@@ -4321,17 +4321,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.9807</t>
+          <t>1.8405</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.633</t>
+          <t>1.179</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.520</t>
+          <t>2.874</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.7605</t>
+          <t>1.8713</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.605</t>
+          <t>18.713</t>
         </is>
       </c>
     </row>
@@ -4385,17 +4385,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.0565</t>
+          <t>1.0185</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.033</t>
+          <t>0.996</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>1.041</t>
         </is>
       </c>
     </row>
@@ -4408,17 +4408,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.1172</t>
+          <t>1.2002</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.037</t>
+          <t>1.114</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.204</t>
+          <t>1.293</t>
         </is>
       </c>
     </row>
@@ -4431,17 +4431,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.0441</t>
+          <t>1.0152</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.001</t>
+          <t>0.974</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.089</t>
+          <t>1.058</t>
         </is>
       </c>
     </row>
@@ -4454,17 +4454,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.0582</t>
+          <t>1.0137</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.016</t>
+          <t>0.973</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.102</t>
+          <t>1.056</t>
         </is>
       </c>
     </row>
@@ -4477,17 +4477,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.0831</t>
+          <t>1.0096</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.032</t>
+          <t>0.962</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.137</t>
+          <t>1.060</t>
         </is>
       </c>
     </row>
@@ -4500,17 +4500,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.0530</t>
+          <t>0.9513</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.977</t>
+          <t>0.883</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.135</t>
+          <t>1.025</t>
         </is>
       </c>
     </row>
@@ -4523,17 +4523,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.0929</t>
+          <t>1.0699</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.980</t>
+          <t>0.960</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>1.193</t>
         </is>
       </c>
     </row>
@@ -4546,17 +4546,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.9128</t>
+          <t>0.8359</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.760</t>
+          <t>0.696</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.097</t>
+          <t>1.003</t>
         </is>
       </c>
     </row>
@@ -4569,17 +4569,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.7859</t>
+          <t>0.9823</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.596</t>
+          <t>0.746</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.036</t>
+          <t>1.294</t>
         </is>
       </c>
     </row>
@@ -4592,17 +4592,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.9440</t>
+          <t>1.0159</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.565</t>
+          <t>0.610</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.578</t>
+          <t>1.692</t>
         </is>
       </c>
     </row>
@@ -4633,17 +4633,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1561</t>
+          <t>1.1121</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.099</t>
+          <t>1.057</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.217</t>
+          <t>1.170</t>
         </is>
       </c>
     </row>
@@ -4656,17 +4656,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.8432</t>
+          <t>0.7957</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.658</t>
+          <t>0.622</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>1.019</t>
         </is>
       </c>
     </row>
@@ -4679,17 +4679,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.1904</t>
+          <t>1.0363</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.072</t>
+          <t>0.934</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.321</t>
+          <t>1.150</t>
         </is>
       </c>
     </row>
@@ -4702,17 +4702,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.2934</t>
+          <t>1.3132</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.185</t>
+          <t>1.203</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.411</t>
+          <t>1.433</t>
         </is>
       </c>
     </row>
@@ -4725,17 +4725,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.1341</t>
+          <t>1.0580</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.024</t>
+          <t>0.956</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.256</t>
+          <t>1.171</t>
         </is>
       </c>
     </row>
@@ -4748,17 +4748,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.9423</t>
+          <t>0.8658</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.812</t>
+          <t>0.746</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>1.004</t>
         </is>
       </c>
     </row>
@@ -4771,17 +4771,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.2638</t>
+          <t>1.4346</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.057</t>
+          <t>1.200</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.511</t>
+          <t>1.715</t>
         </is>
       </c>
     </row>
@@ -4794,17 +4794,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.5512</t>
+          <t>0.7751</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.525</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.811</t>
+          <t>1.145</t>
         </is>
       </c>
     </row>
@@ -4817,17 +4817,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.0855</t>
+          <t>2.4348</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.693</t>
+          <t>1.545</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.699</t>
+          <t>3.836</t>
         </is>
       </c>
     </row>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.7694</t>
+          <t>1.9813</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>7.694</t>
+          <t>19.813</t>
         </is>
       </c>
     </row>
@@ -4881,17 +4881,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.0439</t>
+          <t>1.0336</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.019</t>
+          <t>1.009</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.069</t>
+          <t>1.059</t>
         </is>
       </c>
     </row>
@@ -4904,17 +4904,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.8053</t>
+          <t>0.7988</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.728</t>
+          <t>0.722</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.891</t>
+          <t>0.884</t>
         </is>
       </c>
     </row>
@@ -4927,17 +4927,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.1061</t>
+          <t>1.1385</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.058</t>
+          <t>1.088</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.157</t>
+          <t>1.191</t>
         </is>
       </c>
     </row>
@@ -4950,17 +4950,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.0666</t>
+          <t>1.0776</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.022</t>
+          <t>1.033</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.113</t>
+          <t>1.124</t>
         </is>
       </c>
     </row>
@@ -4973,17 +4973,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.9901</t>
+          <t>0.8588</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.939</t>
+          <t>0.815</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.044</t>
+          <t>0.906</t>
         </is>
       </c>
     </row>
@@ -4996,17 +4996,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.0378</t>
+          <t>1.0351</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.955</t>
+          <t>0.953</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.128</t>
+          <t>1.125</t>
         </is>
       </c>
     </row>
@@ -5019,17 +5019,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.1369</t>
+          <t>1.2221</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.011</t>
+          <t>1.087</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.279</t>
+          <t>1.374</t>
         </is>
       </c>
     </row>
@@ -5042,17 +5042,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.9640</t>
+          <t>1.0373</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.786</t>
+          <t>0.846</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.183</t>
+          <t>1.272</t>
         </is>
       </c>
     </row>
@@ -5065,17 +5065,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.1068</t>
+          <t>1.3229</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.830</t>
+          <t>0.994</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.475</t>
+          <t>1.761</t>
         </is>
       </c>
     </row>
@@ -5088,17 +5088,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1.2897</t>
+          <t>1.3401</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>0.810</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2.144</t>
+          <t>2.218</t>
         </is>
       </c>
     </row>
@@ -5129,17 +5129,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.3158</t>
+          <t>1.2643</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.276</t>
+          <t>1.226</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.357</t>
+          <t>1.304</t>
         </is>
       </c>
     </row>
@@ -5152,17 +5152,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.4970</t>
+          <t>1.6351</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.368</t>
+          <t>1.494</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.638</t>
+          <t>1.789</t>
         </is>
       </c>
     </row>
@@ -5175,17 +5175,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1.2118</t>
+          <t>1.1722</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.154</t>
+          <t>1.116</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.272</t>
+          <t>1.231</t>
         </is>
       </c>
     </row>
@@ -5198,17 +5198,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1.2986</t>
+          <t>1.1913</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.133</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.365</t>
+          <t>1.253</t>
         </is>
       </c>
     </row>
@@ -5221,17 +5221,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1.4239</t>
+          <t>1.3495</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.330</t>
+          <t>1.261</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.524</t>
+          <t>1.445</t>
         </is>
       </c>
     </row>
@@ -5244,17 +5244,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1.5274</t>
+          <t>1.2486</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.312</t>
+          <t>1.072</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.778</t>
+          <t>1.454</t>
         </is>
       </c>
     </row>
@@ -5267,17 +5267,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2.0696</t>
+          <t>2.6410</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.503</t>
+          <t>1.924</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2.849</t>
+          <t>3.625</t>
         </is>
       </c>
     </row>
@@ -5290,17 +5290,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.7346</t>
+          <t>1.0920</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.516</t>
+          <t>0.775</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.045</t>
+          <t>1.539</t>
         </is>
       </c>
     </row>
@@ -5313,17 +5313,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.6613</t>
+          <t>0.7350</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.386</t>
+          <t>0.429</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.133</t>
+          <t>1.258</t>
         </is>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4.2108</t>
+          <t>3.7414</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>42.108</t>
+          <t>37.414</t>
         </is>
       </c>
     </row>
@@ -5377,17 +5377,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.4395</t>
+          <t>1.3805</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.362</t>
+          <t>1.306</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.521</t>
+          <t>1.459</t>
         </is>
       </c>
     </row>
@@ -5400,17 +5400,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1.1299</t>
+          <t>1.0841</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.878</t>
+          <t>0.843</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.455</t>
+          <t>1.395</t>
         </is>
       </c>
     </row>
@@ -5423,17 +5423,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.3817</t>
+          <t>1.1965</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.241</t>
+          <t>1.075</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.538</t>
+          <t>1.332</t>
         </is>
       </c>
     </row>
@@ -5446,17 +5446,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.5873</t>
+          <t>1.5432</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.448</t>
+          <t>1.407</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.740</t>
+          <t>1.692</t>
         </is>
       </c>
     </row>
@@ -5469,17 +5469,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.4909</t>
+          <t>1.4143</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.332</t>
+          <t>1.264</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.669</t>
+          <t>1.583</t>
         </is>
       </c>
     </row>
@@ -5492,17 +5492,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1.3669</t>
+          <t>1.1364</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.120</t>
+          <t>0.931</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.668</t>
+          <t>1.387</t>
         </is>
       </c>
     </row>
@@ -5515,17 +5515,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2.3933</t>
+          <t>3.5410</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.687</t>
+          <t>2.502</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3.395</t>
+          <t>5.011</t>
         </is>
       </c>
     </row>
@@ -5538,17 +5538,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.4435</t>
+          <t>1.0126</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.272</t>
+          <t>0.623</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.724</t>
+          <t>1.646</t>
         </is>
       </c>
     </row>
@@ -5561,17 +5561,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.9133</t>
+          <t>1.8218</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.480</t>
+          <t>0.953</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.738</t>
+          <t>3.482</t>
         </is>
       </c>
     </row>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3.8273</t>
+          <t>8.0481</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>38.273</t>
+          <t>80.481</t>
         </is>
       </c>
     </row>
@@ -5625,17 +5625,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1.2990</t>
+          <t>1.2822</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1.258</t>
+          <t>1.242</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.341</t>
+          <t>1.324</t>
         </is>
       </c>
     </row>
@@ -5648,17 +5648,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1.0790</t>
+          <t>1.0884</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.964</t>
+          <t>0.972</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.208</t>
+          <t>1.218</t>
         </is>
       </c>
     </row>
@@ -5671,17 +5671,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1.2837</t>
+          <t>1.3146</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>1.248</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.352</t>
+          <t>1.384</t>
         </is>
       </c>
     </row>
@@ -5694,17 +5694,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1.3089</t>
+          <t>1.2665</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>1.203</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.378</t>
+          <t>1.333</t>
         </is>
       </c>
     </row>
@@ -5717,17 +5717,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1.3016</t>
+          <t>1.1480</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>1.069</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.398</t>
+          <t>1.233</t>
         </is>
       </c>
     </row>
@@ -5740,17 +5740,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1.5054</t>
+          <t>1.3586</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1.288</t>
+          <t>1.162</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1.760</t>
+          <t>1.589</t>
         </is>
       </c>
     </row>
@@ -5763,17 +5763,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2.1529</t>
+          <t>3.0165</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1.559</t>
+          <t>2.191</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2.973</t>
+          <t>4.154</t>
         </is>
       </c>
     </row>
@@ -5786,17 +5786,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.7758</t>
+          <t>1.3551</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.539</t>
+          <t>0.950</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>1.933</t>
         </is>
       </c>
     </row>
@@ -5809,17 +5809,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.9312</t>
+          <t>0.9898</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.541</t>
+          <t>0.575</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1.604</t>
+          <t>1.703</t>
         </is>
       </c>
     </row>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>5.0326</t>
+          <t>4.3008</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>50.326</t>
+          <t>43.008</t>
         </is>
       </c>
     </row>
@@ -5873,17 +5873,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1.2451</t>
+          <t>1.2413</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>1.208</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1.279</t>
+          <t>1.275</t>
         </is>
       </c>
     </row>
@@ -5896,17 +5896,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1.3400</t>
+          <t>1.3624</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1.239</t>
+          <t>1.260</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.449</t>
+          <t>1.474</t>
         </is>
       </c>
     </row>
@@ -5919,17 +5919,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1.1606</t>
+          <t>1.1547</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>1.111</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>1.200</t>
         </is>
       </c>
     </row>
@@ -5942,17 +5942,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1.2272</t>
+          <t>1.1752</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1.179</t>
+          <t>1.129</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1.277</t>
+          <t>1.223</t>
         </is>
       </c>
     </row>
@@ -5965,17 +5965,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1.3146</t>
+          <t>1.3367</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1.237</t>
+          <t>1.257</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1.397</t>
+          <t>1.421</t>
         </is>
       </c>
     </row>
@@ -5988,17 +5988,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1.4505</t>
+          <t>1.3125</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1.250</t>
+          <t>1.130</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1.684</t>
+          <t>1.524</t>
         </is>
       </c>
     </row>
@@ -6011,17 +6011,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1.8937</t>
+          <t>2.4684</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1.375</t>
+          <t>1.797</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2.608</t>
+          <t>3.390</t>
         </is>
       </c>
     </row>
@@ -6034,17 +6034,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.8047</t>
+          <t>1.3064</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0.560</t>
+          <t>0.918</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1.156</t>
+          <t>1.860</t>
         </is>
       </c>
     </row>
@@ -6057,17 +6057,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.8414</t>
+          <t>0.7482</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.485</t>
+          <t>0.432</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>1.461</t>
+          <t>1.297</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>4.9744</t>
+          <t>4.0621</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>49.744</t>
+          <t>40.621</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -489,7 +489,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -737,7 +737,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -985,7 +985,7 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1290,7 +1290,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1538,7 +1538,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1786,7 +1786,7 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2091,7 +2091,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2339,7 +2339,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2587,7 +2587,7 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2835,7 +2835,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3083,7 +3083,7 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3331,7 +3331,7 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3636,7 +3636,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3884,7 +3884,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4132,7 +4132,7 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4380,7 +4380,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4628,7 +4628,7 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4876,7 +4876,7 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -5124,7 +5124,7 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5372,7 +5372,7 @@
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5620,7 +5620,7 @@
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5868,7 +5868,7 @@
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ASMR (pooled)</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -499,12 +499,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.377</t>
+          <t>1.397</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.458</t>
+          <t>1.437</t>
         </is>
       </c>
     </row>
@@ -522,12 +522,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.884</t>
+          <t>0.915</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.038</t>
+          <t>1.004</t>
         </is>
       </c>
     </row>
@@ -545,12 +545,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.076</t>
+          <t>1.094</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.164</t>
+          <t>1.145</t>
         </is>
       </c>
     </row>
@@ -568,12 +568,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.611</t>
+          <t>1.639</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.731</t>
+          <t>1.701</t>
         </is>
       </c>
     </row>
@@ -591,12 +591,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.476</t>
+          <t>1.540</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.750</t>
+          <t>1.677</t>
         </is>
       </c>
     </row>
@@ -614,12 +614,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.625</t>
+          <t>1.785</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.334</t>
+          <t>2.124</t>
         </is>
       </c>
     </row>
@@ -637,12 +637,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.311</t>
+          <t>1.537</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.368</t>
+          <t>2.020</t>
         </is>
       </c>
     </row>
@@ -660,12 +660,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.141</t>
+          <t>1.655</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.964</t>
+          <t>2.732</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.907</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13.165</t>
+          <t>1.910</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>4.387</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.791</t>
+          <t>14.513</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.510</t>
+          <t>1.535</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.614</t>
+          <t>1.588</t>
         </is>
       </c>
     </row>
@@ -770,12 +770,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.190</t>
+          <t>1.225</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.348</t>
+          <t>1.310</t>
         </is>
       </c>
     </row>
@@ -793,12 +793,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.691</t>
+          <t>1.722</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.819</t>
+          <t>1.787</t>
         </is>
       </c>
     </row>
@@ -816,12 +816,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.602</t>
+          <t>1.647</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.791</t>
+          <t>1.742</t>
         </is>
       </c>
     </row>
@@ -839,12 +839,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.113</t>
+          <t>1.168</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.371</t>
+          <t>1.306</t>
         </is>
       </c>
     </row>
@@ -862,12 +862,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.537</t>
+          <t>1.697</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.283</t>
+          <t>2.069</t>
         </is>
       </c>
     </row>
@@ -885,12 +885,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.162</t>
+          <t>1.376</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.264</t>
+          <t>1.910</t>
         </is>
       </c>
     </row>
@@ -908,12 +908,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.381</t>
+          <t>0.435</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.853</t>
+          <t>0.746</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.798</t>
+          <t>1.374</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.694</t>
+          <t>2.728</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.019</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31.726</t>
+          <t>9.873</t>
         </is>
       </c>
     </row>
@@ -995,12 +995,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.055</t>
+          <t>1.078</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.147</t>
+          <t>1.123</t>
         </is>
       </c>
     </row>
@@ -1018,12 +1018,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.210</t>
+          <t>1.261</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.445</t>
+          <t>1.386</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.497</t>
+          <t>1.531</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.641</t>
+          <t>1.604</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1064,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.953</t>
+          <t>0.984</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>1.045</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.673</t>
+          <t>0.718</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.877</t>
+          <t>0.823</t>
         </is>
       </c>
     </row>
@@ -1110,12 +1110,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.738</t>
+          <t>0.846</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.254</t>
+          <t>1.095</t>
         </is>
       </c>
     </row>
@@ -1133,12 +1133,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.592</t>
+          <t>0.746</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.430</t>
+          <t>1.135</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.129</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.558</t>
+          <t>0.385</t>
         </is>
       </c>
     </row>
@@ -1179,12 +1179,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.822</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13.512</t>
+          <t>2.220</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1202,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.111</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.976</t>
+          <t>1.425</t>
         </is>
       </c>
     </row>
@@ -1300,12 +1300,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.022</t>
+          <t>1.036</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>1.068</t>
         </is>
       </c>
     </row>
@@ -1323,12 +1323,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.814</t>
+          <t>0.846</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>0.958</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.916</t>
+          <t>0.939</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.024</t>
+          <t>0.999</t>
         </is>
       </c>
     </row>
@@ -1369,12 +1369,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.073</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.152</t>
+          <t>1.127</t>
         </is>
       </c>
     </row>
@@ -1392,12 +1392,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.138</t>
+          <t>1.169</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.269</t>
+          <t>1.235</t>
         </is>
       </c>
     </row>
@@ -1415,12 +1415,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>1.031</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.169</t>
+          <t>1.124</t>
         </is>
       </c>
     </row>
@@ -1438,12 +1438,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>0.983</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.181</t>
+          <t>1.117</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.491</t>
+          <t>0.539</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.770</t>
+          <t>0.701</t>
         </is>
       </c>
     </row>
@@ -1484,12 +1484,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.024</t>
+          <t>2.010</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.253</t>
+          <t>3.184</t>
         </is>
       </c>
     </row>
@@ -1507,12 +1507,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.548</t>
+          <t>0.884</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.299</t>
+          <t>2.046</t>
         </is>
       </c>
     </row>
@@ -1548,12 +1548,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.161</t>
+          <t>1.174</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>1.202</t>
         </is>
       </c>
     </row>
@@ -1571,12 +1571,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.820</t>
+          <t>0.840</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.926</t>
+          <t>0.903</t>
         </is>
       </c>
     </row>
@@ -1594,12 +1594,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.016</t>
+          <t>1.032</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>1.074</t>
         </is>
       </c>
     </row>
@@ -1617,12 +1617,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>1.241</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.312</t>
+          <t>1.290</t>
         </is>
       </c>
     </row>
@@ -1640,12 +1640,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.434</t>
+          <t>1.476</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.601</t>
+          <t>1.556</t>
         </is>
       </c>
     </row>
@@ -1663,12 +1663,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.263</t>
+          <t>1.330</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.554</t>
+          <t>1.475</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.196</t>
+          <t>1.303</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.673</t>
+          <t>1.535</t>
         </is>
       </c>
     </row>
@@ -1709,12 +1709,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.898</t>
+          <t>1.057</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.664</t>
+          <t>1.414</t>
         </is>
       </c>
     </row>
@@ -1732,12 +1732,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.605</t>
+          <t>0.767</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.534</t>
+          <t>1.209</t>
         </is>
       </c>
     </row>
@@ -1755,12 +1755,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.255</t>
+          <t>0.403</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.614</t>
+          <t>1.022</t>
         </is>
       </c>
     </row>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>1.112</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.165</t>
+          <t>1.147</t>
         </is>
       </c>
     </row>
@@ -1819,12 +1819,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.877</t>
+          <t>0.912</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.067</t>
+          <t>1.027</t>
         </is>
       </c>
     </row>
@@ -1842,12 +1842,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>1.057</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.146</t>
+          <t>1.118</t>
         </is>
       </c>
     </row>
@@ -1865,12 +1865,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.098</t>
+          <t>1.124</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>1.177</t>
         </is>
       </c>
     </row>
@@ -1888,12 +1888,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.182</t>
+          <t>1.224</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.345</t>
+          <t>1.299</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1911,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.156</t>
+          <t>1.228</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.464</t>
+          <t>1.378</t>
         </is>
       </c>
     </row>
@@ -1934,12 +1934,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>1.231</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.632</t>
+          <t>1.481</t>
         </is>
       </c>
     </row>
@@ -1957,12 +1957,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.392</t>
+          <t>1.658</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.841</t>
+          <t>2.386</t>
         </is>
       </c>
     </row>
@@ -1980,12 +1980,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.141</t>
+          <t>0.281</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.028</t>
+          <t>0.516</t>
         </is>
       </c>
     </row>
@@ -2003,12 +2003,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.137</t>
+          <t>0.259</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.667</t>
+          <t>0.878</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.026</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.120</t>
+          <t>1.116</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.044</t>
+          <t>1.080</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.549</t>
+          <t>1.498</t>
         </is>
       </c>
     </row>
@@ -2147,12 +2147,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.090</t>
+          <t>1.095</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.294</t>
+          <t>1.289</t>
         </is>
       </c>
     </row>
@@ -2170,12 +2170,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.853</t>
+          <t>0.851</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.988</t>
+          <t>0.991</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.098</t>
+          <t>1.110</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.327</t>
+          <t>1.312</t>
         </is>
       </c>
     </row>
@@ -2216,12 +2216,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.888</t>
+          <t>0.901</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.150</t>
+          <t>1.134</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.751</t>
+          <t>0.765</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.057</t>
+          <t>1.038</t>
         </is>
       </c>
     </row>
@@ -2262,12 +2262,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.871</t>
+          <t>0.922</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.545</t>
+          <t>1.459</t>
         </is>
       </c>
     </row>
@@ -2285,12 +2285,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>1.133</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.414</t>
+          <t>2.198</t>
         </is>
       </c>
     </row>
@@ -2308,12 +2308,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.035</t>
+          <t>1.437</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.080</t>
+          <t>4.379</t>
         </is>
       </c>
     </row>
@@ -2349,12 +2349,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.986</t>
+          <t>0.987</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>1.029</t>
         </is>
       </c>
     </row>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.758</t>
+          <t>0.757</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.882</t>
+          <t>0.883</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>1.081</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.005</t>
+          <t>1.006</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>1.065</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.176</t>
+          <t>1.171</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.945</t>
+          <t>0.956</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.096</t>
         </is>
       </c>
     </row>
@@ -2487,12 +2487,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.978</t>
+          <t>0.997</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.222</t>
+          <t>1.199</t>
         </is>
       </c>
     </row>
@@ -2510,12 +2510,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.884</t>
+          <t>0.921</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.295</t>
+          <t>1.243</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.055</t>
+          <t>1.146</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.917</t>
+          <t>1.765</t>
         </is>
       </c>
     </row>
@@ -2556,12 +2556,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.939</t>
+          <t>1.044</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.031</t>
+          <t>1.828</t>
         </is>
       </c>
     </row>
@@ -2597,12 +2597,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.900</t>
+          <t>0.903</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.983</t>
+          <t>0.979</t>
         </is>
       </c>
     </row>
@@ -2620,12 +2620,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.526</t>
+          <t>0.543</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.785</t>
+          <t>0.761</t>
         </is>
       </c>
     </row>
@@ -2643,12 +2643,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.800</t>
+          <t>0.804</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.951</t>
+          <t>0.947</t>
         </is>
       </c>
     </row>
@@ -2666,12 +2666,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.979</t>
+          <t>0.976</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.132</t>
+          <t>1.136</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.840</t>
+          <t>0.851</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.019</t>
+          <t>1.006</t>
         </is>
       </c>
     </row>
@@ -2712,12 +2712,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.887</t>
+          <t>0.901</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.157</t>
+          <t>1.139</t>
         </is>
       </c>
     </row>
@@ -2735,12 +2735,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.027</t>
+          <t>1.051</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.467</t>
+          <t>1.434</t>
         </is>
       </c>
     </row>
@@ -2758,12 +2758,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.678</t>
+          <t>0.724</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.254</t>
+          <t>1.175</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.570</t>
+          <t>0.639</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.426</t>
+          <t>1.271</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.222</t>
+          <t>0.313</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.369</t>
+          <t>0.968</t>
         </is>
       </c>
     </row>
@@ -2845,12 +2845,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.463</t>
+          <t>1.467</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.522</t>
+          <t>1.518</t>
         </is>
       </c>
     </row>
@@ -2868,12 +2868,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.134</t>
+          <t>1.140</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.283</t>
+          <t>1.277</t>
         </is>
       </c>
     </row>
@@ -2891,12 +2891,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.418</t>
+          <t>1.421</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.521</t>
+          <t>1.518</t>
         </is>
       </c>
     </row>
@@ -2914,12 +2914,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.539</t>
+          <t>1.543</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.651</t>
+          <t>1.646</t>
         </is>
       </c>
     </row>
@@ -2937,12 +2937,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.511</t>
+          <t>1.521</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.657</t>
+          <t>1.646</t>
         </is>
       </c>
     </row>
@@ -2960,12 +2960,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.186</t>
+          <t>1.206</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.386</t>
+          <t>1.363</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.191</t>
+          <t>1.232</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.529</t>
+          <t>1.478</t>
         </is>
       </c>
     </row>
@@ -3006,12 +3006,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.808</t>
+          <t>0.848</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.227</t>
+          <t>1.169</t>
         </is>
       </c>
     </row>
@@ -3029,12 +3029,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.826</t>
+          <t>0.929</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.758</t>
+          <t>1.565</t>
         </is>
       </c>
     </row>
@@ -3052,12 +3052,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.511</t>
+          <t>0.577</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.576</t>
+          <t>1.397</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.333</t>
+          <t>1.339</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.453</t>
+          <t>1.446</t>
         </is>
       </c>
     </row>
@@ -3116,12 +3116,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.780</t>
+          <t>0.808</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.153</t>
+          <t>1.113</t>
         </is>
       </c>
     </row>
@@ -3139,12 +3139,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.137</t>
+          <t>1.144</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.344</t>
+          <t>1.336</t>
         </is>
       </c>
     </row>
@@ -3162,12 +3162,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.617</t>
+          <t>1.615</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.864</t>
+          <t>1.866</t>
         </is>
       </c>
     </row>
@@ -3185,12 +3185,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.193</t>
+          <t>1.210</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.441</t>
+          <t>1.420</t>
         </is>
       </c>
     </row>
@@ -3208,12 +3208,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.111</t>
+          <t>1.132</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.448</t>
+          <t>1.422</t>
         </is>
       </c>
     </row>
@@ -3231,12 +3231,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.257</t>
+          <t>1.297</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.826</t>
+          <t>1.769</t>
         </is>
       </c>
     </row>
@@ -3254,12 +3254,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.624</t>
+          <t>0.669</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.181</t>
+          <t>1.101</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.457</t>
+          <t>0.526</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.277</t>
+          <t>1.110</t>
         </is>
       </c>
     </row>
@@ -3300,12 +3300,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.185</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>0.692</t>
         </is>
       </c>
     </row>
@@ -3341,12 +3341,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.450</t>
+          <t>1.455</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.511</t>
+          <t>1.506</t>
         </is>
       </c>
     </row>
@@ -3364,12 +3364,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.374</t>
+          <t>1.378</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.584</t>
+          <t>1.580</t>
         </is>
       </c>
     </row>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.366</t>
+          <t>1.370</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.471</t>
+          <t>1.466</t>
         </is>
       </c>
     </row>
@@ -3410,12 +3410,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.593</t>
+          <t>1.598</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.708</t>
+          <t>1.702</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.348</t>
+          <t>1.361</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.489</t>
+          <t>1.475</t>
         </is>
       </c>
     </row>
@@ -3456,12 +3456,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.151</t>
+          <t>1.172</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.363</t>
+          <t>1.338</t>
         </is>
       </c>
     </row>
@@ -3479,12 +3479,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.079</t>
+          <t>1.121</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.411</t>
+          <t>1.358</t>
         </is>
       </c>
     </row>
@@ -3502,12 +3502,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.735</t>
+          <t>0.778</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.179</t>
+          <t>1.113</t>
         </is>
       </c>
     </row>
@@ -3525,12 +3525,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.560</t>
+          <t>0.643</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.283</t>
+          <t>1.116</t>
         </is>
       </c>
     </row>
@@ -3548,12 +3548,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.356</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.186</t>
+          <t>1.021</t>
         </is>
       </c>
     </row>
@@ -3646,12 +3646,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.869</t>
+          <t>0.878</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.966</t>
+          <t>0.956</t>
         </is>
       </c>
     </row>
@@ -3669,12 +3669,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.174</t>
+          <t>1.241</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.938</t>
+          <t>1.833</t>
         </is>
       </c>
     </row>
@@ -3692,12 +3692,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.879</t>
+          <t>0.892</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>1.076</t>
         </is>
       </c>
     </row>
@@ -3715,12 +3715,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.704</t>
+          <t>0.713</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.847</t>
+          <t>0.836</t>
         </is>
       </c>
     </row>
@@ -3738,12 +3738,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.858</t>
+          <t>0.875</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>1.041</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3761,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.944</t>
+          <t>0.988</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.278</t>
+          <t>1.222</t>
         </is>
       </c>
     </row>
@@ -3784,12 +3784,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.624</t>
+          <t>0.647</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.891</t>
+          <t>0.860</t>
         </is>
       </c>
     </row>
@@ -3807,12 +3807,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.737</t>
+          <t>0.874</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.578</t>
+          <t>1.331</t>
         </is>
       </c>
     </row>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.260</t>
+          <t>0.264</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.626</t>
+          <t>0.616</t>
         </is>
       </c>
     </row>
@@ -3853,12 +3853,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.249</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.649</t>
+          <t>0.867</t>
         </is>
       </c>
     </row>
@@ -3894,12 +3894,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.958</t>
+          <t>0.964</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.013</t>
+          <t>1.007</t>
         </is>
       </c>
     </row>
@@ -3917,12 +3917,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.346</t>
+          <t>1.367</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.677</t>
+          <t>1.652</t>
         </is>
       </c>
     </row>
@@ -3940,12 +3940,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.845</t>
+          <t>0.852</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.941</t>
+          <t>0.933</t>
         </is>
       </c>
     </row>
@@ -3963,12 +3963,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.893</t>
+          <t>0.903</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>0.980</t>
         </is>
       </c>
     </row>
@@ -3986,12 +3986,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.106</t>
+          <t>1.121</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.249</t>
+          <t>1.233</t>
         </is>
       </c>
     </row>
@@ -4009,12 +4009,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.842</t>
+          <t>0.861</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.003</t>
+          <t>0.981</t>
         </is>
       </c>
     </row>
@@ -4032,12 +4032,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.779</t>
+          <t>0.802</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.983</t>
+          <t>0.955</t>
         </is>
       </c>
     </row>
@@ -4055,12 +4055,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.669</t>
+          <t>0.705</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>0.921</t>
         </is>
       </c>
     </row>
@@ -4078,12 +4078,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.572</t>
+          <t>0.603</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.963</t>
+          <t>0.915</t>
         </is>
       </c>
     </row>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.526</t>
+          <t>0.574</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.093</t>
+          <t>1.001</t>
         </is>
       </c>
     </row>
@@ -4142,12 +4142,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.020</t>
+          <t>1.031</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.136</t>
+          <t>1.124</t>
         </is>
       </c>
     </row>
@@ -4165,12 +4165,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.768</t>
+          <t>0.815</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.292</t>
+          <t>1.217</t>
         </is>
       </c>
     </row>
@@ -4188,12 +4188,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.816</t>
+          <t>0.828</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.016</t>
+          <t>1.001</t>
         </is>
       </c>
     </row>
@@ -4211,12 +4211,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.124</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.338</t>
+          <t>1.321</t>
         </is>
       </c>
     </row>
@@ -4234,12 +4234,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.105</t>
+          <t>1.128</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.373</t>
+          <t>1.345</t>
         </is>
       </c>
     </row>
@@ -4257,12 +4257,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.716</t>
+          <t>0.750</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.977</t>
+          <t>0.933</t>
         </is>
       </c>
     </row>
@@ -4280,12 +4280,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.977</t>
+          <t>1.013</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.410</t>
+          <t>1.360</t>
         </is>
       </c>
     </row>
@@ -4303,12 +4303,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.505</t>
+          <t>0.598</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.105</t>
+          <t>0.933</t>
         </is>
       </c>
     </row>
@@ -4326,12 +4326,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.179</t>
+          <t>1.188</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.874</t>
+          <t>2.852</t>
         </is>
       </c>
     </row>
@@ -4349,12 +4349,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.995</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>18.713</t>
+          <t>3.519</t>
         </is>
       </c>
     </row>
@@ -4390,12 +4390,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>1.001</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.041</t>
+          <t>1.036</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.114</t>
+          <t>1.120</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.293</t>
+          <t>1.286</t>
         </is>
       </c>
     </row>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.974</t>
+          <t>0.981</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.058</t>
+          <t>1.050</t>
         </is>
       </c>
     </row>
@@ -4459,12 +4459,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.973</t>
+          <t>0.982</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.056</t>
+          <t>1.046</t>
         </is>
       </c>
     </row>
@@ -4482,12 +4482,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.962</t>
+          <t>0.972</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.060</t>
+          <t>1.049</t>
         </is>
       </c>
     </row>
@@ -4505,12 +4505,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.883</t>
+          <t>0.901</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.025</t>
+          <t>1.005</t>
         </is>
       </c>
     </row>
@@ -4528,12 +4528,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.960</t>
+          <t>0.989</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.193</t>
+          <t>1.157</t>
         </is>
       </c>
     </row>
@@ -4551,12 +4551,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.696</t>
+          <t>0.732</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.003</t>
+          <t>0.955</t>
         </is>
       </c>
     </row>
@@ -4574,12 +4574,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.746</t>
+          <t>0.793</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.294</t>
+          <t>1.216</t>
         </is>
       </c>
     </row>
@@ -4597,12 +4597,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.610</t>
+          <t>0.708</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.692</t>
+          <t>1.457</t>
         </is>
       </c>
     </row>
@@ -4638,12 +4638,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.057</t>
+          <t>1.067</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.170</t>
+          <t>1.159</t>
         </is>
       </c>
     </row>
@@ -4661,12 +4661,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.622</t>
+          <t>0.658</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.019</t>
+          <t>0.962</t>
         </is>
       </c>
     </row>
@@ -4684,12 +4684,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>0.947</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.150</t>
+          <t>1.134</t>
         </is>
       </c>
     </row>
@@ -4707,12 +4707,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.203</t>
+          <t>1.217</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.433</t>
+          <t>1.417</t>
         </is>
       </c>
     </row>
@@ -4730,12 +4730,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.956</t>
+          <t>0.974</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.171</t>
+          <t>1.150</t>
         </is>
       </c>
     </row>
@@ -4753,12 +4753,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.746</t>
+          <t>0.781</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.004</t>
+          <t>0.960</t>
         </is>
       </c>
     </row>
@@ -4776,12 +4776,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.200</t>
+          <t>1.245</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.715</t>
+          <t>1.653</t>
         </is>
       </c>
     </row>
@@ -4799,12 +4799,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.525</t>
+          <t>0.621</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.145</t>
+          <t>0.967</t>
         </is>
       </c>
     </row>
@@ -4822,12 +4822,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.545</t>
+          <t>1.567</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.836</t>
+          <t>3.783</t>
         </is>
       </c>
     </row>
@@ -4845,12 +4845,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.012</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>19.813</t>
+          <t>3.880</t>
         </is>
       </c>
     </row>
@@ -4886,12 +4886,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.009</t>
+          <t>1.015</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.059</t>
+          <t>1.053</t>
         </is>
       </c>
     </row>
@@ -4909,12 +4909,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.722</t>
+          <t>0.735</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.884</t>
+          <t>0.869</t>
         </is>
       </c>
     </row>
@@ -4932,12 +4932,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.088</t>
+          <t>1.096</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.191</t>
+          <t>1.183</t>
         </is>
       </c>
     </row>
@@ -4955,12 +4955,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.033</t>
+          <t>1.043</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.124</t>
+          <t>1.114</t>
         </is>
       </c>
     </row>
@@ -4978,12 +4978,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.815</t>
+          <t>0.825</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.906</t>
+          <t>0.894</t>
         </is>
       </c>
     </row>
@@ -5001,12 +5001,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.953</t>
+          <t>0.974</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.125</t>
+          <t>1.100</t>
         </is>
       </c>
     </row>
@@ -5024,12 +5024,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.087</t>
+          <t>1.121</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.374</t>
+          <t>1.332</t>
         </is>
       </c>
     </row>
@@ -5047,12 +5047,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.846</t>
+          <t>0.892</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.272</t>
+          <t>1.206</t>
         </is>
       </c>
     </row>
@@ -5070,12 +5070,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.994</t>
+          <t>1.039</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.761</t>
+          <t>1.684</t>
         </is>
       </c>
     </row>
@@ -5093,12 +5093,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.810</t>
+          <t>0.921</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2.218</t>
+          <t>1.949</t>
         </is>
       </c>
     </row>
@@ -5134,12 +5134,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.238</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.304</t>
+          <t>1.292</t>
         </is>
       </c>
     </row>
@@ -5157,12 +5157,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.494</t>
+          <t>1.515</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.789</t>
+          <t>1.764</t>
         </is>
       </c>
     </row>
@@ -5180,12 +5180,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>1.128</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.218</t>
         </is>
       </c>
     </row>
@@ -5203,12 +5203,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.133</t>
+          <t>1.149</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.253</t>
+          <t>1.236</t>
         </is>
       </c>
     </row>
@@ -5226,12 +5226,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>1.286</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.445</t>
+          <t>1.416</t>
         </is>
       </c>
     </row>
@@ -5249,12 +5249,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.072</t>
+          <t>1.138</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.454</t>
+          <t>1.370</t>
         </is>
       </c>
     </row>
@@ -5272,12 +5272,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.924</t>
+          <t>2.242</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3.625</t>
+          <t>3.110</t>
         </is>
       </c>
     </row>
@@ -5295,12 +5295,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.775</t>
+          <t>0.812</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.539</t>
+          <t>1.469</t>
         </is>
       </c>
     </row>
@@ -5318,12 +5318,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.429</t>
+          <t>0.454</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.258</t>
+          <t>1.188</t>
         </is>
       </c>
     </row>
@@ -5341,12 +5341,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.528</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>37.414</t>
+          <t>9.159</t>
         </is>
       </c>
     </row>
@@ -5382,12 +5382,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.306</t>
+          <t>1.322</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.459</t>
+          <t>1.441</t>
         </is>
       </c>
     </row>
@@ -5405,12 +5405,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.843</t>
+          <t>0.894</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.395</t>
+          <t>1.314</t>
         </is>
       </c>
     </row>
@@ -5428,12 +5428,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.075</t>
+          <t>1.092</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.332</t>
+          <t>1.311</t>
         </is>
       </c>
     </row>
@@ -5451,12 +5451,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.407</t>
+          <t>1.427</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.692</t>
+          <t>1.669</t>
         </is>
       </c>
     </row>
@@ -5474,12 +5474,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.264</t>
+          <t>1.295</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.583</t>
+          <t>1.545</t>
         </is>
       </c>
     </row>
@@ -5497,12 +5497,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.931</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.387</t>
+          <t>1.291</t>
         </is>
       </c>
     </row>
@@ -5520,12 +5520,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2.502</t>
+          <t>2.894</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5.011</t>
+          <t>4.333</t>
         </is>
       </c>
     </row>
@@ -5543,12 +5543,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.623</t>
+          <t>0.717</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.646</t>
+          <t>1.430</t>
         </is>
       </c>
     </row>
@@ -5566,12 +5566,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.953</t>
+          <t>0.984</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3.482</t>
+          <t>3.373</t>
         </is>
       </c>
     </row>
@@ -5589,12 +5589,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>2.789</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>80.481</t>
+          <t>23.223</t>
         </is>
       </c>
     </row>
@@ -5630,12 +5630,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>1.254</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>1.312</t>
         </is>
       </c>
     </row>
@@ -5653,12 +5653,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.972</t>
+          <t>0.995</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>1.190</t>
         </is>
       </c>
     </row>
@@ -5676,12 +5676,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.248</t>
+          <t>1.261</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.384</t>
+          <t>1.370</t>
         </is>
       </c>
     </row>
@@ -5699,12 +5699,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1.203</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.333</t>
+          <t>1.315</t>
         </is>
       </c>
     </row>
@@ -5722,12 +5722,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.069</t>
+          <t>1.092</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.233</t>
+          <t>1.207</t>
         </is>
       </c>
     </row>
@@ -5745,12 +5745,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1.162</t>
+          <t>1.234</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1.589</t>
+          <t>1.496</t>
         </is>
       </c>
     </row>
@@ -5768,12 +5768,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2.191</t>
+          <t>2.551</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4.154</t>
+          <t>3.567</t>
         </is>
       </c>
     </row>
@@ -5791,12 +5791,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.950</t>
+          <t>0.999</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1.933</t>
+          <t>1.838</t>
         </is>
       </c>
     </row>
@@ -5814,12 +5814,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.575</t>
+          <t>0.604</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1.703</t>
+          <t>1.621</t>
         </is>
       </c>
     </row>
@@ -5837,12 +5837,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.747</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>43.008</t>
+          <t>10.589</t>
         </is>
       </c>
     </row>
@@ -5878,12 +5878,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1.208</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1.275</t>
+          <t>1.264</t>
         </is>
       </c>
     </row>
@@ -5901,12 +5901,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1.260</t>
+          <t>1.281</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.474</t>
+          <t>1.449</t>
         </is>
       </c>
     </row>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.111</t>
+          <t>1.122</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.200</t>
+          <t>1.188</t>
         </is>
       </c>
     </row>
@@ -5947,12 +5947,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1.129</t>
+          <t>1.143</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>1.208</t>
         </is>
       </c>
     </row>
@@ -5970,12 +5970,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1.257</t>
+          <t>1.283</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1.421</t>
+          <t>1.393</t>
         </is>
       </c>
     </row>
@@ -5993,12 +5993,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1.130</t>
+          <t>1.200</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1.524</t>
+          <t>1.436</t>
         </is>
       </c>
     </row>
@@ -6016,12 +6016,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1.797</t>
+          <t>2.097</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3.390</t>
+          <t>2.906</t>
         </is>
       </c>
     </row>
@@ -6039,12 +6039,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0.918</t>
+          <t>0.964</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1.860</t>
+          <t>1.771</t>
         </is>
       </c>
     </row>
@@ -6062,12 +6062,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.432</t>
+          <t>0.456</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>1.297</t>
+          <t>1.228</t>
         </is>
       </c>
     </row>
@@ -6085,12 +6085,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.603</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>40.621</t>
+          <t>10.295</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.4167</t>
+          <t>1.4169</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9581</t>
+          <t>0.9580</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.004</t>
+          <t>1.003</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1192</t>
+          <t>1.1194</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.6699</t>
+          <t>1.6703</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.639</t>
+          <t>1.640</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.6071</t>
+          <t>1.6072</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -701,17 +701,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.9791</t>
+          <t>7.9810</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.387</t>
+          <t>4.388</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14.513</t>
+          <t>14.515</t>
         </is>
       </c>
     </row>
@@ -742,12 +742,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.5611</t>
+          <t>1.5616</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.535</t>
+          <t>1.536</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.2666</t>
+          <t>1.2670</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.7540</t>
+          <t>1.7549</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.722</t>
+          <t>1.723</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.787</t>
+          <t>1.788</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.6937</t>
+          <t>1.6942</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.647</t>
+          <t>1.648</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.2352</t>
+          <t>1.2353</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.6215</t>
+          <t>1.6216</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -949,12 +949,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.1726</t>
+          <t>3.1733</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.019</t>
+          <t>1.020</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1001</t>
+          <t>1.1003</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.3220</t>
+          <t>1.3226</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>1.262</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.5672</t>
+          <t>1.5677</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.604</t>
+          <t>1.605</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9623</t>
+          <t>0.9622</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.425</t>
+          <t>1.424</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0522</t>
+          <t>1.0520</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9005</t>
+          <t>0.9001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9685</t>
+          <t>0.9682</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0998</t>
+          <t>1.0997</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.1878</t>
+          <t>1.1876</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8712</t>
+          <t>0.8705</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.903</t>
+          <t>0.902</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0528</t>
+          <t>1.0526</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.2651</t>
+          <t>1.2650</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.4005</t>
+          <t>1.4006</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9674</t>
+          <t>0.9672</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.027</t>
+          <t>1.026</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.259</t>
+          <t>0.260</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0719</t>
+          <t>1.0722</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2119,17 +2119,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2719</t>
+          <t>1.2733</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>1.082</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.498</t>
+          <t>1.499</t>
         </is>
       </c>
     </row>
@@ -2142,12 +2142,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1881</t>
+          <t>1.1887</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.095</t>
+          <t>1.096</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9180</t>
+          <t>0.9181</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2070</t>
+          <t>1.2071</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8176</t>
+          <t>0.8169</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.757</t>
+          <t>0.756</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.883</t>
+          <t>0.882</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0363</t>
+          <t>1.0364</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.9664</t>
+          <t>0.9663</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.006</t>
+          <t>1.005</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1169</t>
+          <t>1.1170</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.0236</t>
+          <t>1.0237</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9403</t>
+          <t>0.9400</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2615,17 +2615,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.6428</t>
+          <t>0.6415</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.543</t>
+          <t>0.542</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.761</t>
+          <t>0.759</t>
         </is>
       </c>
     </row>
@@ -2638,17 +2638,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.8722</t>
+          <t>0.8718</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.804</t>
+          <t>0.803</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.947</t>
+          <t>0.946</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0527</t>
+          <t>1.0526</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.136</t>
+          <t>1.135</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.9254</t>
+          <t>0.9253</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.4920</t>
+          <t>1.4926</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2863,17 +2863,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.2063</t>
+          <t>1.2074</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.140</t>
+          <t>1.141</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.277</t>
+          <t>1.278</t>
         </is>
       </c>
     </row>
@@ -2886,17 +2886,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.4690</t>
+          <t>1.4701</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.421</t>
+          <t>1.422</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.518</t>
+          <t>1.519</t>
         </is>
       </c>
     </row>
@@ -2909,12 +2909,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.5937</t>
+          <t>1.5942</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.543</t>
+          <t>1.544</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.5824</t>
+          <t>1.5825</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3088,17 +3088,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.3919</t>
+          <t>1.3921</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.339</t>
+          <t>1.340</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.446</t>
+          <t>1.447</t>
         </is>
       </c>
     </row>
@@ -3111,17 +3111,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.9484</t>
+          <t>0.9482</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.808</t>
+          <t>0.809</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.113</t>
+          <t>1.112</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.2364</t>
+          <t>1.2367</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3157,12 +3157,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.7360</t>
+          <t>1.7364</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.615</t>
+          <t>1.616</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.210</t>
+          <t>1.211</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3336,17 +3336,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.4803</t>
+          <t>1.4810</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.455</t>
+          <t>1.456</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.506</t>
+          <t>1.507</t>
         </is>
       </c>
     </row>
@@ -3359,17 +3359,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.4754</t>
+          <t>1.4780</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.378</t>
+          <t>1.380</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.580</t>
+          <t>1.583</t>
         </is>
       </c>
     </row>
@@ -3382,17 +3382,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.4175</t>
+          <t>1.4185</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.370</t>
+          <t>1.371</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.466</t>
+          <t>1.467</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.6491</t>
+          <t>1.6497</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.702</t>
+          <t>1.703</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.4167</t>
+          <t>1.4168</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.2524</t>
+          <t>1.2525</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9159</t>
+          <t>0.9160</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3664,17 +3664,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.5083</t>
+          <t>1.5109</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.241</t>
+          <t>1.244</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.833</t>
+          <t>1.835</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9797</t>
+          <t>0.9798</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3912,17 +3912,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.5024</t>
+          <t>1.5048</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.367</t>
+          <t>1.369</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.652</t>
+          <t>1.654</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8917</t>
+          <t>0.8914</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0766</t>
+          <t>1.0765</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9961</t>
+          <t>0.9960</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.217</t>
+          <t>1.216</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.9102</t>
+          <t>0.9098</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.001</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.2319</t>
+          <t>1.2320</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4385,12 +4385,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.0185</t>
+          <t>1.0186</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.001</t>
+          <t>1.002</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4408,17 +4408,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.2002</t>
+          <t>1.2008</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.120</t>
+          <t>1.121</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.286</t>
+          <t>1.287</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.0152</t>
+          <t>1.0153</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1121</t>
+          <t>1.1120</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.7957</t>
+          <t>0.7947</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.962</t>
+          <t>0.960</t>
         </is>
       </c>
     </row>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.3132</t>
+          <t>1.3133</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.417</t>
+          <t>1.418</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.0336</t>
+          <t>1.0337</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4904,17 +4904,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.7988</t>
+          <t>0.7980</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.735</t>
+          <t>0.734</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.869</t>
+          <t>0.867</t>
         </is>
       </c>
     </row>
@@ -4927,12 +4927,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.1385</t>
+          <t>1.1389</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.096</t>
+          <t>1.097</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.0776</t>
+          <t>1.0778</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.2643</t>
+          <t>1.2646</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -5152,17 +5152,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.6351</t>
+          <t>1.6377</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.515</t>
+          <t>1.518</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.764</t>
+          <t>1.767</t>
         </is>
       </c>
     </row>
@@ -5175,12 +5175,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1.1722</t>
+          <t>1.1725</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.128</t>
+          <t>1.129</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1.1913</t>
+          <t>1.1914</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1.3495</t>
+          <t>1.3496</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2.6410</t>
+          <t>2.6411</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3.110</t>
+          <t>3.111</t>
         </is>
       </c>
     </row>
@@ -5336,12 +5336,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3.7414</t>
+          <t>3.7419</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.528</t>
+          <t>1.529</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.3805</t>
+          <t>1.3806</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -5400,17 +5400,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1.0841</t>
+          <t>1.0839</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.894</t>
+          <t>0.895</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.314</t>
+          <t>1.313</t>
         </is>
       </c>
     </row>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.1965</t>
+          <t>1.1968</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.5432</t>
+          <t>1.5435</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.669</t>
+          <t>1.670</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3.5410</t>
+          <t>3.5411</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -5584,17 +5584,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>8.0481</t>
+          <t>8.0491</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.789</t>
+          <t>2.790</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>23.223</t>
+          <t>23.224</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1.2822</t>
+          <t>1.2825</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5648,12 +5648,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1.0884</t>
+          <t>1.0883</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.995</t>
+          <t>0.996</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5671,17 +5671,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1.3146</t>
+          <t>1.3153</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>1.262</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.370</t>
+          <t>1.371</t>
         </is>
       </c>
     </row>
@@ -5694,12 +5694,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1.2665</t>
+          <t>1.2667</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>1.220</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>3.0165</t>
+          <t>3.0166</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4.3008</t>
+          <t>4.3013</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1.2413</t>
+          <t>1.2415</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5896,17 +5896,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1.3624</t>
+          <t>1.3638</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>1.282</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.449</t>
+          <t>1.450</t>
         </is>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1.1547</t>
+          <t>1.1549</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.188</t>
+          <t>1.189</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1.1752</t>
+          <t>1.1753</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1.3125</t>
+          <t>1.3126</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>4.0621</t>
+          <t>4.0626</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_20" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -494,17 +495,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.4169</t>
+          <t>1.3594</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.397</t>
+          <t>1.340</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.437</t>
+          <t>1.379</t>
         </is>
       </c>
     </row>
@@ -517,17 +518,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9580</t>
+          <t>0.9942</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.915</t>
+          <t>0.948</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.003</t>
+          <t>1.043</t>
         </is>
       </c>
     </row>
@@ -540,17 +541,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1194</t>
+          <t>1.1634</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>1.136</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.145</t>
+          <t>1.191</t>
         </is>
       </c>
     </row>
@@ -563,17 +564,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.6703</t>
+          <t>1.4294</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.640</t>
+          <t>1.402</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.701</t>
+          <t>1.457</t>
         </is>
       </c>
     </row>
@@ -586,17 +587,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.6072</t>
+          <t>1.7497</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.540</t>
+          <t>1.675</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.677</t>
+          <t>1.827</t>
         </is>
       </c>
     </row>
@@ -609,17 +610,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.9472</t>
+          <t>1.8127</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.785</t>
+          <t>1.658</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.124</t>
+          <t>1.981</t>
         </is>
       </c>
     </row>
@@ -632,17 +633,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.7622</t>
+          <t>1.7527</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.537</t>
+          <t>1.525</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.020</t>
+          <t>2.015</t>
         </is>
       </c>
     </row>
@@ -655,17 +656,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.1262</t>
+          <t>0.7692</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.655</t>
+          <t>0.591</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.732</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -678,17 +679,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.3165</t>
+          <t>1.1071</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>0.758</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.910</t>
+          <t>1.617</t>
         </is>
       </c>
     </row>
@@ -701,17 +702,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.9810</t>
+          <t>8.0519</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.388</t>
+          <t>4.426</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14.515</t>
+          <t>14.647</t>
         </is>
       </c>
     </row>
@@ -742,17 +743,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.5616</t>
+          <t>1.2247</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.536</t>
+          <t>1.204</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.588</t>
+          <t>1.246</t>
         </is>
       </c>
     </row>
@@ -765,17 +766,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.2670</t>
+          <t>1.0594</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.225</t>
+          <t>1.023</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.310</t>
+          <t>1.097</t>
         </is>
       </c>
     </row>
@@ -788,17 +789,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.7549</t>
+          <t>1.3431</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.723</t>
+          <t>1.318</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.788</t>
+          <t>1.369</t>
         </is>
       </c>
     </row>
@@ -811,17 +812,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.6942</t>
+          <t>1.2508</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.648</t>
+          <t>1.215</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.742</t>
+          <t>1.287</t>
         </is>
       </c>
     </row>
@@ -834,17 +835,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.2353</t>
+          <t>1.0093</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.168</t>
+          <t>0.953</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.306</t>
+          <t>1.069</t>
         </is>
       </c>
     </row>
@@ -857,17 +858,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.8737</t>
+          <t>1.6044</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.697</t>
+          <t>1.450</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.069</t>
+          <t>1.776</t>
         </is>
       </c>
     </row>
@@ -880,17 +881,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.6216</t>
+          <t>1.2700</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.376</t>
+          <t>1.075</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.910</t>
+          <t>1.501</t>
         </is>
       </c>
     </row>
@@ -903,17 +904,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.5699</t>
+          <t>0.8264</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.435</t>
+          <t>0.626</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.746</t>
+          <t>1.091</t>
         </is>
       </c>
     </row>
@@ -926,17 +927,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.9358</t>
+          <t>1.6539</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.374</t>
+          <t>1.173</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.728</t>
+          <t>2.331</t>
         </is>
       </c>
     </row>
@@ -949,17 +950,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.1733</t>
+          <t>3.2015</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.020</t>
+          <t>1.029</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9.873</t>
+          <t>9.962</t>
         </is>
       </c>
     </row>
@@ -990,17 +991,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1003</t>
+          <t>0.9010</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.078</t>
+          <t>0.882</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.123</t>
+          <t>0.920</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1014,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.3226</t>
+          <t>1.0656</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>1.015</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.386</t>
+          <t>1.118</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1037,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.5677</t>
+          <t>1.1545</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.531</t>
+          <t>1.127</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.605</t>
+          <t>1.183</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1060,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0143</t>
+          <t>0.8751</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.984</t>
+          <t>0.848</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.045</t>
+          <t>0.903</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1083,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.7686</t>
+          <t>0.5768</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.718</t>
+          <t>0.538</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.823</t>
+          <t>0.619</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1106,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9622</t>
+          <t>0.8851</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.846</t>
+          <t>0.776</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.095</t>
+          <t>1.010</t>
         </is>
       </c>
     </row>
@@ -1128,17 +1129,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.9202</t>
+          <t>0.7246</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.746</t>
+          <t>0.585</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.135</t>
+          <t>0.898</t>
         </is>
       </c>
     </row>
@@ -1151,17 +1152,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.2680</t>
+          <t>1.0744</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.186</t>
+          <t>0.737</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.385</t>
+          <t>1.567</t>
         </is>
       </c>
     </row>
@@ -1174,17 +1175,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.3512</t>
+          <t>1.4938</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.822</t>
+          <t>0.905</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.220</t>
+          <t>2.466</t>
         </is>
       </c>
     </row>
@@ -1295,17 +1296,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0520</t>
+          <t>1.1901</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.036</t>
+          <t>1.172</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>1.209</t>
         </is>
       </c>
     </row>
@@ -1318,17 +1319,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9001</t>
+          <t>0.9096</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.846</t>
+          <t>0.864</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.958</t>
+          <t>0.957</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1342,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9682</t>
+          <t>1.1979</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.939</t>
+          <t>1.167</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.999</t>
+          <t>1.229</t>
         </is>
       </c>
     </row>
@@ -1364,17 +1365,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0997</t>
+          <t>1.2488</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.073</t>
+          <t>1.223</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.127</t>
+          <t>1.275</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1388,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2016</t>
+          <t>1.4469</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.169</t>
+          <t>1.412</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.482</t>
         </is>
       </c>
     </row>
@@ -1410,17 +1411,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0766</t>
+          <t>1.2197</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>1.168</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.124</t>
+          <t>1.274</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1434,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.0475</t>
+          <t>0.8504</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.983</t>
+          <t>0.783</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>0.923</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1457,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.6147</t>
+          <t>1.3225</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.539</t>
+          <t>1.120</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.701</t>
+          <t>1.562</t>
         </is>
       </c>
     </row>
@@ -1479,17 +1480,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.5299</t>
+          <t>1.2001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.010</t>
+          <t>0.889</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.184</t>
+          <t>1.619</t>
         </is>
       </c>
     </row>
@@ -1502,17 +1503,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.3448</t>
+          <t>0.2766</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.884</t>
+          <t>0.127</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.046</t>
+          <t>0.603</t>
         </is>
       </c>
     </row>
@@ -1543,17 +1544,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.1876</t>
+          <t>1.1285</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.174</t>
+          <t>1.110</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.202</t>
+          <t>1.147</t>
         </is>
       </c>
     </row>
@@ -1566,17 +1567,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8705</t>
+          <t>0.8588</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.840</t>
+          <t>0.828</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.902</t>
+          <t>0.891</t>
         </is>
       </c>
     </row>
@@ -1589,17 +1590,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0526</t>
+          <t>1.0537</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.032</t>
+          <t>1.033</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.074</t>
+          <t>1.075</t>
         </is>
       </c>
     </row>
@@ -1612,17 +1613,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.2650</t>
+          <t>1.2589</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.241</t>
+          <t>1.233</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.290</t>
+          <t>1.285</t>
         </is>
       </c>
     </row>
@@ -1635,17 +1636,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.5152</t>
+          <t>1.1737</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.476</t>
+          <t>1.129</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.556</t>
+          <t>1.220</t>
         </is>
       </c>
     </row>
@@ -1658,17 +1659,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.4006</t>
+          <t>1.2763</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.330</t>
+          <t>1.188</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.475</t>
+          <t>1.371</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1682,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.4143</t>
+          <t>1.7979</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.303</t>
+          <t>1.609</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.535</t>
+          <t>2.008</t>
         </is>
       </c>
     </row>
@@ -1704,17 +1705,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.2226</t>
+          <t>3.0378</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.057</t>
+          <t>2.520</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.414</t>
+          <t>3.663</t>
         </is>
       </c>
     </row>
@@ -1727,17 +1728,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.9631</t>
+          <t>0.8304</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.767</t>
+          <t>0.637</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>1.083</t>
         </is>
       </c>
     </row>
@@ -1750,17 +1751,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.6418</t>
+          <t>0.2735</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.403</t>
+          <t>0.122</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.022</t>
+          <t>0.612</t>
         </is>
       </c>
     </row>
@@ -1791,17 +1792,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1289</t>
+          <t>0.9500</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.112</t>
+          <t>0.931</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.147</t>
+          <t>0.969</t>
         </is>
       </c>
     </row>
@@ -1814,17 +1815,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9672</t>
+          <t>0.9442</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.912</t>
+          <t>0.899</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.026</t>
+          <t>0.992</t>
         </is>
       </c>
     </row>
@@ -1837,17 +1838,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.0871</t>
+          <t>0.8796</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.057</t>
+          <t>0.859</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.118</t>
+          <t>0.901</t>
         </is>
       </c>
     </row>
@@ -1860,17 +1861,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.1503</t>
+          <t>1.0081</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.124</t>
+          <t>0.987</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.177</t>
+          <t>1.030</t>
         </is>
       </c>
     </row>
@@ -1883,17 +1884,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.2610</t>
+          <t>0.8112</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>0.779</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.299</t>
+          <t>0.844</t>
         </is>
       </c>
     </row>
@@ -1906,17 +1907,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.3009</t>
+          <t>1.0464</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>0.968</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.378</t>
+          <t>1.131</t>
         </is>
       </c>
     </row>
@@ -1929,17 +1930,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.3502</t>
+          <t>2.1141</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.854</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.481</t>
+          <t>2.411</t>
         </is>
       </c>
     </row>
@@ -1952,17 +1953,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.9889</t>
+          <t>2.2970</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.658</t>
+          <t>1.806</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.386</t>
+          <t>2.922</t>
         </is>
       </c>
     </row>
@@ -1975,17 +1976,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.3807</t>
+          <t>1.8892</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.281</t>
+          <t>1.284</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.516</t>
+          <t>2.779</t>
         </is>
       </c>
     </row>
@@ -1998,17 +1999,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.4773</t>
+          <t>0.9885</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.260</t>
+          <t>0.325</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.878</t>
+          <t>3.006</t>
         </is>
       </c>
     </row>
@@ -2025,6 +2026,807 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dose_Combination</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>YearOfBirth</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>KCOR</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Lower</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Reporting date: 2023-01-02</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 vs 0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ASMR (direct)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.9719</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.957</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.987</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.8615</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.808</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.918</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.9598</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.991</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.9518</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.928</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.976</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.1361</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.104</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.169</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.9500</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.909</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.993</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.9673</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.905</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.034</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.7235</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.631</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.830</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.6233</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.491</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.791</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.3025</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.855</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.984</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ASMR (direct)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.0455</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.033</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.058</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.8659</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.835</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.898</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1.0027</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.982</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.024</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.0389</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.018</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.060</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.2645</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.230</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.299</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.0187</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.966</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.075</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.1103</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.020</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.209</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.9553</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.821</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.112</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3.5722</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.840</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>4.493</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.6304</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.383</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.037</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ASMR (direct)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1.0757</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.059</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1.093</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1.0051</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.946</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.068</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1.0447</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.015</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.076</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1.0915</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.066</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.118</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1.1130</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.079</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1.147</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1.0723</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.011</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1.138</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1.1479</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.043</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.263</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1.3202</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.091</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1.597</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5.7315</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.199</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>7.824</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.4840</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.257</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.912</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2096,17 +2898,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0722</t>
+          <t>1.0488</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.006</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>1.094</t>
         </is>
       </c>
     </row>
@@ -2119,17 +2921,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2733</t>
+          <t>0.9866</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.082</t>
+          <t>0.825</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.499</t>
+          <t>1.180</t>
         </is>
       </c>
     </row>
@@ -2142,17 +2944,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1887</t>
+          <t>1.1354</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.096</t>
+          <t>1.040</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.289</t>
+          <t>1.239</t>
         </is>
       </c>
     </row>
@@ -2165,17 +2967,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9181</t>
+          <t>1.0031</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.851</t>
+          <t>0.924</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>1.089</t>
         </is>
       </c>
     </row>
@@ -2188,17 +2990,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2071</t>
+          <t>1.0025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>0.915</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.312</t>
+          <t>1.099</t>
         </is>
       </c>
     </row>
@@ -2211,17 +3013,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0105</t>
+          <t>1.1365</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>1.005</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.134</t>
+          <t>1.285</t>
         </is>
       </c>
     </row>
@@ -2234,17 +3036,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.8909</t>
+          <t>1.0293</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.765</t>
+          <t>0.875</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.038</t>
+          <t>1.211</t>
         </is>
       </c>
     </row>
@@ -2257,17 +3059,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.1599</t>
+          <t>0.9692</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.922</t>
+          <t>0.758</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.459</t>
+          <t>1.240</t>
         </is>
       </c>
     </row>
@@ -2280,17 +3082,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.5780</t>
+          <t>1.8406</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.133</t>
+          <t>1.298</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.198</t>
+          <t>2.610</t>
         </is>
       </c>
     </row>
@@ -2303,17 +3105,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.5085</t>
+          <t>0.9445</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.437</t>
+          <t>0.515</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.379</t>
+          <t>1.731</t>
         </is>
       </c>
     </row>
@@ -2344,17 +3146,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0079</t>
+          <t>1.0206</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.987</t>
+          <t>0.998</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.029</t>
+          <t>1.043</t>
         </is>
       </c>
     </row>
@@ -2367,17 +3169,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8169</t>
+          <t>0.7740</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.756</t>
+          <t>0.711</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.882</t>
+          <t>0.842</t>
         </is>
       </c>
     </row>
@@ -2390,17 +3192,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0364</t>
+          <t>1.0203</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.994</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.081</t>
+          <t>1.068</t>
         </is>
       </c>
     </row>
@@ -2413,17 +3215,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.9663</t>
+          <t>1.0554</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>1.011</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.005</t>
+          <t>1.102</t>
         </is>
       </c>
     </row>
@@ -2436,17 +3238,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1170</t>
+          <t>1.0269</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.065</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.171</t>
+          <t>1.082</t>
         </is>
       </c>
     </row>
@@ -2459,17 +3261,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.0237</t>
+          <t>0.9563</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.956</t>
+          <t>0.888</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.096</t>
+          <t>1.030</t>
         </is>
       </c>
     </row>
@@ -2482,17 +3284,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.0936</t>
+          <t>1.1716</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.997</t>
+          <t>1.061</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>1.293</t>
         </is>
       </c>
     </row>
@@ -2505,17 +3307,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.0699</t>
+          <t>1.2369</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.921</t>
+          <t>1.056</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>1.448</t>
         </is>
       </c>
     </row>
@@ -2528,17 +3330,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.4223</t>
+          <t>2.3063</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.146</t>
+          <t>1.843</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.765</t>
+          <t>2.886</t>
         </is>
       </c>
     </row>
@@ -2551,17 +3353,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.3813</t>
+          <t>1.7441</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.044</t>
+          <t>1.291</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.828</t>
+          <t>2.357</t>
         </is>
       </c>
     </row>
@@ -2592,17 +3394,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9400</t>
+          <t>0.9731</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.903</t>
+          <t>0.933</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.979</t>
+          <t>1.015</t>
         </is>
       </c>
     </row>
@@ -2615,17 +3417,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.6415</t>
+          <t>0.7845</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.542</t>
+          <t>0.652</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.759</t>
+          <t>0.943</t>
         </is>
       </c>
     </row>
@@ -2638,17 +3440,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.8718</t>
+          <t>0.8987</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.803</t>
+          <t>0.823</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.946</t>
+          <t>0.981</t>
         </is>
       </c>
     </row>
@@ -2661,17 +3463,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0526</t>
+          <t>1.0521</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.976</t>
+          <t>0.969</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.135</t>
+          <t>1.142</t>
         </is>
       </c>
     </row>
@@ -2684,17 +3486,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.9253</t>
+          <t>1.0243</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.851</t>
+          <t>0.934</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.006</t>
+          <t>1.123</t>
         </is>
       </c>
     </row>
@@ -2707,17 +3509,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.0130</t>
+          <t>0.8414</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>0.742</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>0.954</t>
         </is>
       </c>
     </row>
@@ -2730,17 +3532,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.2276</t>
+          <t>1.1383</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.051</t>
+          <t>0.964</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.434</t>
+          <t>1.344</t>
         </is>
       </c>
     </row>
@@ -2753,17 +3555,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.9224</t>
+          <t>1.2762</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.724</t>
+          <t>0.984</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.175</t>
+          <t>1.654</t>
         </is>
       </c>
     </row>
@@ -2776,17 +3578,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.9013</t>
+          <t>1.2530</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.639</t>
+          <t>0.876</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.271</t>
+          <t>1.792</t>
         </is>
       </c>
     </row>
@@ -2799,17 +3601,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.5506</t>
+          <t>1.8466</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.313</t>
+          <t>1.002</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.968</t>
+          <t>3.403</t>
         </is>
       </c>
     </row>
@@ -2840,17 +3642,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.4926</t>
+          <t>1.3386</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.467</t>
+          <t>1.315</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.518</t>
+          <t>1.363</t>
         </is>
       </c>
     </row>
@@ -2863,17 +3665,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.2074</t>
+          <t>1.1892</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.141</t>
+          <t>1.119</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.278</t>
+          <t>1.264</t>
         </is>
       </c>
     </row>
@@ -2886,17 +3688,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.4701</t>
+          <t>1.3837</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.422</t>
+          <t>1.335</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.519</t>
+          <t>1.434</t>
         </is>
       </c>
     </row>
@@ -2909,17 +3711,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.5942</t>
+          <t>1.3708</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.544</t>
+          <t>1.324</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.646</t>
+          <t>1.420</t>
         </is>
       </c>
     </row>
@@ -2932,17 +3734,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.5825</t>
+          <t>1.3893</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.521</t>
+          <t>1.331</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.646</t>
+          <t>1.450</t>
         </is>
       </c>
     </row>
@@ -2955,17 +3757,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.2821</t>
+          <t>1.1039</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>1.033</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.363</t>
+          <t>1.180</t>
         </is>
       </c>
     </row>
@@ -2978,17 +3780,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.3494</t>
+          <t>1.2329</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.232</t>
+          <t>1.118</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.478</t>
+          <t>1.359</t>
         </is>
       </c>
     </row>
@@ -3001,17 +3803,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.9958</t>
+          <t>1.0752</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.848</t>
+          <t>0.906</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.169</t>
+          <t>1.275</t>
         </is>
       </c>
     </row>
@@ -3024,17 +3826,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.2055</t>
+          <t>0.7304</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>0.548</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.565</t>
+          <t>0.973</t>
         </is>
       </c>
     </row>
@@ -3047,17 +3849,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.8977</t>
+          <t>0.7681</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.577</t>
+          <t>0.468</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.397</t>
+          <t>1.260</t>
         </is>
       </c>
     </row>
@@ -3088,17 +3890,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.3921</t>
+          <t>1.2763</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.340</t>
+          <t>1.226</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.447</t>
+          <t>1.329</t>
         </is>
       </c>
     </row>
@@ -3111,17 +3913,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.9482</t>
+          <t>1.2053</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.809</t>
+          <t>1.012</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.112</t>
+          <t>1.436</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3936,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.2367</t>
+          <t>1.2187</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.144</t>
+          <t>1.121</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.336</t>
+          <t>1.325</t>
         </is>
       </c>
     </row>
@@ -3157,17 +3959,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.7364</t>
+          <t>1.3665</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.616</t>
+          <t>1.264</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.866</t>
+          <t>1.478</t>
         </is>
       </c>
     </row>
@@ -3180,17 +3982,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.3110</t>
+          <t>1.3858</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.211</t>
+          <t>1.270</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.420</t>
+          <t>1.513</t>
         </is>
       </c>
     </row>
@@ -3203,17 +4005,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.2687</t>
+          <t>0.9713</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.132</t>
+          <t>0.860</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.422</t>
+          <t>1.097</t>
         </is>
       </c>
     </row>
@@ -3226,17 +4028,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.5147</t>
+          <t>1.1978</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.297</t>
+          <t>1.016</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.769</t>
+          <t>1.413</t>
         </is>
       </c>
     </row>
@@ -3249,17 +4051,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.8585</t>
+          <t>1.1093</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.669</t>
+          <t>0.849</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.101</t>
+          <t>1.450</t>
         </is>
       </c>
     </row>
@@ -3272,17 +4074,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.7640</t>
+          <t>0.3968</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.526</t>
+          <t>0.266</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>0.592</t>
         </is>
       </c>
     </row>
@@ -3295,17 +4097,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.3578</t>
+          <t>0.8133</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.185</t>
+          <t>0.393</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.692</t>
+          <t>1.682</t>
         </is>
       </c>
     </row>
@@ -3336,17 +4138,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.4810</t>
+          <t>1.3115</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.456</t>
+          <t>1.288</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.507</t>
+          <t>1.335</t>
         </is>
       </c>
     </row>
@@ -3359,17 +4161,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.4780</t>
+          <t>1.5364</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.380</t>
+          <t>1.425</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.583</t>
+          <t>1.656</t>
         </is>
       </c>
     </row>
@@ -3382,17 +4184,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.4185</t>
+          <t>1.3561</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.371</t>
+          <t>1.307</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.467</t>
+          <t>1.407</t>
         </is>
       </c>
     </row>
@@ -3405,17 +4207,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.6497</t>
+          <t>1.2988</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.598</t>
+          <t>1.255</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.703</t>
+          <t>1.344</t>
         </is>
       </c>
     </row>
@@ -3428,17 +4230,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.4168</t>
+          <t>1.3529</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.361</t>
+          <t>1.295</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.475</t>
+          <t>1.414</t>
         </is>
       </c>
     </row>
@@ -3451,17 +4253,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.2525</t>
+          <t>1.1544</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.172</t>
+          <t>1.074</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.338</t>
+          <t>1.240</t>
         </is>
       </c>
     </row>
@@ -3474,17 +4276,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.2339</t>
+          <t>1.0523</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.121</t>
+          <t>0.949</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.358</t>
+          <t>1.166</t>
         </is>
       </c>
     </row>
@@ -3497,17 +4299,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.9308</t>
+          <t>0.8692</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.778</t>
+          <t>0.719</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.113</t>
+          <t>1.050</t>
         </is>
       </c>
     </row>
@@ -3520,17 +4322,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.8476</t>
+          <t>0.3167</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.643</t>
+          <t>0.235</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>0.426</t>
         </is>
       </c>
     </row>
@@ -3543,17 +4345,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.6499</t>
+          <t>0.4404</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.414</t>
+          <t>0.267</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.021</t>
+          <t>0.727</t>
         </is>
       </c>
     </row>
@@ -3569,7 +4371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3641,17 +4443,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9160</t>
+          <t>0.8895</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.878</t>
+          <t>0.851</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.956</t>
+          <t>0.930</t>
         </is>
       </c>
     </row>
@@ -3664,17 +4466,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.5109</t>
+          <t>1.8848</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.244</t>
+          <t>1.536</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.835</t>
+          <t>2.314</t>
         </is>
       </c>
     </row>
@@ -3687,17 +4489,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9798</t>
+          <t>0.9071</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.892</t>
+          <t>0.819</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.076</t>
+          <t>1.005</t>
         </is>
       </c>
     </row>
@@ -3710,17 +4512,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.7719</t>
+          <t>0.8243</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.713</t>
+          <t>0.755</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.836</t>
+          <t>0.900</t>
         </is>
       </c>
     </row>
@@ -3733,17 +4535,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.9542</t>
+          <t>0.8125</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.875</t>
+          <t>0.739</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.041</t>
+          <t>0.893</t>
         </is>
       </c>
     </row>
@@ -3756,17 +4558,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0988</t>
+          <t>0.8685</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.988</t>
+          <t>0.775</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.222</t>
+          <t>0.974</t>
         </is>
       </c>
     </row>
@@ -3779,17 +4581,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7458</t>
+          <t>0.7192</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.647</t>
+          <t>0.615</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.860</t>
+          <t>0.841</t>
         </is>
       </c>
     </row>
@@ -3802,17 +4604,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.0785</t>
+          <t>0.9011</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.874</t>
+          <t>0.719</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.331</t>
+          <t>1.130</t>
         </is>
       </c>
     </row>
@@ -3825,17 +4627,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.4034</t>
+          <t>0.7338</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.264</t>
+          <t>0.469</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.616</t>
+          <t>1.148</t>
         </is>
       </c>
     </row>
@@ -3848,17 +4650,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.4649</t>
+          <t>0.6102</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.249</t>
+          <t>0.297</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.867</t>
+          <t>1.254</t>
         </is>
       </c>
     </row>
@@ -3889,17 +4691,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.9854</t>
+          <t>0.9839</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.964</t>
+          <t>0.962</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.007</t>
+          <t>1.006</t>
         </is>
       </c>
     </row>
@@ -3912,17 +4714,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.5048</t>
+          <t>1.4370</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.369</t>
+          <t>1.297</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.654</t>
+          <t>1.592</t>
         </is>
       </c>
     </row>
@@ -3935,17 +4737,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8914</t>
+          <t>0.9101</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.852</t>
+          <t>0.866</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.933</t>
+          <t>0.956</t>
         </is>
       </c>
     </row>
@@ -3958,17 +4760,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.9406</t>
+          <t>0.9314</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.903</t>
+          <t>0.891</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.980</t>
+          <t>0.974</t>
         </is>
       </c>
     </row>
@@ -3981,17 +4783,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1755</t>
+          <t>1.0512</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.121</t>
+          <t>0.999</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.233</t>
+          <t>1.106</t>
         </is>
       </c>
     </row>
@@ -4004,17 +4806,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.9190</t>
+          <t>1.0065</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.861</t>
+          <t>0.939</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.981</t>
+          <t>1.079</t>
         </is>
       </c>
     </row>
@@ -4027,17 +4829,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.8755</t>
+          <t>0.9187</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.802</t>
+          <t>0.837</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.955</t>
+          <t>1.008</t>
         </is>
       </c>
     </row>
@@ -4050,17 +4852,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.8059</t>
+          <t>1.2053</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.705</t>
+          <t>1.046</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.921</t>
+          <t>1.389</t>
         </is>
       </c>
     </row>
@@ -4073,17 +4875,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.7425</t>
+          <t>1.2110</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.603</t>
+          <t>0.972</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.915</t>
+          <t>1.509</t>
         </is>
       </c>
     </row>
@@ -4096,17 +4898,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.7581</t>
+          <t>0.9006</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.574</t>
+          <t>0.670</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.001</t>
+          <t>1.210</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4939,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0765</t>
+          <t>1.1061</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>1.057</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.124</t>
+          <t>1.157</t>
         </is>
       </c>
     </row>
@@ -4160,17 +4962,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9960</t>
+          <t>0.7624</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.815</t>
+          <t>0.618</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>0.941</t>
         </is>
       </c>
     </row>
@@ -4183,17 +4985,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.9098</t>
+          <t>1.0032</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.828</t>
+          <t>0.904</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>1.114</t>
         </is>
       </c>
     </row>
@@ -4206,17 +5008,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.2185</t>
+          <t>1.1299</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.124</t>
+          <t>1.034</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.321</t>
+          <t>1.234</t>
         </is>
       </c>
     </row>
@@ -4229,17 +5031,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.2320</t>
+          <t>1.2939</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.128</t>
+          <t>1.175</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.345</t>
+          <t>1.424</t>
         </is>
       </c>
     </row>
@@ -4252,17 +5054,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.8364</t>
+          <t>1.1588</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.750</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.933</t>
+          <t>1.303</t>
         </is>
       </c>
     </row>
@@ -4275,17 +5077,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1739</t>
+          <t>1.2773</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.013</t>
+          <t>1.088</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.360</t>
+          <t>1.500</t>
         </is>
       </c>
     </row>
@@ -4298,17 +5100,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.7472</t>
+          <t>1.3376</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.598</t>
+          <t>1.055</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.933</t>
+          <t>1.695</t>
         </is>
       </c>
     </row>
@@ -4321,17 +5123,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.8405</t>
+          <t>1.6503</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.188</t>
+          <t>1.040</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.852</t>
+          <t>2.618</t>
         </is>
       </c>
     </row>
@@ -4344,17 +5146,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.8713</t>
+          <t>1.4759</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.995</t>
+          <t>0.713</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.519</t>
+          <t>3.056</t>
         </is>
       </c>
     </row>
@@ -4385,17 +5187,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.0186</t>
+          <t>1.0277</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.002</t>
+          <t>1.010</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.036</t>
+          <t>1.046</t>
         </is>
       </c>
     </row>
@@ -4408,17 +5210,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.2008</t>
+          <t>1.0750</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.121</t>
+          <t>0.996</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.287</t>
+          <t>1.160</t>
         </is>
       </c>
     </row>
@@ -4431,17 +5233,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.0153</t>
+          <t>1.0104</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.981</t>
+          <t>0.974</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.048</t>
         </is>
       </c>
     </row>
@@ -4454,17 +5256,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.0137</t>
+          <t>1.0395</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.982</t>
+          <t>1.005</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.046</t>
+          <t>1.076</t>
         </is>
       </c>
     </row>
@@ -4477,17 +5279,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.0096</t>
+          <t>0.9919</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.972</t>
+          <t>0.952</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.049</t>
+          <t>1.033</t>
         </is>
       </c>
     </row>
@@ -4500,17 +5302,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.9513</t>
+          <t>1.0091</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>0.952</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.005</t>
+          <t>1.070</t>
         </is>
       </c>
     </row>
@@ -4523,17 +5325,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.0699</t>
+          <t>1.1035</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.989</t>
+          <t>1.016</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.157</t>
+          <t>1.199</t>
         </is>
       </c>
     </row>
@@ -4546,17 +5348,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.8359</t>
+          <t>1.1227</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.732</t>
+          <t>0.974</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.955</t>
+          <t>1.294</t>
         </is>
       </c>
     </row>
@@ -4569,17 +5371,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.9823</t>
+          <t>1.3088</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.793</t>
+          <t>1.046</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>1.638</t>
         </is>
       </c>
     </row>
@@ -4592,17 +5394,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.0159</t>
+          <t>0.9033</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.708</t>
+          <t>0.614</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.457</t>
+          <t>1.329</t>
         </is>
       </c>
     </row>
@@ -4633,17 +5435,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1120</t>
+          <t>1.1554</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.067</t>
+          <t>1.107</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.159</t>
+          <t>1.206</t>
         </is>
       </c>
     </row>
@@ -4656,17 +5458,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.7947</t>
+          <t>0.5703</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.658</t>
+          <t>0.467</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.960</t>
+          <t>0.696</t>
         </is>
       </c>
     </row>
@@ -4679,17 +5481,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.0363</t>
+          <t>1.1138</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.947</t>
+          <t>1.009</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.134</t>
+          <t>1.230</t>
         </is>
       </c>
     </row>
@@ -4702,17 +5504,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.3133</t>
+          <t>1.2610</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.217</t>
+          <t>1.160</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.418</t>
+          <t>1.371</t>
         </is>
       </c>
     </row>
@@ -4725,17 +5527,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.0580</t>
+          <t>1.2209</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.974</t>
+          <t>1.114</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.150</t>
+          <t>1.337</t>
         </is>
       </c>
     </row>
@@ -4748,17 +5550,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.8658</t>
+          <t>1.1619</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.781</t>
+          <t>1.039</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.960</t>
+          <t>1.299</t>
         </is>
       </c>
     </row>
@@ -4771,17 +5573,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.4346</t>
+          <t>1.5343</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.245</t>
+          <t>1.314</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.653</t>
+          <t>1.792</t>
         </is>
       </c>
     </row>
@@ -4794,17 +5596,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.7751</t>
+          <t>1.2459</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.621</t>
+          <t>0.983</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.967</t>
+          <t>1.579</t>
         </is>
       </c>
     </row>
@@ -4817,17 +5619,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2.4348</t>
+          <t>1.7835</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.567</t>
+          <t>1.122</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.783</t>
+          <t>2.835</t>
         </is>
       </c>
     </row>
@@ -4840,17 +5642,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1.9813</t>
+          <t>1.4803</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.012</t>
+          <t>0.686</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3.880</t>
+          <t>3.194</t>
         </is>
       </c>
     </row>
@@ -4881,17 +5683,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.0337</t>
+          <t>1.0445</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.015</t>
+          <t>1.025</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.053</t>
+          <t>1.065</t>
         </is>
       </c>
     </row>
@@ -4904,17 +5706,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.7980</t>
+          <t>0.7480</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.734</t>
+          <t>0.684</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.867</t>
+          <t>0.819</t>
         </is>
       </c>
     </row>
@@ -4927,17 +5729,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.1389</t>
+          <t>1.1102</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.097</t>
+          <t>1.065</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.183</t>
+          <t>1.157</t>
         </is>
       </c>
     </row>
@@ -4950,17 +5752,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.0778</t>
+          <t>1.1161</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.043</t>
+          <t>1.077</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.114</t>
+          <t>1.157</t>
         </is>
       </c>
     </row>
@@ -4973,17 +5775,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.8588</t>
+          <t>0.9436</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.825</t>
+          <t>0.904</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.894</t>
+          <t>0.985</t>
         </is>
       </c>
     </row>
@@ -4996,17 +5798,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.0351</t>
+          <t>1.0026</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.974</t>
+          <t>0.940</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.070</t>
         </is>
       </c>
     </row>
@@ -5019,17 +5821,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.2221</t>
+          <t>1.2012</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.121</t>
+          <t>1.096</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.332</t>
+          <t>1.316</t>
         </is>
       </c>
     </row>
@@ -5042,17 +5844,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.0373</t>
+          <t>0.9314</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.892</t>
+          <t>0.795</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>1.092</t>
         </is>
       </c>
     </row>
@@ -5065,17 +5867,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.3229</t>
+          <t>1.0807</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.039</t>
+          <t>0.841</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.684</t>
+          <t>1.388</t>
         </is>
       </c>
     </row>
@@ -5088,17 +5890,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1.3401</t>
+          <t>1.0030</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.921</t>
+          <t>0.672</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.949</t>
+          <t>1.497</t>
         </is>
       </c>
     </row>
@@ -5129,17 +5931,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.2646</t>
+          <t>1.2044</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>1.178</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.292</t>
+          <t>1.231</t>
         </is>
       </c>
     </row>
@@ -5152,17 +5954,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.6377</t>
+          <t>1.2684</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.518</t>
+          <t>1.167</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.767</t>
+          <t>1.378</t>
         </is>
       </c>
     </row>
@@ -5175,17 +5977,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1.1725</t>
+          <t>1.1405</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.129</t>
+          <t>1.095</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>1.188</t>
         </is>
       </c>
     </row>
@@ -5198,17 +6000,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1.1914</t>
+          <t>1.1860</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.149</t>
+          <t>1.140</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>1.234</t>
         </is>
       </c>
     </row>
@@ -5221,17 +6023,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1.3496</t>
+          <t>1.1834</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.286</t>
+          <t>1.124</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.416</t>
+          <t>1.246</t>
         </is>
       </c>
     </row>
@@ -5244,17 +6046,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1.2486</t>
+          <t>1.2335</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.138</t>
+          <t>1.119</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.370</t>
+          <t>1.360</t>
         </is>
       </c>
     </row>
@@ -5267,17 +6069,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2.6411</t>
+          <t>1.8672</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2.242</t>
+          <t>1.573</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3.111</t>
+          <t>2.216</t>
         </is>
       </c>
     </row>
@@ -5290,17 +6092,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1.0920</t>
+          <t>1.1203</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.812</t>
+          <t>0.821</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.469</t>
+          <t>1.528</t>
         </is>
       </c>
     </row>
@@ -5313,17 +6115,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.7350</t>
+          <t>2.2387</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.454</t>
+          <t>1.364</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.188</t>
+          <t>3.675</t>
         </is>
       </c>
     </row>
@@ -5336,17 +6138,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3.7419</t>
+          <t>3.9520</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.529</t>
+          <t>1.610</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>9.159</t>
+          <t>9.698</t>
         </is>
       </c>
     </row>
@@ -5377,17 +6179,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.3806</t>
+          <t>1.3527</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.322</t>
+          <t>1.293</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.441</t>
+          <t>1.415</t>
         </is>
       </c>
     </row>
@@ -5400,17 +6202,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1.0839</t>
+          <t>0.6729</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.895</t>
+          <t>0.550</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.313</t>
+          <t>0.823</t>
         </is>
       </c>
     </row>
@@ -5423,17 +6225,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.1968</t>
+          <t>1.2573</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>1.137</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.311</t>
+          <t>1.391</t>
         </is>
       </c>
     </row>
@@ -5446,17 +6248,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.5435</t>
+          <t>1.4388</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.427</t>
+          <t>1.320</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.670</t>
+          <t>1.568</t>
         </is>
       </c>
     </row>
@@ -5469,17 +6271,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.4143</t>
+          <t>1.4566</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.295</t>
+          <t>1.323</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.545</t>
+          <t>1.604</t>
         </is>
       </c>
     </row>
@@ -5492,17 +6294,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1.1364</t>
+          <t>1.4202</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>1.239</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.291</t>
+          <t>1.628</t>
         </is>
       </c>
     </row>
@@ -5515,17 +6317,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3.5411</t>
+          <t>2.5961</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2.894</t>
+          <t>2.092</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4.333</t>
+          <t>3.222</t>
         </is>
       </c>
     </row>
@@ -5538,17 +6340,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1.0126</t>
+          <t>1.2432</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.717</t>
+          <t>0.864</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.430</t>
+          <t>1.789</t>
         </is>
       </c>
     </row>
@@ -5561,17 +6363,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1.8218</t>
+          <t>3.0506</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.984</t>
+          <t>1.608</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3.373</t>
+          <t>5.788</t>
         </is>
       </c>
     </row>
@@ -5589,12 +6391,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.790</t>
+          <t>2.633</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>23.224</t>
+          <t>24.604</t>
         </is>
       </c>
     </row>
@@ -5625,17 +6427,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1.2825</t>
+          <t>1.2238</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1.254</t>
+          <t>1.195</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.312</t>
+          <t>1.253</t>
         </is>
       </c>
     </row>
@@ -5648,17 +6450,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1.0883</t>
+          <t>0.8827</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>0.802</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.190</t>
+          <t>0.972</t>
         </is>
       </c>
     </row>
@@ -5671,17 +6473,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1.3153</t>
+          <t>1.2533</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>1.198</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.371</t>
+          <t>1.311</t>
         </is>
       </c>
     </row>
@@ -5694,17 +6496,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1.2667</t>
+          <t>1.2734</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>1.222</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.315</t>
+          <t>1.327</t>
         </is>
       </c>
     </row>
@@ -5717,17 +6519,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1.1480</t>
+          <t>1.1257</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>1.067</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.207</t>
+          <t>1.187</t>
         </is>
       </c>
     </row>
@@ -5740,17 +6542,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1.3586</t>
+          <t>1.2256</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1.234</t>
+          <t>1.107</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1.496</t>
+          <t>1.357</t>
         </is>
       </c>
     </row>
@@ -5763,17 +6565,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>3.0166</t>
+          <t>2.0325</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2.551</t>
+          <t>1.705</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3.567</t>
+          <t>2.423</t>
         </is>
       </c>
     </row>
@@ -5786,17 +6588,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1.3551</t>
+          <t>0.9294</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.999</t>
+          <t>0.676</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1.838</t>
+          <t>1.278</t>
         </is>
       </c>
     </row>
@@ -5809,17 +6611,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.9898</t>
+          <t>1.8486</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.604</t>
+          <t>1.112</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1.621</t>
+          <t>3.073</t>
         </is>
       </c>
     </row>
@@ -5832,17 +6634,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4.3013</t>
+          <t>4.5568</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1.747</t>
+          <t>1.845</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>10.589</t>
+          <t>11.253</t>
         </is>
       </c>
     </row>
@@ -5873,17 +6675,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1.2415</t>
+          <t>1.1715</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>1.150</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1.264</t>
+          <t>1.194</t>
         </is>
       </c>
     </row>
@@ -5896,17 +6698,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1.3638</t>
+          <t>1.1799</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1.282</t>
+          <t>1.103</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.450</t>
+          <t>1.262</t>
         </is>
       </c>
     </row>
@@ -5919,17 +6721,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1.1549</t>
+          <t>1.1288</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.122</t>
+          <t>1.094</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.189</t>
+          <t>1.164</t>
         </is>
       </c>
     </row>
@@ -5942,17 +6744,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1.1753</t>
+          <t>1.1410</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1.143</t>
+          <t>1.108</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1.208</t>
+          <t>1.175</t>
         </is>
       </c>
     </row>
@@ -5965,17 +6767,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1.3367</t>
+          <t>1.1931</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1.283</t>
+          <t>1.142</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1.393</t>
+          <t>1.246</t>
         </is>
       </c>
     </row>
@@ -5988,17 +6790,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1.3126</t>
+          <t>1.2224</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1.200</t>
+          <t>1.112</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1.436</t>
+          <t>1.344</t>
         </is>
       </c>
     </row>
@@ -6011,17 +6813,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2.4684</t>
+          <t>1.6920</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.097</t>
+          <t>1.427</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2.906</t>
+          <t>2.007</t>
         </is>
       </c>
     </row>
@@ -6034,17 +6836,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1.3064</t>
+          <t>0.9978</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0.964</t>
+          <t>0.726</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1.771</t>
+          <t>1.372</t>
         </is>
       </c>
     </row>
@@ -6057,17 +6859,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.7482</t>
+          <t>1.7104</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.456</t>
+          <t>1.027</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>2.848</t>
         </is>
       </c>
     </row>
@@ -6080,17 +6882,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>4.0626</t>
+          <t>4.2137</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1.603</t>
+          <t>1.650</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>10.295</t>
+          <t>10.760</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -495,17 +495,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.3594</t>
+          <t>1.3467</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.340</t>
+          <t>1.327</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.379</t>
+          <t>1.366</t>
         </is>
       </c>
     </row>
@@ -518,17 +518,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9942</t>
+          <t>0.9570</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.948</t>
+          <t>0.913</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.043</t>
+          <t>1.003</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1634</t>
+          <t>1.1395</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.136</t>
+          <t>1.113</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.191</t>
+          <t>1.166</t>
         </is>
       </c>
     </row>
@@ -564,17 +564,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.4294</t>
+          <t>1.4247</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.402</t>
+          <t>1.398</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.457</t>
+          <t>1.452</t>
         </is>
       </c>
     </row>
@@ -587,17 +587,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.7497</t>
+          <t>1.7854</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.675</t>
+          <t>1.710</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.827</t>
+          <t>1.864</t>
         </is>
       </c>
     </row>
@@ -610,17 +610,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.8127</t>
+          <t>1.6805</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.658</t>
+          <t>1.538</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.981</t>
+          <t>1.836</t>
         </is>
       </c>
     </row>
@@ -633,17 +633,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.7527</t>
+          <t>1.6736</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.525</t>
+          <t>1.457</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.015</t>
+          <t>1.922</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.7692</t>
+          <t>0.8480</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.591</t>
+          <t>0.654</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>1.099</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.1071</t>
+          <t>1.3610</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.758</t>
+          <t>0.938</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.617</t>
+          <t>1.975</t>
         </is>
       </c>
     </row>
@@ -707,12 +707,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.426</t>
+          <t>4.427</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14.647</t>
+          <t>14.646</t>
         </is>
       </c>
     </row>
@@ -743,17 +743,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.2247</t>
+          <t>1.2650</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.204</t>
+          <t>1.244</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.246</t>
+          <t>1.287</t>
         </is>
       </c>
     </row>
@@ -766,17 +766,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0594</t>
+          <t>1.1329</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.023</t>
+          <t>1.095</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.097</t>
+          <t>1.172</t>
         </is>
       </c>
     </row>
@@ -789,17 +789,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.3431</t>
+          <t>1.3449</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.318</t>
+          <t>1.320</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.369</t>
+          <t>1.370</t>
         </is>
       </c>
     </row>
@@ -812,17 +812,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.2508</t>
+          <t>1.3054</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>1.269</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.287</t>
+          <t>1.343</t>
         </is>
       </c>
     </row>
@@ -835,17 +835,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.0093</t>
+          <t>1.0441</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.953</t>
+          <t>0.986</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.069</t>
+          <t>1.106</t>
         </is>
       </c>
     </row>
@@ -858,17 +858,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.6044</t>
+          <t>1.5996</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.450</t>
+          <t>1.446</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.776</t>
+          <t>1.769</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.2700</t>
+          <t>1.4582</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.075</t>
+          <t>1.235</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.501</t>
+          <t>1.721</t>
         </is>
       </c>
     </row>
@@ -904,17 +904,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.8264</t>
+          <t>1.0864</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.626</t>
+          <t>0.825</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.431</t>
         </is>
       </c>
     </row>
@@ -927,17 +927,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.6539</t>
+          <t>1.4170</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.173</t>
+          <t>1.005</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.331</t>
+          <t>1.997</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9.962</t>
+          <t>9.961</t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9010</t>
+          <t>0.9385</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.882</t>
+          <t>0.919</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.920</t>
+          <t>0.958</t>
         </is>
       </c>
     </row>
@@ -1014,17 +1014,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.0656</t>
+          <t>1.1837</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.015</t>
+          <t>1.128</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.118</t>
+          <t>1.242</t>
         </is>
       </c>
     </row>
@@ -1037,17 +1037,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.1545</t>
+          <t>1.1803</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.127</t>
+          <t>1.153</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.183</t>
+          <t>1.209</t>
         </is>
       </c>
     </row>
@@ -1060,17 +1060,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.8751</t>
+          <t>0.9163</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.848</t>
+          <t>0.888</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.903</t>
+          <t>0.945</t>
         </is>
       </c>
     </row>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.5768</t>
+          <t>0.5848</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.538</t>
+          <t>0.545</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.619</t>
+          <t>0.627</t>
         </is>
       </c>
     </row>
@@ -1106,17 +1106,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.8851</t>
+          <t>0.9519</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>0.835</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.010</t>
+          <t>1.086</t>
         </is>
       </c>
     </row>
@@ -1129,17 +1129,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.7246</t>
+          <t>0.8713</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.585</t>
+          <t>0.704</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.898</t>
+          <t>1.078</t>
         </is>
       </c>
     </row>
@@ -1152,17 +1152,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.0744</t>
+          <t>1.2811</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.737</t>
+          <t>0.882</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.567</t>
+          <t>1.860</t>
         </is>
       </c>
     </row>
@@ -1175,17 +1175,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.4938</t>
+          <t>1.3512</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.905</t>
+          <t>0.822</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.466</t>
+          <t>2.220</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1296,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.1901</t>
+          <t>1.2215</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.172</t>
+          <t>1.206</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>1.237</t>
         </is>
       </c>
     </row>
@@ -1319,17 +1319,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9096</t>
+          <t>0.9034</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.864</t>
+          <t>0.859</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.957</t>
+          <t>0.950</t>
         </is>
       </c>
     </row>
@@ -1342,17 +1342,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1979</t>
+          <t>1.1916</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.167</t>
+          <t>1.161</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.229</t>
+          <t>1.223</t>
         </is>
       </c>
     </row>
@@ -1365,17 +1365,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2488</t>
+          <t>1.2478</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>1.222</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.275</t>
+          <t>1.274</t>
         </is>
       </c>
     </row>
@@ -1388,17 +1388,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.4469</t>
+          <t>1.4343</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.412</t>
+          <t>1.400</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.482</t>
+          <t>1.469</t>
         </is>
       </c>
     </row>
@@ -1411,17 +1411,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.2197</t>
+          <t>1.3657</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.168</t>
+          <t>1.308</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.274</t>
+          <t>1.426</t>
         </is>
       </c>
     </row>
@@ -1434,17 +1434,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.8504</t>
+          <t>0.9171</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.783</t>
+          <t>0.846</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.923</t>
+          <t>0.994</t>
         </is>
       </c>
     </row>
@@ -1457,17 +1457,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.3225</t>
+          <t>1.2534</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.120</t>
+          <t>1.063</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.562</t>
+          <t>1.478</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.889</t>
+          <t>0.890</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.2766</t>
+          <t>1.4470</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.127</t>
+          <t>0.698</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.603</t>
+          <t>2.998</t>
         </is>
       </c>
     </row>
@@ -1544,17 +1544,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.1285</t>
+          <t>1.0991</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.081</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.147</t>
+          <t>1.118</t>
         </is>
       </c>
     </row>
@@ -1567,17 +1567,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8588</t>
+          <t>0.8574</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.828</t>
+          <t>0.827</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.891</t>
+          <t>0.889</t>
         </is>
       </c>
     </row>
@@ -1590,17 +1590,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0537</t>
+          <t>1.0338</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.033</t>
+          <t>1.013</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.075</t>
+          <t>1.055</t>
         </is>
       </c>
     </row>
@@ -1613,17 +1613,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.2589</t>
+          <t>1.2562</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.233</t>
+          <t>1.231</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.285</t>
+          <t>1.282</t>
         </is>
       </c>
     </row>
@@ -1636,17 +1636,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1737</t>
+          <t>1.1276</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.129</t>
+          <t>1.085</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>1.172</t>
         </is>
       </c>
     </row>
@@ -1659,17 +1659,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.2763</t>
+          <t>1.2587</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.188</t>
+          <t>1.173</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.371</t>
+          <t>1.351</t>
         </is>
       </c>
     </row>
@@ -1682,17 +1682,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.7979</t>
+          <t>1.5062</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.609</t>
+          <t>1.349</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.008</t>
+          <t>1.682</t>
         </is>
       </c>
     </row>
@@ -1705,17 +1705,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3.0378</t>
+          <t>2.4683</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.520</t>
+          <t>2.048</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.663</t>
+          <t>2.976</t>
         </is>
       </c>
     </row>
@@ -1728,17 +1728,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.8304</t>
+          <t>0.6591</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.637</t>
+          <t>0.507</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>0.857</t>
         </is>
       </c>
     </row>
@@ -1751,17 +1751,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.2735</t>
+          <t>0.2127</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.122</t>
+          <t>0.105</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.612</t>
+          <t>0.432</t>
         </is>
       </c>
     </row>
@@ -1792,17 +1792,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9500</t>
+          <t>0.9266</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.931</t>
+          <t>0.914</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.969</t>
+          <t>0.940</t>
         </is>
       </c>
     </row>
@@ -1815,17 +1815,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9442</t>
+          <t>0.9491</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.899</t>
+          <t>0.904</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.992</t>
+          <t>0.996</t>
         </is>
       </c>
     </row>
@@ -1838,17 +1838,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.8796</t>
+          <t>0.8676</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.859</t>
+          <t>0.847</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>0.889</t>
         </is>
       </c>
     </row>
@@ -1861,17 +1861,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0081</t>
+          <t>1.0068</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.987</t>
+          <t>0.986</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.028</t>
         </is>
       </c>
     </row>
@@ -1884,17 +1884,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.8112</t>
+          <t>0.7862</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.779</t>
+          <t>0.756</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.844</t>
+          <t>0.818</t>
         </is>
       </c>
     </row>
@@ -1907,17 +1907,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.0464</t>
+          <t>0.9217</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.968</t>
+          <t>0.854</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.131</t>
+          <t>0.995</t>
         </is>
       </c>
     </row>
@@ -1930,17 +1930,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2.1141</t>
+          <t>1.6424</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.854</t>
+          <t>1.442</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.411</t>
+          <t>1.871</t>
         </is>
       </c>
     </row>
@@ -1953,17 +1953,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2.2970</t>
+          <t>1.9694</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.806</t>
+          <t>1.549</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.922</t>
+          <t>2.504</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.284</t>
+          <t>1.286</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.779</t>
+          <t>2.774</t>
         </is>
       </c>
     </row>
@@ -1999,17 +1999,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.9885</t>
+          <t>1.3850</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.325</t>
+          <t>0.506</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.006</t>
+          <t>3.788</t>
         </is>
       </c>
     </row>
@@ -2097,17 +2097,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9719</t>
+          <t>0.9858</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.957</t>
+          <t>0.971</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.987</t>
+          <t>1.001</t>
         </is>
       </c>
     </row>
@@ -2120,17 +2120,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8615</t>
+          <t>0.8908</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.808</t>
+          <t>0.836</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.918</t>
+          <t>0.949</t>
         </is>
       </c>
     </row>
@@ -2143,17 +2143,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9598</t>
+          <t>0.9239</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.930</t>
+          <t>0.895</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>0.953</t>
         </is>
       </c>
     </row>
@@ -2166,17 +2166,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9518</t>
+          <t>0.9864</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.928</t>
+          <t>0.962</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.976</t>
+          <t>1.012</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2189,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.1361</t>
+          <t>1.1787</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.104</t>
+          <t>1.146</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.169</t>
+          <t>1.213</t>
         </is>
       </c>
     </row>
@@ -2212,17 +2212,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.9500</t>
+          <t>0.9767</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.909</t>
+          <t>0.935</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.993</t>
+          <t>1.020</t>
         </is>
       </c>
     </row>
@@ -2235,17 +2235,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9673</t>
+          <t>1.0402</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.905</t>
+          <t>0.974</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.034</t>
+          <t>1.110</t>
         </is>
       </c>
     </row>
@@ -2258,17 +2258,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.7235</t>
+          <t>0.7317</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.631</t>
+          <t>0.639</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.830</t>
+          <t>0.838</t>
         </is>
       </c>
     </row>
@@ -2281,17 +2281,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.6233</t>
+          <t>1.0706</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.491</t>
+          <t>0.847</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.791</t>
+          <t>1.353</t>
         </is>
       </c>
     </row>
@@ -2304,17 +2304,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.3025</t>
+          <t>1.1397</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.855</t>
+          <t>0.749</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.984</t>
+          <t>1.735</t>
         </is>
       </c>
     </row>
@@ -2345,17 +2345,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0455</t>
+          <t>1.0516</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.033</t>
+          <t>1.039</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.058</t>
+          <t>1.064</t>
         </is>
       </c>
     </row>
@@ -2368,17 +2368,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8659</t>
+          <t>0.8352</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.835</t>
+          <t>0.805</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.898</t>
+          <t>0.866</t>
         </is>
       </c>
     </row>
@@ -2391,17 +2391,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0027</t>
+          <t>0.9647</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.982</t>
+          <t>0.945</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.024</t>
+          <t>0.985</t>
         </is>
       </c>
     </row>
@@ -2414,17 +2414,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0389</t>
+          <t>1.0622</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.018</t>
+          <t>1.042</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.060</t>
+          <t>1.083</t>
         </is>
       </c>
     </row>
@@ -2437,17 +2437,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.2645</t>
+          <t>1.3847</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.230</t>
+          <t>1.348</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.299</t>
+          <t>1.423</t>
         </is>
       </c>
     </row>
@@ -2460,17 +2460,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.0187</t>
+          <t>1.1312</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.966</t>
+          <t>1.073</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.075</t>
+          <t>1.192</t>
         </is>
       </c>
     </row>
@@ -2483,17 +2483,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1103</t>
+          <t>1.2028</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.020</t>
+          <t>1.106</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>1.308</t>
         </is>
       </c>
     </row>
@@ -2506,17 +2506,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.9553</t>
+          <t>0.9552</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.821</t>
+          <t>0.822</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.112</t>
+          <t>1.110</t>
         </is>
       </c>
     </row>
@@ -2529,17 +2529,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3.5722</t>
+          <t>1.5121</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.840</t>
+          <t>1.204</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.493</t>
+          <t>1.899</t>
         </is>
       </c>
     </row>
@@ -2552,17 +2552,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.6304</t>
+          <t>0.5516</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.383</t>
+          <t>0.342</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.037</t>
+          <t>0.889</t>
         </is>
       </c>
     </row>
@@ -2593,17 +2593,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0757</t>
+          <t>1.0673</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.059</t>
+          <t>1.051</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.093</t>
+          <t>1.084</t>
         </is>
       </c>
     </row>
@@ -2616,17 +2616,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.0051</t>
+          <t>0.9376</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.946</t>
+          <t>0.883</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>0.996</t>
         </is>
       </c>
     </row>
@@ -2639,17 +2639,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.0447</t>
+          <t>1.0442</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.015</t>
+          <t>1.014</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.076</t>
+          <t>1.075</t>
         </is>
       </c>
     </row>
@@ -2662,17 +2662,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0915</t>
+          <t>1.0768</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.066</t>
+          <t>1.052</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.118</t>
+          <t>1.102</t>
         </is>
       </c>
     </row>
@@ -2685,17 +2685,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.1130</t>
+          <t>1.1747</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.079</t>
+          <t>1.140</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.147</t>
+          <t>1.211</t>
         </is>
       </c>
     </row>
@@ -2708,17 +2708,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.0723</t>
+          <t>1.1583</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.011</t>
+          <t>1.092</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.138</t>
+          <t>1.228</t>
         </is>
       </c>
     </row>
@@ -2731,17 +2731,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1479</t>
+          <t>1.1564</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.043</t>
+          <t>1.052</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.263</t>
+          <t>1.271</t>
         </is>
       </c>
     </row>
@@ -2754,17 +2754,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.3202</t>
+          <t>1.3054</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.082</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.597</t>
+          <t>1.575</t>
         </is>
       </c>
     </row>
@@ -2777,17 +2777,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5.7315</t>
+          <t>3.0003</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4.199</t>
+          <t>2.208</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.824</t>
+          <t>4.077</t>
         </is>
       </c>
     </row>
@@ -2805,12 +2805,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.257</t>
+          <t>0.261</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.912</t>
+          <t>0.898</t>
         </is>
       </c>
     </row>
@@ -2898,17 +2898,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0488</t>
+          <t>1.1032</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.006</t>
+          <t>1.059</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>1.150</t>
         </is>
       </c>
     </row>
@@ -2921,17 +2921,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9866</t>
+          <t>1.1370</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.825</t>
+          <t>0.957</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.351</t>
         </is>
       </c>
     </row>
@@ -2944,17 +2944,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1354</t>
+          <t>1.3093</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.040</t>
+          <t>1.203</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.239</t>
+          <t>1.425</t>
         </is>
       </c>
     </row>
@@ -2967,17 +2967,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0031</t>
+          <t>0.9997</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.924</t>
+          <t>0.923</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.089</t>
+          <t>1.083</t>
         </is>
       </c>
     </row>
@@ -2990,17 +2990,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0025</t>
+          <t>0.9580</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.915</t>
+          <t>0.876</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.099</t>
+          <t>1.047</t>
         </is>
       </c>
     </row>
@@ -3013,17 +3013,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.1365</t>
+          <t>1.2553</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.005</t>
+          <t>1.114</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.285</t>
+          <t>1.415</t>
         </is>
       </c>
     </row>
@@ -3036,17 +3036,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.0293</t>
+          <t>1.0632</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.875</t>
+          <t>0.908</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.211</t>
+          <t>1.245</t>
         </is>
       </c>
     </row>
@@ -3059,17 +3059,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9692</t>
+          <t>1.1714</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.758</t>
+          <t>0.923</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.240</t>
+          <t>1.486</t>
         </is>
       </c>
     </row>
@@ -3082,17 +3082,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.8406</t>
+          <t>1.5570</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.298</t>
+          <t>1.104</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.610</t>
+          <t>2.195</t>
         </is>
       </c>
     </row>
@@ -3105,17 +3105,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.9445</t>
+          <t>0.9010</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.515</t>
+          <t>0.502</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.731</t>
+          <t>1.617</t>
         </is>
       </c>
     </row>
@@ -3146,17 +3146,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0206</t>
+          <t>1.0370</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.998</t>
+          <t>1.015</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.043</t>
+          <t>1.060</t>
         </is>
       </c>
     </row>
@@ -3169,17 +3169,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.7740</t>
+          <t>0.8166</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.711</t>
+          <t>0.752</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.842</t>
+          <t>0.886</t>
         </is>
       </c>
     </row>
@@ -3192,12 +3192,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0203</t>
+          <t>1.0222</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>0.978</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3215,17 +3215,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0554</t>
+          <t>1.0792</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.011</t>
+          <t>1.035</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.102</t>
+          <t>1.125</t>
         </is>
       </c>
     </row>
@@ -3238,17 +3238,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.0269</t>
+          <t>1.0443</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>0.993</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.082</t>
+          <t>1.098</t>
         </is>
       </c>
     </row>
@@ -3261,17 +3261,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.9563</t>
+          <t>0.9742</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.888</t>
+          <t>0.907</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.047</t>
         </is>
       </c>
     </row>
@@ -3284,17 +3284,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1716</t>
+          <t>1.1287</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>1.025</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.293</t>
+          <t>1.243</t>
         </is>
       </c>
     </row>
@@ -3307,17 +3307,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.2369</t>
+          <t>1.3571</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.056</t>
+          <t>1.162</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.448</t>
+          <t>1.584</t>
         </is>
       </c>
     </row>
@@ -3330,17 +3330,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2.3063</t>
+          <t>3.1315</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.843</t>
+          <t>2.510</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.886</t>
+          <t>3.907</t>
         </is>
       </c>
     </row>
@@ -3353,17 +3353,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.7441</t>
+          <t>1.0895</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.291</t>
+          <t>0.813</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.357</t>
+          <t>1.460</t>
         </is>
       </c>
     </row>
@@ -3394,17 +3394,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9731</t>
+          <t>0.9400</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.933</t>
+          <t>0.902</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.015</t>
+          <t>0.980</t>
         </is>
       </c>
     </row>
@@ -3417,17 +3417,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.7845</t>
+          <t>0.7181</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.652</t>
+          <t>0.601</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.943</t>
+          <t>0.858</t>
         </is>
       </c>
     </row>
@@ -3440,17 +3440,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.8987</t>
+          <t>0.7807</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.823</t>
+          <t>0.717</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.981</t>
+          <t>0.850</t>
         </is>
       </c>
     </row>
@@ -3463,17 +3463,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0521</t>
+          <t>1.0795</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.969</t>
+          <t>0.997</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.142</t>
+          <t>1.169</t>
         </is>
       </c>
     </row>
@@ -3486,17 +3486,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0243</t>
+          <t>1.0901</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>0.997</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.123</t>
+          <t>1.192</t>
         </is>
       </c>
     </row>
@@ -3509,17 +3509,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.8414</t>
+          <t>0.7761</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.742</t>
+          <t>0.687</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.954</t>
+          <t>0.877</t>
         </is>
       </c>
     </row>
@@ -3532,17 +3532,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1383</t>
+          <t>1.0617</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.964</t>
+          <t>0.903</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.344</t>
+          <t>1.248</t>
         </is>
       </c>
     </row>
@@ -3555,17 +3555,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.2762</t>
+          <t>1.1586</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.984</t>
+          <t>0.901</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.654</t>
+          <t>1.489</t>
         </is>
       </c>
     </row>
@@ -3578,17 +3578,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.2530</t>
+          <t>2.0112</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.876</t>
+          <t>1.414</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.792</t>
+          <t>2.861</t>
         </is>
       </c>
     </row>
@@ -3601,17 +3601,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.8466</t>
+          <t>1.2092</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.002</t>
+          <t>0.669</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.403</t>
+          <t>2.185</t>
         </is>
       </c>
     </row>
@@ -3642,17 +3642,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.3386</t>
+          <t>1.3820</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.315</t>
+          <t>1.358</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.363</t>
+          <t>1.406</t>
         </is>
       </c>
     </row>
@@ -3665,17 +3665,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.1892</t>
+          <t>1.2201</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.119</t>
+          <t>1.150</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.264</t>
+          <t>1.295</t>
         </is>
       </c>
     </row>
@@ -3688,17 +3688,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.3837</t>
+          <t>1.4245</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.335</t>
+          <t>1.376</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.434</t>
+          <t>1.475</t>
         </is>
       </c>
     </row>
@@ -3711,17 +3711,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.3708</t>
+          <t>1.4474</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>1.399</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.420</t>
+          <t>1.497</t>
         </is>
       </c>
     </row>
@@ -3734,17 +3734,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.3893</t>
+          <t>1.4344</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.331</t>
+          <t>1.376</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.450</t>
+          <t>1.495</t>
         </is>
       </c>
     </row>
@@ -3757,17 +3757,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.1039</t>
+          <t>1.0255</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.033</t>
+          <t>0.962</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.094</t>
         </is>
       </c>
     </row>
@@ -3780,17 +3780,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.2329</t>
+          <t>1.2288</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.118</t>
+          <t>1.117</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.359</t>
+          <t>1.351</t>
         </is>
       </c>
     </row>
@@ -3803,17 +3803,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.0752</t>
+          <t>1.1807</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.906</t>
+          <t>0.999</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.275</t>
+          <t>1.396</t>
         </is>
       </c>
     </row>
@@ -3826,17 +3826,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.7304</t>
+          <t>0.7390</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.548</t>
+          <t>0.560</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.973</t>
+          <t>0.976</t>
         </is>
       </c>
     </row>
@@ -3849,17 +3849,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.7681</t>
+          <t>0.4798</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.468</t>
+          <t>0.296</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.260</t>
+          <t>0.777</t>
         </is>
       </c>
     </row>
@@ -3890,17 +3890,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.2763</t>
+          <t>1.2527</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.204</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.329</t>
+          <t>1.303</t>
         </is>
       </c>
     </row>
@@ -3913,17 +3913,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.2053</t>
+          <t>1.0731</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.012</t>
+          <t>0.907</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.436</t>
+          <t>1.270</t>
         </is>
       </c>
     </row>
@@ -3936,17 +3936,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.2187</t>
+          <t>1.0880</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.121</t>
+          <t>1.004</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.325</t>
+          <t>1.179</t>
         </is>
       </c>
     </row>
@@ -3959,17 +3959,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.3665</t>
+          <t>1.4478</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.264</t>
+          <t>1.342</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.478</t>
+          <t>1.562</t>
         </is>
       </c>
     </row>
@@ -3982,17 +3982,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.3858</t>
+          <t>1.4973</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.270</t>
+          <t>1.375</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.513</t>
+          <t>1.630</t>
         </is>
       </c>
     </row>
@@ -4005,17 +4005,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.9713</t>
+          <t>0.8170</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.860</t>
+          <t>0.726</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.097</t>
+          <t>0.919</t>
         </is>
       </c>
     </row>
@@ -4028,17 +4028,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.1978</t>
+          <t>1.1558</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.016</t>
+          <t>0.984</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.413</t>
+          <t>1.357</t>
         </is>
       </c>
     </row>
@@ -4051,17 +4051,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.1093</t>
+          <t>1.0080</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.849</t>
+          <t>0.778</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.450</t>
+          <t>1.306</t>
         </is>
       </c>
     </row>
@@ -4074,17 +4074,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.3968</t>
+          <t>0.4746</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.266</t>
+          <t>0.321</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.592</t>
+          <t>0.701</t>
         </is>
       </c>
     </row>
@@ -4097,17 +4097,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.8133</t>
+          <t>0.5326</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.393</t>
+          <t>0.263</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.682</t>
+          <t>1.077</t>
         </is>
       </c>
     </row>
@@ -4138,17 +4138,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.3115</t>
+          <t>1.3327</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.288</t>
+          <t>1.309</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.335</t>
+          <t>1.357</t>
         </is>
       </c>
     </row>
@@ -4161,17 +4161,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.5364</t>
+          <t>1.4943</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.425</t>
+          <t>1.390</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.656</t>
+          <t>1.607</t>
         </is>
       </c>
     </row>
@@ -4184,17 +4184,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.3561</t>
+          <t>1.3936</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.307</t>
+          <t>1.345</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.407</t>
+          <t>1.444</t>
         </is>
       </c>
     </row>
@@ -4207,17 +4207,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.2988</t>
+          <t>1.3412</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.255</t>
+          <t>1.297</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.344</t>
+          <t>1.386</t>
         </is>
       </c>
     </row>
@@ -4230,17 +4230,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.3529</t>
+          <t>1.3736</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.295</t>
+          <t>1.316</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.414</t>
+          <t>1.433</t>
         </is>
       </c>
     </row>
@@ -4253,17 +4253,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.1544</t>
+          <t>1.0527</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.074</t>
+          <t>0.982</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.240</t>
+          <t>1.129</t>
         </is>
       </c>
     </row>
@@ -4276,17 +4276,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.0523</t>
+          <t>1.0886</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.949</t>
+          <t>0.985</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.166</t>
+          <t>1.204</t>
         </is>
       </c>
     </row>
@@ -4299,17 +4299,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.8692</t>
+          <t>0.8700</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.719</t>
+          <t>0.723</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.048</t>
         </is>
       </c>
     </row>
@@ -4322,17 +4322,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.3167</t>
+          <t>0.2360</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.235</t>
+          <t>0.177</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.426</t>
+          <t>0.315</t>
         </is>
       </c>
     </row>
@@ -4350,12 +4350,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.267</t>
+          <t>0.270</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.727</t>
+          <t>0.719</t>
         </is>
       </c>
     </row>
@@ -4443,17 +4443,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8895</t>
+          <t>0.8783</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.851</t>
+          <t>0.841</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.930</t>
+          <t>0.918</t>
         </is>
       </c>
     </row>
@@ -4466,17 +4466,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.8848</t>
+          <t>1.8087</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.536</t>
+          <t>1.480</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.314</t>
+          <t>2.211</t>
         </is>
       </c>
     </row>
@@ -4489,17 +4489,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9071</t>
+          <t>0.8900</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.819</t>
+          <t>0.806</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.005</t>
+          <t>0.983</t>
         </is>
       </c>
     </row>
@@ -4512,17 +4512,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8243</t>
+          <t>0.8071</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.755</t>
+          <t>0.741</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.900</t>
+          <t>0.879</t>
         </is>
       </c>
     </row>
@@ -4535,17 +4535,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.8125</t>
+          <t>0.7905</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.739</t>
+          <t>0.721</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.893</t>
+          <t>0.867</t>
         </is>
       </c>
     </row>
@@ -4558,17 +4558,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.8685</t>
+          <t>0.8544</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.775</t>
+          <t>0.764</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.974</t>
+          <t>0.955</t>
         </is>
       </c>
     </row>
@@ -4581,17 +4581,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7192</t>
+          <t>0.7309</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.615</t>
+          <t>0.628</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.841</t>
+          <t>0.850</t>
         </is>
       </c>
     </row>
@@ -4604,17 +4604,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9011</t>
+          <t>1.2719</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.719</t>
+          <t>1.021</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.130</t>
+          <t>1.585</t>
         </is>
       </c>
     </row>
@@ -4627,17 +4627,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.7338</t>
+          <t>0.9590</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.469</t>
+          <t>0.619</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.148</t>
+          <t>1.486</t>
         </is>
       </c>
     </row>
@@ -4650,17 +4650,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.6102</t>
+          <t>0.5078</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.297</t>
+          <t>0.247</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.254</t>
+          <t>1.042</t>
         </is>
       </c>
     </row>
@@ -4691,17 +4691,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.9839</t>
+          <t>0.9810</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.962</t>
+          <t>0.959</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.006</t>
+          <t>1.003</t>
         </is>
       </c>
     </row>
@@ -4714,17 +4714,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.4370</t>
+          <t>1.6208</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.297</t>
+          <t>1.467</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.592</t>
+          <t>1.791</t>
         </is>
       </c>
     </row>
@@ -4737,17 +4737,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.9101</t>
+          <t>0.8757</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.866</t>
+          <t>0.835</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.956</t>
+          <t>0.919</t>
         </is>
       </c>
     </row>
@@ -4760,17 +4760,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.9314</t>
+          <t>0.9341</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.891</t>
+          <t>0.895</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.974</t>
+          <t>0.975</t>
         </is>
       </c>
     </row>
@@ -4783,17 +4783,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.0512</t>
+          <t>1.0538</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.999</t>
+          <t>1.003</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.106</t>
+          <t>1.108</t>
         </is>
       </c>
     </row>
@@ -4806,17 +4806,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.0065</t>
+          <t>0.9929</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.939</t>
+          <t>0.928</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.079</t>
+          <t>1.063</t>
         </is>
       </c>
     </row>
@@ -4829,17 +4829,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.9187</t>
+          <t>0.9753</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.837</t>
+          <t>0.890</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.008</t>
+          <t>1.068</t>
         </is>
       </c>
     </row>
@@ -4852,17 +4852,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.2053</t>
+          <t>1.0640</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.046</t>
+          <t>0.925</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.389</t>
+          <t>1.224</t>
         </is>
       </c>
     </row>
@@ -4875,17 +4875,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.2110</t>
+          <t>1.2623</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.972</t>
+          <t>1.017</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.509</t>
+          <t>1.567</t>
         </is>
       </c>
     </row>
@@ -4898,17 +4898,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.9006</t>
+          <t>0.8255</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.670</t>
+          <t>0.617</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.210</t>
+          <t>1.105</t>
         </is>
       </c>
     </row>
@@ -4939,17 +4939,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1061</t>
+          <t>1.1169</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.057</t>
+          <t>1.068</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.157</t>
+          <t>1.168</t>
         </is>
       </c>
     </row>
@@ -4962,17 +4962,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.7624</t>
+          <t>0.8961</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.618</t>
+          <t>0.729</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.941</t>
+          <t>1.101</t>
         </is>
       </c>
     </row>
@@ -4985,17 +4985,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.0032</t>
+          <t>0.9840</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.904</t>
+          <t>0.889</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.114</t>
+          <t>1.089</t>
         </is>
       </c>
     </row>
@@ -5008,17 +5008,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.1299</t>
+          <t>1.1574</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.034</t>
+          <t>1.062</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.234</t>
+          <t>1.261</t>
         </is>
       </c>
     </row>
@@ -5031,17 +5031,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.2939</t>
+          <t>1.3331</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.175</t>
+          <t>1.214</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.424</t>
+          <t>1.464</t>
         </is>
       </c>
     </row>
@@ -5054,12 +5054,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.1588</t>
+          <t>1.1621</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.036</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5077,17 +5077,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.2773</t>
+          <t>1.3345</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.088</t>
+          <t>1.142</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.500</t>
+          <t>1.559</t>
         </is>
       </c>
     </row>
@@ -5100,17 +5100,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.3376</t>
+          <t>0.8365</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.055</t>
+          <t>0.664</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.695</t>
+          <t>1.054</t>
         </is>
       </c>
     </row>
@@ -5123,17 +5123,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.6503</t>
+          <t>1.3163</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.040</t>
+          <t>0.838</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.618</t>
+          <t>2.067</t>
         </is>
       </c>
     </row>
@@ -5146,17 +5146,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.4759</t>
+          <t>1.6257</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.713</t>
+          <t>0.785</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.056</t>
+          <t>3.365</t>
         </is>
       </c>
     </row>
@@ -5187,17 +5187,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.0277</t>
+          <t>1.0314</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.010</t>
+          <t>1.014</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.046</t>
+          <t>1.050</t>
         </is>
       </c>
     </row>
@@ -5210,17 +5210,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.0750</t>
+          <t>1.1625</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>1.080</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.160</t>
+          <t>1.252</t>
         </is>
       </c>
     </row>
@@ -5233,17 +5233,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.0104</t>
+          <t>0.9755</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.974</t>
+          <t>0.941</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.048</t>
+          <t>1.011</t>
         </is>
       </c>
     </row>
@@ -5256,17 +5256,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.0395</t>
+          <t>1.0635</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.005</t>
+          <t>1.029</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.076</t>
+          <t>1.099</t>
         </is>
       </c>
     </row>
@@ -5279,17 +5279,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.9919</t>
+          <t>1.0129</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.952</t>
+          <t>0.973</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.033</t>
+          <t>1.054</t>
         </is>
       </c>
     </row>
@@ -5302,17 +5302,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.0091</t>
+          <t>0.9415</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.952</t>
+          <t>0.889</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.070</t>
+          <t>0.997</t>
         </is>
       </c>
     </row>
@@ -5325,17 +5325,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.1035</t>
+          <t>1.1091</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.016</t>
+          <t>1.022</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>1.203</t>
         </is>
       </c>
     </row>
@@ -5348,17 +5348,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1227</t>
+          <t>1.2271</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.974</t>
+          <t>1.068</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.294</t>
+          <t>1.410</t>
         </is>
       </c>
     </row>
@@ -5371,17 +5371,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.3088</t>
+          <t>1.3684</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.046</t>
+          <t>1.097</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.638</t>
+          <t>1.708</t>
         </is>
       </c>
     </row>
@@ -5394,17 +5394,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.9033</t>
+          <t>0.7516</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.614</t>
+          <t>0.514</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.329</t>
+          <t>1.098</t>
         </is>
       </c>
     </row>
@@ -5435,17 +5435,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1554</t>
+          <t>1.1743</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.107</t>
+          <t>1.126</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>1.225</t>
         </is>
       </c>
     </row>
@@ -5458,17 +5458,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.5703</t>
+          <t>0.6427</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.467</t>
+          <t>0.529</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.696</t>
+          <t>0.781</t>
         </is>
       </c>
     </row>
@@ -5481,17 +5481,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.1138</t>
+          <t>1.0961</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.009</t>
+          <t>0.996</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.230</t>
+          <t>1.207</t>
         </is>
       </c>
     </row>
@@ -5504,17 +5504,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.2610</t>
+          <t>1.3176</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.160</t>
+          <t>1.215</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.371</t>
+          <t>1.429</t>
         </is>
       </c>
     </row>
@@ -5527,17 +5527,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.2209</t>
+          <t>1.2814</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.114</t>
+          <t>1.172</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.337</t>
+          <t>1.401</t>
         </is>
       </c>
     </row>
@@ -5550,17 +5550,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.1619</t>
+          <t>1.1020</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.039</t>
+          <t>0.988</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.299</t>
+          <t>1.228</t>
         </is>
       </c>
     </row>
@@ -5573,17 +5573,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.5343</t>
+          <t>1.5176</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.314</t>
+          <t>1.306</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.792</t>
+          <t>1.764</t>
         </is>
       </c>
     </row>
@@ -5596,17 +5596,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.2459</t>
+          <t>0.9648</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.983</t>
+          <t>0.766</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.579</t>
+          <t>1.215</t>
         </is>
       </c>
     </row>
@@ -5619,17 +5619,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.7835</t>
+          <t>1.4269</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.122</t>
+          <t>0.907</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2.835</t>
+          <t>2.246</t>
         </is>
       </c>
     </row>
@@ -5647,12 +5647,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.686</t>
+          <t>0.688</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3.194</t>
+          <t>3.187</t>
         </is>
       </c>
     </row>
@@ -5683,17 +5683,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.0445</t>
+          <t>1.0514</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.025</t>
+          <t>1.032</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.065</t>
+          <t>1.071</t>
         </is>
       </c>
     </row>
@@ -5706,17 +5706,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.7480</t>
+          <t>0.7172</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.684</t>
+          <t>0.657</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.819</t>
+          <t>0.783</t>
         </is>
       </c>
     </row>
@@ -5729,17 +5729,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.1102</t>
+          <t>1.1139</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.065</t>
+          <t>1.070</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.157</t>
+          <t>1.160</t>
         </is>
       </c>
     </row>
@@ -5752,17 +5752,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.1161</t>
+          <t>1.1384</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.077</t>
+          <t>1.099</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.157</t>
+          <t>1.179</t>
         </is>
       </c>
     </row>
@@ -5775,17 +5775,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.9436</t>
+          <t>0.9612</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.904</t>
+          <t>0.921</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.985</t>
+          <t>1.003</t>
         </is>
       </c>
     </row>
@@ -5798,17 +5798,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.0026</t>
+          <t>0.9482</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.940</t>
+          <t>0.890</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.070</t>
+          <t>1.010</t>
         </is>
       </c>
     </row>
@@ -5821,17 +5821,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.2012</t>
+          <t>1.1372</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.096</t>
+          <t>1.040</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>1.244</t>
         </is>
       </c>
     </row>
@@ -5844,17 +5844,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.9314</t>
+          <t>1.1533</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.795</t>
+          <t>0.987</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>1.348</t>
         </is>
       </c>
     </row>
@@ -5867,17 +5867,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.0807</t>
+          <t>1.0841</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.841</t>
+          <t>0.847</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.388</t>
+          <t>1.387</t>
         </is>
       </c>
     </row>
@@ -5890,17 +5890,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1.0030</t>
+          <t>0.9106</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.672</t>
+          <t>0.613</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.497</t>
+          <t>1.352</t>
         </is>
       </c>
     </row>
@@ -5931,17 +5931,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.2044</t>
+          <t>1.2013</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.178</t>
+          <t>1.176</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.227</t>
         </is>
       </c>
     </row>
@@ -5954,17 +5954,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.2684</t>
+          <t>1.3850</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.167</t>
+          <t>1.277</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.378</t>
+          <t>1.502</t>
         </is>
       </c>
     </row>
@@ -5977,17 +5977,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1.1405</t>
+          <t>1.1160</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.095</t>
+          <t>1.072</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.188</t>
+          <t>1.162</t>
         </is>
       </c>
     </row>
@@ -6000,17 +6000,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1.1860</t>
+          <t>1.1743</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.140</t>
+          <t>1.130</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.234</t>
+          <t>1.220</t>
         </is>
       </c>
     </row>
@@ -6023,17 +6023,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1.1834</t>
+          <t>1.2583</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.124</t>
+          <t>1.197</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.246</t>
+          <t>1.323</t>
         </is>
       </c>
     </row>
@@ -6046,17 +6046,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1.2335</t>
+          <t>1.2108</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.119</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.360</t>
+          <t>1.333</t>
         </is>
       </c>
     </row>
@@ -6069,17 +6069,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1.8672</t>
+          <t>1.8015</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.573</t>
+          <t>1.521</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2.216</t>
+          <t>2.133</t>
         </is>
       </c>
     </row>
@@ -6092,17 +6092,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1.1203</t>
+          <t>1.0851</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.821</t>
+          <t>0.799</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.528</t>
+          <t>1.474</t>
         </is>
       </c>
     </row>
@@ -6115,17 +6115,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2.2387</t>
+          <t>2.8407</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1.364</t>
+          <t>1.753</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3.675</t>
+          <t>4.603</t>
         </is>
       </c>
     </row>
@@ -6143,12 +6143,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.610</t>
+          <t>1.612</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>9.698</t>
+          <t>9.689</t>
         </is>
       </c>
     </row>
@@ -6179,17 +6179,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.3527</t>
+          <t>1.3671</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.293</t>
+          <t>1.308</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.415</t>
+          <t>1.429</t>
         </is>
       </c>
     </row>
@@ -6202,17 +6202,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.6729</t>
+          <t>0.7657</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.550</t>
+          <t>0.628</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.823</t>
+          <t>0.933</t>
         </is>
       </c>
     </row>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.2573</t>
+          <t>1.2539</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.391</t>
+          <t>1.383</t>
         </is>
       </c>
     </row>
@@ -6248,17 +6248,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.4388</t>
+          <t>1.4550</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.320</t>
+          <t>1.338</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.568</t>
+          <t>1.582</t>
         </is>
       </c>
     </row>
@@ -6271,17 +6271,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.4566</t>
+          <t>1.5918</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.323</t>
+          <t>1.449</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.604</t>
+          <t>1.749</t>
         </is>
       </c>
     </row>
@@ -6294,17 +6294,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1.4202</t>
+          <t>1.4172</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.239</t>
+          <t>1.240</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.628</t>
+          <t>1.619</t>
         </is>
       </c>
     </row>
@@ -6317,17 +6317,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2.5961</t>
+          <t>2.4650</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2.092</t>
+          <t>1.996</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3.222</t>
+          <t>3.044</t>
         </is>
       </c>
     </row>
@@ -6340,17 +6340,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1.2432</t>
+          <t>0.8531</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.864</t>
+          <t>0.597</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.789</t>
+          <t>1.219</t>
         </is>
       </c>
     </row>
@@ -6363,17 +6363,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3.0506</t>
+          <t>8.7073</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1.608</t>
+          <t>4.664</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>5.788</t>
+          <t>16.255</t>
         </is>
       </c>
     </row>
@@ -6427,17 +6427,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1.2238</t>
+          <t>1.2276</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1.195</t>
+          <t>1.200</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.253</t>
+          <t>1.256</t>
         </is>
       </c>
     </row>
@@ -6450,17 +6450,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.8827</t>
+          <t>0.8545</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.802</t>
+          <t>0.778</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.972</t>
+          <t>0.938</t>
         </is>
       </c>
     </row>
@@ -6473,17 +6473,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1.2533</t>
+          <t>1.2743</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.311</t>
+          <t>1.332</t>
         </is>
       </c>
     </row>
@@ -6496,17 +6496,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1.2734</t>
+          <t>1.2571</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1.222</t>
+          <t>1.208</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.327</t>
+          <t>1.308</t>
         </is>
       </c>
     </row>
@@ -6519,17 +6519,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1.1257</t>
+          <t>1.1940</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.067</t>
+          <t>1.133</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.187</t>
+          <t>1.258</t>
         </is>
       </c>
     </row>
@@ -6542,17 +6542,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1.2256</t>
+          <t>1.2195</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1.107</t>
+          <t>1.104</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1.357</t>
+          <t>1.348</t>
         </is>
       </c>
     </row>
@@ -6565,17 +6565,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2.0325</t>
+          <t>1.8471</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1.705</t>
+          <t>1.553</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2.423</t>
+          <t>2.196</t>
         </is>
       </c>
     </row>
@@ -6588,17 +6588,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.9294</t>
+          <t>1.0198</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.676</t>
+          <t>0.745</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1.278</t>
+          <t>1.396</t>
         </is>
       </c>
     </row>
@@ -6611,17 +6611,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1.8486</t>
+          <t>4.2321</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1.112</t>
+          <t>2.580</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3.073</t>
+          <t>6.941</t>
         </is>
       </c>
     </row>
@@ -6639,12 +6639,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1.845</t>
+          <t>1.846</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>11.253</t>
+          <t>11.249</t>
         </is>
       </c>
     </row>
@@ -6675,17 +6675,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1.1715</t>
+          <t>1.1676</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1.150</t>
+          <t>1.147</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1.194</t>
+          <t>1.188</t>
         </is>
       </c>
     </row>
@@ -6698,17 +6698,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1.1799</t>
+          <t>1.1914</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1.103</t>
+          <t>1.116</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>1.272</t>
         </is>
       </c>
     </row>
@@ -6721,17 +6721,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1.1288</t>
+          <t>1.1440</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>1.110</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.164</t>
+          <t>1.179</t>
         </is>
       </c>
     </row>
@@ -6744,17 +6744,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1.1410</t>
+          <t>1.1043</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.073</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1.175</t>
+          <t>1.137</t>
         </is>
       </c>
     </row>
@@ -6767,17 +6767,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1.1931</t>
+          <t>1.2422</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1.142</t>
+          <t>1.190</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1.246</t>
+          <t>1.297</t>
         </is>
       </c>
     </row>
@@ -6790,17 +6790,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1.2224</t>
+          <t>1.2861</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1.112</t>
+          <t>1.172</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1.344</t>
+          <t>1.411</t>
         </is>
       </c>
     </row>
@@ -6813,17 +6813,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1.6920</t>
+          <t>1.6243</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1.427</t>
+          <t>1.373</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2.007</t>
+          <t>1.922</t>
         </is>
       </c>
     </row>
@@ -6836,17 +6836,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.9978</t>
+          <t>0.8842</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0.726</t>
+          <t>0.646</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1.372</t>
+          <t>1.210</t>
         </is>
       </c>
     </row>
@@ -6859,17 +6859,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1.7104</t>
+          <t>3.0848</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1.027</t>
+          <t>1.877</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2.848</t>
+          <t>5.071</t>
         </is>
       </c>
     </row>
@@ -6887,12 +6887,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1.650</t>
+          <t>1.653</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>10.760</t>
+          <t>10.740</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -10,8 +10,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_13" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_20" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_30" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -495,17 +496,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.3467</t>
+          <t>1.3992</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.327</t>
+          <t>1.379</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.366</t>
+          <t>1.419</t>
         </is>
       </c>
     </row>
@@ -518,17 +519,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9570</t>
+          <t>0.8956</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.913</t>
+          <t>0.855</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.003</t>
+          <t>0.939</t>
         </is>
       </c>
     </row>
@@ -541,17 +542,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1395</t>
+          <t>1.1795</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.113</t>
+          <t>1.153</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.166</t>
+          <t>1.207</t>
         </is>
       </c>
     </row>
@@ -564,17 +565,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.4247</t>
+          <t>1.5686</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.398</t>
+          <t>1.540</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.452</t>
+          <t>1.598</t>
         </is>
       </c>
     </row>
@@ -587,17 +588,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.7854</t>
+          <t>1.6687</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.710</t>
+          <t>1.599</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.864</t>
+          <t>1.742</t>
         </is>
       </c>
     </row>
@@ -610,17 +611,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.6805</t>
+          <t>1.6985</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.538</t>
+          <t>1.556</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.836</t>
+          <t>1.854</t>
         </is>
       </c>
     </row>
@@ -633,17 +634,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.6736</t>
+          <t>2.7011</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.457</t>
+          <t>2.355</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.922</t>
+          <t>3.098</t>
         </is>
       </c>
     </row>
@@ -656,17 +657,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.8480</t>
+          <t>0.9224</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.654</t>
+          <t>0.715</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.099</t>
+          <t>1.190</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.3610</t>
+          <t>1.3550</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.938</t>
+          <t>0.934</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.975</t>
+          <t>1.966</t>
         </is>
       </c>
     </row>
@@ -702,17 +703,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8.0519</t>
+          <t>8.0163</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.427</t>
+          <t>4.407</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14.646</t>
+          <t>14.580</t>
         </is>
       </c>
     </row>
@@ -743,17 +744,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.2650</t>
+          <t>1.3358</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.244</t>
+          <t>1.313</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.287</t>
+          <t>1.359</t>
         </is>
       </c>
     </row>
@@ -766,17 +767,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.1329</t>
+          <t>1.1200</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.095</t>
+          <t>1.083</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.172</t>
+          <t>1.159</t>
         </is>
       </c>
     </row>
@@ -789,17 +790,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.3449</t>
+          <t>1.4946</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.320</t>
+          <t>1.467</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.370</t>
+          <t>1.523</t>
         </is>
       </c>
     </row>
@@ -812,17 +813,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.3054</t>
+          <t>1.4721</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.269</t>
+          <t>1.431</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.343</t>
+          <t>1.514</t>
         </is>
       </c>
     </row>
@@ -835,17 +836,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.0441</t>
+          <t>1.0088</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.986</t>
+          <t>0.953</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.106</t>
+          <t>1.068</t>
         </is>
       </c>
     </row>
@@ -858,17 +859,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.5996</t>
+          <t>1.6950</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.446</t>
+          <t>1.534</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.769</t>
+          <t>1.873</t>
         </is>
       </c>
     </row>
@@ -881,17 +882,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.4582</t>
+          <t>1.3068</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.108</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.721</t>
+          <t>1.542</t>
         </is>
       </c>
     </row>
@@ -904,17 +905,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.0864</t>
+          <t>0.6017</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.825</t>
+          <t>0.458</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.431</t>
+          <t>0.790</t>
         </is>
       </c>
     </row>
@@ -927,17 +928,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.4170</t>
+          <t>1.1353</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.005</t>
+          <t>0.806</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.997</t>
+          <t>1.600</t>
         </is>
       </c>
     </row>
@@ -950,17 +951,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.2015</t>
+          <t>3.1873</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.029</t>
+          <t>1.024</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9.961</t>
+          <t>9.916</t>
         </is>
       </c>
     </row>
@@ -991,17 +992,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9385</t>
+          <t>0.9559</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.919</t>
+          <t>0.937</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.958</t>
+          <t>0.976</t>
         </is>
       </c>
     </row>
@@ -1014,17 +1015,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.1837</t>
+          <t>1.2506</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.128</t>
+          <t>1.192</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>1.312</t>
         </is>
       </c>
     </row>
@@ -1037,17 +1038,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.1803</t>
+          <t>1.2671</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.153</t>
+          <t>1.238</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>1.297</t>
         </is>
       </c>
     </row>
@@ -1060,17 +1061,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.9163</t>
+          <t>0.9385</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.888</t>
+          <t>0.910</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.945</t>
+          <t>0.968</t>
         </is>
       </c>
     </row>
@@ -1083,17 +1084,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.5848</t>
+          <t>0.6045</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.545</t>
+          <t>0.564</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.627</t>
+          <t>0.648</t>
         </is>
       </c>
     </row>
@@ -1106,17 +1107,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9519</t>
+          <t>0.9979</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.835</t>
+          <t>0.876</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.086</t>
+          <t>1.137</t>
         </is>
       </c>
     </row>
@@ -1129,17 +1130,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.8713</t>
+          <t>0.4838</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.704</t>
+          <t>0.392</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.078</t>
+          <t>0.598</t>
         </is>
       </c>
     </row>
@@ -1152,17 +1153,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.2811</t>
+          <t>0.6524</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.882</t>
+          <t>0.452</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.860</t>
+          <t>0.942</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1297,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.2215</t>
+          <t>1.2568</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>1.241</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.237</t>
+          <t>1.272</t>
         </is>
       </c>
     </row>
@@ -1319,17 +1320,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9034</t>
+          <t>0.9209</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.859</t>
+          <t>0.876</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.950</t>
+          <t>0.968</t>
         </is>
       </c>
     </row>
@@ -1342,17 +1343,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1916</t>
+          <t>1.1883</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.161</t>
+          <t>1.159</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>1.219</t>
         </is>
       </c>
     </row>
@@ -1365,17 +1366,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2478</t>
+          <t>1.2705</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.222</t>
+          <t>1.245</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.274</t>
+          <t>1.297</t>
         </is>
       </c>
     </row>
@@ -1388,17 +1389,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.4343</t>
+          <t>1.5745</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.400</t>
+          <t>1.538</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.469</t>
+          <t>1.612</t>
         </is>
       </c>
     </row>
@@ -1411,17 +1412,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.3657</t>
+          <t>1.4207</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.308</t>
+          <t>1.361</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.426</t>
+          <t>1.483</t>
         </is>
       </c>
     </row>
@@ -1434,17 +1435,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9171</t>
+          <t>1.0247</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.846</t>
+          <t>0.946</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.994</t>
+          <t>1.110</t>
         </is>
       </c>
     </row>
@@ -1457,17 +1458,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.2534</t>
+          <t>1.2180</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.063</t>
+          <t>1.034</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.478</t>
+          <t>1.434</t>
         </is>
       </c>
     </row>
@@ -1480,17 +1481,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.2001</t>
+          <t>1.1881</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.890</t>
+          <t>0.881</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.619</t>
+          <t>1.603</t>
         </is>
       </c>
     </row>
@@ -1503,17 +1504,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.4470</t>
+          <t>1.4399</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.698</t>
+          <t>0.695</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.998</t>
+          <t>2.983</t>
         </is>
       </c>
     </row>
@@ -1544,17 +1545,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0991</t>
+          <t>1.1574</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.081</t>
+          <t>1.143</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.118</t>
+          <t>1.172</t>
         </is>
       </c>
     </row>
@@ -1567,17 +1568,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8574</t>
+          <t>0.8903</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.827</t>
+          <t>0.859</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.889</t>
+          <t>0.923</t>
         </is>
       </c>
     </row>
@@ -1590,17 +1591,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0338</t>
+          <t>1.0551</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.013</t>
+          <t>1.035</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.055</t>
+          <t>1.076</t>
         </is>
       </c>
     </row>
@@ -1613,17 +1614,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.2562</t>
+          <t>1.2860</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.260</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.282</t>
+          <t>1.312</t>
         </is>
       </c>
     </row>
@@ -1636,17 +1637,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1276</t>
+          <t>1.1820</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.085</t>
+          <t>1.138</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.172</t>
+          <t>1.228</t>
         </is>
       </c>
     </row>
@@ -1659,17 +1660,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.2587</t>
+          <t>1.3132</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.173</t>
+          <t>1.224</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.351</t>
+          <t>1.409</t>
         </is>
       </c>
     </row>
@@ -1682,17 +1683,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.5062</t>
+          <t>1.3205</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.349</t>
+          <t>1.183</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.682</t>
+          <t>1.473</t>
         </is>
       </c>
     </row>
@@ -1705,17 +1706,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2.4683</t>
+          <t>2.3853</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.048</t>
+          <t>1.979</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.976</t>
+          <t>2.875</t>
         </is>
       </c>
     </row>
@@ -1728,17 +1729,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.6591</t>
+          <t>0.8195</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.507</t>
+          <t>0.634</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.857</t>
+          <t>1.060</t>
         </is>
       </c>
     </row>
@@ -1751,17 +1752,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.2127</t>
+          <t>1.9942</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>1.015</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.432</t>
+          <t>3.920</t>
         </is>
       </c>
     </row>
@@ -1792,17 +1793,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9266</t>
+          <t>0.9229</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.914</t>
+          <t>0.910</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.940</t>
+          <t>0.936</t>
         </is>
       </c>
     </row>
@@ -1815,17 +1816,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9491</t>
+          <t>0.9668</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.904</t>
+          <t>0.921</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>1.014</t>
         </is>
       </c>
     </row>
@@ -1838,17 +1839,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.8676</t>
+          <t>0.8879</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.847</t>
+          <t>0.867</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.889</t>
+          <t>0.909</t>
         </is>
       </c>
     </row>
@@ -1861,17 +1862,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0068</t>
+          <t>1.0122</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.986</t>
+          <t>0.991</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.028</t>
+          <t>1.034</t>
         </is>
       </c>
     </row>
@@ -1884,17 +1885,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.7862</t>
+          <t>0.7507</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.756</t>
+          <t>0.722</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.818</t>
+          <t>0.781</t>
         </is>
       </c>
     </row>
@@ -1907,17 +1908,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9217</t>
+          <t>0.9243</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.854</t>
+          <t>0.857</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.995</t>
+          <t>0.997</t>
         </is>
       </c>
     </row>
@@ -1930,17 +1931,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.6424</t>
+          <t>1.2887</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.442</t>
+          <t>1.132</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.871</t>
+          <t>1.467</t>
         </is>
       </c>
     </row>
@@ -1953,17 +1954,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.9694</t>
+          <t>1.9583</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.549</t>
+          <t>1.542</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.504</t>
+          <t>2.487</t>
         </is>
       </c>
     </row>
@@ -1976,17 +1977,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.8892</t>
+          <t>1.9134</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.286</t>
+          <t>1.308</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.774</t>
+          <t>2.800</t>
         </is>
       </c>
     </row>
@@ -2004,12 +2005,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.506</t>
+          <t>0.518</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.788</t>
+          <t>3.703</t>
         </is>
       </c>
     </row>
@@ -2097,17 +2098,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9858</t>
+          <t>1.0278</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>1.012</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.001</t>
+          <t>1.044</t>
         </is>
       </c>
     </row>
@@ -2120,17 +2121,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8908</t>
+          <t>0.8045</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.836</t>
+          <t>0.756</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.949</t>
+          <t>0.857</t>
         </is>
       </c>
     </row>
@@ -2143,17 +2144,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9239</t>
+          <t>1.0021</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.895</t>
+          <t>0.971</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.953</t>
+          <t>1.034</t>
         </is>
       </c>
     </row>
@@ -2166,17 +2167,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9864</t>
+          <t>1.0139</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.962</t>
+          <t>0.989</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.012</t>
+          <t>1.040</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2190,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.1787</t>
+          <t>1.2219</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.146</t>
+          <t>1.188</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>1.257</t>
         </is>
       </c>
     </row>
@@ -2212,17 +2213,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.9767</t>
+          <t>1.0589</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.935</t>
+          <t>1.014</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.020</t>
+          <t>1.106</t>
         </is>
       </c>
     </row>
@@ -2235,17 +2236,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.0402</t>
+          <t>1.2002</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.974</t>
+          <t>1.125</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.280</t>
         </is>
       </c>
     </row>
@@ -2258,17 +2259,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.7317</t>
+          <t>0.6789</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.639</t>
+          <t>0.594</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.838</t>
+          <t>0.776</t>
         </is>
       </c>
     </row>
@@ -2281,17 +2282,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.0706</t>
+          <t>2.4111</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.847</t>
+          <t>1.911</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.353</t>
+          <t>3.042</t>
         </is>
       </c>
     </row>
@@ -2304,17 +2305,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.1397</t>
+          <t>0.9642</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.749</t>
+          <t>0.634</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.735</t>
+          <t>1.467</t>
         </is>
       </c>
     </row>
@@ -2345,17 +2346,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0516</t>
+          <t>1.1080</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.039</t>
+          <t>1.095</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.064</t>
+          <t>1.121</t>
         </is>
       </c>
     </row>
@@ -2368,17 +2369,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8352</t>
+          <t>0.8308</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.805</t>
+          <t>0.801</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.866</t>
+          <t>0.862</t>
         </is>
       </c>
     </row>
@@ -2391,17 +2392,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.9647</t>
+          <t>0.9982</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.945</t>
+          <t>0.978</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.985</t>
+          <t>1.019</t>
         </is>
       </c>
     </row>
@@ -2414,17 +2415,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0622</t>
+          <t>1.1650</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.042</t>
+          <t>1.143</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>1.188</t>
         </is>
       </c>
     </row>
@@ -2437,17 +2438,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.3847</t>
+          <t>1.4678</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.348</t>
+          <t>1.429</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.423</t>
+          <t>1.508</t>
         </is>
       </c>
     </row>
@@ -2460,17 +2461,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.1312</t>
+          <t>1.1229</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.073</t>
+          <t>1.066</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.192</t>
+          <t>1.183</t>
         </is>
       </c>
     </row>
@@ -2483,17 +2484,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.2028</t>
+          <t>1.1571</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.106</t>
+          <t>1.065</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.308</t>
+          <t>1.257</t>
         </is>
       </c>
     </row>
@@ -2506,17 +2507,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.9552</t>
+          <t>1.3649</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.822</t>
+          <t>1.177</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.583</t>
         </is>
       </c>
     </row>
@@ -2529,17 +2530,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.5121</t>
+          <t>1.7958</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.204</t>
+          <t>1.430</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.899</t>
+          <t>2.255</t>
         </is>
       </c>
     </row>
@@ -2552,17 +2553,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.5516</t>
+          <t>0.4602</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.342</t>
+          <t>0.289</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.889</t>
+          <t>0.733</t>
         </is>
       </c>
     </row>
@@ -2593,17 +2594,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0673</t>
+          <t>1.0781</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.051</t>
+          <t>1.061</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.084</t>
+          <t>1.095</t>
         </is>
       </c>
     </row>
@@ -2616,17 +2617,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9376</t>
+          <t>1.0327</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.883</t>
+          <t>0.973</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>1.096</t>
         </is>
       </c>
     </row>
@@ -2639,17 +2640,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.0442</t>
+          <t>0.9961</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.014</t>
+          <t>0.968</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.075</t>
+          <t>1.025</t>
         </is>
       </c>
     </row>
@@ -2662,17 +2663,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0768</t>
+          <t>1.1490</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.052</t>
+          <t>1.123</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.102</t>
+          <t>1.176</t>
         </is>
       </c>
     </row>
@@ -2685,17 +2686,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.1747</t>
+          <t>1.2013</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.140</t>
+          <t>1.166</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.211</t>
+          <t>1.238</t>
         </is>
       </c>
     </row>
@@ -2708,17 +2709,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.1583</t>
+          <t>1.0604</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>1.001</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>1.124</t>
         </is>
       </c>
     </row>
@@ -2731,17 +2732,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1564</t>
+          <t>0.9641</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.052</t>
+          <t>0.878</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.271</t>
+          <t>1.059</t>
         </is>
       </c>
     </row>
@@ -2754,17 +2755,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.3054</t>
+          <t>2.0106</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.082</t>
+          <t>1.671</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.575</t>
+          <t>2.420</t>
         </is>
       </c>
     </row>
@@ -2777,17 +2778,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3.0003</t>
+          <t>0.7448</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.208</t>
+          <t>0.549</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.077</t>
+          <t>1.011</t>
         </is>
       </c>
     </row>
@@ -2800,17 +2801,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.4840</t>
+          <t>0.4773</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.261</t>
+          <t>0.260</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.898</t>
+          <t>0.878</t>
         </is>
       </c>
     </row>
@@ -2827,6 +2828,807 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dose_Combination</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>YearOfBirth</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>KCOR</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Lower</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CI_Upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Reporting date: 2024-10-07</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 vs 0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ASMR (direct)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.7114</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.700</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.724</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.7682</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.706</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.836</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.6359</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.614</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.659</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.6712</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.653</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.690</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.7124</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.691</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.734</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.2737</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.216</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.335</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.642</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.737</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2.5140</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.270</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.784</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.4717</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.279</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.693</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.8710</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.714</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.062</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ASMR (direct)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.9615</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.954</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.969</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.7596</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.736</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.784</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.8196</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.807</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.833</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.0490</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.034</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.064</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.1092</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.090</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.129</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.2417</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.209</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.276</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.1605</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.115</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.207</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1.0238</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.952</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.101</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.8041</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.714</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.906</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.210</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.343</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ASMR (direct)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1.3516</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.330</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1.373</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.9888</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.912</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.072</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1.2889</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.247</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.332</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1.5630</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.524</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.603</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1.5570</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.512</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1.603</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.9749</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.930</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1.022</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1.6879</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.572</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.812</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.4072</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.364</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.456</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.5464</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.464</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.643</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.3082</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.230</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.413</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2898,17 +3700,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.1032</t>
+          <t>1.1180</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.059</t>
+          <t>1.073</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.150</t>
+          <t>1.164</t>
         </is>
       </c>
     </row>
@@ -2921,17 +3723,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.1370</t>
+          <t>1.2913</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.957</t>
+          <t>1.093</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.351</t>
+          <t>1.526</t>
         </is>
       </c>
     </row>
@@ -2944,17 +3746,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.3093</t>
+          <t>1.2948</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.203</t>
+          <t>1.192</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.425</t>
+          <t>1.407</t>
         </is>
       </c>
     </row>
@@ -2967,17 +3769,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9997</t>
+          <t>0.9987</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.923</t>
+          <t>0.924</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>1.080</t>
         </is>
       </c>
     </row>
@@ -2990,17 +3792,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.9580</t>
+          <t>1.0556</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.876</t>
+          <t>0.969</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.047</t>
+          <t>1.150</t>
         </is>
       </c>
     </row>
@@ -3013,17 +3815,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.2553</t>
+          <t>1.0462</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.114</t>
+          <t>0.930</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.415</t>
+          <t>1.176</t>
         </is>
       </c>
     </row>
@@ -3036,17 +3838,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.0632</t>
+          <t>0.9982</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.908</t>
+          <t>0.855</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.245</t>
+          <t>1.166</t>
         </is>
       </c>
     </row>
@@ -3059,17 +3861,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.1714</t>
+          <t>1.2995</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.923</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.486</t>
+          <t>1.639</t>
         </is>
       </c>
     </row>
@@ -3082,17 +3884,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.5570</t>
+          <t>3.4020</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.104</t>
+          <t>2.437</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.195</t>
+          <t>4.749</t>
         </is>
       </c>
     </row>
@@ -3105,17 +3907,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.9010</t>
+          <t>0.9600</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.502</t>
+          <t>0.540</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.617</t>
+          <t>1.706</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3948,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0370</t>
+          <t>1.0369</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3156,7 +3958,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.060</t>
+          <t>1.059</t>
         </is>
       </c>
     </row>
@@ -3169,17 +3971,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8166</t>
+          <t>0.8829</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.752</t>
+          <t>0.816</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.886</t>
+          <t>0.956</t>
         </is>
       </c>
     </row>
@@ -3192,17 +3994,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0222</t>
+          <t>1.0132</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.978</t>
+          <t>0.971</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>1.058</t>
         </is>
       </c>
     </row>
@@ -3215,17 +4017,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0792</t>
+          <t>1.0492</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.035</t>
+          <t>1.007</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.125</t>
+          <t>1.093</t>
         </is>
       </c>
     </row>
@@ -3238,17 +4040,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.0443</t>
+          <t>1.1025</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.993</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.098</t>
+          <t>1.157</t>
         </is>
       </c>
     </row>
@@ -3261,17 +4063,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.9742</t>
+          <t>0.9603</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>0.895</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.047</t>
+          <t>1.030</t>
         </is>
       </c>
     </row>
@@ -3284,17 +4086,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1287</t>
+          <t>1.2224</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.025</t>
+          <t>1.112</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>1.343</t>
         </is>
       </c>
     </row>
@@ -3307,17 +4109,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.3571</t>
+          <t>1.1349</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.162</t>
+          <t>0.974</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.584</t>
+          <t>1.322</t>
         </is>
       </c>
     </row>
@@ -3330,17 +4132,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3.1315</t>
+          <t>2.0497</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.510</t>
+          <t>1.646</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.907</t>
+          <t>2.553</t>
         </is>
       </c>
     </row>
@@ -3353,17 +4155,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.0895</t>
+          <t>1.3809</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.813</t>
+          <t>1.039</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.460</t>
+          <t>1.836</t>
         </is>
       </c>
     </row>
@@ -3394,17 +4196,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9400</t>
+          <t>0.9275</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.902</t>
+          <t>0.890</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.980</t>
+          <t>0.966</t>
         </is>
       </c>
     </row>
@@ -3417,17 +4219,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.7181</t>
+          <t>0.6837</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.601</t>
+          <t>0.576</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.858</t>
+          <t>0.812</t>
         </is>
       </c>
     </row>
@@ -3440,12 +4242,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.7807</t>
+          <t>0.7825</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.717</t>
+          <t>0.720</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3463,17 +4265,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0795</t>
+          <t>1.0505</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.997</t>
+          <t>0.972</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.169</t>
+          <t>1.135</t>
         </is>
       </c>
     </row>
@@ -3486,17 +4288,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0901</t>
+          <t>1.0444</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.997</t>
+          <t>0.958</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.192</t>
+          <t>1.139</t>
         </is>
       </c>
     </row>
@@ -3509,17 +4311,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.7761</t>
+          <t>0.9179</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.687</t>
+          <t>0.814</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.877</t>
+          <t>1.035</t>
         </is>
       </c>
     </row>
@@ -3532,17 +4334,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.0617</t>
+          <t>1.2245</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.903</t>
+          <t>1.045</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.248</t>
+          <t>1.435</t>
         </is>
       </c>
     </row>
@@ -3555,17 +4357,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.1586</t>
+          <t>0.8733</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>0.683</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.489</t>
+          <t>1.117</t>
         </is>
       </c>
     </row>
@@ -3578,17 +4380,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2.0112</t>
+          <t>0.6025</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.414</t>
+          <t>0.427</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.861</t>
+          <t>0.850</t>
         </is>
       </c>
     </row>
@@ -3601,17 +4403,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.2092</t>
+          <t>1.4384</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.669</t>
+          <t>0.804</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.185</t>
+          <t>2.573</t>
         </is>
       </c>
     </row>
@@ -3642,17 +4444,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.3820</t>
+          <t>1.4225</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.358</t>
+          <t>1.398</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.406</t>
+          <t>1.447</t>
         </is>
       </c>
     </row>
@@ -3665,17 +4467,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.2201</t>
+          <t>1.2112</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.150</t>
+          <t>1.143</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.295</t>
+          <t>1.283</t>
         </is>
       </c>
     </row>
@@ -3688,17 +4490,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.4245</t>
+          <t>1.3935</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.376</t>
+          <t>1.347</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.475</t>
+          <t>1.441</t>
         </is>
       </c>
     </row>
@@ -3711,17 +4513,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.4474</t>
+          <t>1.5397</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.399</t>
+          <t>1.490</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.497</t>
+          <t>1.591</t>
         </is>
       </c>
     </row>
@@ -3734,17 +4536,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.4344</t>
+          <t>1.4826</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.376</t>
+          <t>1.424</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.495</t>
+          <t>1.544</t>
         </is>
       </c>
     </row>
@@ -3757,17 +4559,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.0255</t>
+          <t>1.1019</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.962</t>
+          <t>1.035</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>1.173</t>
         </is>
       </c>
     </row>
@@ -3780,17 +4582,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.2288</t>
+          <t>1.3406</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>1.222</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.351</t>
+          <t>1.471</t>
         </is>
       </c>
     </row>
@@ -3803,17 +4605,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1807</t>
+          <t>1.0852</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.999</t>
+          <t>0.920</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.396</t>
+          <t>1.279</t>
         </is>
       </c>
     </row>
@@ -3826,17 +4628,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.7390</t>
+          <t>1.0790</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.560</t>
+          <t>0.825</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.976</t>
+          <t>1.411</t>
         </is>
       </c>
     </row>
@@ -3849,17 +4651,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.4798</t>
+          <t>0.6787</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.296</t>
+          <t>0.428</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.777</t>
+          <t>1.076</t>
         </is>
       </c>
     </row>
@@ -3890,17 +4692,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.2527</t>
+          <t>1.2724</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.204</t>
+          <t>1.224</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.303</t>
+          <t>1.323</t>
         </is>
       </c>
     </row>
@@ -3913,17 +4715,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.0731</t>
+          <t>0.9380</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>0.797</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.270</t>
+          <t>1.104</t>
         </is>
       </c>
     </row>
@@ -3936,17 +4738,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.0880</t>
+          <t>1.0762</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.004</t>
+          <t>0.995</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.179</t>
+          <t>1.165</t>
         </is>
       </c>
     </row>
@@ -3959,17 +4761,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.4478</t>
+          <t>1.5417</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.342</t>
+          <t>1.432</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.562</t>
+          <t>1.660</t>
         </is>
       </c>
     </row>
@@ -3982,17 +4784,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.4973</t>
+          <t>1.4046</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.375</t>
+          <t>1.294</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.630</t>
+          <t>1.525</t>
         </is>
       </c>
     </row>
@@ -4005,17 +4807,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.8170</t>
+          <t>1.0533</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.726</t>
+          <t>0.938</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.919</t>
+          <t>1.183</t>
         </is>
       </c>
     </row>
@@ -4028,17 +4830,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.1558</t>
+          <t>1.3429</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.984</t>
+          <t>1.147</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.357</t>
+          <t>1.573</t>
         </is>
       </c>
     </row>
@@ -4051,17 +4853,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.0080</t>
+          <t>0.8350</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.778</t>
+          <t>0.648</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.306</t>
+          <t>1.076</t>
         </is>
       </c>
     </row>
@@ -4074,17 +4876,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.4746</t>
+          <t>0.3172</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.321</t>
+          <t>0.218</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.701</t>
+          <t>0.462</t>
         </is>
       </c>
     </row>
@@ -4097,17 +4899,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.5326</t>
+          <t>0.7070</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.263</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.077</t>
+          <t>1.403</t>
         </is>
       </c>
     </row>
@@ -4138,17 +4940,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.3327</t>
+          <t>1.3719</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.309</t>
+          <t>1.348</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.357</t>
+          <t>1.396</t>
         </is>
       </c>
     </row>
@@ -4161,17 +4963,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.4943</t>
+          <t>1.3719</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.390</t>
+          <t>1.279</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.607</t>
+          <t>1.472</t>
         </is>
       </c>
     </row>
@@ -4184,17 +4986,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.3936</t>
+          <t>1.3753</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.345</t>
+          <t>1.328</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.444</t>
+          <t>1.424</t>
         </is>
       </c>
     </row>
@@ -4207,17 +5009,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.3412</t>
+          <t>1.4676</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.297</t>
+          <t>1.421</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.386</t>
+          <t>1.516</t>
         </is>
       </c>
     </row>
@@ -4230,17 +5032,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.3736</t>
+          <t>1.3448</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>1.290</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.433</t>
+          <t>1.402</t>
         </is>
       </c>
     </row>
@@ -4253,17 +5055,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.0527</t>
+          <t>1.1475</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.982</t>
+          <t>1.072</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.129</t>
+          <t>1.228</t>
         </is>
       </c>
     </row>
@@ -4276,17 +5078,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.0886</t>
+          <t>1.0967</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.985</t>
+          <t>0.994</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.204</t>
+          <t>1.210</t>
         </is>
       </c>
     </row>
@@ -4299,17 +5101,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.8700</t>
+          <t>0.9562</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.723</t>
+          <t>0.796</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.048</t>
+          <t>1.149</t>
         </is>
       </c>
     </row>
@@ -4322,17 +5124,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.2360</t>
+          <t>0.5264</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.177</t>
+          <t>0.398</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.315</t>
+          <t>0.697</t>
         </is>
       </c>
     </row>
@@ -4345,17 +5147,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.4404</t>
+          <t>0.4915</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.270</t>
+          <t>0.307</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.719</t>
+          <t>0.786</t>
         </is>
       </c>
     </row>
@@ -4371,7 +5173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4443,17 +5245,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8783</t>
+          <t>0.9327</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.841</t>
+          <t>0.893</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.918</t>
+          <t>0.974</t>
         </is>
       </c>
     </row>
@@ -4466,17 +5268,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.8087</t>
+          <t>1.9755</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.480</t>
+          <t>1.624</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.211</t>
+          <t>2.403</t>
         </is>
       </c>
     </row>
@@ -4489,17 +5291,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8900</t>
+          <t>1.0349</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.806</t>
+          <t>0.940</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.983</t>
+          <t>1.139</t>
         </is>
       </c>
     </row>
@@ -4512,17 +5314,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8071</t>
+          <t>0.7428</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.741</t>
+          <t>0.684</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.879</t>
+          <t>0.807</t>
         </is>
       </c>
     </row>
@@ -4535,17 +5337,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.7905</t>
+          <t>0.8701</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.721</t>
+          <t>0.795</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.867</t>
+          <t>0.952</t>
         </is>
       </c>
     </row>
@@ -4558,17 +5360,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.8544</t>
+          <t>1.1234</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.764</t>
+          <t>1.008</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.955</t>
+          <t>1.252</t>
         </is>
       </c>
     </row>
@@ -4581,17 +5383,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7309</t>
+          <t>0.7517</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.628</t>
+          <t>0.649</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.850</t>
+          <t>0.870</t>
         </is>
       </c>
     </row>
@@ -4604,17 +5406,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.2719</t>
+          <t>1.4943</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.021</t>
+          <t>1.204</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.585</t>
+          <t>1.855</t>
         </is>
       </c>
     </row>
@@ -4627,17 +5429,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.9590</t>
+          <t>1.0137</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.619</t>
+          <t>0.655</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.486</t>
+          <t>1.569</t>
         </is>
       </c>
     </row>
@@ -4650,17 +5452,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.5078</t>
+          <t>0.3515</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.247</t>
+          <t>0.185</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.042</t>
+          <t>0.668</t>
         </is>
       </c>
     </row>
@@ -4691,17 +5493,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.9810</t>
+          <t>1.0020</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.959</t>
+          <t>0.980</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.003</t>
+          <t>1.024</t>
         </is>
       </c>
     </row>
@@ -4714,17 +5516,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.6208</t>
+          <t>1.7383</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.467</t>
+          <t>1.578</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.791</t>
+          <t>1.915</t>
         </is>
       </c>
     </row>
@@ -4737,17 +5539,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8757</t>
+          <t>0.8849</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.835</t>
+          <t>0.845</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.919</t>
+          <t>0.927</t>
         </is>
       </c>
     </row>
@@ -4760,17 +5562,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.9341</t>
+          <t>0.9394</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.895</t>
+          <t>0.901</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>0.980</t>
         </is>
       </c>
     </row>
@@ -4783,17 +5585,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.0538</t>
+          <t>1.1669</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.003</t>
+          <t>1.112</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.225</t>
         </is>
       </c>
     </row>
@@ -4806,17 +5608,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.9929</t>
+          <t>0.9358</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.928</t>
+          <t>0.876</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.063</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -4829,17 +5631,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.9753</t>
+          <t>0.8795</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.890</t>
+          <t>0.804</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>0.962</t>
         </is>
       </c>
     </row>
@@ -4852,17 +5654,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.0640</t>
+          <t>1.1379</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.925</t>
+          <t>0.992</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>1.305</t>
         </is>
       </c>
     </row>
@@ -4875,17 +5677,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.2623</t>
+          <t>1.1875</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.017</t>
+          <t>0.961</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.567</t>
+          <t>1.468</t>
         </is>
       </c>
     </row>
@@ -4898,17 +5700,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.8255</t>
+          <t>0.5714</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.617</t>
+          <t>0.430</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.105</t>
+          <t>0.760</t>
         </is>
       </c>
     </row>
@@ -4939,17 +5741,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.1169</t>
+          <t>1.0742</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>1.028</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.168</t>
+          <t>1.122</t>
         </is>
       </c>
     </row>
@@ -4962,17 +5764,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.8961</t>
+          <t>0.8799</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.729</t>
+          <t>0.719</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.101</t>
+          <t>1.076</t>
         </is>
       </c>
     </row>
@@ -4985,17 +5787,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.9840</t>
+          <t>0.8551</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.889</t>
+          <t>0.775</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.089</t>
+          <t>0.943</t>
         </is>
       </c>
     </row>
@@ -5008,17 +5810,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.1574</t>
+          <t>1.2646</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.062</t>
+          <t>1.164</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>1.374</t>
         </is>
       </c>
     </row>
@@ -5031,17 +5833,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.3331</t>
+          <t>1.3411</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>1.225</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.464</t>
+          <t>1.468</t>
         </is>
       </c>
     </row>
@@ -5054,17 +5856,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.1621</t>
+          <t>0.8330</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.036</t>
+          <t>0.745</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.303</t>
+          <t>0.932</t>
         </is>
       </c>
     </row>
@@ -5077,17 +5879,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.3345</t>
+          <t>1.1700</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.142</t>
+          <t>1.006</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.559</t>
+          <t>1.361</t>
         </is>
       </c>
     </row>
@@ -5100,17 +5902,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.8365</t>
+          <t>0.7615</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.664</t>
+          <t>0.607</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.054</t>
+          <t>0.955</t>
         </is>
       </c>
     </row>
@@ -5123,17 +5925,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.3163</t>
+          <t>1.1715</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.838</t>
+          <t>0.747</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.067</t>
+          <t>1.838</t>
         </is>
       </c>
     </row>
@@ -5151,12 +5953,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.785</t>
+          <t>0.847</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.365</t>
+          <t>3.119</t>
         </is>
       </c>
     </row>
@@ -5187,17 +5989,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.0314</t>
+          <t>1.0572</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.014</t>
+          <t>1.039</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.076</t>
         </is>
       </c>
     </row>
@@ -5210,17 +6012,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.1625</t>
+          <t>1.1860</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>1.104</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.252</t>
+          <t>1.274</t>
         </is>
       </c>
     </row>
@@ -5233,17 +6035,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.9755</t>
+          <t>1.0313</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.941</t>
+          <t>0.996</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.011</t>
+          <t>1.068</t>
         </is>
       </c>
     </row>
@@ -5256,17 +6058,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.0635</t>
+          <t>1.0476</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.029</t>
+          <t>1.014</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.099</t>
+          <t>1.082</t>
         </is>
       </c>
     </row>
@@ -5279,17 +6081,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.0129</t>
+          <t>1.0513</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.973</t>
+          <t>1.011</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.054</t>
+          <t>1.093</t>
         </is>
       </c>
     </row>
@@ -5302,17 +6104,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.9415</t>
+          <t>0.9668</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.889</t>
+          <t>0.914</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.997</t>
+          <t>1.023</t>
         </is>
       </c>
     </row>
@@ -5325,17 +6127,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.1091</t>
+          <t>1.1588</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.022</t>
+          <t>1.070</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.203</t>
+          <t>1.255</t>
         </is>
       </c>
     </row>
@@ -5348,17 +6150,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.2271</t>
+          <t>1.1978</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>1.045</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.410</t>
+          <t>1.372</t>
         </is>
       </c>
     </row>
@@ -5371,17 +6173,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.3684</t>
+          <t>1.7418</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.097</t>
+          <t>1.401</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.708</t>
+          <t>2.165</t>
         </is>
       </c>
     </row>
@@ -5394,17 +6196,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.7516</t>
+          <t>0.6682</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.514</t>
+          <t>0.463</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.098</t>
+          <t>0.965</t>
         </is>
       </c>
     </row>
@@ -5435,17 +6237,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1743</t>
+          <t>1.1335</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.126</t>
+          <t>1.087</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.225</t>
+          <t>1.182</t>
         </is>
       </c>
     </row>
@@ -5458,17 +6260,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.6427</t>
+          <t>0.6004</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.529</t>
+          <t>0.496</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.781</t>
+          <t>0.726</t>
         </is>
       </c>
     </row>
@@ -5481,17 +6283,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.0961</t>
+          <t>0.9965</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>0.908</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.207</t>
+          <t>1.093</t>
         </is>
       </c>
     </row>
@@ -5504,17 +6306,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.3176</t>
+          <t>1.4103</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>1.303</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.429</t>
+          <t>1.526</t>
         </is>
       </c>
     </row>
@@ -5527,17 +6329,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.2814</t>
+          <t>1.2083</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.172</t>
+          <t>1.109</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.401</t>
+          <t>1.317</t>
         </is>
       </c>
     </row>
@@ -5550,17 +6352,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.1020</t>
+          <t>0.8607</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.988</t>
+          <t>0.774</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>0.957</t>
         </is>
       </c>
     </row>
@@ -5573,17 +6375,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.5176</t>
+          <t>1.5417</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.306</t>
+          <t>1.333</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.764</t>
+          <t>1.783</t>
         </is>
       </c>
     </row>
@@ -5596,17 +6398,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.9648</t>
+          <t>0.8016</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.766</t>
+          <t>0.639</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>1.005</t>
         </is>
       </c>
     </row>
@@ -5619,17 +6421,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.4269</t>
+          <t>1.7183</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>1.093</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2.246</t>
+          <t>2.702</t>
         </is>
       </c>
     </row>
@@ -5642,17 +6444,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1.4803</t>
+          <t>1.9011</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.688</t>
+          <t>0.952</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3.187</t>
+          <t>3.796</t>
         </is>
       </c>
     </row>
@@ -5683,17 +6485,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.0514</t>
+          <t>1.0551</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.032</t>
+          <t>1.036</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.071</t>
+          <t>1.075</t>
         </is>
       </c>
     </row>
@@ -5706,17 +6508,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.7172</t>
+          <t>0.6823</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.657</t>
+          <t>0.627</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.783</t>
+          <t>0.743</t>
         </is>
       </c>
     </row>
@@ -5729,17 +6531,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.1139</t>
+          <t>1.1654</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.070</t>
+          <t>1.121</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.160</t>
+          <t>1.212</t>
         </is>
       </c>
     </row>
@@ -5752,17 +6554,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.1384</t>
+          <t>1.1152</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.099</t>
+          <t>1.078</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.179</t>
+          <t>1.154</t>
         </is>
       </c>
     </row>
@@ -5775,17 +6577,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.9612</t>
+          <t>0.9010</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.921</t>
+          <t>0.864</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.003</t>
+          <t>0.939</t>
         </is>
       </c>
     </row>
@@ -5798,17 +6600,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.9482</t>
+          <t>1.0332</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.890</t>
+          <t>0.971</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.010</t>
+          <t>1.099</t>
         </is>
       </c>
     </row>
@@ -5821,17 +6623,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.1372</t>
+          <t>1.3176</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.040</t>
+          <t>1.207</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.244</t>
+          <t>1.439</t>
         </is>
       </c>
     </row>
@@ -5844,17 +6646,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.1533</t>
+          <t>1.0526</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.987</t>
+          <t>0.903</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.348</t>
+          <t>1.226</t>
         </is>
       </c>
     </row>
@@ -5867,17 +6669,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.0841</t>
+          <t>1.4667</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.847</t>
+          <t>1.150</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.387</t>
+          <t>1.871</t>
         </is>
       </c>
     </row>
@@ -5890,17 +6692,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.9106</t>
+          <t>1.1694</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.613</t>
+          <t>0.796</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.352</t>
+          <t>1.717</t>
         </is>
       </c>
     </row>
@@ -5931,17 +6733,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.2013</t>
+          <t>1.2678</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.176</t>
+          <t>1.241</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.227</t>
+          <t>1.296</t>
         </is>
       </c>
     </row>
@@ -5954,17 +6756,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.3850</t>
+          <t>1.5641</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.277</t>
+          <t>1.446</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.502</t>
+          <t>1.691</t>
         </is>
       </c>
     </row>
@@ -5977,17 +6779,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1.1160</t>
+          <t>1.1681</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.072</t>
+          <t>1.123</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.162</t>
+          <t>1.215</t>
         </is>
       </c>
     </row>
@@ -6000,17 +6802,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1.1743</t>
+          <t>1.1553</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.130</t>
+          <t>1.113</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>1.199</t>
         </is>
       </c>
     </row>
@@ -6023,17 +6825,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1.2583</t>
+          <t>1.3524</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.197</t>
+          <t>1.288</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.323</t>
+          <t>1.421</t>
         </is>
       </c>
     </row>
@@ -6046,17 +6848,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1.2108</t>
+          <t>1.2976</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.181</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.333</t>
+          <t>1.426</t>
         </is>
       </c>
     </row>
@@ -6069,17 +6871,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1.8015</t>
+          <t>2.5414</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.521</t>
+          <t>2.153</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2.133</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -6092,17 +6894,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1.0851</t>
+          <t>1.2511</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.799</t>
+          <t>0.927</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.474</t>
+          <t>1.689</t>
         </is>
       </c>
     </row>
@@ -6115,17 +6917,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2.8407</t>
+          <t>2.2488</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1.753</t>
+          <t>1.389</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4.603</t>
+          <t>3.640</t>
         </is>
       </c>
     </row>
@@ -6138,17 +6940,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3.9520</t>
+          <t>3.9243</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.612</t>
+          <t>1.602</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>9.689</t>
+          <t>9.611</t>
         </is>
       </c>
     </row>
@@ -6179,17 +6981,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.3671</t>
+          <t>1.3558</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.308</t>
+          <t>1.298</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.429</t>
+          <t>1.416</t>
         </is>
       </c>
     </row>
@@ -6202,17 +7004,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.7657</t>
+          <t>0.7917</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.628</t>
+          <t>0.653</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.933</t>
+          <t>0.960</t>
         </is>
       </c>
     </row>
@@ -6225,17 +7027,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.2539</t>
+          <t>1.1287</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.137</t>
+          <t>1.027</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.383</t>
+          <t>1.240</t>
         </is>
       </c>
     </row>
@@ -6248,17 +7050,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.4550</t>
+          <t>1.5553</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.338</t>
+          <t>1.434</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.582</t>
+          <t>1.687</t>
         </is>
       </c>
     </row>
@@ -6271,17 +7073,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.5918</t>
+          <t>1.5544</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.449</t>
+          <t>1.419</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.749</t>
+          <t>1.702</t>
         </is>
       </c>
     </row>
@@ -6294,17 +7096,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1.4172</t>
+          <t>1.1551</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.240</t>
+          <t>1.014</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.619</t>
+          <t>1.316</t>
         </is>
       </c>
     </row>
@@ -6317,17 +7119,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2.4650</t>
+          <t>3.3811</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.996</t>
+          <t>2.753</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3.044</t>
+          <t>4.153</t>
         </is>
       </c>
     </row>
@@ -6340,17 +7142,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.8531</t>
+          <t>0.8372</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.597</t>
+          <t>0.590</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>1.189</t>
         </is>
       </c>
     </row>
@@ -6363,17 +7165,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>8.7073</t>
+          <t>2.2184</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>4.664</t>
+          <t>1.188</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>16.255</t>
+          <t>4.141</t>
         </is>
       </c>
     </row>
@@ -6391,12 +7193,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.633</t>
+          <t>2.760</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>24.604</t>
+          <t>23.474</t>
         </is>
       </c>
     </row>
@@ -6427,17 +7229,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1.2276</t>
+          <t>1.2635</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1.200</t>
+          <t>1.235</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.256</t>
+          <t>1.293</t>
         </is>
       </c>
     </row>
@@ -6450,17 +7252,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.8545</t>
+          <t>0.8998</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.778</t>
+          <t>0.822</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.938</t>
+          <t>0.986</t>
         </is>
       </c>
     </row>
@@ -6473,17 +7275,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1.2743</t>
+          <t>1.3200</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>1.265</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.332</t>
+          <t>1.378</t>
         </is>
       </c>
     </row>
@@ -6496,17 +7298,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1.2571</t>
+          <t>1.2299</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1.208</t>
+          <t>1.183</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.308</t>
+          <t>1.279</t>
         </is>
       </c>
     </row>
@@ -6519,17 +7321,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1.1940</t>
+          <t>1.1590</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.133</t>
+          <t>1.101</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.258</t>
+          <t>1.220</t>
         </is>
       </c>
     </row>
@@ -6542,17 +7344,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1.2195</t>
+          <t>1.3866</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1.104</t>
+          <t>1.257</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1.348</t>
+          <t>1.530</t>
         </is>
       </c>
     </row>
@@ -6565,17 +7367,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1.8471</t>
+          <t>2.8898</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1.553</t>
+          <t>2.438</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2.196</t>
+          <t>3.425</t>
         </is>
       </c>
     </row>
@@ -6588,17 +7390,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1.0198</t>
+          <t>1.0994</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.745</t>
+          <t>0.808</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1.396</t>
+          <t>1.496</t>
         </is>
       </c>
     </row>
@@ -6611,17 +7413,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>4.2321</t>
+          <t>1.8937</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2.580</t>
+          <t>1.156</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>6.941</t>
+          <t>3.103</t>
         </is>
       </c>
     </row>
@@ -6639,12 +7441,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1.846</t>
+          <t>1.848</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>11.249</t>
+          <t>11.239</t>
         </is>
       </c>
     </row>
@@ -6675,17 +7477,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1.1676</t>
+          <t>1.1978</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1.147</t>
+          <t>1.176</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1.188</t>
+          <t>1.220</t>
         </is>
       </c>
     </row>
@@ -6698,17 +7500,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1.1914</t>
+          <t>1.3188</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>1.238</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.272</t>
+          <t>1.405</t>
         </is>
       </c>
     </row>
@@ -6721,17 +7523,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1.1440</t>
+          <t>1.1327</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.100</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.179</t>
+          <t>1.167</t>
         </is>
       </c>
     </row>
@@ -6744,17 +7546,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1.1043</t>
+          <t>1.1028</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1.073</t>
+          <t>1.072</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1.137</t>
+          <t>1.135</t>
         </is>
       </c>
     </row>
@@ -6767,17 +7569,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1.2422</t>
+          <t>1.2864</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1.190</t>
+          <t>1.234</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1.297</t>
+          <t>1.342</t>
         </is>
       </c>
     </row>
@@ -6790,17 +7592,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1.2861</t>
+          <t>1.3421</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1.172</t>
+          <t>1.225</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1.411</t>
+          <t>1.471</t>
         </is>
       </c>
     </row>
@@ -6813,17 +7615,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1.6243</t>
+          <t>2.1931</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1.373</t>
+          <t>1.859</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1.922</t>
+          <t>2.587</t>
         </is>
       </c>
     </row>
@@ -6836,17 +7638,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.8842</t>
+          <t>1.0445</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0.646</t>
+          <t>0.768</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1.210</t>
+          <t>1.421</t>
         </is>
       </c>
     </row>
@@ -6859,17 +7661,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3.0848</t>
+          <t>1.2911</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1.877</t>
+          <t>0.786</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>5.071</t>
+          <t>2.121</t>
         </is>
       </c>
     </row>
@@ -6882,17 +7684,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>4.2137</t>
+          <t>4.1365</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1.653</t>
+          <t>1.629</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>10.740</t>
+          <t>10.504</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -519,17 +519,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8956</t>
+          <t>0.8952</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.855</t>
+          <t>0.854</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.939</t>
+          <t>0.938</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.3550</t>
+          <t>1.3551</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.3358</t>
+          <t>1.3357</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.359</t>
+          <t>1.358</t>
         </is>
       </c>
     </row>
@@ -767,17 +767,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.1200</t>
+          <t>1.1193</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>1.082</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.159</t>
+          <t>1.158</t>
         </is>
       </c>
     </row>
@@ -992,12 +992,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9559</t>
+          <t>0.9558</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.937</t>
+          <t>0.936</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.2506</t>
+          <t>1.2504</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.312</t>
+          <t>1.311</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.3512</t>
+          <t>1.3511</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1320,12 +1320,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9209</t>
+          <t>0.9204</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.876</t>
+          <t>0.875</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.159</t>
+          <t>1.158</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1568,17 +1568,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8903</t>
+          <t>0.8897</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.859</t>
+          <t>0.858</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.923</t>
+          <t>0.922</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9668</t>
+          <t>0.9667</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1977,12 +1977,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.9134</t>
+          <t>1.9133</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.308</t>
+          <t>1.307</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0278</t>
+          <t>1.0277</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2121,17 +2121,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8045</t>
+          <t>0.8040</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.756</t>
+          <t>0.755</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.857</t>
+          <t>0.856</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8308</t>
+          <t>0.8303</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.862</t>
+          <t>0.861</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.7682</t>
+          <t>0.7680</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.836</t>
+          <t>0.835</t>
         </is>
       </c>
     </row>
@@ -3170,12 +3170,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.7596</t>
+          <t>0.7592</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.736</t>
+          <t>0.735</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9888</t>
+          <t>0.9886</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3700,17 +3700,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.1180</t>
+          <t>1.1152</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.073</t>
+          <t>1.071</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.164</t>
+          <t>1.161</t>
         </is>
       </c>
     </row>
@@ -3723,17 +3723,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2913</t>
+          <t>1.2958</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.093</t>
+          <t>1.097</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.526</t>
+          <t>1.530</t>
         </is>
       </c>
     </row>
@@ -3746,17 +3746,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.2948</t>
+          <t>1.2968</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.192</t>
+          <t>1.194</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.407</t>
+          <t>1.409</t>
         </is>
       </c>
     </row>
@@ -3769,12 +3769,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9987</t>
+          <t>0.9993</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.924</t>
+          <t>0.925</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0556</t>
+          <t>1.0558</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.150</t>
+          <t>1.151</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.4020</t>
+          <t>3.4021</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3948,17 +3948,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0369</t>
+          <t>1.0382</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.015</t>
+          <t>1.016</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.059</t>
+          <t>1.061</t>
         </is>
       </c>
     </row>
@@ -3971,17 +3971,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8829</t>
+          <t>0.8876</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.816</t>
+          <t>0.820</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.956</t>
+          <t>0.961</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0132</t>
+          <t>1.0135</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0492</t>
+          <t>1.0489</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1025</t>
+          <t>1.1023</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4196,17 +4196,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9275</t>
+          <t>0.9309</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.890</t>
+          <t>0.894</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.966</t>
+          <t>0.970</t>
         </is>
       </c>
     </row>
@@ -4219,17 +4219,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.6837</t>
+          <t>0.6850</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.576</t>
+          <t>0.577</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.812</t>
+          <t>0.813</t>
         </is>
       </c>
     </row>
@@ -4242,17 +4242,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.7825</t>
+          <t>0.7816</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.720</t>
+          <t>0.719</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.850</t>
+          <t>0.849</t>
         </is>
       </c>
     </row>
@@ -4265,17 +4265,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0505</t>
+          <t>1.0497</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.972</t>
+          <t>0.971</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.135</t>
+          <t>1.134</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0444</t>
+          <t>1.0440</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>1.138</t>
         </is>
       </c>
     </row>
@@ -4444,17 +4444,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.4225</t>
+          <t>1.4256</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.398</t>
+          <t>1.401</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.447</t>
+          <t>1.451</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.2112</t>
+          <t>1.2110</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4692,17 +4692,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.2724</t>
+          <t>1.2783</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>1.230</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.323</t>
+          <t>1.329</t>
         </is>
       </c>
     </row>
@@ -4715,17 +4715,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.9380</t>
+          <t>0.9345</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.797</t>
+          <t>0.795</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.104</t>
+          <t>1.099</t>
         </is>
       </c>
     </row>
@@ -4738,17 +4738,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.0762</t>
+          <t>1.0746</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.995</t>
+          <t>0.993</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.165</t>
+          <t>1.163</t>
         </is>
       </c>
     </row>
@@ -4761,17 +4761,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.5417</t>
+          <t>1.5408</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.432</t>
+          <t>1.431</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.660</t>
+          <t>1.658</t>
         </is>
       </c>
     </row>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.4046</t>
+          <t>1.4042</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.525</t>
+          <t>1.524</t>
         </is>
       </c>
     </row>
@@ -4830,7 +4830,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.3429</t>
+          <t>1.3430</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4940,17 +4940,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.3719</t>
+          <t>1.3732</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.348</t>
+          <t>1.349</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.396</t>
+          <t>1.398</t>
         </is>
       </c>
     </row>
@@ -4963,17 +4963,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.3719</t>
+          <t>1.3643</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.279</t>
+          <t>1.272</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.472</t>
+          <t>1.464</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.3753</t>
+          <t>1.3749</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.424</t>
+          <t>1.423</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.4676</t>
+          <t>1.4679</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.3448</t>
+          <t>1.3450</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.290</t>
+          <t>1.291</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5245,17 +5245,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9327</t>
+          <t>0.9260</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.893</t>
+          <t>0.887</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.974</t>
+          <t>0.967</t>
         </is>
       </c>
     </row>
@@ -5268,17 +5268,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.9755</t>
+          <t>1.9155</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.624</t>
+          <t>1.575</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.403</t>
+          <t>2.329</t>
         </is>
       </c>
     </row>
@@ -5291,17 +5291,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0349</t>
+          <t>1.0366</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.940</t>
+          <t>0.942</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>1.141</t>
         </is>
       </c>
     </row>
@@ -5314,12 +5314,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.7428</t>
+          <t>0.7436</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.684</t>
+          <t>0.685</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -5337,12 +5337,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.8701</t>
+          <t>0.8707</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.795</t>
+          <t>0.796</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.4943</t>
+          <t>1.4944</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -5493,17 +5493,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0020</t>
+          <t>1.0007</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.980</t>
+          <t>0.979</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.024</t>
+          <t>1.023</t>
         </is>
       </c>
     </row>
@@ -5516,17 +5516,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.7383</t>
+          <t>1.7629</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.578</t>
+          <t>1.600</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.915</t>
+          <t>1.943</t>
         </is>
       </c>
     </row>
@@ -5539,17 +5539,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8849</t>
+          <t>0.8865</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.845</t>
+          <t>0.846</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.927</t>
+          <t>0.929</t>
         </is>
       </c>
     </row>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.9394</t>
+          <t>0.9395</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5585,12 +5585,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1669</t>
+          <t>1.1667</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.112</t>
+          <t>1.111</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5741,17 +5741,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0742</t>
+          <t>1.0807</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.028</t>
+          <t>1.034</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.122</t>
+          <t>1.129</t>
         </is>
       </c>
     </row>
@@ -5764,17 +5764,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.8799</t>
+          <t>0.9203</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.719</t>
+          <t>0.753</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.076</t>
+          <t>1.125</t>
         </is>
       </c>
     </row>
@@ -5787,12 +5787,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.8551</t>
+          <t>0.8552</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.775</t>
+          <t>0.776</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -5810,17 +5810,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.2646</t>
+          <t>1.2635</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.164</t>
+          <t>1.163</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.374</t>
+          <t>1.373</t>
         </is>
       </c>
     </row>
@@ -5833,17 +5833,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.3411</t>
+          <t>1.3399</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.225</t>
+          <t>1.224</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.468</t>
+          <t>1.467</t>
         </is>
       </c>
     </row>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.932</t>
+          <t>0.931</t>
         </is>
       </c>
     </row>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1700</t>
+          <t>1.1699</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5989,17 +5989,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.0572</t>
+          <t>1.0562</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.039</t>
+          <t>1.038</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.076</t>
+          <t>1.075</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.1860</t>
+          <t>1.1858</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6237,17 +6237,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1335</t>
+          <t>1.1407</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.087</t>
+          <t>1.094</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.182</t>
+          <t>1.189</t>
         </is>
       </c>
     </row>
@@ -6260,17 +6260,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.6004</t>
+          <t>0.6191</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.496</t>
+          <t>0.512</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.726</t>
+          <t>0.749</t>
         </is>
       </c>
     </row>
@@ -6283,17 +6283,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.9965</t>
+          <t>0.9948</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.908</t>
+          <t>0.907</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.093</t>
+          <t>1.091</t>
         </is>
       </c>
     </row>
@@ -6306,17 +6306,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.4103</t>
+          <t>1.4089</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.303</t>
+          <t>1.302</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.526</t>
+          <t>1.524</t>
         </is>
       </c>
     </row>
@@ -6329,17 +6329,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.2083</t>
+          <t>1.2074</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.109</t>
+          <t>1.108</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.317</t>
+          <t>1.316</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.8607</t>
+          <t>0.8606</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.5417</t>
+          <t>1.5415</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.8016</t>
+          <t>0.8015</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.0551</t>
+          <t>1.0555</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -6508,17 +6508,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.6823</t>
+          <t>0.6727</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.627</t>
+          <t>0.618</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.743</t>
+          <t>0.733</t>
         </is>
       </c>
     </row>
@@ -6531,17 +6531,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.1654</t>
+          <t>1.1633</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.121</t>
+          <t>1.119</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>1.210</t>
         </is>
       </c>
     </row>
@@ -6554,7 +6554,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.1152</t>
+          <t>1.1150</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -6577,12 +6577,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.9010</t>
+          <t>0.9011</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.864</t>
+          <t>0.865</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -6733,17 +6733,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.2678</t>
+          <t>1.2651</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.241</t>
+          <t>1.238</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.296</t>
+          <t>1.293</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.5641</t>
+          <t>1.5638</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3.9243</t>
+          <t>3.9244</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -6981,17 +6981,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.3558</t>
+          <t>1.3632</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.298</t>
+          <t>1.305</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.416</t>
+          <t>1.424</t>
         </is>
       </c>
     </row>
@@ -7004,17 +7004,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.7917</t>
+          <t>0.8164</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.653</t>
+          <t>0.673</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.960</t>
+          <t>0.990</t>
         </is>
       </c>
     </row>
@@ -7027,17 +7027,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.1287</t>
+          <t>1.1268</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.027</t>
+          <t>1.026</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.240</t>
+          <t>1.238</t>
         </is>
       </c>
     </row>
@@ -7050,17 +7050,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.5553</t>
+          <t>1.5537</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.434</t>
+          <t>1.433</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.687</t>
+          <t>1.685</t>
         </is>
       </c>
     </row>
@@ -7073,17 +7073,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.5544</t>
+          <t>1.5533</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.419</t>
+          <t>1.418</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.702</t>
+          <t>1.701</t>
         </is>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1.1551</t>
+          <t>1.1550</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -7119,12 +7119,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3.3811</t>
+          <t>3.3807</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2.753</t>
+          <t>2.752</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2.2184</t>
+          <t>2.2185</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -7188,17 +7188,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>8.0491</t>
+          <t>6.6309</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.760</t>
+          <t>2.274</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>23.474</t>
+          <t>19.338</t>
         </is>
       </c>
     </row>
@@ -7229,17 +7229,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1.2635</t>
+          <t>1.2626</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.234</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.293</t>
+          <t>1.292</t>
         </is>
       </c>
     </row>
@@ -7252,17 +7252,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.8998</t>
+          <t>0.8871</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.822</t>
+          <t>0.810</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.986</t>
+          <t>0.972</t>
         </is>
       </c>
     </row>
@@ -7275,17 +7275,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1.3200</t>
+          <t>1.3176</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.265</t>
+          <t>1.262</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.378</t>
+          <t>1.375</t>
         </is>
       </c>
     </row>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1.2299</t>
+          <t>1.2297</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -7308,7 +7308,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.279</t>
+          <t>1.278</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1.1590</t>
+          <t>1.1592</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.101</t>
+          <t>1.102</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7436,17 +7436,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4.5568</t>
+          <t>4.6310</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1.848</t>
+          <t>1.878</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>11.239</t>
+          <t>11.421</t>
         </is>
       </c>
     </row>
@@ -7477,17 +7477,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1.1978</t>
+          <t>1.1965</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1.176</t>
+          <t>1.175</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>1.218</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -496,17 +496,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.3992</t>
+          <t>1.4680</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.379</t>
+          <t>1.441</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.419</t>
+          <t>1.496</t>
         </is>
       </c>
     </row>
@@ -519,17 +519,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8952</t>
+          <t>0.8581</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.854</t>
+          <t>0.804</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.938</t>
+          <t>0.915</t>
         </is>
       </c>
     </row>
@@ -542,17 +542,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1795</t>
+          <t>1.1868</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.153</t>
+          <t>1.151</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.207</t>
+          <t>1.224</t>
         </is>
       </c>
     </row>
@@ -565,17 +565,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.5686</t>
+          <t>1.7019</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.540</t>
+          <t>1.664</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.598</t>
+          <t>1.740</t>
         </is>
       </c>
     </row>
@@ -588,17 +588,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.6687</t>
+          <t>1.8492</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.599</t>
+          <t>1.746</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.742</t>
+          <t>1.958</t>
         </is>
       </c>
     </row>
@@ -611,17 +611,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.6985</t>
+          <t>1.5979</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.556</t>
+          <t>1.432</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.854</t>
+          <t>1.783</t>
         </is>
       </c>
     </row>
@@ -634,17 +634,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.7011</t>
+          <t>4.0276</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.355</t>
+          <t>3.408</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.098</t>
+          <t>4.760</t>
         </is>
       </c>
     </row>
@@ -657,17 +657,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9224</t>
+          <t>1.4092</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.715</t>
+          <t>1.041</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.190</t>
+          <t>1.908</t>
         </is>
       </c>
     </row>
@@ -680,17 +680,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.3551</t>
+          <t>3.6143</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>2.388</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.966</t>
+          <t>5.471</t>
         </is>
       </c>
     </row>
@@ -703,17 +703,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8.0163</t>
+          <t>10.0638</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.407</t>
+          <t>5.531</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14.580</t>
+          <t>18.310</t>
         </is>
       </c>
     </row>
@@ -744,17 +744,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.3357</t>
+          <t>1.5077</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.313</t>
+          <t>1.483</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.358</t>
+          <t>1.533</t>
         </is>
       </c>
     </row>
@@ -767,17 +767,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.1193</t>
+          <t>1.2725</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.082</t>
+          <t>1.228</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.158</t>
+          <t>1.318</t>
         </is>
       </c>
     </row>
@@ -790,17 +790,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.4946</t>
+          <t>1.7049</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.467</t>
+          <t>1.672</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.523</t>
+          <t>1.738</t>
         </is>
       </c>
     </row>
@@ -813,17 +813,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.4721</t>
+          <t>1.6763</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.431</t>
+          <t>1.629</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.514</t>
+          <t>1.725</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.0088</t>
+          <t>1.1230</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.953</t>
+          <t>1.061</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>1.189</t>
         </is>
       </c>
     </row>
@@ -859,17 +859,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.6950</t>
+          <t>1.8546</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.534</t>
+          <t>1.678</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.873</t>
+          <t>2.050</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.3068</t>
+          <t>1.3131</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.112</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.542</t>
+          <t>1.550</t>
         </is>
       </c>
     </row>
@@ -905,17 +905,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.6017</t>
+          <t>0.6404</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.458</t>
+          <t>0.488</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.790</t>
+          <t>0.841</t>
         </is>
       </c>
     </row>
@@ -928,17 +928,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.1353</t>
+          <t>1.2197</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.806</t>
+          <t>0.865</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.600</t>
+          <t>1.720</t>
         </is>
       </c>
     </row>
@@ -951,17 +951,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.1873</t>
+          <t>3.4581</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.024</t>
+          <t>1.111</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9.916</t>
+          <t>10.761</t>
         </is>
       </c>
     </row>
@@ -992,17 +992,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9558</t>
+          <t>1.0288</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.936</t>
+          <t>1.005</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.976</t>
+          <t>1.053</t>
         </is>
       </c>
     </row>
@@ -1015,17 +1015,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.2504</t>
+          <t>1.4830</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.192</t>
+          <t>1.390</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.311</t>
+          <t>1.582</t>
         </is>
       </c>
     </row>
@@ -1038,17 +1038,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.2671</t>
+          <t>1.4365</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>1.393</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.297</t>
+          <t>1.481</t>
         </is>
       </c>
     </row>
@@ -1061,17 +1061,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.9385</t>
+          <t>0.9849</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.910</t>
+          <t>0.953</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.968</t>
+          <t>1.018</t>
         </is>
       </c>
     </row>
@@ -1084,17 +1084,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.6045</t>
+          <t>0.6073</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.564</t>
+          <t>0.561</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.648</t>
+          <t>0.657</t>
         </is>
       </c>
     </row>
@@ -1107,17 +1107,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9979</t>
+          <t>1.1607</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.876</t>
+          <t>1.003</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.137</t>
+          <t>1.343</t>
         </is>
       </c>
     </row>
@@ -1130,17 +1130,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.4838</t>
+          <t>0.3260</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.392</t>
+          <t>0.258</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.598</t>
+          <t>0.411</t>
         </is>
       </c>
     </row>
@@ -1153,17 +1153,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.6524</t>
+          <t>0.4545</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.452</t>
+          <t>0.304</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.942</t>
+          <t>0.680</t>
         </is>
       </c>
     </row>
@@ -1176,17 +1176,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.3511</t>
+          <t>0.5089</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.822</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.220</t>
+          <t>0.864</t>
         </is>
       </c>
     </row>
@@ -1199,17 +1199,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.3976</t>
+          <t>0.3436</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.111</t>
+          <t>0.096</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.424</t>
+          <t>1.231</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.2568</t>
+          <t>1.1732</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.241</t>
+          <t>1.153</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.272</t>
+          <t>1.194</t>
         </is>
       </c>
     </row>
@@ -1320,17 +1320,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9204</t>
+          <t>0.6360</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.875</t>
+          <t>0.586</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.968</t>
+          <t>0.690</t>
         </is>
       </c>
     </row>
@@ -1343,17 +1343,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1883</t>
+          <t>1.0732</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.158</t>
+          <t>1.032</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>1.116</t>
         </is>
       </c>
     </row>
@@ -1366,17 +1366,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2705</t>
+          <t>1.1925</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.245</t>
+          <t>1.161</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.297</t>
+          <t>1.224</t>
         </is>
       </c>
     </row>
@@ -1389,17 +1389,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.5745</t>
+          <t>1.7317</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.538</t>
+          <t>1.687</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.612</t>
+          <t>1.778</t>
         </is>
       </c>
     </row>
@@ -1412,17 +1412,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.4207</t>
+          <t>1.4741</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.361</t>
+          <t>1.407</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.483</t>
+          <t>1.544</t>
         </is>
       </c>
     </row>
@@ -1435,17 +1435,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.0247</t>
+          <t>1.0023</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.946</t>
+          <t>0.918</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.095</t>
         </is>
       </c>
     </row>
@@ -1458,17 +1458,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.2180</t>
+          <t>1.4348</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.034</t>
+          <t>1.204</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.434</t>
+          <t>1.710</t>
         </is>
       </c>
     </row>
@@ -1481,17 +1481,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.1881</t>
+          <t>1.8702</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.881</t>
+          <t>1.364</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.603</t>
+          <t>2.565</t>
         </is>
       </c>
     </row>
@@ -1504,17 +1504,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.4399</t>
+          <t>0.6693</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.695</t>
+          <t>0.183</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.983</t>
+          <t>2.449</t>
         </is>
       </c>
     </row>
@@ -1545,17 +1545,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.1574</t>
+          <t>1.2255</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.143</t>
+          <t>1.210</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.172</t>
+          <t>1.242</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1568,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8897</t>
+          <t>0.9025</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.858</t>
+          <t>0.870</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.922</t>
+          <t>0.936</t>
         </is>
       </c>
     </row>
@@ -1591,17 +1591,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0551</t>
+          <t>1.1314</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.035</t>
+          <t>1.109</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.076</t>
+          <t>1.155</t>
         </is>
       </c>
     </row>
@@ -1614,17 +1614,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.2860</t>
+          <t>1.3657</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.260</t>
+          <t>1.338</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.312</t>
+          <t>1.394</t>
         </is>
       </c>
     </row>
@@ -1637,17 +1637,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1820</t>
+          <t>1.2335</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.138</t>
+          <t>1.186</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>1.283</t>
         </is>
       </c>
     </row>
@@ -1660,17 +1660,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.3132</t>
+          <t>1.5657</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>1.458</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.409</t>
+          <t>1.681</t>
         </is>
       </c>
     </row>
@@ -1683,17 +1683,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.3205</t>
+          <t>1.3478</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.183</t>
+          <t>1.205</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.473</t>
+          <t>1.507</t>
         </is>
       </c>
     </row>
@@ -1706,17 +1706,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2.3853</t>
+          <t>2.4595</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.979</t>
+          <t>2.032</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>2.977</t>
         </is>
       </c>
     </row>
@@ -1729,17 +1729,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.8195</t>
+          <t>0.8867</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.634</t>
+          <t>0.685</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.060</t>
+          <t>1.148</t>
         </is>
       </c>
     </row>
@@ -1752,17 +1752,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.9942</t>
+          <t>2.1506</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.015</t>
+          <t>1.094</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.920</t>
+          <t>4.228</t>
         </is>
       </c>
     </row>
@@ -1793,17 +1793,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9229</t>
+          <t>1.0470</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.910</t>
+          <t>1.027</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.936</t>
+          <t>1.067</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9667</t>
+          <t>1.4191</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.921</t>
+          <t>1.310</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.014</t>
+          <t>1.538</t>
         </is>
       </c>
     </row>
@@ -1839,17 +1839,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.8879</t>
+          <t>1.0543</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.867</t>
+          <t>1.015</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.909</t>
+          <t>1.095</t>
         </is>
       </c>
     </row>
@@ -1862,17 +1862,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0122</t>
+          <t>1.1452</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>1.115</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.034</t>
+          <t>1.176</t>
         </is>
       </c>
     </row>
@@ -1885,17 +1885,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.7507</t>
+          <t>0.7123</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.722</t>
+          <t>0.684</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.781</t>
+          <t>0.742</t>
         </is>
       </c>
     </row>
@@ -1908,17 +1908,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9243</t>
+          <t>1.0621</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.857</t>
+          <t>0.982</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.997</t>
+          <t>1.149</t>
         </is>
       </c>
     </row>
@@ -1931,17 +1931,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.2887</t>
+          <t>1.3447</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.132</t>
+          <t>1.174</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.467</t>
+          <t>1.540</t>
         </is>
       </c>
     </row>
@@ -1954,17 +1954,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.9583</t>
+          <t>1.7142</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.542</t>
+          <t>1.335</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.487</t>
+          <t>2.201</t>
         </is>
       </c>
     </row>
@@ -1977,17 +1977,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.9133</t>
+          <t>1.2459</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.307</t>
+          <t>0.841</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.800</t>
+          <t>1.847</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2000,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.3850</t>
+          <t>3.2134</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.518</t>
+          <t>0.749</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.703</t>
+          <t>13.777</t>
         </is>
       </c>
     </row>
@@ -2098,17 +2098,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0277</t>
+          <t>0.9569</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.012</t>
+          <t>0.937</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.044</t>
+          <t>0.977</t>
         </is>
       </c>
     </row>
@@ -2121,17 +2121,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8040</t>
+          <t>0.6241</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.755</t>
+          <t>0.567</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.856</t>
+          <t>0.687</t>
         </is>
       </c>
     </row>
@@ -2144,17 +2144,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0021</t>
+          <t>0.9178</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>0.877</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.034</t>
+          <t>0.960</t>
         </is>
       </c>
     </row>
@@ -2167,17 +2167,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0139</t>
+          <t>0.9316</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.989</t>
+          <t>0.900</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.040</t>
+          <t>0.964</t>
         </is>
       </c>
     </row>
@@ -2190,17 +2190,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2219</t>
+          <t>1.2584</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.188</t>
+          <t>1.218</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.257</t>
+          <t>1.300</t>
         </is>
       </c>
     </row>
@@ -2213,17 +2213,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0589</t>
+          <t>1.0767</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.014</t>
+          <t>1.028</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.106</t>
+          <t>1.128</t>
         </is>
       </c>
     </row>
@@ -2236,17 +2236,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.2002</t>
+          <t>1.2387</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.125</t>
+          <t>1.157</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.280</t>
+          <t>1.326</t>
         </is>
       </c>
     </row>
@@ -2259,17 +2259,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.6789</t>
+          <t>0.7145</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.594</t>
+          <t>0.622</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>0.820</t>
         </is>
       </c>
     </row>
@@ -2282,17 +2282,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.4111</t>
+          <t>2.4070</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.911</t>
+          <t>1.892</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.042</t>
+          <t>3.062</t>
         </is>
       </c>
     </row>
@@ -2305,17 +2305,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.9642</t>
+          <t>0.7472</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.634</t>
+          <t>0.476</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.467</t>
+          <t>1.173</t>
         </is>
       </c>
     </row>
@@ -2346,17 +2346,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.1080</t>
+          <t>1.1378</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.095</t>
+          <t>1.123</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.121</t>
+          <t>1.152</t>
         </is>
       </c>
     </row>
@@ -2369,17 +2369,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8303</t>
+          <t>0.8160</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.801</t>
+          <t>0.786</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.861</t>
+          <t>0.847</t>
         </is>
       </c>
     </row>
@@ -2392,17 +2392,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.9982</t>
+          <t>1.0379</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.978</t>
+          <t>1.016</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.019</t>
+          <t>1.060</t>
         </is>
       </c>
     </row>
@@ -2415,17 +2415,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.1650</t>
+          <t>1.1629</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.143</t>
+          <t>1.139</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.188</t>
+          <t>1.187</t>
         </is>
       </c>
     </row>
@@ -2438,17 +2438,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.4678</t>
+          <t>1.5511</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.429</t>
+          <t>1.508</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.508</t>
+          <t>1.595</t>
         </is>
       </c>
     </row>
@@ -2461,17 +2461,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.1229</t>
+          <t>1.1877</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.066</t>
+          <t>1.125</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.183</t>
+          <t>1.254</t>
         </is>
       </c>
     </row>
@@ -2484,17 +2484,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1571</t>
+          <t>1.2350</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.065</t>
+          <t>1.132</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.257</t>
+          <t>1.347</t>
         </is>
       </c>
     </row>
@@ -2507,17 +2507,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.3649</t>
+          <t>1.3776</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.177</t>
+          <t>1.181</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.583</t>
+          <t>1.607</t>
         </is>
       </c>
     </row>
@@ -2530,17 +2530,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.7958</t>
+          <t>2.2284</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.430</t>
+          <t>1.765</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.255</t>
+          <t>2.813</t>
         </is>
       </c>
     </row>
@@ -2553,17 +2553,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.4602</t>
+          <t>0.4989</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.289</t>
+          <t>0.313</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.733</t>
+          <t>0.795</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2594,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0781</t>
+          <t>1.1891</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>1.164</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.095</t>
+          <t>1.215</t>
         </is>
       </c>
     </row>
@@ -2617,17 +2617,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.0327</t>
+          <t>1.3074</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.973</t>
+          <t>1.190</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.096</t>
+          <t>1.437</t>
         </is>
       </c>
     </row>
@@ -2640,17 +2640,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.9961</t>
+          <t>1.1307</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.968</t>
+          <t>1.083</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.025</t>
+          <t>1.181</t>
         </is>
       </c>
     </row>
@@ -2663,17 +2663,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.1490</t>
+          <t>1.2484</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.123</t>
+          <t>1.207</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.176</t>
+          <t>1.291</t>
         </is>
       </c>
     </row>
@@ -2686,17 +2686,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.2013</t>
+          <t>1.2325</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.166</t>
+          <t>1.191</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>1.276</t>
         </is>
       </c>
     </row>
@@ -2709,17 +2709,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.0604</t>
+          <t>1.1031</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.001</t>
+          <t>1.037</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.124</t>
+          <t>1.173</t>
         </is>
       </c>
     </row>
@@ -2732,17 +2732,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.9641</t>
+          <t>0.9970</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.878</t>
+          <t>0.904</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.059</t>
+          <t>1.100</t>
         </is>
       </c>
     </row>
@@ -2755,17 +2755,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2.0106</t>
+          <t>1.9280</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.671</t>
+          <t>1.591</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.420</t>
+          <t>2.337</t>
         </is>
       </c>
     </row>
@@ -2778,17 +2778,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.7448</t>
+          <t>0.9258</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.549</t>
+          <t>0.676</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.011</t>
+          <t>1.268</t>
         </is>
       </c>
     </row>
@@ -2801,17 +2801,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.4773</t>
+          <t>0.6677</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.260</t>
+          <t>0.355</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.878</t>
+          <t>1.254</t>
         </is>
       </c>
     </row>
@@ -2899,17 +2899,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.7114</t>
+          <t>0.5921</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.577</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.724</t>
+          <t>0.608</t>
         </is>
       </c>
     </row>
@@ -2922,17 +2922,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.7680</t>
+          <t>0.5755</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.706</t>
+          <t>0.501</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.835</t>
+          <t>0.662</t>
         </is>
       </c>
     </row>
@@ -2945,17 +2945,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.6359</t>
+          <t>0.4781</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.614</t>
+          <t>0.453</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.659</t>
+          <t>0.505</t>
         </is>
       </c>
     </row>
@@ -2968,17 +2968,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.6712</t>
+          <t>0.5738</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.653</t>
+          <t>0.550</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.598</t>
         </is>
       </c>
     </row>
@@ -2991,17 +2991,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.7124</t>
+          <t>0.6423</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.691</t>
+          <t>0.615</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.734</t>
+          <t>0.671</t>
         </is>
       </c>
     </row>
@@ -3014,17 +3014,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.2737</t>
+          <t>1.0100</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>0.951</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.335</t>
+          <t>1.072</t>
         </is>
       </c>
     </row>
@@ -3037,17 +3037,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.8612</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.642</t>
+          <t>0.797</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.737</t>
+          <t>0.931</t>
         </is>
       </c>
     </row>
@@ -3060,17 +3060,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.5140</t>
+          <t>2.3816</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.270</t>
+          <t>2.133</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.784</t>
+          <t>2.659</t>
         </is>
       </c>
     </row>
@@ -3083,17 +3083,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.4717</t>
+          <t>1.7798</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.279</t>
+          <t>1.536</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.693</t>
+          <t>2.063</t>
         </is>
       </c>
     </row>
@@ -3106,17 +3106,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.8710</t>
+          <t>0.8329</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.714</t>
+          <t>0.681</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.062</t>
+          <t>1.019</t>
         </is>
       </c>
     </row>
@@ -3147,17 +3147,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.9615</t>
+          <t>0.9813</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.954</t>
+          <t>0.973</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.969</t>
+          <t>0.990</t>
         </is>
       </c>
     </row>
@@ -3170,17 +3170,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.7592</t>
+          <t>0.7033</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.735</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.784</t>
+          <t>0.727</t>
         </is>
       </c>
     </row>
@@ -3193,17 +3193,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8196</t>
+          <t>0.8870</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.807</t>
+          <t>0.873</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.833</t>
+          <t>0.902</t>
         </is>
       </c>
     </row>
@@ -3216,17 +3216,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0490</t>
+          <t>1.0274</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.034</t>
+          <t>1.012</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.064</t>
+          <t>1.043</t>
         </is>
       </c>
     </row>
@@ -3239,17 +3239,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1092</t>
+          <t>1.1264</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.090</t>
+          <t>1.106</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.129</t>
+          <t>1.147</t>
         </is>
       </c>
     </row>
@@ -3262,17 +3262,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.2417</t>
+          <t>1.3674</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>1.329</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.276</t>
+          <t>1.406</t>
         </is>
       </c>
     </row>
@@ -3285,17 +3285,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1605</t>
+          <t>1.1685</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.115</t>
+          <t>1.121</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.207</t>
+          <t>1.218</t>
         </is>
       </c>
     </row>
@@ -3308,17 +3308,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.0238</t>
+          <t>1.4011</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.952</t>
+          <t>1.300</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.101</t>
+          <t>1.510</t>
         </is>
       </c>
     </row>
@@ -3331,17 +3331,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.8041</t>
+          <t>0.9811</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.714</t>
+          <t>0.869</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.906</t>
+          <t>1.108</t>
         </is>
       </c>
     </row>
@@ -3354,17 +3354,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.2685</t>
+          <t>0.2108</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.210</t>
+          <t>0.164</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.343</t>
+          <t>0.272</t>
         </is>
       </c>
     </row>
@@ -3395,17 +3395,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.3516</t>
+          <t>1.6571</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.330</t>
+          <t>1.616</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.373</t>
+          <t>1.700</t>
         </is>
       </c>
     </row>
@@ -3418,17 +3418,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9886</t>
+          <t>1.2221</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.912</t>
+          <t>1.065</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.072</t>
+          <t>1.403</t>
         </is>
       </c>
     </row>
@@ -3441,17 +3441,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.2889</t>
+          <t>1.8555</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.247</t>
+          <t>1.759</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.332</t>
+          <t>1.958</t>
         </is>
       </c>
     </row>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.5630</t>
+          <t>1.7907</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.524</t>
+          <t>1.719</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.603</t>
+          <t>1.865</t>
         </is>
       </c>
     </row>
@@ -3487,17 +3487,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.5570</t>
+          <t>1.7537</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.512</t>
+          <t>1.680</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.603</t>
+          <t>1.831</t>
         </is>
       </c>
     </row>
@@ -3510,17 +3510,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9749</t>
+          <t>1.3539</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.930</t>
+          <t>1.275</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.022</t>
+          <t>1.437</t>
         </is>
       </c>
     </row>
@@ -3533,17 +3533,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.6879</t>
+          <t>1.3568</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.572</t>
+          <t>1.254</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.812</t>
+          <t>1.468</t>
         </is>
       </c>
     </row>
@@ -3556,17 +3556,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.4072</t>
+          <t>0.5883</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.364</t>
+          <t>0.522</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.456</t>
+          <t>0.663</t>
         </is>
       </c>
     </row>
@@ -3579,17 +3579,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.5464</t>
+          <t>0.5512</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.464</t>
+          <t>0.465</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.643</t>
+          <t>0.653</t>
         </is>
       </c>
     </row>
@@ -3602,17 +3602,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.3082</t>
+          <t>0.2531</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.230</t>
+          <t>0.187</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.413</t>
+          <t>0.343</t>
         </is>
       </c>
     </row>
@@ -3700,17 +3700,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.1152</t>
+          <t>0.9259</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.071</t>
+          <t>0.867</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.161</t>
+          <t>0.989</t>
         </is>
       </c>
     </row>
@@ -3723,17 +3723,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2958</t>
+          <t>1.1706</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.097</t>
+          <t>0.870</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.530</t>
+          <t>1.575</t>
         </is>
       </c>
     </row>
@@ -3746,17 +3746,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.2968</t>
+          <t>1.0127</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.194</t>
+          <t>0.894</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.409</t>
+          <t>1.147</t>
         </is>
       </c>
     </row>
@@ -3769,17 +3769,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9993</t>
+          <t>0.8361</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.925</t>
+          <t>0.733</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>0.954</t>
         </is>
       </c>
     </row>
@@ -3792,17 +3792,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0558</t>
+          <t>1.0143</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.969</t>
+          <t>0.870</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.151</t>
+          <t>1.182</t>
         </is>
       </c>
     </row>
@@ -3815,17 +3815,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0462</t>
+          <t>0.7875</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.930</t>
+          <t>0.634</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.176</t>
+          <t>0.978</t>
         </is>
       </c>
     </row>
@@ -3838,17 +3838,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9982</t>
+          <t>0.9243</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.855</t>
+          <t>0.704</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.166</t>
+          <t>1.214</t>
         </is>
       </c>
     </row>
@@ -3861,17 +3861,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.2995</t>
+          <t>0.9759</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>0.654</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.639</t>
+          <t>1.456</t>
         </is>
       </c>
     </row>
@@ -3884,17 +3884,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.4021</t>
+          <t>2.4240</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.437</t>
+          <t>1.401</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.749</t>
+          <t>4.194</t>
         </is>
       </c>
     </row>
@@ -3907,17 +3907,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.9600</t>
+          <t>0.2527</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.540</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.706</t>
+          <t>1.024</t>
         </is>
       </c>
     </row>
@@ -3948,17 +3948,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0382</t>
+          <t>1.0487</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.016</t>
+          <t>1.026</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>1.072</t>
         </is>
       </c>
     </row>
@@ -3971,17 +3971,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8876</t>
+          <t>0.8193</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.820</t>
+          <t>0.752</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.961</t>
+          <t>0.893</t>
         </is>
       </c>
     </row>
@@ -3994,17 +3994,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0135</t>
+          <t>1.0216</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>0.976</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.058</t>
+          <t>1.070</t>
         </is>
       </c>
     </row>
@@ -4017,17 +4017,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0489</t>
+          <t>1.0596</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.007</t>
+          <t>1.015</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.093</t>
+          <t>1.107</t>
         </is>
       </c>
     </row>
@@ -4040,17 +4040,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1023</t>
+          <t>1.1399</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.084</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.157</t>
+          <t>1.199</t>
         </is>
       </c>
     </row>
@@ -4063,17 +4063,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.9603</t>
+          <t>0.9407</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.895</t>
+          <t>0.876</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.011</t>
         </is>
       </c>
     </row>
@@ -4086,17 +4086,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.2224</t>
+          <t>1.2012</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.112</t>
+          <t>1.092</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.343</t>
+          <t>1.321</t>
         </is>
       </c>
     </row>
@@ -4109,17 +4109,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.1349</t>
+          <t>1.1190</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.974</t>
+          <t>0.959</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.322</t>
+          <t>1.305</t>
         </is>
       </c>
     </row>
@@ -4132,17 +4132,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2.0497</t>
+          <t>2.0759</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.646</t>
+          <t>1.664</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.553</t>
+          <t>2.589</t>
         </is>
       </c>
     </row>
@@ -4155,17 +4155,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.3809</t>
+          <t>1.3300</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.039</t>
+          <t>0.998</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.836</t>
+          <t>1.772</t>
         </is>
       </c>
     </row>
@@ -4196,17 +4196,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9309</t>
+          <t>1.1296</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.894</t>
+          <t>1.057</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.970</t>
+          <t>1.207</t>
         </is>
       </c>
     </row>
@@ -4219,17 +4219,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.6850</t>
+          <t>0.6999</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.577</t>
+          <t>0.518</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.813</t>
+          <t>0.946</t>
         </is>
       </c>
     </row>
@@ -4242,17 +4242,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.7816</t>
+          <t>1.0088</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.719</t>
+          <t>0.889</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.849</t>
+          <t>1.145</t>
         </is>
       </c>
     </row>
@@ -4265,17 +4265,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.0497</t>
+          <t>1.2673</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>1.110</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.134</t>
+          <t>1.447</t>
         </is>
       </c>
     </row>
@@ -4288,17 +4288,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0440</t>
+          <t>1.1239</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.958</t>
+          <t>0.963</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.138</t>
+          <t>1.311</t>
         </is>
       </c>
     </row>
@@ -4311,17 +4311,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9179</t>
+          <t>1.1945</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.814</t>
+          <t>0.960</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.035</t>
+          <t>1.486</t>
         </is>
       </c>
     </row>
@@ -4334,17 +4334,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.2245</t>
+          <t>1.2995</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.045</t>
+          <t>0.988</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.435</t>
+          <t>1.710</t>
         </is>
       </c>
     </row>
@@ -4357,17 +4357,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.8733</t>
+          <t>1.1466</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.683</t>
+          <t>0.762</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>1.726</t>
         </is>
       </c>
     </row>
@@ -4380,17 +4380,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.6025</t>
+          <t>0.2722</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.427</t>
+          <t>0.156</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.850</t>
+          <t>0.474</t>
         </is>
       </c>
     </row>
@@ -4403,17 +4403,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.4384</t>
+          <t>5.2636</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.804</t>
+          <t>1.295</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.573</t>
+          <t>21.393</t>
         </is>
       </c>
     </row>
@@ -4444,17 +4444,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.4256</t>
+          <t>1.4134</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.401</t>
+          <t>1.388</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.451</t>
+          <t>1.439</t>
         </is>
       </c>
     </row>
@@ -4467,17 +4467,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.2110</t>
+          <t>1.1593</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.143</t>
+          <t>1.092</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.283</t>
+          <t>1.231</t>
         </is>
       </c>
     </row>
@@ -4490,17 +4490,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.3935</t>
+          <t>1.3984</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.347</t>
+          <t>1.351</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.441</t>
+          <t>1.448</t>
         </is>
       </c>
     </row>
@@ -4513,17 +4513,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.5397</t>
+          <t>1.5119</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.490</t>
+          <t>1.461</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.591</t>
+          <t>1.565</t>
         </is>
       </c>
     </row>
@@ -4536,17 +4536,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.4826</t>
+          <t>1.5208</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.424</t>
+          <t>1.458</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.544</t>
+          <t>1.586</t>
         </is>
       </c>
     </row>
@@ -4559,17 +4559,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.1019</t>
+          <t>1.0878</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.035</t>
+          <t>1.019</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.173</t>
+          <t>1.161</t>
         </is>
       </c>
     </row>
@@ -4582,17 +4582,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.3406</t>
+          <t>1.2545</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.222</t>
+          <t>1.139</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.471</t>
+          <t>1.382</t>
         </is>
       </c>
     </row>
@@ -4605,17 +4605,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.0852</t>
+          <t>1.0793</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.920</t>
+          <t>0.909</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.279</t>
+          <t>1.282</t>
         </is>
       </c>
     </row>
@@ -4628,17 +4628,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.0790</t>
+          <t>1.0835</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.825</t>
+          <t>0.822</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.411</t>
+          <t>1.427</t>
         </is>
       </c>
     </row>
@@ -4651,17 +4651,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.6787</t>
+          <t>0.9465</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.428</t>
+          <t>0.598</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.076</t>
+          <t>1.498</t>
         </is>
       </c>
     </row>
@@ -4692,17 +4692,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.2783</t>
+          <t>1.5280</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.230</t>
+          <t>1.432</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.329</t>
+          <t>1.630</t>
         </is>
       </c>
     </row>
@@ -4715,17 +4715,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.9345</t>
+          <t>0.9904</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.795</t>
+          <t>0.737</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.099</t>
+          <t>1.330</t>
         </is>
       </c>
     </row>
@@ -4738,17 +4738,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.0746</t>
+          <t>1.3809</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.993</t>
+          <t>1.222</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.163</t>
+          <t>1.561</t>
         </is>
       </c>
     </row>
@@ -4761,17 +4761,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.5408</t>
+          <t>1.8083</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.431</t>
+          <t>1.588</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.658</t>
+          <t>2.059</t>
         </is>
       </c>
     </row>
@@ -4784,17 +4784,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.4042</t>
+          <t>1.4993</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.294</t>
+          <t>1.288</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.524</t>
+          <t>1.745</t>
         </is>
       </c>
     </row>
@@ -4807,17 +4807,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.0533</t>
+          <t>1.3813</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.938</t>
+          <t>1.113</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.183</t>
+          <t>1.715</t>
         </is>
       </c>
     </row>
@@ -4830,17 +4830,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.3430</t>
+          <t>1.3572</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.147</t>
+          <t>1.031</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.573</t>
+          <t>1.787</t>
         </is>
       </c>
     </row>
@@ -4853,17 +4853,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.8350</t>
+          <t>1.1059</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.648</t>
+          <t>0.729</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.076</t>
+          <t>1.676</t>
         </is>
       </c>
     </row>
@@ -4876,17 +4876,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.3172</t>
+          <t>0.2627</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.218</t>
+          <t>0.147</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.462</t>
+          <t>0.469</t>
         </is>
       </c>
     </row>
@@ -4899,17 +4899,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.7070</t>
+          <t>3.7459</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.356</t>
+          <t>0.881</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.403</t>
+          <t>15.928</t>
         </is>
       </c>
     </row>
@@ -4940,17 +4940,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.3732</t>
+          <t>1.3478</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.349</t>
+          <t>1.322</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.398</t>
+          <t>1.374</t>
         </is>
       </c>
     </row>
@@ -4963,17 +4963,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.3643</t>
+          <t>1.4150</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.272</t>
+          <t>1.307</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.464</t>
+          <t>1.532</t>
         </is>
       </c>
     </row>
@@ -4986,17 +4986,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.3749</t>
+          <t>1.3689</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.328</t>
+          <t>1.316</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.423</t>
+          <t>1.424</t>
         </is>
       </c>
     </row>
@@ -5009,17 +5009,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.4679</t>
+          <t>1.4269</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.421</t>
+          <t>1.375</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.516</t>
+          <t>1.480</t>
         </is>
       </c>
     </row>
@@ -5032,17 +5032,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.3450</t>
+          <t>1.3341</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.291</t>
+          <t>1.276</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.402</t>
+          <t>1.395</t>
         </is>
       </c>
     </row>
@@ -5055,17 +5055,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.1475</t>
+          <t>1.1564</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.072</t>
+          <t>1.076</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>1.242</t>
         </is>
       </c>
     </row>
@@ -5078,17 +5078,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.0967</t>
+          <t>1.0444</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.994</t>
+          <t>0.942</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.210</t>
+          <t>1.157</t>
         </is>
       </c>
     </row>
@@ -5101,17 +5101,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.9562</t>
+          <t>0.9645</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.796</t>
+          <t>0.797</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.149</t>
+          <t>1.167</t>
         </is>
       </c>
     </row>
@@ -5124,17 +5124,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.5264</t>
+          <t>0.5220</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.398</t>
+          <t>0.391</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.697</t>
+          <t>0.696</t>
         </is>
       </c>
     </row>
@@ -5147,17 +5147,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.4915</t>
+          <t>0.7117</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.307</t>
+          <t>0.445</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.786</t>
+          <t>1.138</t>
         </is>
       </c>
     </row>
@@ -5245,17 +5245,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9260</t>
+          <t>0.9274</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.887</t>
+          <t>0.861</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.967</t>
+          <t>0.999</t>
         </is>
       </c>
     </row>
@@ -5268,17 +5268,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.9155</t>
+          <t>3.8189</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.575</t>
+          <t>2.824</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.329</t>
+          <t>5.164</t>
         </is>
       </c>
     </row>
@@ -5291,17 +5291,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0366</t>
+          <t>0.9840</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.942</t>
+          <t>0.851</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.141</t>
+          <t>1.138</t>
         </is>
       </c>
     </row>
@@ -5314,17 +5314,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.7436</t>
+          <t>0.5997</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.685</t>
+          <t>0.513</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.807</t>
+          <t>0.701</t>
         </is>
       </c>
     </row>
@@ -5337,17 +5337,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.8707</t>
+          <t>0.9460</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.796</t>
+          <t>0.794</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.952</t>
+          <t>1.127</t>
         </is>
       </c>
     </row>
@@ -5360,17 +5360,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.1234</t>
+          <t>2.0558</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.008</t>
+          <t>1.638</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.252</t>
+          <t>2.580</t>
         </is>
       </c>
     </row>
@@ -5383,17 +5383,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7517</t>
+          <t>0.4845</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.649</t>
+          <t>0.353</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.870</t>
+          <t>0.666</t>
         </is>
       </c>
     </row>
@@ -5406,17 +5406,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.4944</t>
+          <t>1.1679</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.204</t>
+          <t>0.831</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.855</t>
+          <t>1.641</t>
         </is>
       </c>
     </row>
@@ -5429,17 +5429,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.0137</t>
+          <t>0.3721</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.655</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.569</t>
+          <t>0.743</t>
         </is>
       </c>
     </row>
@@ -5452,17 +5452,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.3515</t>
+          <t>1.1933</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.185</t>
+          <t>0.487</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.668</t>
+          <t>2.923</t>
         </is>
       </c>
     </row>
@@ -5493,17 +5493,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0007</t>
+          <t>1.0230</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.979</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.023</t>
+          <t>1.047</t>
         </is>
       </c>
     </row>
@@ -5516,17 +5516,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.7629</t>
+          <t>1.9026</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.600</t>
+          <t>1.716</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.943</t>
+          <t>2.110</t>
         </is>
       </c>
     </row>
@@ -5539,17 +5539,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8865</t>
+          <t>0.9721</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.846</t>
+          <t>0.924</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>1.022</t>
         </is>
       </c>
     </row>
@@ -5562,17 +5562,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.9395</t>
+          <t>0.9525</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>0.911</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.980</t>
+          <t>0.996</t>
         </is>
       </c>
     </row>
@@ -5585,17 +5585,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1667</t>
+          <t>1.1128</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.111</t>
+          <t>1.058</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.225</t>
+          <t>1.170</t>
         </is>
       </c>
     </row>
@@ -5608,17 +5608,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.9358</t>
+          <t>0.9101</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.876</t>
+          <t>0.851</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.974</t>
         </is>
       </c>
     </row>
@@ -5631,17 +5631,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.8795</t>
+          <t>0.8805</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.804</t>
+          <t>0.805</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.962</t>
+          <t>0.963</t>
         </is>
       </c>
     </row>
@@ -5654,17 +5654,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.1379</t>
+          <t>1.0949</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.992</t>
+          <t>0.954</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.305</t>
+          <t>1.257</t>
         </is>
       </c>
     </row>
@@ -5677,17 +5677,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.1875</t>
+          <t>1.1805</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.961</t>
+          <t>0.954</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.468</t>
+          <t>1.460</t>
         </is>
       </c>
     </row>
@@ -5741,17 +5741,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0807</t>
+          <t>1.1027</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.034</t>
+          <t>1.023</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.129</t>
+          <t>1.188</t>
         </is>
       </c>
     </row>
@@ -5764,17 +5764,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.9203</t>
+          <t>0.4982</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.753</t>
+          <t>0.366</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.125</t>
+          <t>0.677</t>
         </is>
       </c>
     </row>
@@ -5787,17 +5787,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.8552</t>
+          <t>0.9879</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>0.852</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.943</t>
+          <t>1.145</t>
         </is>
       </c>
     </row>
@@ -5810,17 +5810,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.2635</t>
+          <t>1.5882</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.163</t>
+          <t>1.357</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.373</t>
+          <t>1.858</t>
         </is>
       </c>
     </row>
@@ -5833,17 +5833,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.3399</t>
+          <t>1.1764</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>0.987</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.467</t>
+          <t>1.402</t>
         </is>
       </c>
     </row>
@@ -5856,17 +5856,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.8330</t>
+          <t>0.4427</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.745</t>
+          <t>0.352</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.931</t>
+          <t>0.557</t>
         </is>
       </c>
     </row>
@@ -5879,17 +5879,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1699</t>
+          <t>1.8172</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.006</t>
+          <t>1.319</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.361</t>
+          <t>2.503</t>
         </is>
       </c>
     </row>
@@ -5902,17 +5902,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.7615</t>
+          <t>0.9375</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.607</t>
+          <t>0.662</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.955</t>
+          <t>1.327</t>
         </is>
       </c>
     </row>
@@ -5925,17 +5925,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.1715</t>
+          <t>1.7412</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.747</t>
+          <t>0.864</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.838</t>
+          <t>3.509</t>
         </is>
       </c>
     </row>
@@ -5948,17 +5948,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.6257</t>
+          <t>0.7113</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.847</t>
+          <t>0.288</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.119</t>
+          <t>1.755</t>
         </is>
       </c>
     </row>
@@ -5989,17 +5989,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.0562</t>
+          <t>1.0575</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.038</t>
+          <t>1.039</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.075</t>
+          <t>1.076</t>
         </is>
       </c>
     </row>
@@ -6012,17 +6012,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.1858</t>
+          <t>1.2096</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.104</t>
+          <t>1.123</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.274</t>
+          <t>1.303</t>
         </is>
       </c>
     </row>
@@ -6035,17 +6035,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.0313</t>
+          <t>1.0189</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>0.983</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>1.056</t>
         </is>
       </c>
     </row>
@@ -6058,17 +6058,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.0476</t>
+          <t>1.0510</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.014</t>
+          <t>1.016</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.082</t>
+          <t>1.087</t>
         </is>
       </c>
     </row>
@@ -6081,17 +6081,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.0513</t>
+          <t>1.0249</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.011</t>
+          <t>0.984</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.093</t>
+          <t>1.067</t>
         </is>
       </c>
     </row>
@@ -6104,17 +6104,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.9668</t>
+          <t>1.0191</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.914</t>
+          <t>0.962</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.023</t>
+          <t>1.080</t>
         </is>
       </c>
     </row>
@@ -6127,17 +6127,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.1588</t>
+          <t>1.1307</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.070</t>
+          <t>1.041</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.255</t>
+          <t>1.228</t>
         </is>
       </c>
     </row>
@@ -6150,17 +6150,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.1978</t>
+          <t>1.2329</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.045</t>
+          <t>1.067</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.372</t>
+          <t>1.424</t>
         </is>
       </c>
     </row>
@@ -6173,17 +6173,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.7418</t>
+          <t>1.9248</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.401</t>
+          <t>1.537</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.165</t>
+          <t>2.410</t>
         </is>
       </c>
     </row>
@@ -6196,17 +6196,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.6682</t>
+          <t>0.8753</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.463</t>
+          <t>0.607</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.965</t>
+          <t>1.261</t>
         </is>
       </c>
     </row>
@@ -6237,17 +6237,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1407</t>
+          <t>1.1320</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>1.052</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.189</t>
+          <t>1.218</t>
         </is>
       </c>
     </row>
@@ -6260,17 +6260,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.6191</t>
+          <t>0.3168</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.512</t>
+          <t>0.235</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.749</t>
+          <t>0.427</t>
         </is>
       </c>
     </row>
@@ -6283,17 +6283,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.9948</t>
+          <t>1.0355</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>0.897</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.196</t>
         </is>
       </c>
     </row>
@@ -6306,17 +6306,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.4089</t>
+          <t>1.7525</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.302</t>
+          <t>1.502</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.524</t>
+          <t>2.045</t>
         </is>
       </c>
     </row>
@@ -6329,17 +6329,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.2074</t>
+          <t>1.0834</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>0.911</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>1.288</t>
         </is>
       </c>
     </row>
@@ -6352,17 +6352,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.8606</t>
+          <t>0.4957</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.774</t>
+          <t>0.395</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.957</t>
+          <t>0.622</t>
         </is>
       </c>
     </row>
@@ -6375,17 +6375,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.5415</t>
+          <t>2.3336</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.333</t>
+          <t>1.698</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.783</t>
+          <t>3.207</t>
         </is>
       </c>
     </row>
@@ -6398,17 +6398,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.8015</t>
+          <t>1.0556</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.639</t>
+          <t>0.744</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.005</t>
+          <t>1.498</t>
         </is>
       </c>
     </row>
@@ -6421,17 +6421,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.7183</t>
+          <t>2.3149</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.093</t>
+          <t>1.144</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2.702</t>
+          <t>4.682</t>
         </is>
       </c>
     </row>
@@ -6444,17 +6444,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1.9011</t>
+          <t>0.8141</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.952</t>
+          <t>0.321</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3.796</t>
+          <t>2.066</t>
         </is>
       </c>
     </row>
@@ -6485,17 +6485,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.0555</t>
+          <t>1.0337</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.036</t>
+          <t>1.013</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.075</t>
+          <t>1.055</t>
         </is>
       </c>
     </row>
@@ -6508,17 +6508,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.6727</t>
+          <t>0.6358</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.618</t>
+          <t>0.578</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.733</t>
+          <t>0.699</t>
         </is>
       </c>
     </row>
@@ -6531,17 +6531,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.1633</t>
+          <t>1.0482</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.119</t>
+          <t>1.003</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.210</t>
+          <t>1.096</t>
         </is>
       </c>
     </row>
@@ -6554,17 +6554,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.1150</t>
+          <t>1.1035</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.078</t>
+          <t>1.062</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.154</t>
+          <t>1.146</t>
         </is>
       </c>
     </row>
@@ -6577,17 +6577,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.9011</t>
+          <t>0.9210</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.865</t>
+          <t>0.881</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.939</t>
+          <t>0.963</t>
         </is>
       </c>
     </row>
@@ -6600,17 +6600,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.0332</t>
+          <t>1.1199</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>1.049</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.099</t>
+          <t>1.195</t>
         </is>
       </c>
     </row>
@@ -6623,17 +6623,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.3176</t>
+          <t>1.2842</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.207</t>
+          <t>1.173</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.439</t>
+          <t>1.406</t>
         </is>
       </c>
     </row>
@@ -6646,17 +6646,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.0526</t>
+          <t>1.1260</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.903</t>
+          <t>0.959</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.323</t>
         </is>
       </c>
     </row>
@@ -6669,17 +6669,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.4667</t>
+          <t>1.6305</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.150</t>
+          <t>1.270</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.871</t>
+          <t>2.094</t>
         </is>
       </c>
     </row>
@@ -6692,17 +6692,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1.1694</t>
+          <t>1.5320</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.796</t>
+          <t>1.045</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.717</t>
+          <t>2.245</t>
         </is>
       </c>
     </row>
@@ -6733,17 +6733,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.2651</t>
+          <t>1.2535</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>1.223</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.293</t>
+          <t>1.284</t>
         </is>
       </c>
     </row>
@@ -6756,17 +6756,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.5638</t>
+          <t>1.5095</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.446</t>
+          <t>1.393</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.691</t>
+          <t>1.636</t>
         </is>
       </c>
     </row>
@@ -6779,17 +6779,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1.1681</t>
+          <t>1.1268</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.123</t>
+          <t>1.082</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>1.173</t>
         </is>
       </c>
     </row>
@@ -6802,17 +6802,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1.1553</t>
+          <t>1.1346</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.113</t>
+          <t>1.090</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>1.181</t>
         </is>
       </c>
     </row>
@@ -6825,17 +6825,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1.3524</t>
+          <t>1.3306</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.288</t>
+          <t>1.262</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.421</t>
+          <t>1.403</t>
         </is>
       </c>
     </row>
@@ -6848,17 +6848,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1.2976</t>
+          <t>1.2856</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.181</t>
+          <t>1.161</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.426</t>
+          <t>1.424</t>
         </is>
       </c>
     </row>
@@ -6871,17 +6871,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2.5414</t>
+          <t>3.4527</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2.153</t>
+          <t>2.885</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>4.132</t>
         </is>
       </c>
     </row>
@@ -6894,17 +6894,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1.2511</t>
+          <t>1.2005</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.927</t>
+          <t>0.850</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.689</t>
+          <t>1.695</t>
         </is>
       </c>
     </row>
@@ -6917,17 +6917,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2.2488</t>
+          <t>0.9369</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1.389</t>
+          <t>0.463</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3.640</t>
+          <t>1.896</t>
         </is>
       </c>
     </row>
@@ -6940,17 +6940,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3.9244</t>
+          <t>3.3615</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.602</t>
+          <t>1.240</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>9.611</t>
+          <t>9.111</t>
         </is>
       </c>
     </row>
@@ -6981,17 +6981,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.3632</t>
+          <t>1.3567</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.305</t>
+          <t>1.259</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.424</t>
+          <t>1.462</t>
         </is>
       </c>
     </row>
@@ -7004,17 +7004,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.8164</t>
+          <t>0.3953</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.673</t>
+          <t>0.293</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.990</t>
+          <t>0.534</t>
         </is>
       </c>
     </row>
@@ -7027,17 +7027,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.1268</t>
+          <t>1.1452</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.026</t>
+          <t>0.991</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>1.324</t>
         </is>
       </c>
     </row>
@@ -7050,17 +7050,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.5537</t>
+          <t>1.8918</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.433</t>
+          <t>1.619</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.685</t>
+          <t>2.211</t>
         </is>
       </c>
     </row>
@@ -7073,17 +7073,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.5533</t>
+          <t>1.4065</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.418</t>
+          <t>1.179</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.701</t>
+          <t>1.678</t>
         </is>
       </c>
     </row>
@@ -7096,17 +7096,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1.1550</t>
+          <t>0.6253</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.014</t>
+          <t>0.491</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>0.796</t>
         </is>
       </c>
     </row>
@@ -7119,17 +7119,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3.3807</t>
+          <t>7.1260</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2.752</t>
+          <t>4.993</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4.153</t>
+          <t>10.171</t>
         </is>
       </c>
     </row>
@@ -7142,17 +7142,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.8372</t>
+          <t>1.0279</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.590</t>
+          <t>0.643</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.189</t>
+          <t>1.644</t>
         </is>
       </c>
     </row>
@@ -7165,17 +7165,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2.2185</t>
+          <t>3.4916</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1.188</t>
+          <t>1.323</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4.141</t>
+          <t>9.218</t>
         </is>
       </c>
     </row>
@@ -7188,17 +7188,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>6.6309</t>
+          <t>2.8170</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.274</t>
+          <t>0.757</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>19.338</t>
+          <t>10.488</t>
         </is>
       </c>
     </row>
@@ -7229,17 +7229,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1.2626</t>
+          <t>1.2235</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1.234</t>
+          <t>1.192</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.292</t>
+          <t>1.256</t>
         </is>
       </c>
     </row>
@@ -7252,17 +7252,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.8871</t>
+          <t>0.7934</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.810</t>
+          <t>0.718</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.972</t>
+          <t>0.877</t>
         </is>
       </c>
     </row>
@@ -7275,17 +7275,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1.3176</t>
+          <t>1.1592</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>1.105</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.375</t>
+          <t>1.216</t>
         </is>
       </c>
     </row>
@@ -7298,17 +7298,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1.2297</t>
+          <t>1.1911</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1.183</t>
+          <t>1.140</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.278</t>
+          <t>1.245</t>
         </is>
       </c>
     </row>
@@ -7321,17 +7321,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1.1592</t>
+          <t>1.1957</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.102</t>
+          <t>1.130</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.220</t>
+          <t>1.265</t>
         </is>
       </c>
     </row>
@@ -7344,17 +7344,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1.3866</t>
+          <t>1.4127</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1.257</t>
+          <t>1.270</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1.530</t>
+          <t>1.571</t>
         </is>
       </c>
     </row>
@@ -7367,17 +7367,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2.8898</t>
+          <t>3.9214</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2.438</t>
+          <t>3.264</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3.425</t>
+          <t>4.712</t>
         </is>
       </c>
     </row>
@@ -7390,17 +7390,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1.0994</t>
+          <t>1.0965</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.808</t>
+          <t>0.771</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1.496</t>
+          <t>1.560</t>
         </is>
       </c>
     </row>
@@ -7413,17 +7413,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1.8937</t>
+          <t>0.7936</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1.156</t>
+          <t>0.389</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3.103</t>
+          <t>1.620</t>
         </is>
       </c>
     </row>
@@ -7436,17 +7436,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4.6310</t>
+          <t>3.9601</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1.878</t>
+          <t>1.452</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>11.421</t>
+          <t>10.802</t>
         </is>
       </c>
     </row>
@@ -7477,17 +7477,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1.1965</t>
+          <t>1.1848</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1.175</t>
+          <t>1.159</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>1.211</t>
         </is>
       </c>
     </row>
@@ -7500,17 +7500,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1.3188</t>
+          <t>1.2479</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>1.165</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.405</t>
+          <t>1.337</t>
         </is>
       </c>
     </row>
@@ -7523,17 +7523,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1.1327</t>
+          <t>1.1059</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.070</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.167</t>
+          <t>1.143</t>
         </is>
       </c>
     </row>
@@ -7546,17 +7546,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1.1028</t>
+          <t>1.0795</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1.072</t>
+          <t>1.044</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1.135</t>
+          <t>1.116</t>
         </is>
       </c>
     </row>
@@ -7569,17 +7569,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1.2864</t>
+          <t>1.2982</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1.234</t>
+          <t>1.238</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1.342</t>
+          <t>1.361</t>
         </is>
       </c>
     </row>
@@ -7592,17 +7592,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1.3421</t>
+          <t>1.2615</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1.225</t>
+          <t>1.141</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1.471</t>
+          <t>1.394</t>
         </is>
       </c>
     </row>
@@ -7615,17 +7615,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2.1931</t>
+          <t>3.0536</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1.859</t>
+          <t>2.551</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2.587</t>
+          <t>3.656</t>
         </is>
       </c>
     </row>
@@ -7638,17 +7638,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1.0445</t>
+          <t>0.9737</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0.768</t>
+          <t>0.683</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1.421</t>
+          <t>1.389</t>
         </is>
       </c>
     </row>
@@ -7661,17 +7661,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1.2911</t>
+          <t>0.4867</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.786</t>
+          <t>0.238</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2.121</t>
+          <t>0.997</t>
         </is>
       </c>
     </row>
@@ -7684,17 +7684,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>4.1365</t>
+          <t>3.4601</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1.629</t>
+          <t>1.236</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>10.504</t>
+          <t>9.683</t>
         </is>
       </c>
     </row>

--- a/data/Czech/KCOR_summary.xlsx
+++ b/data/Czech/KCOR_summary.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,17 +496,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.4680</t>
+          <t>1.4597</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.441</t>
+          <t>1.433</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.496</t>
+          <t>1.487</t>
         </is>
       </c>
     </row>
@@ -514,22 +514,22 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8581</t>
+          <t>1.5165</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.804</t>
+          <t>1.493</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.915</t>
+          <t>1.541</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1868</t>
+          <t>0.9631</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.151</t>
+          <t>0.903</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>1.027</t>
         </is>
       </c>
     </row>
@@ -560,22 +560,22 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.7019</t>
+          <t>1.1606</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.664</t>
+          <t>1.126</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.740</t>
+          <t>1.197</t>
         </is>
       </c>
     </row>
@@ -583,22 +583,22 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.8492</t>
+          <t>1.6779</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.746</t>
+          <t>1.641</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.958</t>
+          <t>1.716</t>
         </is>
       </c>
     </row>
@@ -606,22 +606,22 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.5979</t>
+          <t>1.9202</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.432</t>
+          <t>1.813</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.783</t>
+          <t>2.033</t>
         </is>
       </c>
     </row>
@@ -629,22 +629,22 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.0276</t>
+          <t>1.4524</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.408</t>
+          <t>1.301</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.760</t>
+          <t>1.621</t>
         </is>
       </c>
     </row>
@@ -652,22 +652,22 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.4092</t>
+          <t>4.3376</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.041</t>
+          <t>3.668</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.908</t>
+          <t>5.129</t>
         </is>
       </c>
     </row>
@@ -675,22 +675,22 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.6143</t>
+          <t>0.8969</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.388</t>
+          <t>0.659</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.471</t>
+          <t>1.221</t>
         </is>
       </c>
     </row>
@@ -698,86 +698,86 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10.0638</t>
+          <t>1.6344</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.531</t>
+          <t>1.097</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>18.310</t>
+          <t>2.434</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9.0065</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.951</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>16.386</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2 vs 0</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ASMR (direct)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1.5077</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.483</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.533</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.2725</t>
+          <t>1.5672</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>1.541</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.318</t>
+          <t>1.594</t>
         </is>
       </c>
     </row>
@@ -785,22 +785,22 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.7049</t>
+          <t>2.0091</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.672</t>
+          <t>1.985</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.738</t>
+          <t>2.034</t>
         </is>
       </c>
     </row>
@@ -808,22 +808,22 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.6763</t>
+          <t>1.2990</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.629</t>
+          <t>1.254</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.725</t>
+          <t>1.345</t>
         </is>
       </c>
     </row>
@@ -831,22 +831,22 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1230</t>
+          <t>1.6749</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>1.643</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.189</t>
+          <t>1.708</t>
         </is>
       </c>
     </row>
@@ -854,22 +854,22 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.8546</t>
+          <t>1.7493</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.678</t>
+          <t>1.700</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.050</t>
+          <t>1.800</t>
         </is>
       </c>
     </row>
@@ -877,22 +877,22 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.3131</t>
+          <t>1.1845</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.112</t>
+          <t>1.119</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.550</t>
+          <t>1.253</t>
         </is>
       </c>
     </row>
@@ -900,22 +900,22 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.6404</t>
+          <t>1.7790</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.488</t>
+          <t>1.610</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.841</t>
+          <t>1.966</t>
         </is>
       </c>
     </row>
@@ -923,22 +923,22 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.2197</t>
+          <t>1.6769</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.865</t>
+          <t>1.419</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.720</t>
+          <t>1.982</t>
         </is>
       </c>
     </row>
@@ -946,109 +946,109 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.4581</t>
+          <t>1.9095</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.111</t>
+          <t>1.455</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10.761</t>
+          <t>2.506</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1.1134</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.790</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.570</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2 vs 1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3.0948</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.995</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>9.630</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ASMR (direct)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1.0288</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.005</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1.053</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1920</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1.4830</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.390</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1.582</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.4365</t>
+          <t>1.0766</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.393</t>
+          <t>1.052</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.481</t>
+          <t>1.102</t>
         </is>
       </c>
     </row>
@@ -1056,22 +1056,22 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.9849</t>
+          <t>1.3248</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.953</t>
+          <t>1.301</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.018</t>
+          <t>1.349</t>
         </is>
       </c>
     </row>
@@ -1079,22 +1079,22 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.6073</t>
+          <t>1.3487</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.561</t>
+          <t>1.264</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.657</t>
+          <t>1.439</t>
         </is>
       </c>
     </row>
@@ -1102,22 +1102,22 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.1607</t>
+          <t>1.4431</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.003</t>
+          <t>1.400</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.343</t>
+          <t>1.488</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.3260</t>
+          <t>1.0426</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.258</t>
+          <t>1.009</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>1.077</t>
         </is>
       </c>
     </row>
@@ -1148,22 +1148,22 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.4545</t>
+          <t>0.6169</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.304</t>
+          <t>0.570</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.667</t>
         </is>
       </c>
     </row>
@@ -1171,22 +1171,22 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.5089</t>
+          <t>1.2249</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>1.058</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.864</t>
+          <t>1.417</t>
         </is>
       </c>
     </row>
@@ -1194,31 +1194,100 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.3436</t>
+          <t>0.3866</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.096</t>
+          <t>0.306</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>0.488</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2.1289</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.419</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3.195</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1.0206</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.609</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.096</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1.231</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1231,7 +1300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1366,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.1732</t>
+          <t>1.1575</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.153</t>
+          <t>1.137</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.194</t>
+          <t>1.178</t>
         </is>
       </c>
     </row>
@@ -1315,22 +1384,22 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.6360</t>
+          <t>0.9322</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.586</t>
+          <t>0.918</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.947</t>
         </is>
       </c>
     </row>
@@ -1338,22 +1407,22 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0732</t>
+          <t>0.6561</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.032</t>
+          <t>0.605</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.116</t>
+          <t>0.712</t>
         </is>
       </c>
     </row>
@@ -1361,22 +1430,22 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.1925</t>
+          <t>1.0796</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.161</t>
+          <t>1.038</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>1.123</t>
         </is>
       </c>
     </row>
@@ -1384,22 +1453,22 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.7317</t>
+          <t>1.1662</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.687</t>
+          <t>1.136</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.778</t>
+          <t>1.197</t>
         </is>
       </c>
     </row>
@@ -1407,22 +1476,22 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.4741</t>
+          <t>1.6398</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.407</t>
+          <t>1.597</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.544</t>
+          <t>1.684</t>
         </is>
       </c>
     </row>
@@ -1430,22 +1499,22 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.0023</t>
+          <t>1.4547</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.918</t>
+          <t>1.389</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.095</t>
+          <t>1.524</t>
         </is>
       </c>
     </row>
@@ -1453,22 +1522,22 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.4348</t>
+          <t>0.9286</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.204</t>
+          <t>0.849</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.710</t>
+          <t>1.016</t>
         </is>
       </c>
     </row>
@@ -1476,22 +1545,22 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.8702</t>
+          <t>1.6097</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.364</t>
+          <t>1.351</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.565</t>
+          <t>1.918</t>
         </is>
       </c>
     </row>
@@ -1499,86 +1568,86 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.6693</t>
+          <t>1.3084</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.183</t>
+          <t>0.955</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.449</t>
+          <t>1.793</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.5977</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.163</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.187</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2 vs 0</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ASMR (direct)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1.2255</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.210</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.242</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.9025</t>
+          <t>1.1997</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.870</t>
+          <t>1.184</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.936</t>
+          <t>1.215</t>
         </is>
       </c>
     </row>
@@ -1586,22 +1655,22 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.1314</t>
+          <t>1.3552</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.109</t>
+          <t>1.340</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.155</t>
+          <t>1.371</t>
         </is>
       </c>
     </row>
@@ -1609,22 +1678,22 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.3657</t>
+          <t>0.8728</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.338</t>
+          <t>0.841</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.394</t>
+          <t>0.906</t>
         </is>
       </c>
     </row>
@@ -1632,22 +1701,22 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.2335</t>
+          <t>1.0844</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.186</t>
+          <t>1.063</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.283</t>
+          <t>1.107</t>
         </is>
       </c>
     </row>
@@ -1655,22 +1724,22 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.5657</t>
+          <t>1.4133</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.458</t>
+          <t>1.384</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.681</t>
+          <t>1.443</t>
         </is>
       </c>
     </row>
@@ -1678,22 +1747,22 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.3478</t>
+          <t>1.1600</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>1.115</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.507</t>
+          <t>1.206</t>
         </is>
       </c>
     </row>
@@ -1701,22 +1770,22 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2.4595</t>
+          <t>1.4535</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.032</t>
+          <t>1.353</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.977</t>
+          <t>1.561</t>
         </is>
       </c>
     </row>
@@ -1724,22 +1793,22 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.8867</t>
+          <t>1.2422</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.685</t>
+          <t>1.111</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.148</t>
+          <t>1.389</t>
         </is>
       </c>
     </row>
@@ -1747,109 +1816,109 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2.1506</t>
+          <t>3.9207</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>3.243</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.228</t>
+          <t>4.740</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.5734</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.441</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.746</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2 vs 1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5.6389</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.308</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>9.613</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ASMR (direct)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1.0470</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.027</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1.067</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1920</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1.4191</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.310</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1.538</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.0543</t>
+          <t>1.0419</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.015</t>
+          <t>1.022</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.095</t>
+          <t>1.062</t>
         </is>
       </c>
     </row>
@@ -1857,22 +1926,22 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.1452</t>
+          <t>1.4537</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.115</t>
+          <t>1.431</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.176</t>
+          <t>1.477</t>
         </is>
       </c>
     </row>
@@ -1880,22 +1949,22 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.7123</t>
+          <t>1.3303</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.684</t>
+          <t>1.228</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.742</t>
+          <t>1.442</t>
         </is>
       </c>
     </row>
@@ -1903,22 +1972,22 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.0621</t>
+          <t>1.0044</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.982</t>
+          <t>0.967</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.149</t>
+          <t>1.043</t>
         </is>
       </c>
     </row>
@@ -1926,22 +1995,22 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.3447</t>
+          <t>1.2120</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.174</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.540</t>
+          <t>1.245</t>
         </is>
       </c>
     </row>
@@ -1949,22 +2018,22 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.7142</t>
+          <t>0.7074</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.335</t>
+          <t>0.679</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.201</t>
+          <t>0.737</t>
         </is>
       </c>
     </row>
@@ -1972,22 +2041,22 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.2459</t>
+          <t>0.9991</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.841</t>
+          <t>0.924</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.847</t>
+          <t>1.081</t>
         </is>
       </c>
     </row>
@@ -1995,31 +2064,100 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3.2134</t>
+          <t>1.3377</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.749</t>
+          <t>1.167</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13.777</t>
+          <t>1.533</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2.4357</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.899</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3.124</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1.1063</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.744</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1.644</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>9.4350</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.338</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>38.077</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2032,7 +2170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2098,17 +2236,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9569</t>
+          <t>0.9543</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.937</t>
+          <t>0.934</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.977</t>
+          <t>0.975</t>
         </is>
       </c>
     </row>
@@ -2116,22 +2254,22 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.6241</t>
+          <t>0.9983</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.567</t>
+          <t>0.981</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.687</t>
+          <t>1.016</t>
         </is>
       </c>
     </row>
@@ -2139,22 +2277,22 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9178</t>
+          <t>0.6748</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.877</t>
+          <t>0.613</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.960</t>
+          <t>0.743</t>
         </is>
       </c>
     </row>
@@ -2162,22 +2300,22 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9316</t>
+          <t>0.9537</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.900</t>
+          <t>0.912</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.964</t>
+          <t>0.998</t>
         </is>
       </c>
     </row>
@@ -2185,22 +2323,22 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2584</t>
+          <t>0.8899</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>0.860</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.300</t>
+          <t>0.921</t>
         </is>
       </c>
     </row>
@@ -2208,22 +2346,22 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0767</t>
+          <t>1.2668</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.028</t>
+          <t>1.226</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.128</t>
+          <t>1.309</t>
         </is>
       </c>
     </row>
@@ -2231,22 +2369,22 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.2387</t>
+          <t>0.9993</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.157</t>
+          <t>0.953</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.326</t>
+          <t>1.047</t>
         </is>
       </c>
     </row>
@@ -2254,22 +2392,22 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.7145</t>
+          <t>1.1786</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.622</t>
+          <t>1.101</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.820</t>
+          <t>1.262</t>
         </is>
       </c>
     </row>
@@ -2277,22 +2415,22 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.4070</t>
+          <t>0.6123</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.892</t>
+          <t>0.530</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.062</t>
+          <t>0.707</t>
         </is>
       </c>
     </row>
@@ -2300,86 +2438,86 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.7472</t>
+          <t>2.4796</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.476</t>
+          <t>1.955</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.173</t>
+          <t>3.144</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.6415</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.409</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.007</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2 vs 0</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ASMR (direct)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1.1378</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.123</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.152</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8160</t>
+          <t>1.1245</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.786</t>
+          <t>1.110</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.847</t>
+          <t>1.139</t>
         </is>
       </c>
     </row>
@@ -2387,22 +2525,22 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0379</t>
+          <t>1.2792</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.016</t>
+          <t>1.265</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.060</t>
+          <t>1.294</t>
         </is>
       </c>
     </row>
@@ -2410,22 +2548,22 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.1629</t>
+          <t>0.8012</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>0.771</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.187</t>
+          <t>0.832</t>
         </is>
       </c>
     </row>
@@ -2433,22 +2571,22 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.5511</t>
+          <t>0.9993</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.508</t>
+          <t>0.978</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.595</t>
+          <t>1.021</t>
         </is>
       </c>
     </row>
@@ -2456,22 +2594,22 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.1877</t>
+          <t>1.1308</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.125</t>
+          <t>1.108</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.254</t>
+          <t>1.154</t>
         </is>
       </c>
     </row>
@@ -2479,22 +2617,22 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.2350</t>
+          <t>1.5799</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.132</t>
+          <t>1.536</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.347</t>
+          <t>1.625</t>
         </is>
       </c>
     </row>
@@ -2502,22 +2640,22 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.3776</t>
+          <t>1.1839</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.181</t>
+          <t>1.121</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.607</t>
+          <t>1.250</t>
         </is>
       </c>
     </row>
@@ -2525,22 +2663,22 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2.2284</t>
+          <t>1.2575</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.765</t>
+          <t>1.153</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.813</t>
+          <t>1.372</t>
         </is>
       </c>
     </row>
@@ -2548,109 +2686,109 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.4989</t>
+          <t>2.0167</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.313</t>
+          <t>1.727</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.795</t>
+          <t>2.355</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1.6775</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.328</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.119</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2 vs 1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.7879</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.525</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1.182</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ASMR (direct)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1.1891</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.164</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1.215</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1920</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1.3074</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.190</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1.437</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.1307</t>
+          <t>1.1783</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>1.153</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.181</t>
+          <t>1.204</t>
         </is>
       </c>
     </row>
@@ -2658,22 +2796,22 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.2484</t>
+          <t>1.2814</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.207</t>
+          <t>1.259</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.291</t>
+          <t>1.304</t>
         </is>
       </c>
     </row>
@@ -2681,22 +2819,22 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.2325</t>
+          <t>1.1874</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.191</t>
+          <t>1.080</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.276</t>
+          <t>1.305</t>
         </is>
       </c>
     </row>
@@ -2704,22 +2842,22 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.1031</t>
+          <t>1.0478</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.037</t>
+          <t>1.003</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.173</t>
+          <t>1.094</t>
         </is>
       </c>
     </row>
@@ -2727,22 +2865,22 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.9970</t>
+          <t>1.2707</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.904</t>
+          <t>1.229</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.314</t>
         </is>
       </c>
     </row>
@@ -2750,22 +2888,22 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.9280</t>
+          <t>1.2471</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.591</t>
+          <t>1.205</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.337</t>
+          <t>1.291</t>
         </is>
       </c>
     </row>
@@ -2773,22 +2911,22 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.9258</t>
+          <t>1.1847</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.676</t>
+          <t>1.113</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.268</t>
+          <t>1.261</t>
         </is>
       </c>
     </row>
@@ -2796,31 +2934,100 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.6677</t>
+          <t>1.0670</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.355</t>
+          <t>0.967</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.254</t>
+          <t>1.177</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3.2935</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.704</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4.012</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.6765</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.495</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.925</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1.2281</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.683</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2.210</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2833,7 +3040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2899,17 +3106,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.5921</t>
+          <t>0.5432</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.577</t>
+          <t>0.530</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.608</t>
+          <t>0.557</t>
         </is>
       </c>
     </row>
@@ -2917,22 +3124,22 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.5755</t>
+          <t>0.6301</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.501</t>
+          <t>0.617</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.662</t>
+          <t>0.644</t>
         </is>
       </c>
     </row>
@@ -2940,22 +3147,22 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.4781</t>
+          <t>0.4044</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.453</t>
+          <t>0.355</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.505</t>
+          <t>0.461</t>
         </is>
       </c>
     </row>
@@ -2963,22 +3170,22 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.5738</t>
+          <t>0.4454</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.550</t>
+          <t>0.422</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.598</t>
+          <t>0.470</t>
         </is>
       </c>
     </row>
@@ -2986,22 +3193,22 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.6423</t>
+          <t>0.6069</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.615</t>
+          <t>0.582</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.671</t>
+          <t>0.633</t>
         </is>
       </c>
     </row>
@@ -3009,22 +3216,22 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.0100</t>
+          <t>0.5169</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.951</t>
+          <t>0.494</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.072</t>
+          <t>0.541</t>
         </is>
       </c>
     </row>
@@ -3032,22 +3239,22 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.8612</t>
+          <t>0.9582</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.797</t>
+          <t>0.902</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.931</t>
+          <t>1.018</t>
         </is>
       </c>
     </row>
@@ -3055,22 +3262,22 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.3816</t>
+          <t>0.7986</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.133</t>
+          <t>0.738</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.659</t>
+          <t>0.864</t>
         </is>
       </c>
     </row>
@@ -3078,22 +3285,22 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.7798</t>
+          <t>2.2918</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.536</t>
+          <t>2.054</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.063</t>
+          <t>2.557</t>
         </is>
       </c>
     </row>
@@ -3101,86 +3308,86 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.8329</t>
+          <t>0.5077</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.681</t>
+          <t>0.437</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.019</t>
+          <t>0.590</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.7628</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.631</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.922</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2 vs 0</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ASMR (direct)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0.9813</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.973</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.990</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.7033</t>
+          <t>0.9450</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.680</t>
+          <t>0.937</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.727</t>
+          <t>0.953</t>
         </is>
       </c>
     </row>
@@ -3188,22 +3395,22 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8870</t>
+          <t>0.9491</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.873</t>
+          <t>0.941</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.902</t>
+          <t>0.957</t>
         </is>
       </c>
     </row>
@@ -3211,22 +3418,22 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0274</t>
+          <t>0.6734</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.012</t>
+          <t>0.651</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.043</t>
+          <t>0.696</t>
         </is>
       </c>
     </row>
@@ -3234,22 +3441,22 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1264</t>
+          <t>0.8298</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.106</t>
+          <t>0.816</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.147</t>
+          <t>0.844</t>
         </is>
       </c>
     </row>
@@ -3257,22 +3464,22 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.3674</t>
+          <t>1.0113</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.329</t>
+          <t>0.996</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.406</t>
+          <t>1.027</t>
         </is>
       </c>
     </row>
@@ -3280,22 +3487,22 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1685</t>
+          <t>1.1198</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.121</t>
+          <t>1.099</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>1.141</t>
         </is>
       </c>
     </row>
@@ -3303,22 +3510,22 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.4011</t>
+          <t>1.2909</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.300</t>
+          <t>1.255</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.510</t>
+          <t>1.328</t>
         </is>
       </c>
     </row>
@@ -3326,22 +3533,22 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.9811</t>
+          <t>1.1766</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.869</t>
+          <t>1.129</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.226</t>
         </is>
       </c>
     </row>
@@ -3349,109 +3556,109 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.2108</t>
+          <t>1.1474</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.164</t>
+          <t>1.062</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.272</t>
+          <t>1.240</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.312</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.405</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2 vs 1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.189</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.313</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ASMR (direct)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1.6571</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.616</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1.700</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1920</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1.2221</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.065</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1.403</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.8555</t>
+          <t>1.7398</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.759</t>
+          <t>1.697</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.958</t>
+          <t>1.784</t>
         </is>
       </c>
     </row>
@@ -3459,22 +3666,22 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.7907</t>
+          <t>1.5062</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.719</t>
+          <t>1.475</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.865</t>
+          <t>1.539</t>
         </is>
       </c>
     </row>
@@ -3482,22 +3689,22 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.7537</t>
+          <t>1.6651</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.680</t>
+          <t>1.464</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.831</t>
+          <t>1.894</t>
         </is>
       </c>
     </row>
@@ -3505,22 +3712,22 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.3539</t>
+          <t>1.8632</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.275</t>
+          <t>1.766</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.437</t>
+          <t>1.966</t>
         </is>
       </c>
     </row>
@@ -3528,22 +3735,22 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.3568</t>
+          <t>1.6663</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.254</t>
+          <t>1.600</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.468</t>
+          <t>1.735</t>
         </is>
       </c>
     </row>
@@ -3551,22 +3758,22 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.5883</t>
+          <t>2.1662</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.522</t>
+          <t>2.073</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.663</t>
+          <t>2.263</t>
         </is>
       </c>
     </row>
@@ -3574,22 +3781,22 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.5512</t>
+          <t>1.3473</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.465</t>
+          <t>1.268</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.653</t>
+          <t>1.431</t>
         </is>
       </c>
     </row>
@@ -3597,31 +3804,100 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.2531</t>
+          <t>1.4733</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.187</t>
+          <t>1.360</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.343</t>
+          <t>1.596</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.5006</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.444</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.565</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.6993</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.586</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.834</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.238</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.427</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3634,7 +3910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3700,17 +3976,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9259</t>
+          <t>0.9316</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.867</t>
+          <t>0.872</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.989</t>
+          <t>0.995</t>
         </is>
       </c>
     </row>
@@ -3718,22 +3994,22 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.1706</t>
+          <t>0.9091</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.870</t>
+          <t>0.849</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.575</t>
+          <t>0.973</t>
         </is>
       </c>
     </row>
@@ -3741,22 +4017,22 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0127</t>
+          <t>0.9339</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.894</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.147</t>
+          <t>1.264</t>
         </is>
       </c>
     </row>
@@ -3764,22 +4040,22 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8361</t>
+          <t>1.0115</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.733</t>
+          <t>0.893</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.954</t>
+          <t>1.146</t>
         </is>
       </c>
     </row>
@@ -3787,22 +4063,22 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0143</t>
+          <t>0.9293</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.870</t>
+          <t>0.816</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.182</t>
+          <t>1.058</t>
         </is>
       </c>
     </row>
@@ -3810,22 +4086,22 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.7875</t>
+          <t>0.9128</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.634</t>
+          <t>0.782</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.978</t>
+          <t>1.066</t>
         </is>
       </c>
     </row>
@@ -3833,22 +4109,22 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9243</t>
+          <t>0.8063</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.704</t>
+          <t>0.650</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -3856,22 +4132,22 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9759</t>
+          <t>0.8219</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.654</t>
+          <t>0.622</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.456</t>
+          <t>1.086</t>
         </is>
       </c>
     </row>
@@ -3879,22 +4155,22 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.4240</t>
+          <t>1.0018</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.401</t>
+          <t>0.671</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.194</t>
+          <t>1.495</t>
         </is>
       </c>
     </row>
@@ -3902,86 +4178,86 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.2527</t>
+          <t>1.0747</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.062</t>
+          <t>0.616</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.024</t>
+          <t>1.876</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.067</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.093</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2 vs 0</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ASMR (direct)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1.0487</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.026</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.072</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.8193</t>
+          <t>1.0563</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.752</t>
+          <t>1.033</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.893</t>
+          <t>1.080</t>
         </is>
       </c>
     </row>
@@ -3989,22 +4265,22 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0216</t>
+          <t>1.1046</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.976</t>
+          <t>1.080</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.070</t>
+          <t>1.130</t>
         </is>
       </c>
     </row>
@@ -4012,22 +4288,22 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0596</t>
+          <t>0.8857</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.015</t>
+          <t>0.813</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.107</t>
+          <t>0.965</t>
         </is>
       </c>
     </row>
@@ -4035,22 +4311,22 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1399</t>
+          <t>1.0313</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.084</t>
+          <t>0.985</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>1.080</t>
         </is>
       </c>
     </row>
@@ -4058,22 +4334,22 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.9407</t>
+          <t>1.0595</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.876</t>
+          <t>1.014</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.011</t>
+          <t>1.107</t>
         </is>
       </c>
     </row>
@@ -4081,22 +4357,22 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.2012</t>
+          <t>1.1377</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.092</t>
+          <t>1.082</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.321</t>
+          <t>1.196</t>
         </is>
       </c>
     </row>
@@ -4104,22 +4380,22 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.1190</t>
+          <t>0.9440</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.959</t>
+          <t>0.879</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.305</t>
+          <t>1.014</t>
         </is>
       </c>
     </row>
@@ -4127,22 +4403,22 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2.0759</t>
+          <t>1.1789</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.664</t>
+          <t>1.072</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.589</t>
+          <t>1.297</t>
         </is>
       </c>
     </row>
@@ -4150,109 +4426,109 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.3300</t>
+          <t>1.1569</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.998</t>
+          <t>0.992</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.772</t>
+          <t>1.350</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2.3675</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.902</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.947</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2 vs 1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1.6999</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.277</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2.263</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ASMR (direct)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1.1296</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.057</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1.207</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1920</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0.6999</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.518</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.946</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.0088</t>
+          <t>1.1304</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.889</t>
+          <t>1.058</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.145</t>
+          <t>1.208</t>
         </is>
       </c>
     </row>
@@ -4260,22 +4536,22 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.2673</t>
+          <t>1.2150</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.110</t>
+          <t>1.134</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.447</t>
+          <t>1.302</t>
         </is>
       </c>
     </row>
@@ -4283,22 +4559,22 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.1239</t>
+          <t>0.9483</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.963</t>
+          <t>0.698</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.311</t>
+          <t>1.289</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4582,22 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.1945</t>
+          <t>1.0196</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.960</t>
+          <t>0.899</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.486</t>
+          <t>1.157</t>
         </is>
       </c>
     </row>
@@ -4329,22 +4605,22 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.2995</t>
+          <t>1.1402</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.988</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.710</t>
+          <t>1.300</t>
         </is>
       </c>
     </row>
@@ -4352,22 +4628,22 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.1466</t>
+          <t>1.2464</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.762</t>
+          <t>1.066</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.726</t>
+          <t>1.457</t>
         </is>
       </c>
     </row>
@@ -4375,22 +4651,22 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.2722</t>
+          <t>1.1707</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.156</t>
+          <t>0.942</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.474</t>
+          <t>1.455</t>
         </is>
       </c>
     </row>
@@ -4398,132 +4674,132 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5.2636</t>
+          <t>1.4344</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.295</t>
+          <t>1.083</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>21.393</t>
+          <t>1.899</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1.1549</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.767</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1.738</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>3 vs 0</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.7052</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.401</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1.239</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASMR (direct)</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.4134</t>
+          <t>6.3042</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.388</t>
+          <t>1.552</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.439</t>
+          <t>25.613</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1920</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1.1593</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.092</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1.231</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1930</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1.3984</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.351</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1.448</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3 vs 0</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.5119</t>
+          <t>1.4002</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.461</t>
+          <t>1.375</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.565</t>
+          <t>1.425</t>
         </is>
       </c>
     </row>
@@ -4531,22 +4807,22 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.5208</t>
+          <t>1.3972</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.458</t>
+          <t>1.372</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.586</t>
+          <t>1.423</t>
         </is>
       </c>
     </row>
@@ -4554,22 +4830,22 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.0878</t>
+          <t>1.1151</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.019</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.161</t>
+          <t>1.184</t>
         </is>
       </c>
     </row>
@@ -4577,22 +4853,22 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.2545</t>
+          <t>1.3752</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>1.328</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.382</t>
+          <t>1.424</t>
         </is>
       </c>
     </row>
@@ -4600,22 +4876,22 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.0793</t>
+          <t>1.4983</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.909</t>
+          <t>1.448</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.282</t>
+          <t>1.551</t>
         </is>
       </c>
     </row>
@@ -4623,22 +4899,22 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.0835</t>
+          <t>1.5350</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.822</t>
+          <t>1.472</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.427</t>
+          <t>1.601</t>
         </is>
       </c>
     </row>
@@ -4646,63 +4922,91 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.9465</t>
+          <t>1.0667</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.598</t>
+          <t>0.999</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.498</t>
+          <t>1.139</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1.2704</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.153</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1.400</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>3 vs 1</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.9592</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.804</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1.145</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ASMR (direct)</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.5280</t>
+          <t>1.0472</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.432</t>
+          <t>0.798</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.630</t>
+          <t>1.375</t>
         </is>
       </c>
     </row>
@@ -4710,91 +5014,63 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.9904</t>
+          <t>1.4033</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.737</t>
+          <t>0.897</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.330</t>
+          <t>2.196</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1930</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1.3809</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.222</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>1.561</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1940</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1.8083</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.588</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2.059</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3 vs 1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.4993</t>
+          <t>1.5047</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.288</t>
+          <t>1.410</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.745</t>
+          <t>1.606</t>
         </is>
       </c>
     </row>
@@ -4802,22 +5078,22 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.3813</t>
+          <t>1.5369</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.113</t>
+          <t>1.436</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.715</t>
+          <t>1.644</t>
         </is>
       </c>
     </row>
@@ -4825,22 +5101,22 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.3572</t>
+          <t>1.1940</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>0.884</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.787</t>
+          <t>1.613</t>
         </is>
       </c>
     </row>
@@ -4848,22 +5124,22 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.1059</t>
+          <t>1.3595</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.729</t>
+          <t>1.203</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.676</t>
+          <t>1.537</t>
         </is>
       </c>
     </row>
@@ -4871,22 +5147,22 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.2627</t>
+          <t>1.6123</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.147</t>
+          <t>1.418</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.469</t>
+          <t>1.833</t>
         </is>
       </c>
     </row>
@@ -4894,63 +5170,91 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3.7459</t>
+          <t>1.6817</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.881</t>
+          <t>1.442</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15.928</t>
+          <t>1.961</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1.3229</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.066</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1.641</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>3 vs 2</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1.5457</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.167</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2.048</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ASMR (direct)</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.3478</t>
+          <t>0.9575</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.322</t>
+          <t>0.630</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.374</t>
+          <t>1.454</t>
         </is>
       </c>
     </row>
@@ -4958,22 +5262,22 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.4150</t>
+          <t>0.5709</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.307</t>
+          <t>0.318</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.532</t>
+          <t>1.026</t>
         </is>
       </c>
     </row>
@@ -4981,91 +5285,63 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.3689</t>
+          <t>5.2043</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>1.229</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.424</t>
+          <t>22.045</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1940</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>1.4269</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1.375</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>1.480</t>
-        </is>
-      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>1.3341</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>1.276</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>1.395</t>
-        </is>
-      </c>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3 vs 2</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.1564</t>
+          <t>1.3256</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.076</t>
+          <t>1.300</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>1.352</t>
         </is>
       </c>
     </row>
@@ -5073,22 +5349,22 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.0444</t>
+          <t>1.2649</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.942</t>
+          <t>1.240</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.157</t>
+          <t>1.291</t>
         </is>
       </c>
     </row>
@@ -5096,22 +5372,22 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.9645</t>
+          <t>1.2591</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.797</t>
+          <t>1.164</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.167</t>
+          <t>1.362</t>
         </is>
       </c>
     </row>
@@ -5119,22 +5395,22 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.5220</t>
+          <t>1.3334</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.391</t>
+          <t>1.282</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.696</t>
+          <t>1.387</t>
         </is>
       </c>
     </row>
@@ -5142,31 +5418,169 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.7117</t>
+          <t>1.4141</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.445</t>
+          <t>1.363</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.138</t>
+          <t>1.467</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1.3493</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.290</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1.411</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1.1300</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.052</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1.214</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1.0776</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.972</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1.194</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0.8291</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.682</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1.008</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0.4423</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.333</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0.588</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0.8255</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.523</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1.303</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5179,7 +5593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5245,17 +5659,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9274</t>
+          <t>0.8411</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.861</t>
+          <t>0.781</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.999</t>
+          <t>0.906</t>
         </is>
       </c>
     </row>
@@ -5263,22 +5677,22 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.8189</t>
+          <t>0.8442</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.824</t>
+          <t>0.782</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.164</t>
+          <t>0.912</t>
         </is>
       </c>
     </row>
@@ -5286,22 +5700,22 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9840</t>
+          <t>2.2939</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.851</t>
+          <t>1.688</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.138</t>
+          <t>3.117</t>
         </is>
       </c>
     </row>
@@ -5309,22 +5723,22 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.5997</t>
+          <t>0.7022</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.513</t>
+          <t>0.603</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.701</t>
+          <t>0.818</t>
         </is>
       </c>
     </row>
@@ -5332,22 +5746,22 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.9460</t>
+          <t>0.6714</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.794</t>
+          <t>0.577</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.127</t>
+          <t>0.782</t>
         </is>
       </c>
     </row>
@@ -5355,22 +5769,22 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.0558</t>
+          <t>1.0222</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.638</t>
+          <t>0.859</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.580</t>
+          <t>1.217</t>
         </is>
       </c>
     </row>
@@ -5378,22 +5792,22 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.4845</t>
+          <t>1.3995</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.353</t>
+          <t>1.101</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.666</t>
+          <t>1.778</t>
         </is>
       </c>
     </row>
@@ -5401,22 +5815,22 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.1679</t>
+          <t>0.5873</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.831</t>
+          <t>0.435</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.641</t>
+          <t>0.794</t>
         </is>
       </c>
     </row>
@@ -5424,22 +5838,22 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.3721</t>
+          <t>1.0771</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.186</t>
+          <t>0.766</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.743</t>
+          <t>1.514</t>
         </is>
       </c>
     </row>
@@ -5447,86 +5861,86 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.1933</t>
+          <t>1.0489</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.487</t>
+          <t>0.557</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.923</t>
+          <t>1.976</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.4822</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.605</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3.633</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2 vs 0</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ASMR (direct)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1.0230</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.047</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2 vs 0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.9026</t>
+          <t>1.0044</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.716</t>
+          <t>0.982</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.110</t>
+          <t>1.028</t>
         </is>
       </c>
     </row>
@@ -5534,22 +5948,22 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.9721</t>
+          <t>0.9277</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.924</t>
+          <t>0.906</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.022</t>
+          <t>0.950</t>
         </is>
       </c>
     </row>
@@ -5557,22 +5971,22 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.9525</t>
+          <t>1.3222</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.911</t>
+          <t>1.189</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>1.470</t>
         </is>
       </c>
     </row>
@@ -5580,22 +5994,22 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.1128</t>
+          <t>0.9885</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.058</t>
+          <t>0.940</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.170</t>
+          <t>1.040</t>
         </is>
       </c>
     </row>
@@ -5603,22 +6017,22 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.9101</t>
+          <t>0.9609</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.851</t>
+          <t>0.919</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.974</t>
+          <t>1.005</t>
         </is>
       </c>
     </row>
@@ -5626,22 +6040,22 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.8805</t>
+          <t>1.1388</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.805</t>
+          <t>1.083</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.963</t>
+          <t>1.198</t>
         </is>
       </c>
     </row>
@@ -5649,22 +6063,22 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.0949</t>
+          <t>0.9350</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.954</t>
+          <t>0.874</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.257</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -5672,22 +6086,22 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.1805</t>
+          <t>0.8001</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.954</t>
+          <t>0.731</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.460</t>
+          <t>0.876</t>
         </is>
       </c>
     </row>
@@ -5695,109 +6109,109 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.5714</t>
+          <t>0.9426</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.430</t>
+          <t>0.820</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.760</t>
+          <t>1.083</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.9132</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.731</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.140</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2 vs 1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.4932</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.367</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.663</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ASMR (direct)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1.1027</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.023</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1.188</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1920</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0.4982</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.366</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.677</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2 vs 1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.9879</t>
+          <t>1.1978</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.852</t>
+          <t>1.112</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.145</t>
+          <t>1.291</t>
         </is>
       </c>
     </row>
@@ -5805,22 +6219,22 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.5882</t>
+          <t>1.0990</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.357</t>
+          <t>1.017</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.858</t>
+          <t>1.188</t>
         </is>
       </c>
     </row>
@@ -5828,22 +6242,22 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.1764</t>
+          <t>0.5764</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.987</t>
+          <t>0.421</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.402</t>
+          <t>0.788</t>
         </is>
       </c>
     </row>
@@ -5851,22 +6265,22 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.4427</t>
+          <t>1.4077</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.352</t>
+          <t>1.206</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.557</t>
+          <t>1.644</t>
         </is>
       </c>
     </row>
@@ -5874,22 +6288,22 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.8172</t>
+          <t>1.4311</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.319</t>
+          <t>1.228</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.503</t>
+          <t>1.668</t>
         </is>
       </c>
     </row>
@@ -5897,22 +6311,22 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.9375</t>
+          <t>1.1141</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.662</t>
+          <t>0.935</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.327</t>
+          <t>1.328</t>
         </is>
       </c>
     </row>
@@ -5920,22 +6334,22 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.7412</t>
+          <t>0.6681</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.864</t>
+          <t>0.525</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.509</t>
+          <t>0.851</t>
         </is>
       </c>
     </row>
@@ -5943,132 +6357,132 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.7113</t>
+          <t>1.3623</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.288</t>
+          <t>1.005</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.755</t>
+          <t>1.846</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.8751</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.618</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1.240</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>3 vs 0</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.4653</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.887</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASMR (direct)</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.0575</t>
+          <t>0.4813</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.039</t>
+          <t>0.195</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.076</t>
+          <t>1.191</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1920</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1.2096</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.123</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1.303</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1930</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1.0189</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.983</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1.056</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3 vs 0</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.0510</t>
+          <t>1.0587</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.016</t>
+          <t>1.040</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.087</t>
+          <t>1.078</t>
         </is>
       </c>
     </row>
@@ -6076,22 +6490,22 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.0249</t>
+          <t>1.0295</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.984</t>
+          <t>1.011</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.067</t>
+          <t>1.048</t>
         </is>
       </c>
     </row>
@@ -6099,22 +6513,22 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.0191</t>
+          <t>1.1791</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.962</t>
+          <t>1.095</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.080</t>
+          <t>1.270</t>
         </is>
       </c>
     </row>
@@ -6122,22 +6536,22 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.1307</t>
+          <t>1.0232</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.041</t>
+          <t>0.987</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>1.061</t>
         </is>
       </c>
     </row>
@@ -6145,22 +6559,22 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.2329</t>
+          <t>1.0753</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.067</t>
+          <t>1.040</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.424</t>
+          <t>1.112</t>
         </is>
       </c>
     </row>
@@ -6168,22 +6582,22 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.9248</t>
+          <t>1.0107</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.537</t>
+          <t>0.970</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.410</t>
+          <t>1.053</t>
         </is>
       </c>
     </row>
@@ -6191,63 +6605,91 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.8753</t>
+          <t>1.0542</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.607</t>
+          <t>0.995</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>1.117</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1.1713</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.079</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1.272</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>3 vs 1</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.8417</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.725</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.977</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ASMR (direct)</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.1320</t>
+          <t>1.8441</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.052</t>
+          <t>1.471</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>2.311</t>
         </is>
       </c>
     </row>
@@ -6255,91 +6697,63 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.3168</t>
+          <t>0.6926</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.235</t>
+          <t>0.475</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.427</t>
+          <t>1.010</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1930</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1.0355</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.897</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>1.196</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1940</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1.7525</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.502</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2.045</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3 vs 1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.0834</t>
+          <t>1.2510</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.911</t>
+          <t>1.163</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.288</t>
+          <t>1.346</t>
         </is>
       </c>
     </row>
@@ -6347,22 +6761,22 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.4957</t>
+          <t>1.2195</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.395</t>
+          <t>1.130</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.622</t>
+          <t>1.316</t>
         </is>
       </c>
     </row>
@@ -6370,22 +6784,22 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2.3336</t>
+          <t>0.5140</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.698</t>
+          <t>0.379</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3.207</t>
+          <t>0.696</t>
         </is>
       </c>
     </row>
@@ -6393,22 +6807,22 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.0556</t>
+          <t>1.4571</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.744</t>
+          <t>1.253</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.498</t>
+          <t>1.695</t>
         </is>
       </c>
     </row>
@@ -6416,22 +6830,22 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2.3149</t>
+          <t>1.6015</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.144</t>
+          <t>1.378</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4.682</t>
+          <t>1.862</t>
         </is>
       </c>
     </row>
@@ -6439,63 +6853,91 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.8141</t>
+          <t>0.9887</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.321</t>
+          <t>0.832</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2.066</t>
+          <t>1.175</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.7533</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.593</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.957</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>3 vs 2</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1.9942</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.476</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2.695</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ASMR (direct)</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.0337</t>
+          <t>0.7815</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.013</t>
+          <t>0.549</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.055</t>
+          <t>1.112</t>
         </is>
       </c>
     </row>
@@ -6503,22 +6945,22 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.6358</t>
+          <t>0.7832</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.578</t>
+          <t>0.410</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.699</t>
+          <t>1.496</t>
         </is>
       </c>
     </row>
@@ -6526,91 +6968,63 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.0482</t>
+          <t>0.5063</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.003</t>
+          <t>0.199</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.096</t>
+          <t>1.290</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1940</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>1.1035</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1.062</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>1.146</t>
-        </is>
-      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>0.9210</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.881</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0.963</t>
-        </is>
-      </c>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3 vs 2</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.1199</t>
+          <t>1.0541</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.049</t>
+          <t>1.033</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.195</t>
+          <t>1.076</t>
         </is>
       </c>
     </row>
@@ -6618,22 +7032,22 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.2842</t>
+          <t>1.1097</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.173</t>
+          <t>1.086</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.406</t>
+          <t>1.133</t>
         </is>
       </c>
     </row>
@@ -6641,22 +7055,22 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.1260</t>
+          <t>0.8918</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.959</t>
+          <t>0.809</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.323</t>
+          <t>0.983</t>
         </is>
       </c>
     </row>
@@ -6664,22 +7078,22 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.6305</t>
+          <t>1.0351</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.270</t>
+          <t>0.990</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2.094</t>
+          <t>1.082</t>
         </is>
       </c>
     </row>
@@ -6687,63 +7101,91 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1.5320</t>
+          <t>1.1191</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.045</t>
+          <t>1.077</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2.245</t>
+          <t>1.163</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0.8875</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.849</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.928</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>4 vs 0</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1.1274</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.057</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1.203</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ASMR (direct)</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.2535</t>
+          <t>1.4639</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>1.336</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.284</t>
+          <t>1.604</t>
         </is>
       </c>
     </row>
@@ -6751,22 +7193,22 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.5095</t>
+          <t>0.8930</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.393</t>
+          <t>0.756</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.636</t>
+          <t>1.055</t>
         </is>
       </c>
     </row>
@@ -6774,22 +7216,22 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1.1268</t>
+          <t>2.0194</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.082</t>
+          <t>1.559</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.173</t>
+          <t>2.615</t>
         </is>
       </c>
     </row>
@@ -6797,91 +7239,63 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1.1346</t>
+          <t>1.4043</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.090</t>
+          <t>0.942</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.181</t>
+          <t>2.093</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>1.3306</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>1.262</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>1.403</t>
-        </is>
-      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>1.2856</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>1.161</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>1.424</t>
-        </is>
-      </c>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4 vs 0</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3.4527</t>
+          <t>1.2036</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2.885</t>
+          <t>1.175</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4.132</t>
+          <t>1.233</t>
         </is>
       </c>
     </row>
@@ -6889,22 +7303,22 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1.2005</t>
+          <t>1.1661</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.850</t>
+          <t>1.141</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.695</t>
+          <t>1.192</t>
         </is>
       </c>
     </row>
@@ -6912,22 +7326,22 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.9369</t>
+          <t>1.5216</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.463</t>
+          <t>1.404</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.896</t>
+          <t>1.649</t>
         </is>
       </c>
     </row>
@@ -6935,63 +7349,91 @@
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3.3615</t>
+          <t>1.1193</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.240</t>
+          <t>1.075</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>9.111</t>
+          <t>1.166</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1.1159</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.072</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1.162</t>
+        </is>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>4 vs 1</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1.2568</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.192</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1.326</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ASMR (direct)</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.3567</t>
+          <t>1.2453</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.259</t>
+          <t>1.124</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.462</t>
+          <t>1.380</t>
         </is>
       </c>
     </row>
@@ -6999,22 +7441,22 @@
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.3953</t>
+          <t>2.6430</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.293</t>
+          <t>2.209</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.534</t>
+          <t>3.162</t>
         </is>
       </c>
     </row>
@@ -7022,22 +7464,22 @@
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.1452</t>
+          <t>0.5403</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>0.384</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>0.760</t>
         </is>
       </c>
     </row>
@@ -7045,22 +7487,22 @@
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.8918</t>
+          <t>1.3119</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.619</t>
+          <t>0.688</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2.211</t>
+          <t>2.502</t>
         </is>
       </c>
     </row>
@@ -7068,91 +7510,63 @@
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.4065</t>
+          <t>4.1754</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.179</t>
+          <t>1.540</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.678</t>
+          <t>11.324</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>0.6253</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>0.491</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0.796</t>
-        </is>
-      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>7.1260</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>4.993</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>10.171</t>
-        </is>
-      </c>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4 vs 1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>ASMR (direct)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1.0279</t>
+          <t>1.4294</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.643</t>
+          <t>1.327</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.644</t>
+          <t>1.540</t>
         </is>
       </c>
     </row>
@@ -7160,22 +7574,22 @@
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>All Ages</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3.4916</t>
+          <t>1.3813</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1.323</t>
+          <t>1.279</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>9.218</t>
+          <t>1.492</t>
         </is>
       </c>
     </row>
@@ -7183,63 +7597,91 @@
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2.8170</t>
+          <t>0.6633</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.757</t>
+          <t>0.489</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>10.488</t>
+          <t>0.900</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1.5941</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.369</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1.856</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>4 vs 2</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1.6620</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.427</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1.935</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ASMR (direct)</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1.2235</t>
+          <t>1.2295</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1.192</t>
+          <t>1.031</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.256</t>
+          <t>1.466</t>
         </is>
       </c>
     </row>
@@ -7247,22 +7689,22 @@
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.7934</t>
+          <t>0.8898</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.718</t>
+          <t>0.691</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.877</t>
+          <t>1.147</t>
         </is>
       </c>
     </row>
@@ -7270,22 +7712,22 @@
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1.1592</t>
+          <t>4.4999</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.105</t>
+          <t>3.200</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>6.327</t>
         </is>
       </c>
     </row>
@@ -7293,22 +7735,22 @@
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1.1911</t>
+          <t>0.5016</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1.140</t>
+          <t>0.314</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.245</t>
+          <t>0.801</t>
         </is>
       </c>
     </row>
@@ -7316,22 +7758,22 @@
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1.1957</t>
+          <t>1.7820</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.130</t>
+          <t>0.735</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.265</t>
+          <t>4.320</t>
         </is>
       </c>
     </row>
@@ -7339,91 +7781,63 @@
       <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>2000</t>
         </is>
   